--- a/sheet/cards_s8.xlsx
+++ b/sheet/cards_s8.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="メガミ" sheetId="8" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="149">
   <si>
     <t>カードID</t>
   </si>
@@ -328,128 +328,491 @@
     <t>akina</t>
   </si>
   <si>
-    <t>通常札1</t>
-    <rPh sb="0" eb="2">
-      <t>ツウジョウ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>フダ</t>
-    </rPh>
+    <t>○</t>
     <phoneticPr fontId="20"/>
   </si>
   <si>
-    <t>通常札2</t>
+    <t>算盤玉</t>
     <rPh sb="0" eb="2">
-      <t>ツウジョウ</t>
+      <t>ソロバン</t>
     </rPh>
     <rPh sb="2" eb="3">
-      <t>フダ</t>
+      <t>ダマ</t>
     </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>恫喝</t>
+    <rPh sb="0" eb="2">
+      <t>ドウカツ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>交易</t>
+    <rPh sb="0" eb="2">
+      <t>コウエキ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>投機</t>
+    <rPh sb="0" eb="2">
+      <t>トウキ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>算法</t>
+    <rPh sb="0" eb="2">
+      <t>サンポウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>盤狂わせ</t>
+    <rPh sb="0" eb="1">
+      <t>バン</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>クル</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>直接金融</t>
+    <rPh sb="0" eb="2">
+      <t>チョクセツ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>キンユウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>かいほうめいしききりとりほう</t>
     <phoneticPr fontId="20"/>
   </si>
   <si>
-    <t>通常札3</t>
-    <rPh sb="0" eb="2">
-      <t>ツウジョウ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>フダ</t>
-    </rPh>
+    <t>だいえんさんかてうちひょう</t>
     <phoneticPr fontId="20"/>
   </si>
   <si>
-    <t>通常札4</t>
-    <rPh sb="0" eb="2">
-      <t>ツウジョウ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>フダ</t>
-    </rPh>
+    <t>すいだちくちゅうもりりょうじゅつ</t>
     <phoneticPr fontId="20"/>
   </si>
   <si>
-    <t>通常札5</t>
-    <rPh sb="0" eb="2">
-      <t>ツウジョウ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>フダ</t>
-    </rPh>
+    <t>みなかみあきなのごめいさん</t>
     <phoneticPr fontId="20"/>
   </si>
   <si>
-    <t>通常札6</t>
-    <rPh sb="0" eb="2">
-      <t>ツウジョウ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>フダ</t>
-    </rPh>
+    <t>開方冥式切取法</t>
     <phoneticPr fontId="20"/>
   </si>
   <si>
-    <t>通常札7</t>
-    <rPh sb="0" eb="2">
-      <t>ツウジョウ</t>
+    <t>大衍算顆手打表</t>
+    <rPh sb="0" eb="1">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>ハビコ</t>
     </rPh>
     <rPh sb="2" eb="3">
-      <t>フダ</t>
+      <t>ザン</t>
     </rPh>
+    <rPh sb="3" eb="4">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>テウチ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ヒョウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>衰垜逐肘守料術</t>
+    <rPh sb="0" eb="1">
+      <t>スイ</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>ダ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>チク</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ヒジ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>マモ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>リョウ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ジュツ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>源上安岐那の御明算</t>
     <phoneticPr fontId="20"/>
   </si>
   <si>
-    <t>切札1</t>
-    <rPh sb="0" eb="2">
-      <t>キリフダ</t>
-    </rPh>
+    <t>そろばんだま</t>
     <phoneticPr fontId="20"/>
   </si>
   <si>
-    <t>切札2</t>
-    <rPh sb="0" eb="2">
-      <t>キリフダ</t>
-    </rPh>
+    <t>どうかつ</t>
     <phoneticPr fontId="20"/>
   </si>
   <si>
-    <t>切札3</t>
-    <rPh sb="0" eb="2">
-      <t>キリフダ</t>
-    </rPh>
+    <t>こうえき</t>
     <phoneticPr fontId="20"/>
   </si>
   <si>
-    <t>切札4</t>
+    <t>とうき</t>
+    <phoneticPr fontId="20"/>
+  </si>
+  <si>
+    <t>さんぽう</t>
+    <phoneticPr fontId="20"/>
+  </si>
+  <si>
+    <t>ばんくるわせ</t>
+    <phoneticPr fontId="20"/>
+  </si>
+  <si>
+    <t>ちょくせつきんゆう</t>
+    <phoneticPr fontId="20"/>
+  </si>
+  <si>
+    <t>投資券
+【常時】あなたの資本が相手の資本より大きいならば、この《攻撃》は+0/+1となる。</t>
+    <rPh sb="0" eb="3">
+      <t>トウシケン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ジョウジ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>シホン</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>アイテ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>シホン</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>オオ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>コウゲキ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>1-6</t>
+  </si>
+  <si>
+    <t>4-5</t>
+  </si>
+  <si>
+    <t>1-5</t>
+  </si>
+  <si>
+    <t>0-10</t>
+  </si>
+  <si>
+    <t>攻撃</t>
     <rPh sb="0" eb="2">
-      <t>キリフダ</t>
+      <t>コウゲキ</t>
     </rPh>
-    <phoneticPr fontId="20"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>行動</t>
     <rPh sb="0" eb="2">
       <t>コウドウ</t>
     </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>付与</t>
+    <rPh sb="0" eb="2">
+      <t>フヨ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>時価</t>
+    <rPh sb="0" eb="2">
+      <t>ジカ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>対応</t>
     <phoneticPr fontId="20"/>
   </si>
   <si>
-    <t>0</t>
+    <t>対応</t>
     <phoneticPr fontId="20"/>
   </si>
   <si>
-    <t>0</t>
+    <t>全力</t>
     <phoneticPr fontId="20"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">投資券
+【展開時】相オーラ→自オーラ：２
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="MS PGothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>【破棄時】攻撃『適正距離2-5、1/0』を行ってもよい。</t>
+    </r>
+    <rPh sb="5" eb="8">
+      <t>テンカイジ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ソウ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="22" eb="25">
+      <t>ハキジ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>コウゲキ</t>
+    </rPh>
+    <rPh sb="29" eb="33">
+      <t>テキセイキョリ</t>
+    </rPh>
+    <rPh sb="42" eb="43">
+      <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>以下から1つを選ぶ。
+・自オーラ→自フロー：2
+・ダスト→自オーラ：2</t>
+    <rPh sb="0" eb="2">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>エラ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ジ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>間合制限（0-3）
+【展開時】相フレア→間合：２
+【破棄時】間合→相フレア：１</t>
+    <rPh sb="0" eb="4">
+      <t>マアイセイゲン</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>マアイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>終端
+【攻撃後】あなたの資本が相手の資本より3以上大きいならば、捨て札にある他のメガミのカード１枚までを選び、手札に戻す。
+【攻撃後】あなたの資本が相手の資本より大きいならば、基本動作を1回行ってもよい。</t>
+    <rPh sb="0" eb="2">
+      <t>シュウタン</t>
+    </rPh>
+    <rPh sb="4" eb="7">
+      <t>コウゲキゴ</t>
+    </rPh>
+    <rPh sb="52" eb="53">
+      <t>エラ</t>
+    </rPh>
+    <rPh sb="81" eb="82">
+      <t>オオ</t>
+    </rPh>
+    <rPh sb="88" eb="92">
+      <t>キホンドウサ</t>
+    </rPh>
+    <rPh sb="94" eb="96">
+      <t>カイオコナ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">【攻撃後】以下から1つを選ぶ。
+・あなたは集中力を１得る。
+・回収を行う。
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="MS PGothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>・自フレア⇔自フロー：1</t>
+    </r>
+    <rPh sb="5" eb="7">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>エラ</t>
+    </rPh>
+    <rPh sb="21" eb="24">
+      <t>シュウチュウリョク</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>エ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>1/0</t>
+    <phoneticPr fontId="20"/>
+  </si>
+  <si>
+    <t>-/0</t>
+    <phoneticPr fontId="20"/>
+  </si>
+  <si>
+    <t>2/0</t>
+    <phoneticPr fontId="20"/>
+  </si>
+  <si>
+    <t>あなたは集中力を1得る。
+このターン中、《攻撃》は全ての適正距離が1減少する。
+（例えば3-4は2-3となる）</t>
+    <rPh sb="4" eb="7">
+      <t>シュウチュウリョク</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>エ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ナカ</t>
+    </rPh>
+    <rPh sb="41" eb="42">
+      <t>タト</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>攻撃『0-10　-/1、【常時】この《攻撃》が対応されたならば、この攻撃は打ち消される。【常時】この《攻撃》のダメージは変化しない』を行う。その後、あなたの資本が相手の資本より大きいならばこのカードを使用する。
+（消費は支払い、その消費は時価以外で加減されない）</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <r>
+      <t>【攻撃後】</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="MS PGothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>自フレア→自オーラ：1
+自フロー→自オーラ：1
+自ライフ→自オーラ：1</t>
+    </r>
+    <rPh sb="1" eb="4">
+      <t>コウゲキゴ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ジ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>【展開時】あなたのライフからフレアへと桜花結晶を4つ移動させる。
+【展開中】このカードの効果以外でこの付与札の上の桜花結晶は移動しない。
+【展開中】あなたのライフが0の時にあなたが敗北するならば、代わりにあなたのフレアからライフへと桜花結晶を4つ移動させる。その後、この上の桜花結晶を全てダストに送り、このカードを取り除く。</t>
+    <rPh sb="131" eb="132">
+      <t>アト</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>○</t>
     <phoneticPr fontId="20"/>
+  </si>
+  <si>
+    <t>投資券</t>
+    <rPh sb="0" eb="2">
+      <t>トウシ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ケン</t>
+    </rPh>
+    <phoneticPr fontId="20"/>
+  </si>
+  <si>
+    <r>
+      <t>間合制限（0-7）　投資券
+回収を行ってもよい。そうした場合、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="MS PGothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>基本動作《纏い》を2回まで行い、このカードを取り除く。
+【使用済】あなたの開始フェイズの開始時に基本動作《宿し》を1回行ってもよい。</t>
+    </r>
+    <rPh sb="36" eb="37">
+      <t>マト</t>
+    </rPh>
+    <rPh sb="41" eb="42">
+      <t>カイ</t>
+    </rPh>
+    <rPh sb="44" eb="45">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="68" eb="70">
+      <t>カイシ</t>
+    </rPh>
+    <rPh sb="75" eb="77">
+      <t>カイシ</t>
+    </rPh>
+    <rPh sb="77" eb="78">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="84" eb="85">
+      <t>ヤド</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="21">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -587,6 +950,18 @@
       <family val="3"/>
       <charset val="128"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="MS PGothic"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="MS PGothic"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -641,7 +1016,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -758,7 +1133,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1139,11 +1517,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AH963"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="Q2" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="U3" sqref="U3"/>
+      <selection pane="bottomRight" activeCell="T7" sqref="T7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1274,7 +1652,7 @@
       <c r="S2" s="1"/>
       <c r="T2" s="1"/>
       <c r="U2" s="1" t="s">
-        <v>113</v>
+        <v>99</v>
       </c>
       <c r="V2" s="8" t="str">
         <f>IF(ROW()&gt;=3, ", ", "")&amp;"'"&amp;A2&amp;"': { name: '"&amp;B2&amp;"', nameZh: '"&amp;C2&amp;"', nameZhG1: '"&amp;D2&amp;"', nameKo: '"&amp;E2&amp;"', nameEn: '"&amp;F2&amp;"', symbol: '"&amp;G2&amp;"', symbolZh: '"&amp;H2&amp;"', symbolZhG1: '"&amp;I2&amp;"', symbolKo: '"&amp;J2&amp;"', symbolEn: '"&amp;K2&amp;"'"&amp;IF(N2&lt;&gt;"",", base: '"&amp;M2&amp;"', anotherID: '"&amp;N2&amp;"'","")&amp;IF(O2="○", ", notExistCardSets: ['na-s2'] as CardSet[]", IF(P2="○", ", notExistCardSets: ['na-s2', 'na-s3'] as CardSet[]", IF(Q2="○", ", notExistCardSets: ['na-s2', 'na-s3', 'na-s4', 'na-s4-pre'] as CardSet[]", IF(R2="○", ", notExistCardSets: ['na-s2', 'na-s3', 'na-s4', 'na-s4-pre', 'na-s5'] as CardSet[]", IF(S2="○", ", notExistCardSets: ['na-s2', 'na-s3', 'na-s4', 'na-s4-pre', 'na-s5', 'na-s6', 'na-s6-2'] as CardSet[]", IF(T2="○", ", notExistCardSets: ['na-s2', 'na-s3', 'na-s4', 'na-s4-pre', 'na-s5', 'na-s6', 'na-s6-2', 'na-s7'] as CardSet[]", IF(U2="○", ", notExistCardSets: ['na-s2', 'na-s3', 'na-s4', 'na-s4-pre', 'na-s5', 'na-s6', 'na-s6-2', 'na-s7', 'na-s7-2'] as CardSet[]", ""))))))) &amp; ", tarotNo: '" &amp; L2 &amp; "'}"</f>
@@ -16312,13 +16690,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AMK810"/>
+  <dimension ref="A1:AML810"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="AQ2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="AR7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A15" sqref="A15"/>
-      <selection pane="bottomRight" activeCell="AS2" sqref="AS2:AS12"/>
+      <selection pane="bottomRight" activeCell="AU12" sqref="AU2:AU12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -16340,26 +16718,26 @@
     <col min="17" max="17" width="3.875" style="15" customWidth="1"/>
     <col min="18" max="19" width="6.875" style="15" customWidth="1"/>
     <col min="20" max="23" width="9.75" style="15" customWidth="1"/>
-    <col min="24" max="29" width="6.875" style="15" customWidth="1"/>
-    <col min="30" max="30" width="57.375" style="15" customWidth="1"/>
-    <col min="31" max="31" width="24.75" style="15" customWidth="1"/>
-    <col min="32" max="32" width="45.5" style="15" customWidth="1"/>
-    <col min="33" max="33" width="15.625" style="15" customWidth="1"/>
-    <col min="34" max="34" width="45.5" style="15" customWidth="1"/>
-    <col min="35" max="35" width="15.625" style="15" customWidth="1"/>
-    <col min="36" max="36" width="45.5" style="15" customWidth="1"/>
-    <col min="37" max="37" width="15.625" style="15" customWidth="1"/>
-    <col min="38" max="38" width="42.875" style="15" customWidth="1"/>
-    <col min="39" max="39" width="15.625" style="15" customWidth="1"/>
-    <col min="40" max="40" width="106.25" style="15" customWidth="1"/>
-    <col min="41" max="44" width="18.75" style="15" customWidth="1"/>
-    <col min="45" max="45" width="109.25" style="15" customWidth="1"/>
-    <col min="46" max="46" width="63" style="15" customWidth="1"/>
-    <col min="47" max="47" width="30.75" style="15" customWidth="1"/>
-    <col min="48" max="1025" width="12.625" style="15" customWidth="1"/>
+    <col min="24" max="30" width="6.875" style="15" customWidth="1"/>
+    <col min="31" max="31" width="57.375" style="15" customWidth="1"/>
+    <col min="32" max="32" width="24.75" style="15" customWidth="1"/>
+    <col min="33" max="33" width="45.5" style="15" customWidth="1"/>
+    <col min="34" max="34" width="15.625" style="15" customWidth="1"/>
+    <col min="35" max="35" width="45.5" style="15" customWidth="1"/>
+    <col min="36" max="36" width="15.625" style="15" customWidth="1"/>
+    <col min="37" max="37" width="45.5" style="15" customWidth="1"/>
+    <col min="38" max="38" width="15.625" style="15" customWidth="1"/>
+    <col min="39" max="39" width="42.875" style="15" customWidth="1"/>
+    <col min="40" max="40" width="15.625" style="15" customWidth="1"/>
+    <col min="41" max="41" width="106.25" style="15" customWidth="1"/>
+    <col min="42" max="45" width="18.75" style="15" customWidth="1"/>
+    <col min="46" max="46" width="109.25" style="15" customWidth="1"/>
+    <col min="47" max="47" width="63" style="15" customWidth="1"/>
+    <col min="48" max="48" width="30.75" style="15" customWidth="1"/>
+    <col min="49" max="1026" width="12.625" style="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:47">
+    <row r="1" spans="1:48">
       <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
@@ -16448,53 +16826,56 @@
         <v>25</v>
       </c>
       <c r="AD1" s="16" t="s">
+        <v>147</v>
+      </c>
+      <c r="AE1" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="AE1" s="16" t="s">
+      <c r="AF1" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="AF1" s="16" t="s">
+      <c r="AG1" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="AG1" s="16" t="s">
+      <c r="AH1" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="AH1" s="16" t="s">
+      <c r="AI1" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="AI1" s="16" t="s">
+      <c r="AJ1" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="AJ1" s="19" t="s">
+      <c r="AK1" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="AK1" s="16" t="s">
+      <c r="AL1" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="AL1" s="16" t="s">
+      <c r="AM1" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="AM1" s="16" t="s">
+      <c r="AN1" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="AN1" s="16" t="s">
+      <c r="AO1" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="AO1" s="16" t="s">
+      <c r="AP1" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="AP1" s="16" t="s">
+      <c r="AQ1" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="AQ1" s="16" t="s">
+      <c r="AR1" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="AR1" s="16" t="s">
+      <c r="AS1" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="AS1" s="20"/>
-    </row>
-    <row r="2" spans="1:47" s="11" customFormat="1">
+      <c r="AT1" s="20"/>
+    </row>
+    <row r="2" spans="1:48" s="11" customFormat="1" ht="49.5">
       <c r="A2" s="10" t="s">
         <v>87</v>
       </c>
@@ -16504,9 +16885,11 @@
       <c r="C2" s="10"/>
       <c r="D2" s="10"/>
       <c r="E2" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="F2" s="10"/>
+        <v>100</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>115</v>
+      </c>
       <c r="G2" s="31"/>
       <c r="H2" s="32"/>
       <c r="I2" s="31"/>
@@ -16521,12 +16904,16 @@
       <c r="P2" s="10"/>
       <c r="Q2" s="10"/>
       <c r="R2" s="10" t="s">
-        <v>110</v>
+        <v>127</v>
       </c>
       <c r="S2" s="10"/>
-      <c r="T2" s="10"/>
+      <c r="T2" s="10" t="s">
+        <v>123</v>
+      </c>
       <c r="U2" s="12"/>
-      <c r="V2" s="10"/>
+      <c r="V2" s="10" t="s">
+        <v>139</v>
+      </c>
       <c r="W2" s="12"/>
       <c r="X2" s="10"/>
       <c r="Y2" s="10"/>
@@ -16534,35 +16921,38 @@
       <c r="AA2" s="10"/>
       <c r="AB2" s="10"/>
       <c r="AC2" s="10"/>
-      <c r="AD2" s="35"/>
-      <c r="AE2" s="35"/>
-      <c r="AF2" s="36"/>
-      <c r="AG2" s="35"/>
-      <c r="AH2" s="37"/>
-      <c r="AI2" s="35"/>
-      <c r="AJ2" s="38"/>
-      <c r="AK2" s="35"/>
-      <c r="AL2" s="39"/>
-      <c r="AM2" s="2"/>
-      <c r="AN2" s="12"/>
+      <c r="AD2" s="10"/>
+      <c r="AE2" s="40" t="s">
+        <v>138</v>
+      </c>
+      <c r="AF2" s="35"/>
+      <c r="AG2" s="36"/>
+      <c r="AH2" s="35"/>
+      <c r="AI2" s="37"/>
+      <c r="AJ2" s="35"/>
+      <c r="AK2" s="38"/>
+      <c r="AL2" s="35"/>
+      <c r="AM2" s="39"/>
+      <c r="AN2" s="2"/>
       <c r="AO2" s="12"/>
       <c r="AP2" s="12"/>
       <c r="AQ2" s="12"/>
       <c r="AR2" s="12"/>
-      <c r="AS2" s="14" t="str">
-        <f>IF(A2="", "", IF(ROW()&gt;=3, ", ", "")&amp;"'"&amp;A2&amp;"': {megami: '"&amp;B2&amp;"'"&amp;IF(C2&lt;&gt;"",", anotherID: '"&amp;C2&amp;"', replace: '"&amp;D2&amp;"'","")&amp;", name: '"&amp;SUBSTITUTE(E2,"'","\'")&amp;"', nameEn: '"&amp;SUBSTITUTE(K2,"'","\'")&amp;"', nameZh: '"&amp;SUBSTITUTE(G2,"'","\'")&amp;"', nameZhG1: '"&amp;SUBSTITUTE(H2,"'","\'")&amp;"', nameKo: '"&amp;SUBSTITUTE(J2,"'","\'")&amp;"', ruby: '"&amp;F2&amp;"', rubyEn: '"&amp;L2&amp;IF(I2&lt;&gt;"", "', rubyZh: '"&amp;I2, "")&amp;"', baseType: '"&amp;VLOOKUP(M2,マスタ!$A$1:$B$99,2,0)&amp;"'"&amp;IF(N2="○",", extra: true","")&amp;IF(O2&lt;&gt;"",", extraFrom: '"&amp;O2&amp;"'","")&amp;IF(P2&lt;&gt;"",", exchangableTo: '"&amp;P2&amp;"'","")&amp;IF(Q2="○",", poison: true","")&amp;IF(R2&lt;&gt;"", ", type: '"&amp;VLOOKUP(R2,マスタ!$D$1:$E$99,2,0)&amp;"'", "")&amp;IF(S2&lt;&gt;"",", subType: '"&amp;VLOOKUP(S2,マスタ!$D$1:$E$99,2,0)&amp;"'","")&amp;""&amp;IF(T2&lt;&gt;"",", range: '"&amp;T2&amp;"'","")&amp;IF(V2&lt;&gt;"",", damage: '"&amp;V2&amp;"'","")&amp;IF(X2&lt;&gt;"",", capacity: '"&amp;X2&amp;"'","")&amp;IF(Y2&lt;&gt;"",", growth: "&amp;Y2&amp;"","")&amp;IF(Z2&lt;&gt;"",", cost: '"&amp;Z2&amp;"'","")&amp;", text: '"&amp;SUBSTITUTE(SUBSTITUTE(AD2, CHAR(13), ""),CHAR(10),"\n")&amp;IF(AE2&lt;&gt;"", "', textAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AE2, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textZh: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AF2, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;"', textZhG1: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AH2, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AG2&lt;&gt;"", "', textZhAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AG2, CHAR(13), ""),CHAR(10),"\n"), "")&amp;IF(AI2&lt;&gt;"", "', textZhG1Additional: '"&amp;SUBSTITUTE(SUBSTITUTE(AI2, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textKo: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AJ2, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AK2&lt;&gt;"", "', textKoAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AK2, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textEn: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AL2, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AM2&lt;&gt;"", "', textEnAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AM2, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"'"&amp;IF(AB2="○",", sealable: true","")&amp;IF(AC2="○",", removable: true","")&amp;IF(AA2="○",", lie: true","")&amp;"}")</f>
-        <v>'23-akina-o-n-1': {megami: 'akina', name: '通常札1', nameEn: '', nameZh: '', nameZhG1: '', nameKo: '', ruby: '', rubyEn: '', baseType: 'normal', type: 'action', text: '', textZh: '', textZhG1: '', textKo: '', textEn: ''}</v>
-      </c>
-      <c r="AT2" s="5" t="str">
-        <f t="shared" ref="AT2:AT10" si="0">IF($A2&lt;&gt;"", "    /** 《"&amp;$E2&amp;"》 */ export const "&amp;SUBSTITUTE(UPPER(IF(MID($A2, 3, 1)="-", RIGHT($A2,LEN($A2)-3), $A2)), "-", "_")&amp;": TCardId = '"&amp;$A2&amp;"';", "")</f>
-        <v xml:space="preserve">    /** 《通常札1》 */ export const AKINA_O_N_1: TCardId = '23-akina-o-n-1';</v>
-      </c>
-      <c r="AU2" s="6" t="str">
-        <f t="shared" ref="AU2:AU10" si="1">IF($A2&lt;&gt;"", "    | '"&amp;$A2&amp;"'", "")</f>
+      <c r="AS2" s="12"/>
+      <c r="AT2" s="14" t="str">
+        <f>IF(A2="", "", IF(ROW()&gt;=3, ", ", "")&amp;"'"&amp;A2&amp;"': {megami: '"&amp;B2&amp;"'"&amp;IF(C2&lt;&gt;"",", anotherID: '"&amp;C2&amp;"', replace: '"&amp;D2&amp;"'","")&amp;", name: '"&amp;SUBSTITUTE(E2,"'","\'")&amp;"', nameEn: '"&amp;SUBSTITUTE(K2,"'","\'")&amp;"', nameZh: '"&amp;SUBSTITUTE(G2,"'","\'")&amp;"', nameZhG1: '"&amp;SUBSTITUTE(H2,"'","\'")&amp;"', nameKo: '"&amp;SUBSTITUTE(J2,"'","\'")&amp;"', ruby: '"&amp;F2&amp;"', rubyEn: '"&amp;L2&amp;IF(I2&lt;&gt;"", "', rubyZh: '"&amp;I2, "")&amp;"', baseType: '"&amp;VLOOKUP(M2,マスタ!$A$1:$B$99,2,0)&amp;"'"&amp;IF(N2="○",", extra: true","")&amp;IF(O2&lt;&gt;"",", extraFrom: '"&amp;O2&amp;"'","")&amp;IF(P2&lt;&gt;"",", exchangableTo: '"&amp;P2&amp;"'","")&amp;IF(Q2="○",", poison: true","")&amp;IF(R2&lt;&gt;"", ", type: '"&amp;VLOOKUP(R2,マスタ!$D$1:$E$99,2,0)&amp;"'", "")&amp;IF(S2&lt;&gt;"",", subType: '"&amp;VLOOKUP(S2,マスタ!$D$1:$E$99,2,0)&amp;"'","")&amp;""&amp;IF(T2&lt;&gt;"",", range: '"&amp;T2&amp;"'","")&amp;IF(V2&lt;&gt;"",", damage: '"&amp;V2&amp;"'","")&amp;IF(X2&lt;&gt;"",", capacity: '"&amp;X2&amp;"'","")&amp;IF(Y2&lt;&gt;"",", growth: "&amp;Y2&amp;"","")&amp;IF(Z2&lt;&gt;"",", cost: '"&amp;Z2&amp;"'","")&amp;", text: '"&amp;SUBSTITUTE(SUBSTITUTE(AE2, CHAR(13), ""),CHAR(10),"\n")&amp;IF(AF2&lt;&gt;"", "', textAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AF2, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textZh: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AG2, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;"', textZhG1: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AI2, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AH2&lt;&gt;"", "', textZhAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AH2, CHAR(13), ""),CHAR(10),"\n"), "")&amp;IF(AJ2&lt;&gt;"", "', textZhG1Additional: '"&amp;SUBSTITUTE(SUBSTITUTE(AJ2, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textKo: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AK2, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AL2&lt;&gt;"", "', textKoAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AL2, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textEn: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AM2, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AN2&lt;&gt;"", "', textEnAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AN2, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"'"&amp;IF(AB2="○",", sealable: true","")&amp;IF(AC2="○",", removable: true","")&amp;IF(AA2="○",", lie: true","")&amp;IF(AD2="○",", investable: true","")&amp;"}")</f>
+        <v>'23-akina-o-n-1': {megami: 'akina', name: '算盤玉', nameEn: '', nameZh: '', nameZhG1: '', nameKo: '', ruby: 'そろばんだま', rubyEn: '', baseType: 'normal', type: 'attack', range: '1-6', damage: '1/0', text: '【攻撃後】以下から1つを選ぶ。\n・あなたは集中力を１得る。\n・回収を行う。\n・自フレア⇔自フロー：1', textZh: '', textZhG1: '', textKo: '', textEn: ''}</v>
+      </c>
+      <c r="AU2" s="5" t="str">
+        <f t="shared" ref="AU2:AU10" si="0">IF($A2&lt;&gt;"", "    /** 《"&amp;$E2&amp;"》 */ export const "&amp;SUBSTITUTE(UPPER(IF(MID($A2, 3, 1)="-", RIGHT($A2,LEN($A2)-3), $A2)), "-", "_")&amp;": TCardId = '"&amp;$A2&amp;"';", "")</f>
+        <v xml:space="preserve">    /** 《算盤玉》 */ export const AKINA_O_N_1: TCardId = '23-akina-o-n-1';</v>
+      </c>
+      <c r="AV2" s="6" t="str">
+        <f t="shared" ref="AV2:AV10" si="1">IF($A2&lt;&gt;"", "    | '"&amp;$A2&amp;"'", "")</f>
         <v xml:space="preserve">    | '23-akina-o-n-1'</v>
       </c>
     </row>
-    <row r="3" spans="1:47" s="11" customFormat="1">
+    <row r="3" spans="1:48" s="11" customFormat="1" ht="24">
       <c r="A3" s="10" t="s">
         <v>88</v>
       </c>
@@ -16572,9 +16962,11 @@
       <c r="C3" s="10"/>
       <c r="D3" s="10"/>
       <c r="E3" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="F3" s="10"/>
+        <v>101</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>116</v>
+      </c>
       <c r="G3" s="31"/>
       <c r="H3" s="32"/>
       <c r="I3" s="31"/>
@@ -16589,12 +16981,16 @@
       <c r="P3" s="10"/>
       <c r="Q3" s="10"/>
       <c r="R3" s="10" t="s">
-        <v>110</v>
+        <v>127</v>
       </c>
       <c r="S3" s="10"/>
-      <c r="T3" s="10"/>
+      <c r="T3" s="10" t="s">
+        <v>124</v>
+      </c>
       <c r="U3" s="12"/>
-      <c r="V3" s="10"/>
+      <c r="V3" s="10" t="s">
+        <v>140</v>
+      </c>
       <c r="W3" s="12"/>
       <c r="X3" s="10"/>
       <c r="Y3" s="10"/>
@@ -16602,35 +16998,40 @@
       <c r="AA3" s="10"/>
       <c r="AB3" s="10"/>
       <c r="AC3" s="10"/>
-      <c r="AD3" s="40"/>
-      <c r="AE3" s="35"/>
-      <c r="AF3" s="36"/>
-      <c r="AG3" s="35"/>
-      <c r="AH3" s="37"/>
-      <c r="AI3" s="35"/>
-      <c r="AJ3" s="38"/>
-      <c r="AK3" s="35"/>
-      <c r="AL3" s="39"/>
-      <c r="AM3" s="2"/>
-      <c r="AN3" s="12"/>
+      <c r="AD3" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="AE3" s="40" t="s">
+        <v>122</v>
+      </c>
+      <c r="AF3" s="35"/>
+      <c r="AG3" s="36"/>
+      <c r="AH3" s="35"/>
+      <c r="AI3" s="37"/>
+      <c r="AJ3" s="35"/>
+      <c r="AK3" s="38"/>
+      <c r="AL3" s="35"/>
+      <c r="AM3" s="39"/>
+      <c r="AN3" s="2"/>
       <c r="AO3" s="12"/>
       <c r="AP3" s="12"/>
       <c r="AQ3" s="12"/>
       <c r="AR3" s="12"/>
-      <c r="AS3" s="14" t="str">
-        <f>IF(A3="", "", IF(ROW()&gt;=3, ", ", "")&amp;"'"&amp;A3&amp;"': {megami: '"&amp;B3&amp;"'"&amp;IF(C3&lt;&gt;"",", anotherID: '"&amp;C3&amp;"', replace: '"&amp;D3&amp;"'","")&amp;", name: '"&amp;SUBSTITUTE(E3,"'","\'")&amp;"', nameEn: '"&amp;SUBSTITUTE(K3,"'","\'")&amp;"', nameZh: '"&amp;SUBSTITUTE(G3,"'","\'")&amp;"', nameZhG1: '"&amp;SUBSTITUTE(H3,"'","\'")&amp;"', nameKo: '"&amp;SUBSTITUTE(J3,"'","\'")&amp;"', ruby: '"&amp;F3&amp;"', rubyEn: '"&amp;L3&amp;IF(I3&lt;&gt;"", "', rubyZh: '"&amp;I3, "")&amp;"', baseType: '"&amp;VLOOKUP(M3,マスタ!$A$1:$B$99,2,0)&amp;"'"&amp;IF(N3="○",", extra: true","")&amp;IF(O3&lt;&gt;"",", extraFrom: '"&amp;O3&amp;"'","")&amp;IF(P3&lt;&gt;"",", exchangableTo: '"&amp;P3&amp;"'","")&amp;IF(Q3="○",", poison: true","")&amp;IF(R3&lt;&gt;"", ", type: '"&amp;VLOOKUP(R3,マスタ!$D$1:$E$99,2,0)&amp;"'", "")&amp;IF(S3&lt;&gt;"",", subType: '"&amp;VLOOKUP(S3,マスタ!$D$1:$E$99,2,0)&amp;"'","")&amp;""&amp;IF(T3&lt;&gt;"",", range: '"&amp;T3&amp;"'","")&amp;IF(V3&lt;&gt;"",", damage: '"&amp;V3&amp;"'","")&amp;IF(X3&lt;&gt;"",", capacity: '"&amp;X3&amp;"'","")&amp;IF(Y3&lt;&gt;"",", growth: "&amp;Y3&amp;"","")&amp;IF(Z3&lt;&gt;"",", cost: '"&amp;Z3&amp;"'","")&amp;", text: '"&amp;SUBSTITUTE(SUBSTITUTE(AD3, CHAR(13), ""),CHAR(10),"\n")&amp;IF(AE3&lt;&gt;"", "', textAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AE3, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textZh: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AF3, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;"', textZhG1: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AH3, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AG3&lt;&gt;"", "', textZhAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AG3, CHAR(13), ""),CHAR(10),"\n"), "")&amp;IF(AI3&lt;&gt;"", "', textZhG1Additional: '"&amp;SUBSTITUTE(SUBSTITUTE(AI3, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textKo: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AJ3, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AK3&lt;&gt;"", "', textKoAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AK3, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textEn: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AL3, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AM3&lt;&gt;"", "', textEnAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AM3, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"'"&amp;IF(AB3="○",", sealable: true","")&amp;IF(AC3="○",", removable: true","")&amp;IF(AA3="○",", lie: true","")&amp;"}")</f>
-        <v>, '23-akina-o-n-2': {megami: 'akina', name: '通常札2', nameEn: '', nameZh: '', nameZhG1: '', nameKo: '', ruby: '', rubyEn: '', baseType: 'normal', type: 'action', text: '', textZh: '', textZhG1: '', textKo: '', textEn: ''}</v>
-      </c>
-      <c r="AT3" s="5" t="str">
+      <c r="AS3" s="12"/>
+      <c r="AT3" s="14" t="str">
+        <f>IF(A3="", "", IF(ROW()&gt;=3, ", ", "")&amp;"'"&amp;A3&amp;"': {megami: '"&amp;B3&amp;"'"&amp;IF(C3&lt;&gt;"",", anotherID: '"&amp;C3&amp;"', replace: '"&amp;D3&amp;"'","")&amp;", name: '"&amp;SUBSTITUTE(E3,"'","\'")&amp;"', nameEn: '"&amp;SUBSTITUTE(K3,"'","\'")&amp;"', nameZh: '"&amp;SUBSTITUTE(G3,"'","\'")&amp;"', nameZhG1: '"&amp;SUBSTITUTE(H3,"'","\'")&amp;"', nameKo: '"&amp;SUBSTITUTE(J3,"'","\'")&amp;"', ruby: '"&amp;F3&amp;"', rubyEn: '"&amp;L3&amp;IF(I3&lt;&gt;"", "', rubyZh: '"&amp;I3, "")&amp;"', baseType: '"&amp;VLOOKUP(M3,マスタ!$A$1:$B$99,2,0)&amp;"'"&amp;IF(N3="○",", extra: true","")&amp;IF(O3&lt;&gt;"",", extraFrom: '"&amp;O3&amp;"'","")&amp;IF(P3&lt;&gt;"",", exchangableTo: '"&amp;P3&amp;"'","")&amp;IF(Q3="○",", poison: true","")&amp;IF(R3&lt;&gt;"", ", type: '"&amp;VLOOKUP(R3,マスタ!$D$1:$E$99,2,0)&amp;"'", "")&amp;IF(S3&lt;&gt;"",", subType: '"&amp;VLOOKUP(S3,マスタ!$D$1:$E$99,2,0)&amp;"'","")&amp;""&amp;IF(T3&lt;&gt;"",", range: '"&amp;T3&amp;"'","")&amp;IF(V3&lt;&gt;"",", damage: '"&amp;V3&amp;"'","")&amp;IF(X3&lt;&gt;"",", capacity: '"&amp;X3&amp;"'","")&amp;IF(Y3&lt;&gt;"",", growth: "&amp;Y3&amp;"","")&amp;IF(Z3&lt;&gt;"",", cost: '"&amp;Z3&amp;"'","")&amp;", text: '"&amp;SUBSTITUTE(SUBSTITUTE(AE3, CHAR(13), ""),CHAR(10),"\n")&amp;IF(AF3&lt;&gt;"", "', textAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AF3, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textZh: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AG3, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;"', textZhG1: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AI3, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AH3&lt;&gt;"", "', textZhAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AH3, CHAR(13), ""),CHAR(10),"\n"), "")&amp;IF(AJ3&lt;&gt;"", "', textZhG1Additional: '"&amp;SUBSTITUTE(SUBSTITUTE(AJ3, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textKo: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AK3, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AL3&lt;&gt;"", "', textKoAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AL3, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textEn: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AM3, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AN3&lt;&gt;"", "', textEnAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AN3, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"'"&amp;IF(AB3="○",", sealable: true","")&amp;IF(AC3="○",", removable: true","")&amp;IF(AA3="○",", lie: true","")&amp;IF(AD3="○",", investable: true","")&amp;"}")</f>
+        <v>, '23-akina-o-n-2': {megami: 'akina', name: '恫喝', nameEn: '', nameZh: '', nameZhG1: '', nameKo: '', ruby: 'どうかつ', rubyEn: '', baseType: 'normal', type: 'attack', range: '4-5', damage: '-/0', text: '投資券\n【常時】あなたの資本が相手の資本より大きいならば、この《攻撃》は+0/+1となる。', textZh: '', textZhG1: '', textKo: '', textEn: '', investable: true}</v>
+      </c>
+      <c r="AU3" s="5" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">    /** 《通常札2》 */ export const AKINA_O_N_2: TCardId = '23-akina-o-n-2';</v>
-      </c>
-      <c r="AU3" s="6" t="str">
+        <v xml:space="preserve">    /** 《恫喝》 */ export const AKINA_O_N_2: TCardId = '23-akina-o-n-2';</v>
+      </c>
+      <c r="AV3" s="6" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">    | '23-akina-o-n-2'</v>
       </c>
     </row>
-    <row r="4" spans="1:47" s="11" customFormat="1">
+    <row r="4" spans="1:48" s="11" customFormat="1" ht="60">
       <c r="A4" s="10" t="s">
         <v>89</v>
       </c>
@@ -16640,9 +17041,11 @@
       <c r="C4" s="10"/>
       <c r="D4" s="10"/>
       <c r="E4" s="10" t="s">
-        <v>101</v>
-      </c>
-      <c r="F4" s="10"/>
+        <v>102</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>117</v>
+      </c>
       <c r="G4" s="31"/>
       <c r="H4" s="32"/>
       <c r="I4" s="31"/>
@@ -16657,12 +17060,16 @@
       <c r="P4" s="10"/>
       <c r="Q4" s="10"/>
       <c r="R4" s="10" t="s">
-        <v>110</v>
+        <v>127</v>
       </c>
       <c r="S4" s="10"/>
-      <c r="T4" s="10"/>
+      <c r="T4" s="10" t="s">
+        <v>125</v>
+      </c>
       <c r="U4" s="12"/>
-      <c r="V4" s="10"/>
+      <c r="V4" s="10" t="s">
+        <v>141</v>
+      </c>
       <c r="W4" s="12"/>
       <c r="X4" s="10"/>
       <c r="Y4" s="10"/>
@@ -16670,35 +17077,38 @@
       <c r="AA4" s="10"/>
       <c r="AB4" s="10"/>
       <c r="AC4" s="10"/>
-      <c r="AD4" s="40"/>
-      <c r="AE4" s="35"/>
-      <c r="AF4" s="36"/>
-      <c r="AG4" s="35"/>
-      <c r="AH4" s="37"/>
-      <c r="AI4" s="35"/>
-      <c r="AJ4" s="38"/>
-      <c r="AK4" s="35"/>
-      <c r="AL4" s="39"/>
-      <c r="AM4" s="2"/>
-      <c r="AN4" s="12"/>
+      <c r="AD4" s="10"/>
+      <c r="AE4" s="40" t="s">
+        <v>137</v>
+      </c>
+      <c r="AF4" s="35"/>
+      <c r="AG4" s="36"/>
+      <c r="AH4" s="35"/>
+      <c r="AI4" s="37"/>
+      <c r="AJ4" s="35"/>
+      <c r="AK4" s="38"/>
+      <c r="AL4" s="35"/>
+      <c r="AM4" s="39"/>
+      <c r="AN4" s="2"/>
       <c r="AO4" s="12"/>
       <c r="AP4" s="12"/>
       <c r="AQ4" s="12"/>
       <c r="AR4" s="12"/>
-      <c r="AS4" s="14" t="str">
-        <f>IF(A4="", "", IF(ROW()&gt;=3, ", ", "")&amp;"'"&amp;A4&amp;"': {megami: '"&amp;B4&amp;"'"&amp;IF(C4&lt;&gt;"",", anotherID: '"&amp;C4&amp;"', replace: '"&amp;D4&amp;"'","")&amp;", name: '"&amp;SUBSTITUTE(E4,"'","\'")&amp;"', nameEn: '"&amp;SUBSTITUTE(K4,"'","\'")&amp;"', nameZh: '"&amp;SUBSTITUTE(G4,"'","\'")&amp;"', nameZhG1: '"&amp;SUBSTITUTE(H4,"'","\'")&amp;"', nameKo: '"&amp;SUBSTITUTE(J4,"'","\'")&amp;"', ruby: '"&amp;F4&amp;"', rubyEn: '"&amp;L4&amp;IF(I4&lt;&gt;"", "', rubyZh: '"&amp;I4, "")&amp;"', baseType: '"&amp;VLOOKUP(M4,マスタ!$A$1:$B$99,2,0)&amp;"'"&amp;IF(N4="○",", extra: true","")&amp;IF(O4&lt;&gt;"",", extraFrom: '"&amp;O4&amp;"'","")&amp;IF(P4&lt;&gt;"",", exchangableTo: '"&amp;P4&amp;"'","")&amp;IF(Q4="○",", poison: true","")&amp;IF(R4&lt;&gt;"", ", type: '"&amp;VLOOKUP(R4,マスタ!$D$1:$E$99,2,0)&amp;"'", "")&amp;IF(S4&lt;&gt;"",", subType: '"&amp;VLOOKUP(S4,マスタ!$D$1:$E$99,2,0)&amp;"'","")&amp;""&amp;IF(T4&lt;&gt;"",", range: '"&amp;T4&amp;"'","")&amp;IF(V4&lt;&gt;"",", damage: '"&amp;V4&amp;"'","")&amp;IF(X4&lt;&gt;"",", capacity: '"&amp;X4&amp;"'","")&amp;IF(Y4&lt;&gt;"",", growth: "&amp;Y4&amp;"","")&amp;IF(Z4&lt;&gt;"",", cost: '"&amp;Z4&amp;"'","")&amp;", text: '"&amp;SUBSTITUTE(SUBSTITUTE(AD4, CHAR(13), ""),CHAR(10),"\n")&amp;IF(AE4&lt;&gt;"", "', textAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AE4, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textZh: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AF4, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;"', textZhG1: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AH4, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AG4&lt;&gt;"", "', textZhAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AG4, CHAR(13), ""),CHAR(10),"\n"), "")&amp;IF(AI4&lt;&gt;"", "', textZhG1Additional: '"&amp;SUBSTITUTE(SUBSTITUTE(AI4, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textKo: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AJ4, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AK4&lt;&gt;"", "', textKoAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AK4, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textEn: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AL4, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AM4&lt;&gt;"", "', textEnAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AM4, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"'"&amp;IF(AB4="○",", sealable: true","")&amp;IF(AC4="○",", removable: true","")&amp;IF(AA4="○",", lie: true","")&amp;"}")</f>
-        <v>, '23-akina-o-n-3': {megami: 'akina', name: '通常札3', nameEn: '', nameZh: '', nameZhG1: '', nameKo: '', ruby: '', rubyEn: '', baseType: 'normal', type: 'action', text: '', textZh: '', textZhG1: '', textKo: '', textEn: ''}</v>
-      </c>
-      <c r="AT4" s="5" t="str">
+      <c r="AS4" s="12"/>
+      <c r="AT4" s="14" t="str">
+        <f>IF(A4="", "", IF(ROW()&gt;=3, ", ", "")&amp;"'"&amp;A4&amp;"': {megami: '"&amp;B4&amp;"'"&amp;IF(C4&lt;&gt;"",", anotherID: '"&amp;C4&amp;"', replace: '"&amp;D4&amp;"'","")&amp;", name: '"&amp;SUBSTITUTE(E4,"'","\'")&amp;"', nameEn: '"&amp;SUBSTITUTE(K4,"'","\'")&amp;"', nameZh: '"&amp;SUBSTITUTE(G4,"'","\'")&amp;"', nameZhG1: '"&amp;SUBSTITUTE(H4,"'","\'")&amp;"', nameKo: '"&amp;SUBSTITUTE(J4,"'","\'")&amp;"', ruby: '"&amp;F4&amp;"', rubyEn: '"&amp;L4&amp;IF(I4&lt;&gt;"", "', rubyZh: '"&amp;I4, "")&amp;"', baseType: '"&amp;VLOOKUP(M4,マスタ!$A$1:$B$99,2,0)&amp;"'"&amp;IF(N4="○",", extra: true","")&amp;IF(O4&lt;&gt;"",", extraFrom: '"&amp;O4&amp;"'","")&amp;IF(P4&lt;&gt;"",", exchangableTo: '"&amp;P4&amp;"'","")&amp;IF(Q4="○",", poison: true","")&amp;IF(R4&lt;&gt;"", ", type: '"&amp;VLOOKUP(R4,マスタ!$D$1:$E$99,2,0)&amp;"'", "")&amp;IF(S4&lt;&gt;"",", subType: '"&amp;VLOOKUP(S4,マスタ!$D$1:$E$99,2,0)&amp;"'","")&amp;""&amp;IF(T4&lt;&gt;"",", range: '"&amp;T4&amp;"'","")&amp;IF(V4&lt;&gt;"",", damage: '"&amp;V4&amp;"'","")&amp;IF(X4&lt;&gt;"",", capacity: '"&amp;X4&amp;"'","")&amp;IF(Y4&lt;&gt;"",", growth: "&amp;Y4&amp;"","")&amp;IF(Z4&lt;&gt;"",", cost: '"&amp;Z4&amp;"'","")&amp;", text: '"&amp;SUBSTITUTE(SUBSTITUTE(AE4, CHAR(13), ""),CHAR(10),"\n")&amp;IF(AF4&lt;&gt;"", "', textAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AF4, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textZh: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AG4, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;"', textZhG1: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AI4, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AH4&lt;&gt;"", "', textZhAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AH4, CHAR(13), ""),CHAR(10),"\n"), "")&amp;IF(AJ4&lt;&gt;"", "', textZhG1Additional: '"&amp;SUBSTITUTE(SUBSTITUTE(AJ4, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textKo: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AK4, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AL4&lt;&gt;"", "', textKoAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AL4, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textEn: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AM4, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AN4&lt;&gt;"", "', textEnAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AN4, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"'"&amp;IF(AB4="○",", sealable: true","")&amp;IF(AC4="○",", removable: true","")&amp;IF(AA4="○",", lie: true","")&amp;IF(AD4="○",", investable: true","")&amp;"}")</f>
+        <v>, '23-akina-o-n-3': {megami: 'akina', name: '交易', nameEn: '', nameZh: '', nameZhG1: '', nameKo: '', ruby: 'こうえき', rubyEn: '', baseType: 'normal', type: 'attack', range: '1-5', damage: '2/0', text: '終端\n【攻撃後】あなたの資本が相手の資本より3以上大きいならば、捨て札にある他のメガミのカード１枚までを選び、手札に戻す。\n【攻撃後】あなたの資本が相手の資本より大きいならば、基本動作を1回行ってもよい。', textZh: '', textZhG1: '', textKo: '', textEn: ''}</v>
+      </c>
+      <c r="AU4" s="5" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">    /** 《通常札3》 */ export const AKINA_O_N_3: TCardId = '23-akina-o-n-3';</v>
-      </c>
-      <c r="AU4" s="6" t="str">
+        <v xml:space="preserve">    /** 《交易》 */ export const AKINA_O_N_3: TCardId = '23-akina-o-n-3';</v>
+      </c>
+      <c r="AV4" s="6" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">    | '23-akina-o-n-3'</v>
       </c>
     </row>
-    <row r="5" spans="1:47" s="11" customFormat="1">
+    <row r="5" spans="1:48" s="11" customFormat="1" ht="36">
       <c r="A5" s="10" t="s">
         <v>90</v>
       </c>
@@ -16708,9 +17118,11 @@
       <c r="C5" s="10"/>
       <c r="D5" s="10"/>
       <c r="E5" s="10" t="s">
-        <v>102</v>
-      </c>
-      <c r="F5" s="10"/>
+        <v>103</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>118</v>
+      </c>
       <c r="G5" s="31"/>
       <c r="H5" s="32"/>
       <c r="I5" s="31"/>
@@ -16725,7 +17137,7 @@
       <c r="P5" s="10"/>
       <c r="Q5" s="10"/>
       <c r="R5" s="10" t="s">
-        <v>110</v>
+        <v>128</v>
       </c>
       <c r="S5" s="10"/>
       <c r="T5" s="10"/>
@@ -16738,35 +17150,38 @@
       <c r="AA5" s="10"/>
       <c r="AB5" s="10"/>
       <c r="AC5" s="10"/>
-      <c r="AD5" s="40"/>
-      <c r="AE5" s="35"/>
-      <c r="AF5" s="36"/>
-      <c r="AG5" s="35"/>
-      <c r="AH5" s="37"/>
-      <c r="AI5" s="35"/>
-      <c r="AJ5" s="38"/>
-      <c r="AK5" s="35"/>
-      <c r="AL5" s="39"/>
-      <c r="AM5" s="2"/>
-      <c r="AN5" s="12"/>
+      <c r="AD5" s="10"/>
+      <c r="AE5" s="40" t="s">
+        <v>135</v>
+      </c>
+      <c r="AF5" s="35"/>
+      <c r="AG5" s="36"/>
+      <c r="AH5" s="35"/>
+      <c r="AI5" s="37"/>
+      <c r="AJ5" s="35"/>
+      <c r="AK5" s="38"/>
+      <c r="AL5" s="35"/>
+      <c r="AM5" s="39"/>
+      <c r="AN5" s="2"/>
       <c r="AO5" s="12"/>
       <c r="AP5" s="12"/>
       <c r="AQ5" s="12"/>
       <c r="AR5" s="12"/>
-      <c r="AS5" s="14" t="str">
-        <f>IF(A5="", "", IF(ROW()&gt;=3, ", ", "")&amp;"'"&amp;A5&amp;"': {megami: '"&amp;B5&amp;"'"&amp;IF(C5&lt;&gt;"",", anotherID: '"&amp;C5&amp;"', replace: '"&amp;D5&amp;"'","")&amp;", name: '"&amp;SUBSTITUTE(E5,"'","\'")&amp;"', nameEn: '"&amp;SUBSTITUTE(K5,"'","\'")&amp;"', nameZh: '"&amp;SUBSTITUTE(G5,"'","\'")&amp;"', nameZhG1: '"&amp;SUBSTITUTE(H5,"'","\'")&amp;"', nameKo: '"&amp;SUBSTITUTE(J5,"'","\'")&amp;"', ruby: '"&amp;F5&amp;"', rubyEn: '"&amp;L5&amp;IF(I5&lt;&gt;"", "', rubyZh: '"&amp;I5, "")&amp;"', baseType: '"&amp;VLOOKUP(M5,マスタ!$A$1:$B$99,2,0)&amp;"'"&amp;IF(N5="○",", extra: true","")&amp;IF(O5&lt;&gt;"",", extraFrom: '"&amp;O5&amp;"'","")&amp;IF(P5&lt;&gt;"",", exchangableTo: '"&amp;P5&amp;"'","")&amp;IF(Q5="○",", poison: true","")&amp;IF(R5&lt;&gt;"", ", type: '"&amp;VLOOKUP(R5,マスタ!$D$1:$E$99,2,0)&amp;"'", "")&amp;IF(S5&lt;&gt;"",", subType: '"&amp;VLOOKUP(S5,マスタ!$D$1:$E$99,2,0)&amp;"'","")&amp;""&amp;IF(T5&lt;&gt;"",", range: '"&amp;T5&amp;"'","")&amp;IF(V5&lt;&gt;"",", damage: '"&amp;V5&amp;"'","")&amp;IF(X5&lt;&gt;"",", capacity: '"&amp;X5&amp;"'","")&amp;IF(Y5&lt;&gt;"",", growth: "&amp;Y5&amp;"","")&amp;IF(Z5&lt;&gt;"",", cost: '"&amp;Z5&amp;"'","")&amp;", text: '"&amp;SUBSTITUTE(SUBSTITUTE(AD5, CHAR(13), ""),CHAR(10),"\n")&amp;IF(AE5&lt;&gt;"", "', textAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AE5, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textZh: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AF5, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;"', textZhG1: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AH5, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AG5&lt;&gt;"", "', textZhAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AG5, CHAR(13), ""),CHAR(10),"\n"), "")&amp;IF(AI5&lt;&gt;"", "', textZhG1Additional: '"&amp;SUBSTITUTE(SUBSTITUTE(AI5, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textKo: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AJ5, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AK5&lt;&gt;"", "', textKoAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AK5, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textEn: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AL5, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AM5&lt;&gt;"", "', textEnAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AM5, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"'"&amp;IF(AB5="○",", sealable: true","")&amp;IF(AC5="○",", removable: true","")&amp;IF(AA5="○",", lie: true","")&amp;"}")</f>
-        <v>, '23-akina-o-n-4': {megami: 'akina', name: '通常札4', nameEn: '', nameZh: '', nameZhG1: '', nameKo: '', ruby: '', rubyEn: '', baseType: 'normal', type: 'action', text: '', textZh: '', textZhG1: '', textKo: '', textEn: ''}</v>
-      </c>
-      <c r="AT5" s="5" t="str">
+      <c r="AS5" s="12"/>
+      <c r="AT5" s="14" t="str">
+        <f>IF(A5="", "", IF(ROW()&gt;=3, ", ", "")&amp;"'"&amp;A5&amp;"': {megami: '"&amp;B5&amp;"'"&amp;IF(C5&lt;&gt;"",", anotherID: '"&amp;C5&amp;"', replace: '"&amp;D5&amp;"'","")&amp;", name: '"&amp;SUBSTITUTE(E5,"'","\'")&amp;"', nameEn: '"&amp;SUBSTITUTE(K5,"'","\'")&amp;"', nameZh: '"&amp;SUBSTITUTE(G5,"'","\'")&amp;"', nameZhG1: '"&amp;SUBSTITUTE(H5,"'","\'")&amp;"', nameKo: '"&amp;SUBSTITUTE(J5,"'","\'")&amp;"', ruby: '"&amp;F5&amp;"', rubyEn: '"&amp;L5&amp;IF(I5&lt;&gt;"", "', rubyZh: '"&amp;I5, "")&amp;"', baseType: '"&amp;VLOOKUP(M5,マスタ!$A$1:$B$99,2,0)&amp;"'"&amp;IF(N5="○",", extra: true","")&amp;IF(O5&lt;&gt;"",", extraFrom: '"&amp;O5&amp;"'","")&amp;IF(P5&lt;&gt;"",", exchangableTo: '"&amp;P5&amp;"'","")&amp;IF(Q5="○",", poison: true","")&amp;IF(R5&lt;&gt;"", ", type: '"&amp;VLOOKUP(R5,マスタ!$D$1:$E$99,2,0)&amp;"'", "")&amp;IF(S5&lt;&gt;"",", subType: '"&amp;VLOOKUP(S5,マスタ!$D$1:$E$99,2,0)&amp;"'","")&amp;""&amp;IF(T5&lt;&gt;"",", range: '"&amp;T5&amp;"'","")&amp;IF(V5&lt;&gt;"",", damage: '"&amp;V5&amp;"'","")&amp;IF(X5&lt;&gt;"",", capacity: '"&amp;X5&amp;"'","")&amp;IF(Y5&lt;&gt;"",", growth: "&amp;Y5&amp;"","")&amp;IF(Z5&lt;&gt;"",", cost: '"&amp;Z5&amp;"'","")&amp;", text: '"&amp;SUBSTITUTE(SUBSTITUTE(AE5, CHAR(13), ""),CHAR(10),"\n")&amp;IF(AF5&lt;&gt;"", "', textAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AF5, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textZh: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AG5, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;"', textZhG1: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AI5, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AH5&lt;&gt;"", "', textZhAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AH5, CHAR(13), ""),CHAR(10),"\n"), "")&amp;IF(AJ5&lt;&gt;"", "', textZhG1Additional: '"&amp;SUBSTITUTE(SUBSTITUTE(AJ5, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textKo: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AK5, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AL5&lt;&gt;"", "', textKoAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AL5, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textEn: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AM5, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AN5&lt;&gt;"", "', textEnAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AN5, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"'"&amp;IF(AB5="○",", sealable: true","")&amp;IF(AC5="○",", removable: true","")&amp;IF(AA5="○",", lie: true","")&amp;IF(AD5="○",", investable: true","")&amp;"}")</f>
+        <v>, '23-akina-o-n-4': {megami: 'akina', name: '投機', nameEn: '', nameZh: '', nameZhG1: '', nameKo: '', ruby: 'とうき', rubyEn: '', baseType: 'normal', type: 'action', text: '以下から1つを選ぶ。\n・自オーラ→自フロー：2\n・ダスト→自オーラ：2', textZh: '', textZhG1: '', textKo: '', textEn: ''}</v>
+      </c>
+      <c r="AU5" s="5" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">    /** 《通常札4》 */ export const AKINA_O_N_4: TCardId = '23-akina-o-n-4';</v>
-      </c>
-      <c r="AU5" s="6" t="str">
+        <v xml:space="preserve">    /** 《投機》 */ export const AKINA_O_N_4: TCardId = '23-akina-o-n-4';</v>
+      </c>
+      <c r="AV5" s="6" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">    | '23-akina-o-n-4'</v>
       </c>
     </row>
-    <row r="6" spans="1:47" s="11" customFormat="1">
+    <row r="6" spans="1:48" s="11" customFormat="1" ht="40.5">
       <c r="A6" s="10" t="s">
         <v>91</v>
       </c>
@@ -16776,9 +17191,11 @@
       <c r="C6" s="10"/>
       <c r="D6" s="10"/>
       <c r="E6" s="10" t="s">
-        <v>103</v>
-      </c>
-      <c r="F6" s="10"/>
+        <v>104</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>119</v>
+      </c>
       <c r="G6" s="31"/>
       <c r="H6" s="32"/>
       <c r="I6" s="31"/>
@@ -16793,9 +17210,11 @@
       <c r="P6" s="10"/>
       <c r="Q6" s="10"/>
       <c r="R6" s="10" t="s">
-        <v>110</v>
-      </c>
-      <c r="S6" s="10"/>
+        <v>128</v>
+      </c>
+      <c r="S6" s="10" t="s">
+        <v>132</v>
+      </c>
       <c r="T6" s="10"/>
       <c r="U6" s="12"/>
       <c r="V6" s="10"/>
@@ -16806,35 +17225,38 @@
       <c r="AA6" s="10"/>
       <c r="AB6" s="10"/>
       <c r="AC6" s="10"/>
-      <c r="AD6" s="40"/>
-      <c r="AE6" s="35"/>
-      <c r="AF6" s="36"/>
-      <c r="AG6" s="35"/>
-      <c r="AH6" s="37"/>
-      <c r="AI6" s="35"/>
-      <c r="AJ6" s="38"/>
-      <c r="AK6" s="35"/>
-      <c r="AL6" s="39"/>
-      <c r="AM6" s="2"/>
-      <c r="AN6" s="12"/>
+      <c r="AD6" s="10"/>
+      <c r="AE6" s="41" t="s">
+        <v>142</v>
+      </c>
+      <c r="AF6" s="35"/>
+      <c r="AG6" s="36"/>
+      <c r="AH6" s="35"/>
+      <c r="AI6" s="37"/>
+      <c r="AJ6" s="35"/>
+      <c r="AK6" s="38"/>
+      <c r="AL6" s="35"/>
+      <c r="AM6" s="39"/>
+      <c r="AN6" s="2"/>
       <c r="AO6" s="12"/>
       <c r="AP6" s="12"/>
       <c r="AQ6" s="12"/>
       <c r="AR6" s="12"/>
-      <c r="AS6" s="14" t="str">
-        <f>IF(A6="", "", IF(ROW()&gt;=3, ", ", "")&amp;"'"&amp;A6&amp;"': {megami: '"&amp;B6&amp;"'"&amp;IF(C6&lt;&gt;"",", anotherID: '"&amp;C6&amp;"', replace: '"&amp;D6&amp;"'","")&amp;", name: '"&amp;SUBSTITUTE(E6,"'","\'")&amp;"', nameEn: '"&amp;SUBSTITUTE(K6,"'","\'")&amp;"', nameZh: '"&amp;SUBSTITUTE(G6,"'","\'")&amp;"', nameZhG1: '"&amp;SUBSTITUTE(H6,"'","\'")&amp;"', nameKo: '"&amp;SUBSTITUTE(J6,"'","\'")&amp;"', ruby: '"&amp;F6&amp;"', rubyEn: '"&amp;L6&amp;IF(I6&lt;&gt;"", "', rubyZh: '"&amp;I6, "")&amp;"', baseType: '"&amp;VLOOKUP(M6,マスタ!$A$1:$B$99,2,0)&amp;"'"&amp;IF(N6="○",", extra: true","")&amp;IF(O6&lt;&gt;"",", extraFrom: '"&amp;O6&amp;"'","")&amp;IF(P6&lt;&gt;"",", exchangableTo: '"&amp;P6&amp;"'","")&amp;IF(Q6="○",", poison: true","")&amp;IF(R6&lt;&gt;"", ", type: '"&amp;VLOOKUP(R6,マスタ!$D$1:$E$99,2,0)&amp;"'", "")&amp;IF(S6&lt;&gt;"",", subType: '"&amp;VLOOKUP(S6,マスタ!$D$1:$E$99,2,0)&amp;"'","")&amp;""&amp;IF(T6&lt;&gt;"",", range: '"&amp;T6&amp;"'","")&amp;IF(V6&lt;&gt;"",", damage: '"&amp;V6&amp;"'","")&amp;IF(X6&lt;&gt;"",", capacity: '"&amp;X6&amp;"'","")&amp;IF(Y6&lt;&gt;"",", growth: "&amp;Y6&amp;"","")&amp;IF(Z6&lt;&gt;"",", cost: '"&amp;Z6&amp;"'","")&amp;", text: '"&amp;SUBSTITUTE(SUBSTITUTE(AD6, CHAR(13), ""),CHAR(10),"\n")&amp;IF(AE6&lt;&gt;"", "', textAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AE6, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textZh: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AF6, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;"', textZhG1: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AH6, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AG6&lt;&gt;"", "', textZhAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AG6, CHAR(13), ""),CHAR(10),"\n"), "")&amp;IF(AI6&lt;&gt;"", "', textZhG1Additional: '"&amp;SUBSTITUTE(SUBSTITUTE(AI6, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textKo: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AJ6, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AK6&lt;&gt;"", "', textKoAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AK6, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textEn: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AL6, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AM6&lt;&gt;"", "', textEnAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AM6, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"'"&amp;IF(AB6="○",", sealable: true","")&amp;IF(AC6="○",", removable: true","")&amp;IF(AA6="○",", lie: true","")&amp;"}")</f>
-        <v>, '23-akina-o-n-5': {megami: 'akina', name: '通常札5', nameEn: '', nameZh: '', nameZhG1: '', nameKo: '', ruby: '', rubyEn: '', baseType: 'normal', type: 'action', text: '', textZh: '', textZhG1: '', textKo: '', textEn: ''}</v>
-      </c>
-      <c r="AT6" s="5" t="str">
+      <c r="AS6" s="12"/>
+      <c r="AT6" s="14" t="str">
+        <f>IF(A6="", "", IF(ROW()&gt;=3, ", ", "")&amp;"'"&amp;A6&amp;"': {megami: '"&amp;B6&amp;"'"&amp;IF(C6&lt;&gt;"",", anotherID: '"&amp;C6&amp;"', replace: '"&amp;D6&amp;"'","")&amp;", name: '"&amp;SUBSTITUTE(E6,"'","\'")&amp;"', nameEn: '"&amp;SUBSTITUTE(K6,"'","\'")&amp;"', nameZh: '"&amp;SUBSTITUTE(G6,"'","\'")&amp;"', nameZhG1: '"&amp;SUBSTITUTE(H6,"'","\'")&amp;"', nameKo: '"&amp;SUBSTITUTE(J6,"'","\'")&amp;"', ruby: '"&amp;F6&amp;"', rubyEn: '"&amp;L6&amp;IF(I6&lt;&gt;"", "', rubyZh: '"&amp;I6, "")&amp;"', baseType: '"&amp;VLOOKUP(M6,マスタ!$A$1:$B$99,2,0)&amp;"'"&amp;IF(N6="○",", extra: true","")&amp;IF(O6&lt;&gt;"",", extraFrom: '"&amp;O6&amp;"'","")&amp;IF(P6&lt;&gt;"",", exchangableTo: '"&amp;P6&amp;"'","")&amp;IF(Q6="○",", poison: true","")&amp;IF(R6&lt;&gt;"", ", type: '"&amp;VLOOKUP(R6,マスタ!$D$1:$E$99,2,0)&amp;"'", "")&amp;IF(S6&lt;&gt;"",", subType: '"&amp;VLOOKUP(S6,マスタ!$D$1:$E$99,2,0)&amp;"'","")&amp;""&amp;IF(T6&lt;&gt;"",", range: '"&amp;T6&amp;"'","")&amp;IF(V6&lt;&gt;"",", damage: '"&amp;V6&amp;"'","")&amp;IF(X6&lt;&gt;"",", capacity: '"&amp;X6&amp;"'","")&amp;IF(Y6&lt;&gt;"",", growth: "&amp;Y6&amp;"","")&amp;IF(Z6&lt;&gt;"",", cost: '"&amp;Z6&amp;"'","")&amp;", text: '"&amp;SUBSTITUTE(SUBSTITUTE(AE6, CHAR(13), ""),CHAR(10),"\n")&amp;IF(AF6&lt;&gt;"", "', textAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AF6, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textZh: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AG6, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;"', textZhG1: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AI6, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AH6&lt;&gt;"", "', textZhAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AH6, CHAR(13), ""),CHAR(10),"\n"), "")&amp;IF(AJ6&lt;&gt;"", "', textZhG1Additional: '"&amp;SUBSTITUTE(SUBSTITUTE(AJ6, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textKo: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AK6, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AL6&lt;&gt;"", "', textKoAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AL6, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textEn: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AM6, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AN6&lt;&gt;"", "', textEnAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AN6, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"'"&amp;IF(AB6="○",", sealable: true","")&amp;IF(AC6="○",", removable: true","")&amp;IF(AA6="○",", lie: true","")&amp;IF(AD6="○",", investable: true","")&amp;"}")</f>
+        <v>, '23-akina-o-n-5': {megami: 'akina', name: '算法', nameEn: '', nameZh: '', nameZhG1: '', nameKo: '', ruby: 'さんぽう', rubyEn: '', baseType: 'normal', type: 'action', subType: 'reaction', text: 'あなたは集中力を1得る。\nこのターン中、《攻撃》は全ての適正距離が1減少する。\n（例えば3-4は2-3となる）', textZh: '', textZhG1: '', textKo: '', textEn: ''}</v>
+      </c>
+      <c r="AU6" s="5" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">    /** 《通常札5》 */ export const AKINA_O_N_5: TCardId = '23-akina-o-n-5';</v>
-      </c>
-      <c r="AU6" s="6" t="str">
+        <v xml:space="preserve">    /** 《算法》 */ export const AKINA_O_N_5: TCardId = '23-akina-o-n-5';</v>
+      </c>
+      <c r="AV6" s="6" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">    | '23-akina-o-n-5'</v>
       </c>
     </row>
-    <row r="7" spans="1:47" s="11" customFormat="1">
+    <row r="7" spans="1:48" s="11" customFormat="1" ht="36">
       <c r="A7" s="10" t="s">
         <v>92</v>
       </c>
@@ -16844,9 +17266,11 @@
       <c r="C7" s="10"/>
       <c r="D7" s="10"/>
       <c r="E7" s="10" t="s">
-        <v>104</v>
-      </c>
-      <c r="F7" s="10"/>
+        <v>105</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>120</v>
+      </c>
       <c r="G7" s="31"/>
       <c r="H7" s="32"/>
       <c r="I7" s="31"/>
@@ -16861,48 +17285,53 @@
       <c r="P7" s="10"/>
       <c r="Q7" s="10"/>
       <c r="R7" s="10" t="s">
-        <v>110</v>
+        <v>129</v>
       </c>
       <c r="S7" s="10"/>
       <c r="T7" s="10"/>
       <c r="U7" s="12"/>
       <c r="V7" s="10"/>
       <c r="W7" s="12"/>
-      <c r="X7" s="10"/>
+      <c r="X7" s="10">
+        <v>2</v>
+      </c>
       <c r="Y7" s="10"/>
       <c r="Z7" s="10"/>
       <c r="AA7" s="10"/>
       <c r="AB7" s="10"/>
       <c r="AC7" s="10"/>
-      <c r="AD7" s="40"/>
-      <c r="AE7" s="35"/>
-      <c r="AF7" s="36"/>
-      <c r="AG7" s="35"/>
-      <c r="AH7" s="37"/>
-      <c r="AI7" s="35"/>
-      <c r="AJ7" s="38"/>
-      <c r="AK7" s="35"/>
-      <c r="AL7" s="39"/>
-      <c r="AM7" s="2"/>
-      <c r="AN7" s="12"/>
+      <c r="AD7" s="10"/>
+      <c r="AE7" s="40" t="s">
+        <v>136</v>
+      </c>
+      <c r="AF7" s="35"/>
+      <c r="AG7" s="36"/>
+      <c r="AH7" s="35"/>
+      <c r="AI7" s="37"/>
+      <c r="AJ7" s="35"/>
+      <c r="AK7" s="38"/>
+      <c r="AL7" s="35"/>
+      <c r="AM7" s="39"/>
+      <c r="AN7" s="2"/>
       <c r="AO7" s="12"/>
       <c r="AP7" s="12"/>
       <c r="AQ7" s="12"/>
       <c r="AR7" s="12"/>
-      <c r="AS7" s="14" t="str">
-        <f>IF(A7="", "", IF(ROW()&gt;=3, ", ", "")&amp;"'"&amp;A7&amp;"': {megami: '"&amp;B7&amp;"'"&amp;IF(C7&lt;&gt;"",", anotherID: '"&amp;C7&amp;"', replace: '"&amp;D7&amp;"'","")&amp;", name: '"&amp;SUBSTITUTE(E7,"'","\'")&amp;"', nameEn: '"&amp;SUBSTITUTE(K7,"'","\'")&amp;"', nameZh: '"&amp;SUBSTITUTE(G7,"'","\'")&amp;"', nameZhG1: '"&amp;SUBSTITUTE(H7,"'","\'")&amp;"', nameKo: '"&amp;SUBSTITUTE(J7,"'","\'")&amp;"', ruby: '"&amp;F7&amp;"', rubyEn: '"&amp;L7&amp;IF(I7&lt;&gt;"", "', rubyZh: '"&amp;I7, "")&amp;"', baseType: '"&amp;VLOOKUP(M7,マスタ!$A$1:$B$99,2,0)&amp;"'"&amp;IF(N7="○",", extra: true","")&amp;IF(O7&lt;&gt;"",", extraFrom: '"&amp;O7&amp;"'","")&amp;IF(P7&lt;&gt;"",", exchangableTo: '"&amp;P7&amp;"'","")&amp;IF(Q7="○",", poison: true","")&amp;IF(R7&lt;&gt;"", ", type: '"&amp;VLOOKUP(R7,マスタ!$D$1:$E$99,2,0)&amp;"'", "")&amp;IF(S7&lt;&gt;"",", subType: '"&amp;VLOOKUP(S7,マスタ!$D$1:$E$99,2,0)&amp;"'","")&amp;""&amp;IF(T7&lt;&gt;"",", range: '"&amp;T7&amp;"'","")&amp;IF(V7&lt;&gt;"",", damage: '"&amp;V7&amp;"'","")&amp;IF(X7&lt;&gt;"",", capacity: '"&amp;X7&amp;"'","")&amp;IF(Y7&lt;&gt;"",", growth: "&amp;Y7&amp;"","")&amp;IF(Z7&lt;&gt;"",", cost: '"&amp;Z7&amp;"'","")&amp;", text: '"&amp;SUBSTITUTE(SUBSTITUTE(AD7, CHAR(13), ""),CHAR(10),"\n")&amp;IF(AE7&lt;&gt;"", "', textAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AE7, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textZh: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AF7, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;"', textZhG1: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AH7, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AG7&lt;&gt;"", "', textZhAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AG7, CHAR(13), ""),CHAR(10),"\n"), "")&amp;IF(AI7&lt;&gt;"", "', textZhG1Additional: '"&amp;SUBSTITUTE(SUBSTITUTE(AI7, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textKo: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AJ7, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AK7&lt;&gt;"", "', textKoAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AK7, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textEn: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AL7, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AM7&lt;&gt;"", "', textEnAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AM7, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"'"&amp;IF(AB7="○",", sealable: true","")&amp;IF(AC7="○",", removable: true","")&amp;IF(AA7="○",", lie: true","")&amp;"}")</f>
-        <v>, '23-akina-o-n-6': {megami: 'akina', name: '通常札6', nameEn: '', nameZh: '', nameZhG1: '', nameKo: '', ruby: '', rubyEn: '', baseType: 'normal', type: 'action', text: '', textZh: '', textZhG1: '', textKo: '', textEn: ''}</v>
-      </c>
-      <c r="AT7" s="5" t="str">
+      <c r="AS7" s="12"/>
+      <c r="AT7" s="14" t="str">
+        <f>IF(A7="", "", IF(ROW()&gt;=3, ", ", "")&amp;"'"&amp;A7&amp;"': {megami: '"&amp;B7&amp;"'"&amp;IF(C7&lt;&gt;"",", anotherID: '"&amp;C7&amp;"', replace: '"&amp;D7&amp;"'","")&amp;", name: '"&amp;SUBSTITUTE(E7,"'","\'")&amp;"', nameEn: '"&amp;SUBSTITUTE(K7,"'","\'")&amp;"', nameZh: '"&amp;SUBSTITUTE(G7,"'","\'")&amp;"', nameZhG1: '"&amp;SUBSTITUTE(H7,"'","\'")&amp;"', nameKo: '"&amp;SUBSTITUTE(J7,"'","\'")&amp;"', ruby: '"&amp;F7&amp;"', rubyEn: '"&amp;L7&amp;IF(I7&lt;&gt;"", "', rubyZh: '"&amp;I7, "")&amp;"', baseType: '"&amp;VLOOKUP(M7,マスタ!$A$1:$B$99,2,0)&amp;"'"&amp;IF(N7="○",", extra: true","")&amp;IF(O7&lt;&gt;"",", extraFrom: '"&amp;O7&amp;"'","")&amp;IF(P7&lt;&gt;"",", exchangableTo: '"&amp;P7&amp;"'","")&amp;IF(Q7="○",", poison: true","")&amp;IF(R7&lt;&gt;"", ", type: '"&amp;VLOOKUP(R7,マスタ!$D$1:$E$99,2,0)&amp;"'", "")&amp;IF(S7&lt;&gt;"",", subType: '"&amp;VLOOKUP(S7,マスタ!$D$1:$E$99,2,0)&amp;"'","")&amp;""&amp;IF(T7&lt;&gt;"",", range: '"&amp;T7&amp;"'","")&amp;IF(V7&lt;&gt;"",", damage: '"&amp;V7&amp;"'","")&amp;IF(X7&lt;&gt;"",", capacity: '"&amp;X7&amp;"'","")&amp;IF(Y7&lt;&gt;"",", growth: "&amp;Y7&amp;"","")&amp;IF(Z7&lt;&gt;"",", cost: '"&amp;Z7&amp;"'","")&amp;", text: '"&amp;SUBSTITUTE(SUBSTITUTE(AE7, CHAR(13), ""),CHAR(10),"\n")&amp;IF(AF7&lt;&gt;"", "', textAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AF7, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textZh: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AG7, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;"', textZhG1: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AI7, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AH7&lt;&gt;"", "', textZhAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AH7, CHAR(13), ""),CHAR(10),"\n"), "")&amp;IF(AJ7&lt;&gt;"", "', textZhG1Additional: '"&amp;SUBSTITUTE(SUBSTITUTE(AJ7, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textKo: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AK7, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AL7&lt;&gt;"", "', textKoAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AL7, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textEn: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AM7, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AN7&lt;&gt;"", "', textEnAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AN7, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"'"&amp;IF(AB7="○",", sealable: true","")&amp;IF(AC7="○",", removable: true","")&amp;IF(AA7="○",", lie: true","")&amp;IF(AD7="○",", investable: true","")&amp;"}")</f>
+        <v>, '23-akina-o-n-6': {megami: 'akina', name: '盤狂わせ', nameEn: '', nameZh: '', nameZhG1: '', nameKo: '', ruby: 'ばんくるわせ', rubyEn: '', baseType: 'normal', type: 'enhance', capacity: '2', text: '間合制限（0-3）\n【展開時】相フレア→間合：２\n【破棄時】間合→相フレア：１', textZh: '', textZhG1: '', textKo: '', textEn: ''}</v>
+      </c>
+      <c r="AU7" s="5" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">    /** 《通常札6》 */ export const AKINA_O_N_6: TCardId = '23-akina-o-n-6';</v>
-      </c>
-      <c r="AU7" s="6" t="str">
+        <v xml:space="preserve">    /** 《盤狂わせ》 */ export const AKINA_O_N_6: TCardId = '23-akina-o-n-6';</v>
+      </c>
+      <c r="AV7" s="6" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">    | '23-akina-o-n-6'</v>
       </c>
     </row>
-    <row r="8" spans="1:47" s="11" customFormat="1">
+    <row r="8" spans="1:48" s="11" customFormat="1" ht="37.5">
       <c r="A8" s="10" t="s">
         <v>93</v>
       </c>
@@ -16912,9 +17341,11 @@
       <c r="C8" s="10"/>
       <c r="D8" s="10"/>
       <c r="E8" s="10" t="s">
-        <v>105</v>
-      </c>
-      <c r="F8" s="10"/>
+        <v>106</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>121</v>
+      </c>
       <c r="G8" s="31"/>
       <c r="H8" s="32"/>
       <c r="I8" s="31"/>
@@ -16929,48 +17360,57 @@
       <c r="P8" s="10"/>
       <c r="Q8" s="10"/>
       <c r="R8" s="10" t="s">
-        <v>110</v>
-      </c>
-      <c r="S8" s="10"/>
+        <v>129</v>
+      </c>
+      <c r="S8" s="10" t="s">
+        <v>133</v>
+      </c>
       <c r="T8" s="10"/>
       <c r="U8" s="12"/>
       <c r="V8" s="10"/>
       <c r="W8" s="12"/>
-      <c r="X8" s="10"/>
+      <c r="X8" s="10">
+        <v>2</v>
+      </c>
       <c r="Y8" s="10"/>
       <c r="Z8" s="10"/>
       <c r="AA8" s="10"/>
       <c r="AB8" s="10"/>
       <c r="AC8" s="10"/>
-      <c r="AD8" s="35"/>
-      <c r="AE8" s="35"/>
-      <c r="AF8" s="36"/>
-      <c r="AG8" s="35"/>
-      <c r="AH8" s="37"/>
-      <c r="AI8" s="35"/>
-      <c r="AJ8" s="38"/>
-      <c r="AK8" s="35"/>
-      <c r="AL8" s="39"/>
-      <c r="AM8" s="2"/>
-      <c r="AN8" s="12"/>
+      <c r="AD8" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="AE8" s="40" t="s">
+        <v>134</v>
+      </c>
+      <c r="AF8" s="35"/>
+      <c r="AG8" s="36"/>
+      <c r="AH8" s="35"/>
+      <c r="AI8" s="37"/>
+      <c r="AJ8" s="35"/>
+      <c r="AK8" s="38"/>
+      <c r="AL8" s="35"/>
+      <c r="AM8" s="39"/>
+      <c r="AN8" s="2"/>
       <c r="AO8" s="12"/>
       <c r="AP8" s="12"/>
       <c r="AQ8" s="12"/>
       <c r="AR8" s="12"/>
-      <c r="AS8" s="14" t="str">
-        <f>IF(A8="", "", IF(ROW()&gt;=3, ", ", "")&amp;"'"&amp;A8&amp;"': {megami: '"&amp;B8&amp;"'"&amp;IF(C8&lt;&gt;"",", anotherID: '"&amp;C8&amp;"', replace: '"&amp;D8&amp;"'","")&amp;", name: '"&amp;SUBSTITUTE(E8,"'","\'")&amp;"', nameEn: '"&amp;SUBSTITUTE(K8,"'","\'")&amp;"', nameZh: '"&amp;SUBSTITUTE(G8,"'","\'")&amp;"', nameZhG1: '"&amp;SUBSTITUTE(H8,"'","\'")&amp;"', nameKo: '"&amp;SUBSTITUTE(J8,"'","\'")&amp;"', ruby: '"&amp;F8&amp;"', rubyEn: '"&amp;L8&amp;IF(I8&lt;&gt;"", "', rubyZh: '"&amp;I8, "")&amp;"', baseType: '"&amp;VLOOKUP(M8,マスタ!$A$1:$B$99,2,0)&amp;"'"&amp;IF(N8="○",", extra: true","")&amp;IF(O8&lt;&gt;"",", extraFrom: '"&amp;O8&amp;"'","")&amp;IF(P8&lt;&gt;"",", exchangableTo: '"&amp;P8&amp;"'","")&amp;IF(Q8="○",", poison: true","")&amp;IF(R8&lt;&gt;"", ", type: '"&amp;VLOOKUP(R8,マスタ!$D$1:$E$99,2,0)&amp;"'", "")&amp;IF(S8&lt;&gt;"",", subType: '"&amp;VLOOKUP(S8,マスタ!$D$1:$E$99,2,0)&amp;"'","")&amp;""&amp;IF(T8&lt;&gt;"",", range: '"&amp;T8&amp;"'","")&amp;IF(V8&lt;&gt;"",", damage: '"&amp;V8&amp;"'","")&amp;IF(X8&lt;&gt;"",", capacity: '"&amp;X8&amp;"'","")&amp;IF(Y8&lt;&gt;"",", growth: "&amp;Y8&amp;"","")&amp;IF(Z8&lt;&gt;"",", cost: '"&amp;Z8&amp;"'","")&amp;", text: '"&amp;SUBSTITUTE(SUBSTITUTE(AD8, CHAR(13), ""),CHAR(10),"\n")&amp;IF(AE8&lt;&gt;"", "', textAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AE8, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textZh: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AF8, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;"', textZhG1: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AH8, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AG8&lt;&gt;"", "', textZhAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AG8, CHAR(13), ""),CHAR(10),"\n"), "")&amp;IF(AI8&lt;&gt;"", "', textZhG1Additional: '"&amp;SUBSTITUTE(SUBSTITUTE(AI8, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textKo: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AJ8, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AK8&lt;&gt;"", "', textKoAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AK8, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textEn: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AL8, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AM8&lt;&gt;"", "', textEnAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AM8, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"'"&amp;IF(AB8="○",", sealable: true","")&amp;IF(AC8="○",", removable: true","")&amp;IF(AA8="○",", lie: true","")&amp;"}")</f>
-        <v>, '23-akina-o-n-7': {megami: 'akina', name: '通常札7', nameEn: '', nameZh: '', nameZhG1: '', nameKo: '', ruby: '', rubyEn: '', baseType: 'normal', type: 'action', text: '', textZh: '', textZhG1: '', textKo: '', textEn: ''}</v>
-      </c>
-      <c r="AT8" s="5" t="str">
+      <c r="AS8" s="12"/>
+      <c r="AT8" s="14" t="str">
+        <f>IF(A8="", "", IF(ROW()&gt;=3, ", ", "")&amp;"'"&amp;A8&amp;"': {megami: '"&amp;B8&amp;"'"&amp;IF(C8&lt;&gt;"",", anotherID: '"&amp;C8&amp;"', replace: '"&amp;D8&amp;"'","")&amp;", name: '"&amp;SUBSTITUTE(E8,"'","\'")&amp;"', nameEn: '"&amp;SUBSTITUTE(K8,"'","\'")&amp;"', nameZh: '"&amp;SUBSTITUTE(G8,"'","\'")&amp;"', nameZhG1: '"&amp;SUBSTITUTE(H8,"'","\'")&amp;"', nameKo: '"&amp;SUBSTITUTE(J8,"'","\'")&amp;"', ruby: '"&amp;F8&amp;"', rubyEn: '"&amp;L8&amp;IF(I8&lt;&gt;"", "', rubyZh: '"&amp;I8, "")&amp;"', baseType: '"&amp;VLOOKUP(M8,マスタ!$A$1:$B$99,2,0)&amp;"'"&amp;IF(N8="○",", extra: true","")&amp;IF(O8&lt;&gt;"",", extraFrom: '"&amp;O8&amp;"'","")&amp;IF(P8&lt;&gt;"",", exchangableTo: '"&amp;P8&amp;"'","")&amp;IF(Q8="○",", poison: true","")&amp;IF(R8&lt;&gt;"", ", type: '"&amp;VLOOKUP(R8,マスタ!$D$1:$E$99,2,0)&amp;"'", "")&amp;IF(S8&lt;&gt;"",", subType: '"&amp;VLOOKUP(S8,マスタ!$D$1:$E$99,2,0)&amp;"'","")&amp;""&amp;IF(T8&lt;&gt;"",", range: '"&amp;T8&amp;"'","")&amp;IF(V8&lt;&gt;"",", damage: '"&amp;V8&amp;"'","")&amp;IF(X8&lt;&gt;"",", capacity: '"&amp;X8&amp;"'","")&amp;IF(Y8&lt;&gt;"",", growth: "&amp;Y8&amp;"","")&amp;IF(Z8&lt;&gt;"",", cost: '"&amp;Z8&amp;"'","")&amp;", text: '"&amp;SUBSTITUTE(SUBSTITUTE(AE8, CHAR(13), ""),CHAR(10),"\n")&amp;IF(AF8&lt;&gt;"", "', textAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AF8, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textZh: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AG8, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;"', textZhG1: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AI8, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AH8&lt;&gt;"", "', textZhAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AH8, CHAR(13), ""),CHAR(10),"\n"), "")&amp;IF(AJ8&lt;&gt;"", "', textZhG1Additional: '"&amp;SUBSTITUTE(SUBSTITUTE(AJ8, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textKo: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AK8, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AL8&lt;&gt;"", "', textKoAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AL8, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textEn: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AM8, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AN8&lt;&gt;"", "', textEnAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AN8, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"'"&amp;IF(AB8="○",", sealable: true","")&amp;IF(AC8="○",", removable: true","")&amp;IF(AA8="○",", lie: true","")&amp;IF(AD8="○",", investable: true","")&amp;"}")</f>
+        <v>, '23-akina-o-n-7': {megami: 'akina', name: '直接金融', nameEn: '', nameZh: '', nameZhG1: '', nameKo: '', ruby: 'ちょくせつきんゆう', rubyEn: '', baseType: 'normal', type: 'enhance', subType: 'fullpower', capacity: '2', text: '投資券\n【展開時】相オーラ→自オーラ：２\n【破棄時】攻撃『適正距離2-5、1/0』を行ってもよい。', textZh: '', textZhG1: '', textKo: '', textEn: '', investable: true}</v>
+      </c>
+      <c r="AU8" s="5" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">    /** 《通常札7》 */ export const AKINA_O_N_7: TCardId = '23-akina-o-n-7';</v>
-      </c>
-      <c r="AU8" s="6" t="str">
+        <v xml:space="preserve">    /** 《直接金融》 */ export const AKINA_O_N_7: TCardId = '23-akina-o-n-7';</v>
+      </c>
+      <c r="AV8" s="6" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">    | '23-akina-o-n-7'</v>
       </c>
     </row>
-    <row r="9" spans="1:47" s="11" customFormat="1">
+    <row r="9" spans="1:48" s="11" customFormat="1" ht="48">
       <c r="A9" s="10" t="s">
         <v>94</v>
       </c>
@@ -16980,9 +17420,11 @@
       <c r="C9" s="10"/>
       <c r="D9" s="10"/>
       <c r="E9" s="10" t="s">
-        <v>106</v>
-      </c>
-      <c r="F9" s="10"/>
+        <v>111</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>107</v>
+      </c>
       <c r="G9" s="31"/>
       <c r="H9" s="32"/>
       <c r="I9" s="31"/>
@@ -16997,7 +17439,7 @@
       <c r="P9" s="10"/>
       <c r="Q9" s="10"/>
       <c r="R9" s="10" t="s">
-        <v>110</v>
+        <v>128</v>
       </c>
       <c r="S9" s="10"/>
       <c r="T9" s="10"/>
@@ -17007,40 +17449,43 @@
       <c r="X9" s="10"/>
       <c r="Y9" s="10"/>
       <c r="Z9" s="10" t="s">
-        <v>111</v>
+        <v>130</v>
       </c>
       <c r="AA9" s="10"/>
       <c r="AB9" s="10"/>
       <c r="AC9" s="10"/>
-      <c r="AD9" s="40"/>
-      <c r="AE9" s="35"/>
-      <c r="AF9" s="36"/>
-      <c r="AG9" s="35"/>
-      <c r="AH9" s="37"/>
-      <c r="AI9" s="35"/>
-      <c r="AJ9" s="38"/>
-      <c r="AK9" s="35"/>
-      <c r="AL9" s="39"/>
-      <c r="AM9" s="2"/>
-      <c r="AN9" s="12"/>
+      <c r="AD9" s="10"/>
+      <c r="AE9" s="40" t="s">
+        <v>143</v>
+      </c>
+      <c r="AF9" s="35"/>
+      <c r="AG9" s="36"/>
+      <c r="AH9" s="35"/>
+      <c r="AI9" s="37"/>
+      <c r="AJ9" s="35"/>
+      <c r="AK9" s="38"/>
+      <c r="AL9" s="35"/>
+      <c r="AM9" s="39"/>
+      <c r="AN9" s="2"/>
       <c r="AO9" s="12"/>
       <c r="AP9" s="12"/>
       <c r="AQ9" s="12"/>
       <c r="AR9" s="12"/>
-      <c r="AS9" s="14" t="str">
-        <f>IF(A9="", "", IF(ROW()&gt;=3, ", ", "")&amp;"'"&amp;A9&amp;"': {megami: '"&amp;B9&amp;"'"&amp;IF(C9&lt;&gt;"",", anotherID: '"&amp;C9&amp;"', replace: '"&amp;D9&amp;"'","")&amp;", name: '"&amp;SUBSTITUTE(E9,"'","\'")&amp;"', nameEn: '"&amp;SUBSTITUTE(K9,"'","\'")&amp;"', nameZh: '"&amp;SUBSTITUTE(G9,"'","\'")&amp;"', nameZhG1: '"&amp;SUBSTITUTE(H9,"'","\'")&amp;"', nameKo: '"&amp;SUBSTITUTE(J9,"'","\'")&amp;"', ruby: '"&amp;F9&amp;"', rubyEn: '"&amp;L9&amp;IF(I9&lt;&gt;"", "', rubyZh: '"&amp;I9, "")&amp;"', baseType: '"&amp;VLOOKUP(M9,マスタ!$A$1:$B$99,2,0)&amp;"'"&amp;IF(N9="○",", extra: true","")&amp;IF(O9&lt;&gt;"",", extraFrom: '"&amp;O9&amp;"'","")&amp;IF(P9&lt;&gt;"",", exchangableTo: '"&amp;P9&amp;"'","")&amp;IF(Q9="○",", poison: true","")&amp;IF(R9&lt;&gt;"", ", type: '"&amp;VLOOKUP(R9,マスタ!$D$1:$E$99,2,0)&amp;"'", "")&amp;IF(S9&lt;&gt;"",", subType: '"&amp;VLOOKUP(S9,マスタ!$D$1:$E$99,2,0)&amp;"'","")&amp;""&amp;IF(T9&lt;&gt;"",", range: '"&amp;T9&amp;"'","")&amp;IF(V9&lt;&gt;"",", damage: '"&amp;V9&amp;"'","")&amp;IF(X9&lt;&gt;"",", capacity: '"&amp;X9&amp;"'","")&amp;IF(Y9&lt;&gt;"",", growth: "&amp;Y9&amp;"","")&amp;IF(Z9&lt;&gt;"",", cost: '"&amp;Z9&amp;"'","")&amp;", text: '"&amp;SUBSTITUTE(SUBSTITUTE(AD9, CHAR(13), ""),CHAR(10),"\n")&amp;IF(AE9&lt;&gt;"", "', textAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AE9, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textZh: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AF9, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;"', textZhG1: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AH9, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AG9&lt;&gt;"", "', textZhAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AG9, CHAR(13), ""),CHAR(10),"\n"), "")&amp;IF(AI9&lt;&gt;"", "', textZhG1Additional: '"&amp;SUBSTITUTE(SUBSTITUTE(AI9, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textKo: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AJ9, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AK9&lt;&gt;"", "', textKoAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AK9, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textEn: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AL9, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AM9&lt;&gt;"", "', textEnAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AM9, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"'"&amp;IF(AB9="○",", sealable: true","")&amp;IF(AC9="○",", removable: true","")&amp;IF(AA9="○",", lie: true","")&amp;"}")</f>
-        <v>, '23-akina-o-s-1': {megami: 'akina', name: '切札1', nameEn: '', nameZh: '', nameZhG1: '', nameKo: '', ruby: '', rubyEn: '', baseType: 'special', type: 'action', cost: '0', text: '', textZh: '', textZhG1: '', textKo: '', textEn: ''}</v>
-      </c>
-      <c r="AT9" s="5" t="str">
+      <c r="AS9" s="12"/>
+      <c r="AT9" s="14" t="str">
+        <f>IF(A9="", "", IF(ROW()&gt;=3, ", ", "")&amp;"'"&amp;A9&amp;"': {megami: '"&amp;B9&amp;"'"&amp;IF(C9&lt;&gt;"",", anotherID: '"&amp;C9&amp;"', replace: '"&amp;D9&amp;"'","")&amp;", name: '"&amp;SUBSTITUTE(E9,"'","\'")&amp;"', nameEn: '"&amp;SUBSTITUTE(K9,"'","\'")&amp;"', nameZh: '"&amp;SUBSTITUTE(G9,"'","\'")&amp;"', nameZhG1: '"&amp;SUBSTITUTE(H9,"'","\'")&amp;"', nameKo: '"&amp;SUBSTITUTE(J9,"'","\'")&amp;"', ruby: '"&amp;F9&amp;"', rubyEn: '"&amp;L9&amp;IF(I9&lt;&gt;"", "', rubyZh: '"&amp;I9, "")&amp;"', baseType: '"&amp;VLOOKUP(M9,マスタ!$A$1:$B$99,2,0)&amp;"'"&amp;IF(N9="○",", extra: true","")&amp;IF(O9&lt;&gt;"",", extraFrom: '"&amp;O9&amp;"'","")&amp;IF(P9&lt;&gt;"",", exchangableTo: '"&amp;P9&amp;"'","")&amp;IF(Q9="○",", poison: true","")&amp;IF(R9&lt;&gt;"", ", type: '"&amp;VLOOKUP(R9,マスタ!$D$1:$E$99,2,0)&amp;"'", "")&amp;IF(S9&lt;&gt;"",", subType: '"&amp;VLOOKUP(S9,マスタ!$D$1:$E$99,2,0)&amp;"'","")&amp;""&amp;IF(T9&lt;&gt;"",", range: '"&amp;T9&amp;"'","")&amp;IF(V9&lt;&gt;"",", damage: '"&amp;V9&amp;"'","")&amp;IF(X9&lt;&gt;"",", capacity: '"&amp;X9&amp;"'","")&amp;IF(Y9&lt;&gt;"",", growth: "&amp;Y9&amp;"","")&amp;IF(Z9&lt;&gt;"",", cost: '"&amp;Z9&amp;"'","")&amp;", text: '"&amp;SUBSTITUTE(SUBSTITUTE(AE9, CHAR(13), ""),CHAR(10),"\n")&amp;IF(AF9&lt;&gt;"", "', textAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AF9, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textZh: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AG9, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;"', textZhG1: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AI9, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AH9&lt;&gt;"", "', textZhAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AH9, CHAR(13), ""),CHAR(10),"\n"), "")&amp;IF(AJ9&lt;&gt;"", "', textZhG1Additional: '"&amp;SUBSTITUTE(SUBSTITUTE(AJ9, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textKo: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AK9, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AL9&lt;&gt;"", "', textKoAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AL9, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textEn: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AM9, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AN9&lt;&gt;"", "', textEnAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AN9, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"'"&amp;IF(AB9="○",", sealable: true","")&amp;IF(AC9="○",", removable: true","")&amp;IF(AA9="○",", lie: true","")&amp;IF(AD9="○",", investable: true","")&amp;"}")</f>
+        <v>, '23-akina-o-s-1': {megami: 'akina', name: '開方冥式切取法', nameEn: '', nameZh: '', nameZhG1: '', nameKo: '', ruby: 'かいほうめいしききりとりほう', rubyEn: '', baseType: 'special', type: 'action', cost: '時価', text: '攻撃『0-10　-/1、【常時】この《攻撃》が対応されたならば、この攻撃は打ち消される。【常時】この《攻撃》のダメージは変化しない』を行う。その後、あなたの資本が相手の資本より大きいならばこのカードを使用する。\n（消費は支払い、その消費は時価以外で加減されない）', textZh: '', textZhG1: '', textKo: '', textEn: ''}</v>
+      </c>
+      <c r="AU9" s="5" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">    /** 《切札1》 */ export const AKINA_O_S_1: TCardId = '23-akina-o-s-1';</v>
-      </c>
-      <c r="AU9" s="6" t="str">
+        <v xml:space="preserve">    /** 《開方冥式切取法》 */ export const AKINA_O_S_1: TCardId = '23-akina-o-s-1';</v>
+      </c>
+      <c r="AV9" s="6" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">    | '23-akina-o-s-1'</v>
       </c>
     </row>
-    <row r="10" spans="1:47" s="11" customFormat="1">
+    <row r="10" spans="1:48" s="11" customFormat="1" ht="40.5">
       <c r="A10" s="10" t="s">
         <v>95</v>
       </c>
@@ -17050,9 +17495,11 @@
       <c r="C10" s="10"/>
       <c r="D10" s="10"/>
       <c r="E10" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="F10" s="10"/>
+        <v>112</v>
+      </c>
+      <c r="F10" s="10" t="s">
+        <v>108</v>
+      </c>
       <c r="G10" s="31"/>
       <c r="H10" s="32"/>
       <c r="I10" s="31"/>
@@ -17067,50 +17514,59 @@
       <c r="P10" s="10"/>
       <c r="Q10" s="10"/>
       <c r="R10" s="10" t="s">
-        <v>110</v>
-      </c>
-      <c r="S10" s="10"/>
-      <c r="T10" s="10"/>
+        <v>127</v>
+      </c>
+      <c r="S10" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="T10" s="10" t="s">
+        <v>126</v>
+      </c>
       <c r="U10" s="12"/>
-      <c r="V10" s="10"/>
+      <c r="V10" s="10" t="s">
+        <v>141</v>
+      </c>
       <c r="W10" s="12"/>
       <c r="X10" s="10"/>
       <c r="Y10" s="10"/>
-      <c r="Z10" s="10" t="s">
-        <v>111</v>
+      <c r="Z10" s="10">
+        <v>0</v>
       </c>
       <c r="AA10" s="10"/>
       <c r="AB10" s="10"/>
       <c r="AC10" s="10"/>
-      <c r="AD10" s="35"/>
-      <c r="AE10" s="35"/>
-      <c r="AF10" s="36"/>
-      <c r="AG10" s="35"/>
-      <c r="AH10" s="37"/>
-      <c r="AI10" s="35"/>
-      <c r="AJ10" s="38"/>
-      <c r="AK10" s="35"/>
-      <c r="AL10" s="39"/>
-      <c r="AM10" s="2"/>
-      <c r="AN10" s="12"/>
+      <c r="AD10" s="10"/>
+      <c r="AE10" s="40" t="s">
+        <v>144</v>
+      </c>
+      <c r="AF10" s="35"/>
+      <c r="AG10" s="36"/>
+      <c r="AH10" s="35"/>
+      <c r="AI10" s="37"/>
+      <c r="AJ10" s="35"/>
+      <c r="AK10" s="38"/>
+      <c r="AL10" s="35"/>
+      <c r="AM10" s="39"/>
+      <c r="AN10" s="2"/>
       <c r="AO10" s="12"/>
       <c r="AP10" s="12"/>
       <c r="AQ10" s="12"/>
       <c r="AR10" s="12"/>
-      <c r="AS10" s="14" t="str">
-        <f>IF(A10="", "", IF(ROW()&gt;=3, ", ", "")&amp;"'"&amp;A10&amp;"': {megami: '"&amp;B10&amp;"'"&amp;IF(C10&lt;&gt;"",", anotherID: '"&amp;C10&amp;"', replace: '"&amp;D10&amp;"'","")&amp;", name: '"&amp;SUBSTITUTE(E10,"'","\'")&amp;"', nameEn: '"&amp;SUBSTITUTE(K10,"'","\'")&amp;"', nameZh: '"&amp;SUBSTITUTE(G10,"'","\'")&amp;"', nameZhG1: '"&amp;SUBSTITUTE(H10,"'","\'")&amp;"', nameKo: '"&amp;SUBSTITUTE(J10,"'","\'")&amp;"', ruby: '"&amp;F10&amp;"', rubyEn: '"&amp;L10&amp;IF(I10&lt;&gt;"", "', rubyZh: '"&amp;I10, "")&amp;"', baseType: '"&amp;VLOOKUP(M10,マスタ!$A$1:$B$99,2,0)&amp;"'"&amp;IF(N10="○",", extra: true","")&amp;IF(O10&lt;&gt;"",", extraFrom: '"&amp;O10&amp;"'","")&amp;IF(P10&lt;&gt;"",", exchangableTo: '"&amp;P10&amp;"'","")&amp;IF(Q10="○",", poison: true","")&amp;IF(R10&lt;&gt;"", ", type: '"&amp;VLOOKUP(R10,マスタ!$D$1:$E$99,2,0)&amp;"'", "")&amp;IF(S10&lt;&gt;"",", subType: '"&amp;VLOOKUP(S10,マスタ!$D$1:$E$99,2,0)&amp;"'","")&amp;""&amp;IF(T10&lt;&gt;"",", range: '"&amp;T10&amp;"'","")&amp;IF(V10&lt;&gt;"",", damage: '"&amp;V10&amp;"'","")&amp;IF(X10&lt;&gt;"",", capacity: '"&amp;X10&amp;"'","")&amp;IF(Y10&lt;&gt;"",", growth: "&amp;Y10&amp;"","")&amp;IF(Z10&lt;&gt;"",", cost: '"&amp;Z10&amp;"'","")&amp;", text: '"&amp;SUBSTITUTE(SUBSTITUTE(AD10, CHAR(13), ""),CHAR(10),"\n")&amp;IF(AE10&lt;&gt;"", "', textAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AE10, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textZh: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AF10, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;"', textZhG1: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AH10, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AG10&lt;&gt;"", "', textZhAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AG10, CHAR(13), ""),CHAR(10),"\n"), "")&amp;IF(AI10&lt;&gt;"", "', textZhG1Additional: '"&amp;SUBSTITUTE(SUBSTITUTE(AI10, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textKo: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AJ10, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AK10&lt;&gt;"", "', textKoAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AK10, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textEn: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AL10, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AM10&lt;&gt;"", "', textEnAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AM10, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"'"&amp;IF(AB10="○",", sealable: true","")&amp;IF(AC10="○",", removable: true","")&amp;IF(AA10="○",", lie: true","")&amp;"}")</f>
-        <v>, '23-akina-o-s-2': {megami: 'akina', name: '切札2', nameEn: '', nameZh: '', nameZhG1: '', nameKo: '', ruby: '', rubyEn: '', baseType: 'special', type: 'action', cost: '0', text: '', textZh: '', textZhG1: '', textKo: '', textEn: ''}</v>
-      </c>
-      <c r="AT10" s="5" t="str">
+      <c r="AS10" s="12"/>
+      <c r="AT10" s="14" t="str">
+        <f>IF(A10="", "", IF(ROW()&gt;=3, ", ", "")&amp;"'"&amp;A10&amp;"': {megami: '"&amp;B10&amp;"'"&amp;IF(C10&lt;&gt;"",", anotherID: '"&amp;C10&amp;"', replace: '"&amp;D10&amp;"'","")&amp;", name: '"&amp;SUBSTITUTE(E10,"'","\'")&amp;"', nameEn: '"&amp;SUBSTITUTE(K10,"'","\'")&amp;"', nameZh: '"&amp;SUBSTITUTE(G10,"'","\'")&amp;"', nameZhG1: '"&amp;SUBSTITUTE(H10,"'","\'")&amp;"', nameKo: '"&amp;SUBSTITUTE(J10,"'","\'")&amp;"', ruby: '"&amp;F10&amp;"', rubyEn: '"&amp;L10&amp;IF(I10&lt;&gt;"", "', rubyZh: '"&amp;I10, "")&amp;"', baseType: '"&amp;VLOOKUP(M10,マスタ!$A$1:$B$99,2,0)&amp;"'"&amp;IF(N10="○",", extra: true","")&amp;IF(O10&lt;&gt;"",", extraFrom: '"&amp;O10&amp;"'","")&amp;IF(P10&lt;&gt;"",", exchangableTo: '"&amp;P10&amp;"'","")&amp;IF(Q10="○",", poison: true","")&amp;IF(R10&lt;&gt;"", ", type: '"&amp;VLOOKUP(R10,マスタ!$D$1:$E$99,2,0)&amp;"'", "")&amp;IF(S10&lt;&gt;"",", subType: '"&amp;VLOOKUP(S10,マスタ!$D$1:$E$99,2,0)&amp;"'","")&amp;""&amp;IF(T10&lt;&gt;"",", range: '"&amp;T10&amp;"'","")&amp;IF(V10&lt;&gt;"",", damage: '"&amp;V10&amp;"'","")&amp;IF(X10&lt;&gt;"",", capacity: '"&amp;X10&amp;"'","")&amp;IF(Y10&lt;&gt;"",", growth: "&amp;Y10&amp;"","")&amp;IF(Z10&lt;&gt;"",", cost: '"&amp;Z10&amp;"'","")&amp;", text: '"&amp;SUBSTITUTE(SUBSTITUTE(AE10, CHAR(13), ""),CHAR(10),"\n")&amp;IF(AF10&lt;&gt;"", "', textAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AF10, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textZh: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AG10, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;"', textZhG1: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AI10, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AH10&lt;&gt;"", "', textZhAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AH10, CHAR(13), ""),CHAR(10),"\n"), "")&amp;IF(AJ10&lt;&gt;"", "', textZhG1Additional: '"&amp;SUBSTITUTE(SUBSTITUTE(AJ10, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textKo: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AK10, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AL10&lt;&gt;"", "', textKoAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AL10, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textEn: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AM10, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AN10&lt;&gt;"", "', textEnAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AN10, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"'"&amp;IF(AB10="○",", sealable: true","")&amp;IF(AC10="○",", removable: true","")&amp;IF(AA10="○",", lie: true","")&amp;IF(AD10="○",", investable: true","")&amp;"}")</f>
+        <v>, '23-akina-o-s-2': {megami: 'akina', name: '大衍算顆手打表', nameEn: '', nameZh: '', nameZhG1: '', nameKo: '', ruby: 'だいえんさんかてうちひょう', rubyEn: '', baseType: 'special', type: 'attack', subType: 'reaction', range: '0-10', damage: '2/0', cost: '0', text: '【攻撃後】自フレア→自オーラ：1\n自フロー→自オーラ：1\n自ライフ→自オーラ：1', textZh: '', textZhG1: '', textKo: '', textEn: ''}</v>
+      </c>
+      <c r="AU10" s="5" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">    /** 《切札2》 */ export const AKINA_O_S_2: TCardId = '23-akina-o-s-2';</v>
-      </c>
-      <c r="AU10" s="6" t="str">
+        <v xml:space="preserve">    /** 《大衍算顆手打表》 */ export const AKINA_O_S_2: TCardId = '23-akina-o-s-2';</v>
+      </c>
+      <c r="AV10" s="6" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">    | '23-akina-o-s-2'</v>
       </c>
     </row>
-    <row r="11" spans="1:47" s="11" customFormat="1">
+    <row r="11" spans="1:48" s="11" customFormat="1" ht="60">
       <c r="A11" s="10" t="s">
         <v>96</v>
       </c>
@@ -17120,9 +17576,11 @@
       <c r="C11" s="10"/>
       <c r="D11" s="10"/>
       <c r="E11" s="10" t="s">
-        <v>108</v>
-      </c>
-      <c r="F11" s="10"/>
+        <v>113</v>
+      </c>
+      <c r="F11" s="10" t="s">
+        <v>109</v>
+      </c>
       <c r="G11" s="31"/>
       <c r="H11" s="32"/>
       <c r="I11" s="31"/>
@@ -17137,7 +17595,7 @@
       <c r="P11" s="10"/>
       <c r="Q11" s="10"/>
       <c r="R11" s="10" t="s">
-        <v>110</v>
+        <v>129</v>
       </c>
       <c r="S11" s="10"/>
       <c r="T11" s="10"/>
@@ -17146,41 +17604,46 @@
       <c r="W11" s="12"/>
       <c r="X11" s="10"/>
       <c r="Y11" s="10"/>
-      <c r="Z11" s="10" t="s">
-        <v>111</v>
+      <c r="Z11" s="10">
+        <v>1</v>
       </c>
       <c r="AA11" s="10"/>
       <c r="AB11" s="10"/>
-      <c r="AC11" s="10"/>
-      <c r="AD11" s="35"/>
-      <c r="AE11" s="35"/>
-      <c r="AF11" s="36"/>
-      <c r="AG11" s="35"/>
-      <c r="AH11" s="37"/>
-      <c r="AI11" s="35"/>
-      <c r="AJ11" s="38"/>
-      <c r="AK11" s="35"/>
-      <c r="AL11" s="39"/>
-      <c r="AM11" s="2"/>
-      <c r="AN11" s="12"/>
+      <c r="AC11" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="AD11" s="10"/>
+      <c r="AE11" s="40" t="s">
+        <v>145</v>
+      </c>
+      <c r="AF11" s="35"/>
+      <c r="AG11" s="36"/>
+      <c r="AH11" s="35"/>
+      <c r="AI11" s="37"/>
+      <c r="AJ11" s="35"/>
+      <c r="AK11" s="38"/>
+      <c r="AL11" s="35"/>
+      <c r="AM11" s="39"/>
+      <c r="AN11" s="2"/>
       <c r="AO11" s="12"/>
       <c r="AP11" s="12"/>
       <c r="AQ11" s="12"/>
       <c r="AR11" s="12"/>
-      <c r="AS11" s="14" t="str">
-        <f>IF(A11="", "", IF(ROW()&gt;=3, ", ", "")&amp;"'"&amp;A11&amp;"': {megami: '"&amp;B11&amp;"'"&amp;IF(C11&lt;&gt;"",", anotherID: '"&amp;C11&amp;"', replace: '"&amp;D11&amp;"'","")&amp;", name: '"&amp;SUBSTITUTE(E11,"'","\'")&amp;"', nameEn: '"&amp;SUBSTITUTE(K11,"'","\'")&amp;"', nameZh: '"&amp;SUBSTITUTE(G11,"'","\'")&amp;"', nameZhG1: '"&amp;SUBSTITUTE(H11,"'","\'")&amp;"', nameKo: '"&amp;SUBSTITUTE(J11,"'","\'")&amp;"', ruby: '"&amp;F11&amp;"', rubyEn: '"&amp;L11&amp;IF(I11&lt;&gt;"", "', rubyZh: '"&amp;I11, "")&amp;"', baseType: '"&amp;VLOOKUP(M11,マスタ!$A$1:$B$99,2,0)&amp;"'"&amp;IF(N11="○",", extra: true","")&amp;IF(O11&lt;&gt;"",", extraFrom: '"&amp;O11&amp;"'","")&amp;IF(P11&lt;&gt;"",", exchangableTo: '"&amp;P11&amp;"'","")&amp;IF(Q11="○",", poison: true","")&amp;IF(R11&lt;&gt;"", ", type: '"&amp;VLOOKUP(R11,マスタ!$D$1:$E$99,2,0)&amp;"'", "")&amp;IF(S11&lt;&gt;"",", subType: '"&amp;VLOOKUP(S11,マスタ!$D$1:$E$99,2,0)&amp;"'","")&amp;""&amp;IF(T11&lt;&gt;"",", range: '"&amp;T11&amp;"'","")&amp;IF(V11&lt;&gt;"",", damage: '"&amp;V11&amp;"'","")&amp;IF(X11&lt;&gt;"",", capacity: '"&amp;X11&amp;"'","")&amp;IF(Y11&lt;&gt;"",", growth: "&amp;Y11&amp;"","")&amp;IF(Z11&lt;&gt;"",", cost: '"&amp;Z11&amp;"'","")&amp;", text: '"&amp;SUBSTITUTE(SUBSTITUTE(AD11, CHAR(13), ""),CHAR(10),"\n")&amp;IF(AE11&lt;&gt;"", "', textAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AE11, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textZh: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AF11, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;"', textZhG1: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AH11, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AG11&lt;&gt;"", "', textZhAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AG11, CHAR(13), ""),CHAR(10),"\n"), "")&amp;IF(AI11&lt;&gt;"", "', textZhG1Additional: '"&amp;SUBSTITUTE(SUBSTITUTE(AI11, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textKo: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AJ11, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AK11&lt;&gt;"", "', textKoAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AK11, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textEn: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AL11, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AM11&lt;&gt;"", "', textEnAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AM11, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"'"&amp;IF(AB11="○",", sealable: true","")&amp;IF(AC11="○",", removable: true","")&amp;IF(AA11="○",", lie: true","")&amp;"}")</f>
-        <v>, '23-akina-o-s-3': {megami: 'akina', name: '切札3', nameEn: '', nameZh: '', nameZhG1: '', nameKo: '', ruby: '', rubyEn: '', baseType: 'special', type: 'action', cost: '0', text: '', textZh: '', textZhG1: '', textKo: '', textEn: ''}</v>
-      </c>
-      <c r="AT11" s="5" t="str">
-        <f t="shared" ref="AT11:AT18" si="2">IF($A11&lt;&gt;"", "    /** 《"&amp;$E11&amp;"》 */ export const "&amp;SUBSTITUTE(UPPER(IF(MID($A11, 3, 1)="-", RIGHT($A11,LEN($A11)-3), $A11)), "-", "_")&amp;": TCardId = '"&amp;$A11&amp;"';", "")</f>
-        <v xml:space="preserve">    /** 《切札3》 */ export const AKINA_O_S_3: TCardId = '23-akina-o-s-3';</v>
-      </c>
-      <c r="AU11" s="6" t="str">
-        <f t="shared" ref="AU11:AU18" si="3">IF($A11&lt;&gt;"", "    | '"&amp;$A11&amp;"'", "")</f>
+      <c r="AS11" s="12"/>
+      <c r="AT11" s="14" t="str">
+        <f>IF(A11="", "", IF(ROW()&gt;=3, ", ", "")&amp;"'"&amp;A11&amp;"': {megami: '"&amp;B11&amp;"'"&amp;IF(C11&lt;&gt;"",", anotherID: '"&amp;C11&amp;"', replace: '"&amp;D11&amp;"'","")&amp;", name: '"&amp;SUBSTITUTE(E11,"'","\'")&amp;"', nameEn: '"&amp;SUBSTITUTE(K11,"'","\'")&amp;"', nameZh: '"&amp;SUBSTITUTE(G11,"'","\'")&amp;"', nameZhG1: '"&amp;SUBSTITUTE(H11,"'","\'")&amp;"', nameKo: '"&amp;SUBSTITUTE(J11,"'","\'")&amp;"', ruby: '"&amp;F11&amp;"', rubyEn: '"&amp;L11&amp;IF(I11&lt;&gt;"", "', rubyZh: '"&amp;I11, "")&amp;"', baseType: '"&amp;VLOOKUP(M11,マスタ!$A$1:$B$99,2,0)&amp;"'"&amp;IF(N11="○",", extra: true","")&amp;IF(O11&lt;&gt;"",", extraFrom: '"&amp;O11&amp;"'","")&amp;IF(P11&lt;&gt;"",", exchangableTo: '"&amp;P11&amp;"'","")&amp;IF(Q11="○",", poison: true","")&amp;IF(R11&lt;&gt;"", ", type: '"&amp;VLOOKUP(R11,マスタ!$D$1:$E$99,2,0)&amp;"'", "")&amp;IF(S11&lt;&gt;"",", subType: '"&amp;VLOOKUP(S11,マスタ!$D$1:$E$99,2,0)&amp;"'","")&amp;""&amp;IF(T11&lt;&gt;"",", range: '"&amp;T11&amp;"'","")&amp;IF(V11&lt;&gt;"",", damage: '"&amp;V11&amp;"'","")&amp;IF(X11&lt;&gt;"",", capacity: '"&amp;X11&amp;"'","")&amp;IF(Y11&lt;&gt;"",", growth: "&amp;Y11&amp;"","")&amp;IF(Z11&lt;&gt;"",", cost: '"&amp;Z11&amp;"'","")&amp;", text: '"&amp;SUBSTITUTE(SUBSTITUTE(AE11, CHAR(13), ""),CHAR(10),"\n")&amp;IF(AF11&lt;&gt;"", "', textAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AF11, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textZh: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AG11, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;"', textZhG1: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AI11, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AH11&lt;&gt;"", "', textZhAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AH11, CHAR(13), ""),CHAR(10),"\n"), "")&amp;IF(AJ11&lt;&gt;"", "', textZhG1Additional: '"&amp;SUBSTITUTE(SUBSTITUTE(AJ11, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textKo: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AK11, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AL11&lt;&gt;"", "', textKoAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AL11, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textEn: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AM11, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AN11&lt;&gt;"", "', textEnAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AN11, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"'"&amp;IF(AB11="○",", sealable: true","")&amp;IF(AC11="○",", removable: true","")&amp;IF(AA11="○",", lie: true","")&amp;IF(AD11="○",", investable: true","")&amp;"}")</f>
+        <v>, '23-akina-o-s-3': {megami: 'akina', name: '衰垜逐肘守料術', nameEn: '', nameZh: '', nameZhG1: '', nameKo: '', ruby: 'すいだちくちゅうもりりょうじゅつ', rubyEn: '', baseType: 'special', type: 'enhance', cost: '1', text: '【展開時】あなたのライフからフレアへと桜花結晶を4つ移動させる。\n【展開中】このカードの効果以外でこの付与札の上の桜花結晶は移動しない。\n【展開中】あなたのライフが0の時にあなたが敗北するならば、代わりにあなたのフレアからライフへと桜花結晶を4つ移動させる。その後、この上の桜花結晶を全てダストに送り、このカードを取り除く。', textZh: '', textZhG1: '', textKo: '', textEn: '', removable: true}</v>
+      </c>
+      <c r="AU11" s="5" t="str">
+        <f t="shared" ref="AU11:AU18" si="2">IF($A11&lt;&gt;"", "    /** 《"&amp;$E11&amp;"》 */ export const "&amp;SUBSTITUTE(UPPER(IF(MID($A11, 3, 1)="-", RIGHT($A11,LEN($A11)-3), $A11)), "-", "_")&amp;": TCardId = '"&amp;$A11&amp;"';", "")</f>
+        <v xml:space="preserve">    /** 《衰垜逐肘守料術》 */ export const AKINA_O_S_3: TCardId = '23-akina-o-s-3';</v>
+      </c>
+      <c r="AV11" s="6" t="str">
+        <f t="shared" ref="AV11:AV18" si="3">IF($A11&lt;&gt;"", "    | '"&amp;$A11&amp;"'", "")</f>
         <v xml:space="preserve">    | '23-akina-o-s-3'</v>
       </c>
     </row>
-    <row r="12" spans="1:47" s="11" customFormat="1">
+    <row r="12" spans="1:48" s="11" customFormat="1" ht="66">
       <c r="A12" s="10" t="s">
         <v>97</v>
       </c>
@@ -17190,9 +17653,11 @@
       <c r="C12" s="10"/>
       <c r="D12" s="10"/>
       <c r="E12" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="F12" s="10"/>
+        <v>114</v>
+      </c>
+      <c r="F12" s="10" t="s">
+        <v>110</v>
+      </c>
       <c r="G12" s="31"/>
       <c r="H12" s="32"/>
       <c r="I12" s="31"/>
@@ -17207,7 +17672,7 @@
       <c r="P12" s="10"/>
       <c r="Q12" s="10"/>
       <c r="R12" s="10" t="s">
-        <v>110</v>
+        <v>128</v>
       </c>
       <c r="S12" s="10"/>
       <c r="T12" s="10"/>
@@ -17217,40 +17682,45 @@
       <c r="X12" s="10"/>
       <c r="Y12" s="10"/>
       <c r="Z12" s="10" t="s">
-        <v>112</v>
+        <v>130</v>
       </c>
       <c r="AA12" s="10"/>
       <c r="AB12" s="10"/>
       <c r="AC12" s="10"/>
-      <c r="AD12" s="35"/>
-      <c r="AE12" s="35"/>
-      <c r="AF12" s="36"/>
-      <c r="AG12" s="35"/>
-      <c r="AH12" s="37"/>
-      <c r="AI12" s="35"/>
-      <c r="AJ12" s="38"/>
-      <c r="AK12" s="35"/>
-      <c r="AL12" s="39"/>
-      <c r="AM12" s="2"/>
-      <c r="AN12" s="12"/>
+      <c r="AD12" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="AE12" s="40" t="s">
+        <v>148</v>
+      </c>
+      <c r="AF12" s="35"/>
+      <c r="AG12" s="36"/>
+      <c r="AH12" s="35"/>
+      <c r="AI12" s="37"/>
+      <c r="AJ12" s="35"/>
+      <c r="AK12" s="38"/>
+      <c r="AL12" s="35"/>
+      <c r="AM12" s="39"/>
+      <c r="AN12" s="2"/>
       <c r="AO12" s="12"/>
       <c r="AP12" s="12"/>
       <c r="AQ12" s="12"/>
       <c r="AR12" s="12"/>
-      <c r="AS12" s="14" t="str">
-        <f>IF(A12="", "", IF(ROW()&gt;=3, ", ", "")&amp;"'"&amp;A12&amp;"': {megami: '"&amp;B12&amp;"'"&amp;IF(C12&lt;&gt;"",", anotherID: '"&amp;C12&amp;"', replace: '"&amp;D12&amp;"'","")&amp;", name: '"&amp;SUBSTITUTE(E12,"'","\'")&amp;"', nameEn: '"&amp;SUBSTITUTE(K12,"'","\'")&amp;"', nameZh: '"&amp;SUBSTITUTE(G12,"'","\'")&amp;"', nameZhG1: '"&amp;SUBSTITUTE(H12,"'","\'")&amp;"', nameKo: '"&amp;SUBSTITUTE(J12,"'","\'")&amp;"', ruby: '"&amp;F12&amp;"', rubyEn: '"&amp;L12&amp;IF(I12&lt;&gt;"", "', rubyZh: '"&amp;I12, "")&amp;"', baseType: '"&amp;VLOOKUP(M12,マスタ!$A$1:$B$99,2,0)&amp;"'"&amp;IF(N12="○",", extra: true","")&amp;IF(O12&lt;&gt;"",", extraFrom: '"&amp;O12&amp;"'","")&amp;IF(P12&lt;&gt;"",", exchangableTo: '"&amp;P12&amp;"'","")&amp;IF(Q12="○",", poison: true","")&amp;IF(R12&lt;&gt;"", ", type: '"&amp;VLOOKUP(R12,マスタ!$D$1:$E$99,2,0)&amp;"'", "")&amp;IF(S12&lt;&gt;"",", subType: '"&amp;VLOOKUP(S12,マスタ!$D$1:$E$99,2,0)&amp;"'","")&amp;""&amp;IF(T12&lt;&gt;"",", range: '"&amp;T12&amp;"'","")&amp;IF(V12&lt;&gt;"",", damage: '"&amp;V12&amp;"'","")&amp;IF(X12&lt;&gt;"",", capacity: '"&amp;X12&amp;"'","")&amp;IF(Y12&lt;&gt;"",", growth: "&amp;Y12&amp;"","")&amp;IF(Z12&lt;&gt;"",", cost: '"&amp;Z12&amp;"'","")&amp;", text: '"&amp;SUBSTITUTE(SUBSTITUTE(AD12, CHAR(13), ""),CHAR(10),"\n")&amp;IF(AE12&lt;&gt;"", "', textAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AE12, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textZh: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AF12, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;"', textZhG1: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AH12, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AG12&lt;&gt;"", "', textZhAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AG12, CHAR(13), ""),CHAR(10),"\n"), "")&amp;IF(AI12&lt;&gt;"", "', textZhG1Additional: '"&amp;SUBSTITUTE(SUBSTITUTE(AI12, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textKo: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AJ12, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AK12&lt;&gt;"", "', textKoAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AK12, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textEn: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AL12, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AM12&lt;&gt;"", "', textEnAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AM12, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"'"&amp;IF(AB12="○",", sealable: true","")&amp;IF(AC12="○",", removable: true","")&amp;IF(AA12="○",", lie: true","")&amp;"}")</f>
-        <v>, '23-akina-o-s-4': {megami: 'akina', name: '切札4', nameEn: '', nameZh: '', nameZhG1: '', nameKo: '', ruby: '', rubyEn: '', baseType: 'special', type: 'action', cost: '0', text: '', textZh: '', textZhG1: '', textKo: '', textEn: ''}</v>
-      </c>
-      <c r="AT12" s="5" t="str">
+      <c r="AS12" s="12"/>
+      <c r="AT12" s="14" t="str">
+        <f>IF(A12="", "", IF(ROW()&gt;=3, ", ", "")&amp;"'"&amp;A12&amp;"': {megami: '"&amp;B12&amp;"'"&amp;IF(C12&lt;&gt;"",", anotherID: '"&amp;C12&amp;"', replace: '"&amp;D12&amp;"'","")&amp;", name: '"&amp;SUBSTITUTE(E12,"'","\'")&amp;"', nameEn: '"&amp;SUBSTITUTE(K12,"'","\'")&amp;"', nameZh: '"&amp;SUBSTITUTE(G12,"'","\'")&amp;"', nameZhG1: '"&amp;SUBSTITUTE(H12,"'","\'")&amp;"', nameKo: '"&amp;SUBSTITUTE(J12,"'","\'")&amp;"', ruby: '"&amp;F12&amp;"', rubyEn: '"&amp;L12&amp;IF(I12&lt;&gt;"", "', rubyZh: '"&amp;I12, "")&amp;"', baseType: '"&amp;VLOOKUP(M12,マスタ!$A$1:$B$99,2,0)&amp;"'"&amp;IF(N12="○",", extra: true","")&amp;IF(O12&lt;&gt;"",", extraFrom: '"&amp;O12&amp;"'","")&amp;IF(P12&lt;&gt;"",", exchangableTo: '"&amp;P12&amp;"'","")&amp;IF(Q12="○",", poison: true","")&amp;IF(R12&lt;&gt;"", ", type: '"&amp;VLOOKUP(R12,マスタ!$D$1:$E$99,2,0)&amp;"'", "")&amp;IF(S12&lt;&gt;"",", subType: '"&amp;VLOOKUP(S12,マスタ!$D$1:$E$99,2,0)&amp;"'","")&amp;""&amp;IF(T12&lt;&gt;"",", range: '"&amp;T12&amp;"'","")&amp;IF(V12&lt;&gt;"",", damage: '"&amp;V12&amp;"'","")&amp;IF(X12&lt;&gt;"",", capacity: '"&amp;X12&amp;"'","")&amp;IF(Y12&lt;&gt;"",", growth: "&amp;Y12&amp;"","")&amp;IF(Z12&lt;&gt;"",", cost: '"&amp;Z12&amp;"'","")&amp;", text: '"&amp;SUBSTITUTE(SUBSTITUTE(AE12, CHAR(13), ""),CHAR(10),"\n")&amp;IF(AF12&lt;&gt;"", "', textAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AF12, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textZh: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AG12, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;"', textZhG1: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AI12, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AH12&lt;&gt;"", "', textZhAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AH12, CHAR(13), ""),CHAR(10),"\n"), "")&amp;IF(AJ12&lt;&gt;"", "', textZhG1Additional: '"&amp;SUBSTITUTE(SUBSTITUTE(AJ12, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textKo: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AK12, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AL12&lt;&gt;"", "', textKoAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AL12, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textEn: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AM12, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AN12&lt;&gt;"", "', textEnAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AN12, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"'"&amp;IF(AB12="○",", sealable: true","")&amp;IF(AC12="○",", removable: true","")&amp;IF(AA12="○",", lie: true","")&amp;IF(AD12="○",", investable: true","")&amp;"}")</f>
+        <v>, '23-akina-o-s-4': {megami: 'akina', name: '源上安岐那の御明算', nameEn: '', nameZh: '', nameZhG1: '', nameKo: '', ruby: 'みなかみあきなのごめいさん', rubyEn: '', baseType: 'special', type: 'action', cost: '時価', text: '間合制限（0-7）　投資券\n回収を行ってもよい。そうした場合、基本動作《纏い》を2回まで行い、このカードを取り除く。\n【使用済】あなたの開始フェイズの開始時に基本動作《宿し》を1回行ってもよい。', textZh: '', textZhG1: '', textKo: '', textEn: '', investable: true}</v>
+      </c>
+      <c r="AU12" s="5" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">    /** 《切札4》 */ export const AKINA_O_S_4: TCardId = '23-akina-o-s-4';</v>
-      </c>
-      <c r="AU12" s="6" t="str">
+        <v xml:space="preserve">    /** 《源上安岐那の御明算》 */ export const AKINA_O_S_4: TCardId = '23-akina-o-s-4';</v>
+      </c>
+      <c r="AV12" s="6" t="str">
         <f t="shared" si="3"/>
         <v xml:space="preserve">    | '23-akina-o-s-4'</v>
       </c>
     </row>
-    <row r="13" spans="1:47">
+    <row r="13" spans="1:48">
       <c r="A13" s="16"/>
       <c r="B13" s="16"/>
       <c r="C13" s="16"/>
@@ -17280,35 +17750,36 @@
       <c r="AA13" s="16"/>
       <c r="AB13" s="16"/>
       <c r="AC13" s="16"/>
-      <c r="AD13" s="21"/>
+      <c r="AD13" s="16"/>
       <c r="AE13" s="21"/>
-      <c r="AF13" s="13"/>
-      <c r="AG13" s="21"/>
-      <c r="AH13" s="13"/>
-      <c r="AI13" s="21"/>
+      <c r="AF13" s="21"/>
+      <c r="AG13" s="13"/>
+      <c r="AH13" s="21"/>
+      <c r="AI13" s="13"/>
       <c r="AJ13" s="21"/>
-      <c r="AK13" s="19"/>
-      <c r="AL13" s="21"/>
-      <c r="AM13" s="19"/>
-      <c r="AN13" s="18"/>
+      <c r="AK13" s="21"/>
+      <c r="AL13" s="19"/>
+      <c r="AM13" s="21"/>
+      <c r="AN13" s="19"/>
       <c r="AO13" s="18"/>
       <c r="AP13" s="18"/>
       <c r="AQ13" s="18"/>
       <c r="AR13" s="18"/>
-      <c r="AS13" s="14" t="str">
-        <f>IF(A13="", "", IF(ROW()&gt;=3, ", ", "")&amp;"'"&amp;A13&amp;"': {megami: '"&amp;B13&amp;"'"&amp;IF(C13&lt;&gt;"",", anotherID: '"&amp;C13&amp;"', replace: '"&amp;D13&amp;"'","")&amp;", name: '"&amp;SUBSTITUTE(E13,"'","\'")&amp;"', nameEn: '"&amp;SUBSTITUTE(K13,"'","\'")&amp;"', nameZh: '"&amp;SUBSTITUTE(G13,"'","\'")&amp;"', nameZhG1: '"&amp;SUBSTITUTE(H13,"'","\'")&amp;"', nameKo: '"&amp;SUBSTITUTE(J13,"'","\'")&amp;"', ruby: '"&amp;F13&amp;"', rubyEn: '"&amp;L13&amp;IF(I13&lt;&gt;"", "', rubyZh: '"&amp;I13, "")&amp;"', baseType: '"&amp;VLOOKUP(M13,マスタ!$A$1:$B$99,2,0)&amp;"'"&amp;IF(N13="○",", extra: true","")&amp;IF(O13&lt;&gt;"",", extraFrom: '"&amp;O13&amp;"'","")&amp;IF(P13&lt;&gt;"",", exchangableTo: '"&amp;P13&amp;"'","")&amp;IF(Q13="○",", poison: true","")&amp;IF(R13&lt;&gt;"", ", type: '"&amp;VLOOKUP(R13,マスタ!$D$1:$E$99,2,0)&amp;"'", "")&amp;IF(S13&lt;&gt;"",", subType: '"&amp;VLOOKUP(S13,マスタ!$D$1:$E$99,2,0)&amp;"'","")&amp;""&amp;IF(T13&lt;&gt;"",", range: '"&amp;T13&amp;"'","")&amp;IF(V13&lt;&gt;"",", damage: '"&amp;V13&amp;"'","")&amp;IF(X13&lt;&gt;"",", capacity: '"&amp;X13&amp;"'","")&amp;IF(Y13&lt;&gt;"",", growth: "&amp;Y13&amp;"","")&amp;IF(Z13&lt;&gt;"",", cost: '"&amp;Z13&amp;"'","")&amp;", text: '"&amp;SUBSTITUTE(SUBSTITUTE(AD13, CHAR(13), ""),CHAR(10),"\n")&amp;IF(AE13&lt;&gt;"", "', textAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AE13, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textZh: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AF13, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;"', textZhG1: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AH13, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AG13&lt;&gt;"", "', textZhAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AG13, CHAR(13), ""),CHAR(10),"\n"), "")&amp;IF(AI13&lt;&gt;"", "', textZhG1Additional: '"&amp;SUBSTITUTE(SUBSTITUTE(AI13, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textKo: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AJ13, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AK13&lt;&gt;"", "', textKoAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AK13, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textEn: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AL13, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AM13&lt;&gt;"", "', textEnAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AM13, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"'"&amp;IF(AB13="○",", sealable: true","")&amp;IF(AC13="○",", removable: true","")&amp;"}")</f>
+      <c r="AS13" s="18"/>
+      <c r="AT13" s="14" t="str">
+        <f>IF(A13="", "", IF(ROW()&gt;=3, ", ", "")&amp;"'"&amp;A13&amp;"': {megami: '"&amp;B13&amp;"'"&amp;IF(C13&lt;&gt;"",", anotherID: '"&amp;C13&amp;"', replace: '"&amp;D13&amp;"'","")&amp;", name: '"&amp;SUBSTITUTE(E13,"'","\'")&amp;"', nameEn: '"&amp;SUBSTITUTE(K13,"'","\'")&amp;"', nameZh: '"&amp;SUBSTITUTE(G13,"'","\'")&amp;"', nameZhG1: '"&amp;SUBSTITUTE(H13,"'","\'")&amp;"', nameKo: '"&amp;SUBSTITUTE(J13,"'","\'")&amp;"', ruby: '"&amp;F13&amp;"', rubyEn: '"&amp;L13&amp;IF(I13&lt;&gt;"", "', rubyZh: '"&amp;I13, "")&amp;"', baseType: '"&amp;VLOOKUP(M13,マスタ!$A$1:$B$99,2,0)&amp;"'"&amp;IF(N13="○",", extra: true","")&amp;IF(O13&lt;&gt;"",", extraFrom: '"&amp;O13&amp;"'","")&amp;IF(P13&lt;&gt;"",", exchangableTo: '"&amp;P13&amp;"'","")&amp;IF(Q13="○",", poison: true","")&amp;IF(R13&lt;&gt;"", ", type: '"&amp;VLOOKUP(R13,マスタ!$D$1:$E$99,2,0)&amp;"'", "")&amp;IF(S13&lt;&gt;"",", subType: '"&amp;VLOOKUP(S13,マスタ!$D$1:$E$99,2,0)&amp;"'","")&amp;""&amp;IF(T13&lt;&gt;"",", range: '"&amp;T13&amp;"'","")&amp;IF(V13&lt;&gt;"",", damage: '"&amp;V13&amp;"'","")&amp;IF(X13&lt;&gt;"",", capacity: '"&amp;X13&amp;"'","")&amp;IF(Y13&lt;&gt;"",", growth: "&amp;Y13&amp;"","")&amp;IF(Z13&lt;&gt;"",", cost: '"&amp;Z13&amp;"'","")&amp;", text: '"&amp;SUBSTITUTE(SUBSTITUTE(AE13, CHAR(13), ""),CHAR(10),"\n")&amp;IF(AF13&lt;&gt;"", "', textAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AF13, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textZh: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AG13, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;"', textZhG1: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AI13, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AH13&lt;&gt;"", "', textZhAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AH13, CHAR(13), ""),CHAR(10),"\n"), "")&amp;IF(AJ13&lt;&gt;"", "', textZhG1Additional: '"&amp;SUBSTITUTE(SUBSTITUTE(AJ13, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textKo: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AK13, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AL13&lt;&gt;"", "', textKoAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AL13, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textEn: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AM13, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AN13&lt;&gt;"", "', textEnAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AN13, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"'"&amp;IF(AB13="○",", sealable: true","")&amp;IF(AC13="○",", removable: true","")&amp;"}")</f>
         <v/>
       </c>
-      <c r="AT13" s="5" t="str">
+      <c r="AU13" s="5" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="AU13" s="6" t="str">
+      <c r="AV13" s="6" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:47">
+    <row r="14" spans="1:48">
       <c r="A14" s="16"/>
       <c r="B14" s="16"/>
       <c r="C14" s="16"/>
@@ -17338,35 +17809,36 @@
       <c r="AA14" s="16"/>
       <c r="AB14" s="16"/>
       <c r="AC14" s="16"/>
-      <c r="AD14" s="21"/>
+      <c r="AD14" s="16"/>
       <c r="AE14" s="21"/>
-      <c r="AF14" s="13"/>
-      <c r="AG14" s="21"/>
-      <c r="AH14" s="13"/>
-      <c r="AI14" s="21"/>
+      <c r="AF14" s="21"/>
+      <c r="AG14" s="13"/>
+      <c r="AH14" s="21"/>
+      <c r="AI14" s="13"/>
       <c r="AJ14" s="21"/>
-      <c r="AK14" s="19"/>
-      <c r="AL14" s="21"/>
-      <c r="AM14" s="19"/>
-      <c r="AN14" s="18"/>
+      <c r="AK14" s="21"/>
+      <c r="AL14" s="19"/>
+      <c r="AM14" s="21"/>
+      <c r="AN14" s="19"/>
       <c r="AO14" s="18"/>
       <c r="AP14" s="18"/>
       <c r="AQ14" s="18"/>
       <c r="AR14" s="18"/>
-      <c r="AS14" s="14" t="str">
-        <f>IF(A14="", "", IF(ROW()&gt;=3, ", ", "")&amp;"'"&amp;A14&amp;"': {megami: '"&amp;B14&amp;"'"&amp;IF(C14&lt;&gt;"",", anotherID: '"&amp;C14&amp;"', replace: '"&amp;D14&amp;"'","")&amp;", name: '"&amp;SUBSTITUTE(E14,"'","\'")&amp;"', nameEn: '"&amp;SUBSTITUTE(K14,"'","\'")&amp;"', nameZh: '"&amp;SUBSTITUTE(G14,"'","\'")&amp;"', nameZhG1: '"&amp;SUBSTITUTE(H14,"'","\'")&amp;"', nameKo: '"&amp;SUBSTITUTE(J14,"'","\'")&amp;"', ruby: '"&amp;F14&amp;"', rubyEn: '"&amp;L14&amp;IF(I14&lt;&gt;"", "', rubyZh: '"&amp;I14, "")&amp;"', baseType: '"&amp;VLOOKUP(M14,マスタ!$A$1:$B$99,2,0)&amp;"'"&amp;IF(N14="○",", extra: true","")&amp;IF(O14&lt;&gt;"",", extraFrom: '"&amp;O14&amp;"'","")&amp;IF(P14&lt;&gt;"",", exchangableTo: '"&amp;P14&amp;"'","")&amp;IF(Q14="○",", poison: true","")&amp;IF(R14&lt;&gt;"", ", type: '"&amp;VLOOKUP(R14,マスタ!$D$1:$E$99,2,0)&amp;"'", "")&amp;IF(S14&lt;&gt;"",", subType: '"&amp;VLOOKUP(S14,マスタ!$D$1:$E$99,2,0)&amp;"'","")&amp;""&amp;IF(T14&lt;&gt;"",", range: '"&amp;T14&amp;"'","")&amp;IF(V14&lt;&gt;"",", damage: '"&amp;V14&amp;"'","")&amp;IF(X14&lt;&gt;"",", capacity: '"&amp;X14&amp;"'","")&amp;IF(Y14&lt;&gt;"",", growth: "&amp;Y14&amp;"","")&amp;IF(Z14&lt;&gt;"",", cost: '"&amp;Z14&amp;"'","")&amp;", text: '"&amp;SUBSTITUTE(SUBSTITUTE(AD14, CHAR(13), ""),CHAR(10),"\n")&amp;IF(AE14&lt;&gt;"", "', textAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AE14, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textZh: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AF14, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;"', textZhG1: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AH14, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AG14&lt;&gt;"", "', textZhAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AG14, CHAR(13), ""),CHAR(10),"\n"), "")&amp;IF(AI14&lt;&gt;"", "', textZhG1Additional: '"&amp;SUBSTITUTE(SUBSTITUTE(AI14, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textKo: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AJ14, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AK14&lt;&gt;"", "', textKoAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AK14, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textEn: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AL14, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AM14&lt;&gt;"", "', textEnAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AM14, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"'"&amp;IF(AB14="○",", sealable: true","")&amp;IF(AC14="○",", removable: true","")&amp;"}")</f>
+      <c r="AS14" s="18"/>
+      <c r="AT14" s="14" t="str">
+        <f>IF(A14="", "", IF(ROW()&gt;=3, ", ", "")&amp;"'"&amp;A14&amp;"': {megami: '"&amp;B14&amp;"'"&amp;IF(C14&lt;&gt;"",", anotherID: '"&amp;C14&amp;"', replace: '"&amp;D14&amp;"'","")&amp;", name: '"&amp;SUBSTITUTE(E14,"'","\'")&amp;"', nameEn: '"&amp;SUBSTITUTE(K14,"'","\'")&amp;"', nameZh: '"&amp;SUBSTITUTE(G14,"'","\'")&amp;"', nameZhG1: '"&amp;SUBSTITUTE(H14,"'","\'")&amp;"', nameKo: '"&amp;SUBSTITUTE(J14,"'","\'")&amp;"', ruby: '"&amp;F14&amp;"', rubyEn: '"&amp;L14&amp;IF(I14&lt;&gt;"", "', rubyZh: '"&amp;I14, "")&amp;"', baseType: '"&amp;VLOOKUP(M14,マスタ!$A$1:$B$99,2,0)&amp;"'"&amp;IF(N14="○",", extra: true","")&amp;IF(O14&lt;&gt;"",", extraFrom: '"&amp;O14&amp;"'","")&amp;IF(P14&lt;&gt;"",", exchangableTo: '"&amp;P14&amp;"'","")&amp;IF(Q14="○",", poison: true","")&amp;IF(R14&lt;&gt;"", ", type: '"&amp;VLOOKUP(R14,マスタ!$D$1:$E$99,2,0)&amp;"'", "")&amp;IF(S14&lt;&gt;"",", subType: '"&amp;VLOOKUP(S14,マスタ!$D$1:$E$99,2,0)&amp;"'","")&amp;""&amp;IF(T14&lt;&gt;"",", range: '"&amp;T14&amp;"'","")&amp;IF(V14&lt;&gt;"",", damage: '"&amp;V14&amp;"'","")&amp;IF(X14&lt;&gt;"",", capacity: '"&amp;X14&amp;"'","")&amp;IF(Y14&lt;&gt;"",", growth: "&amp;Y14&amp;"","")&amp;IF(Z14&lt;&gt;"",", cost: '"&amp;Z14&amp;"'","")&amp;", text: '"&amp;SUBSTITUTE(SUBSTITUTE(AE14, CHAR(13), ""),CHAR(10),"\n")&amp;IF(AF14&lt;&gt;"", "', textAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AF14, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textZh: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AG14, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;"', textZhG1: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AI14, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AH14&lt;&gt;"", "', textZhAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AH14, CHAR(13), ""),CHAR(10),"\n"), "")&amp;IF(AJ14&lt;&gt;"", "', textZhG1Additional: '"&amp;SUBSTITUTE(SUBSTITUTE(AJ14, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textKo: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AK14, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AL14&lt;&gt;"", "', textKoAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AL14, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textEn: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AM14, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AN14&lt;&gt;"", "', textEnAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AN14, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"'"&amp;IF(AB14="○",", sealable: true","")&amp;IF(AC14="○",", removable: true","")&amp;"}")</f>
         <v/>
       </c>
-      <c r="AT14" s="5" t="str">
+      <c r="AU14" s="5" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="AU14" s="6" t="str">
+      <c r="AV14" s="6" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:47" ht="60.75" customHeight="1">
+    <row r="15" spans="1:48" ht="60.75" customHeight="1">
       <c r="A15" s="16"/>
       <c r="B15" s="16"/>
       <c r="C15" s="16"/>
@@ -17396,35 +17868,36 @@
       <c r="AA15" s="16"/>
       <c r="AB15" s="16"/>
       <c r="AC15" s="16"/>
-      <c r="AD15" s="21"/>
-      <c r="AE15" s="25"/>
-      <c r="AF15" s="13"/>
-      <c r="AG15" s="25"/>
-      <c r="AH15" s="13"/>
-      <c r="AI15" s="25"/>
-      <c r="AJ15" s="21"/>
-      <c r="AK15" s="25"/>
-      <c r="AL15" s="21"/>
-      <c r="AM15" s="25"/>
-      <c r="AN15" s="18"/>
+      <c r="AD15" s="16"/>
+      <c r="AE15" s="21"/>
+      <c r="AF15" s="25"/>
+      <c r="AG15" s="13"/>
+      <c r="AH15" s="25"/>
+      <c r="AI15" s="13"/>
+      <c r="AJ15" s="25"/>
+      <c r="AK15" s="21"/>
+      <c r="AL15" s="25"/>
+      <c r="AM15" s="21"/>
+      <c r="AN15" s="25"/>
       <c r="AO15" s="18"/>
       <c r="AP15" s="18"/>
       <c r="AQ15" s="18"/>
       <c r="AR15" s="18"/>
-      <c r="AS15" s="14" t="str">
-        <f>IF(A15="", "", IF(ROW()&gt;=3, ", ", "")&amp;"'"&amp;A15&amp;"': {megami: '"&amp;B15&amp;"'"&amp;IF(C15&lt;&gt;"",", anotherID: '"&amp;C15&amp;"', replace: '"&amp;D15&amp;"'","")&amp;", name: '"&amp;SUBSTITUTE(E15,"'","\'")&amp;"', nameEn: '"&amp;SUBSTITUTE(K15,"'","\'")&amp;"', nameZh: '"&amp;SUBSTITUTE(G15,"'","\'")&amp;"', nameZhG1: '"&amp;SUBSTITUTE(H15,"'","\'")&amp;"', nameKo: '"&amp;SUBSTITUTE(J15,"'","\'")&amp;"', ruby: '"&amp;F15&amp;"', rubyEn: '"&amp;L15&amp;IF(I15&lt;&gt;"", "', rubyZh: '"&amp;I15, "")&amp;"', baseType: '"&amp;VLOOKUP(M15,マスタ!$A$1:$B$99,2,0)&amp;"'"&amp;IF(N15="○",", extra: true","")&amp;IF(O15&lt;&gt;"",", extraFrom: '"&amp;O15&amp;"'","")&amp;IF(P15&lt;&gt;"",", exchangableTo: '"&amp;P15&amp;"'","")&amp;IF(Q15="○",", poison: true","")&amp;IF(R15&lt;&gt;"", ", type: '"&amp;VLOOKUP(R15,マスタ!$D$1:$E$99,2,0)&amp;"'", "")&amp;IF(S15&lt;&gt;"",", subType: '"&amp;VLOOKUP(S15,マスタ!$D$1:$E$99,2,0)&amp;"'","")&amp;""&amp;IF(T15&lt;&gt;"",", range: '"&amp;T15&amp;"'","")&amp;IF(V15&lt;&gt;"",", damage: '"&amp;V15&amp;"'","")&amp;IF(X15&lt;&gt;"",", capacity: '"&amp;X15&amp;"'","")&amp;IF(Y15&lt;&gt;"",", growth: "&amp;Y15&amp;"","")&amp;IF(Z15&lt;&gt;"",", cost: '"&amp;Z15&amp;"'","")&amp;", text: '"&amp;SUBSTITUTE(SUBSTITUTE(AD15, CHAR(13), ""),CHAR(10),"\n")&amp;IF(AE15&lt;&gt;"", "', textAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AE15, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textZh: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AF15, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;"', textZhG1: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AH15, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AG15&lt;&gt;"", "', textZhAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AG15, CHAR(13), ""),CHAR(10),"\n"), "")&amp;IF(AI15&lt;&gt;"", "', textZhG1Additional: '"&amp;SUBSTITUTE(SUBSTITUTE(AI15, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textKo: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AJ15, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AK15&lt;&gt;"", "', textKoAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AK15, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textEn: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AL15, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AM15&lt;&gt;"", "', textEnAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AM15, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"'"&amp;IF(AB15="○",", sealable: true","")&amp;IF(AC15="○",", removable: true","")&amp;"}")</f>
+      <c r="AS15" s="18"/>
+      <c r="AT15" s="14" t="str">
+        <f>IF(A15="", "", IF(ROW()&gt;=3, ", ", "")&amp;"'"&amp;A15&amp;"': {megami: '"&amp;B15&amp;"'"&amp;IF(C15&lt;&gt;"",", anotherID: '"&amp;C15&amp;"', replace: '"&amp;D15&amp;"'","")&amp;", name: '"&amp;SUBSTITUTE(E15,"'","\'")&amp;"', nameEn: '"&amp;SUBSTITUTE(K15,"'","\'")&amp;"', nameZh: '"&amp;SUBSTITUTE(G15,"'","\'")&amp;"', nameZhG1: '"&amp;SUBSTITUTE(H15,"'","\'")&amp;"', nameKo: '"&amp;SUBSTITUTE(J15,"'","\'")&amp;"', ruby: '"&amp;F15&amp;"', rubyEn: '"&amp;L15&amp;IF(I15&lt;&gt;"", "', rubyZh: '"&amp;I15, "")&amp;"', baseType: '"&amp;VLOOKUP(M15,マスタ!$A$1:$B$99,2,0)&amp;"'"&amp;IF(N15="○",", extra: true","")&amp;IF(O15&lt;&gt;"",", extraFrom: '"&amp;O15&amp;"'","")&amp;IF(P15&lt;&gt;"",", exchangableTo: '"&amp;P15&amp;"'","")&amp;IF(Q15="○",", poison: true","")&amp;IF(R15&lt;&gt;"", ", type: '"&amp;VLOOKUP(R15,マスタ!$D$1:$E$99,2,0)&amp;"'", "")&amp;IF(S15&lt;&gt;"",", subType: '"&amp;VLOOKUP(S15,マスタ!$D$1:$E$99,2,0)&amp;"'","")&amp;""&amp;IF(T15&lt;&gt;"",", range: '"&amp;T15&amp;"'","")&amp;IF(V15&lt;&gt;"",", damage: '"&amp;V15&amp;"'","")&amp;IF(X15&lt;&gt;"",", capacity: '"&amp;X15&amp;"'","")&amp;IF(Y15&lt;&gt;"",", growth: "&amp;Y15&amp;"","")&amp;IF(Z15&lt;&gt;"",", cost: '"&amp;Z15&amp;"'","")&amp;", text: '"&amp;SUBSTITUTE(SUBSTITUTE(AE15, CHAR(13), ""),CHAR(10),"\n")&amp;IF(AF15&lt;&gt;"", "', textAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AF15, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textZh: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AG15, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;"', textZhG1: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AI15, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AH15&lt;&gt;"", "', textZhAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AH15, CHAR(13), ""),CHAR(10),"\n"), "")&amp;IF(AJ15&lt;&gt;"", "', textZhG1Additional: '"&amp;SUBSTITUTE(SUBSTITUTE(AJ15, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textKo: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AK15, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AL15&lt;&gt;"", "', textKoAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AL15, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textEn: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AM15, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AN15&lt;&gt;"", "', textEnAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AN15, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"'"&amp;IF(AB15="○",", sealable: true","")&amp;IF(AC15="○",", removable: true","")&amp;"}")</f>
         <v/>
       </c>
-      <c r="AT15" s="5" t="str">
+      <c r="AU15" s="5" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="AU15" s="6" t="str">
+      <c r="AV15" s="6" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:47">
+    <row r="16" spans="1:48">
       <c r="A16" s="16"/>
       <c r="B16" s="16"/>
       <c r="C16" s="16"/>
@@ -17454,35 +17927,36 @@
       <c r="AA16" s="16"/>
       <c r="AB16" s="16"/>
       <c r="AC16" s="16"/>
-      <c r="AD16" s="21"/>
+      <c r="AD16" s="16"/>
       <c r="AE16" s="21"/>
-      <c r="AF16" s="13"/>
-      <c r="AG16" s="19"/>
-      <c r="AH16" s="13"/>
-      <c r="AI16" s="19"/>
-      <c r="AJ16" s="21"/>
-      <c r="AK16" s="19"/>
-      <c r="AL16" s="21"/>
-      <c r="AM16" s="19"/>
-      <c r="AN16" s="18"/>
+      <c r="AF16" s="21"/>
+      <c r="AG16" s="13"/>
+      <c r="AH16" s="19"/>
+      <c r="AI16" s="13"/>
+      <c r="AJ16" s="19"/>
+      <c r="AK16" s="21"/>
+      <c r="AL16" s="19"/>
+      <c r="AM16" s="21"/>
+      <c r="AN16" s="19"/>
       <c r="AO16" s="18"/>
       <c r="AP16" s="18"/>
       <c r="AQ16" s="18"/>
       <c r="AR16" s="18"/>
-      <c r="AS16" s="14" t="str">
-        <f>IF(A16="", "", IF(ROW()&gt;=3, ", ", "")&amp;"'"&amp;A16&amp;"': {megami: '"&amp;B16&amp;"'"&amp;IF(C16&lt;&gt;"",", anotherID: '"&amp;C16&amp;"', replace: '"&amp;D16&amp;"'","")&amp;", name: '"&amp;SUBSTITUTE(E16,"'","\'")&amp;"', nameEn: '"&amp;SUBSTITUTE(K16,"'","\'")&amp;"', nameZh: '"&amp;SUBSTITUTE(G16,"'","\'")&amp;"', nameZhG1: '"&amp;SUBSTITUTE(H16,"'","\'")&amp;"', nameKo: '"&amp;SUBSTITUTE(J16,"'","\'")&amp;"', ruby: '"&amp;F16&amp;"', rubyEn: '"&amp;L16&amp;IF(I16&lt;&gt;"", "', rubyZh: '"&amp;I16, "")&amp;"', baseType: '"&amp;VLOOKUP(M16,マスタ!$A$1:$B$99,2,0)&amp;"'"&amp;IF(N16="○",", extra: true","")&amp;IF(O16&lt;&gt;"",", extraFrom: '"&amp;O16&amp;"'","")&amp;IF(P16&lt;&gt;"",", exchangableTo: '"&amp;P16&amp;"'","")&amp;IF(Q16="○",", poison: true","")&amp;IF(R16&lt;&gt;"", ", type: '"&amp;VLOOKUP(R16,マスタ!$D$1:$E$99,2,0)&amp;"'", "")&amp;IF(S16&lt;&gt;"",", subType: '"&amp;VLOOKUP(S16,マスタ!$D$1:$E$99,2,0)&amp;"'","")&amp;""&amp;IF(T16&lt;&gt;"",", range: '"&amp;T16&amp;"'","")&amp;IF(V16&lt;&gt;"",", damage: '"&amp;V16&amp;"'","")&amp;IF(X16&lt;&gt;"",", capacity: '"&amp;X16&amp;"'","")&amp;IF(Y16&lt;&gt;"",", growth: "&amp;Y16&amp;"","")&amp;IF(Z16&lt;&gt;"",", cost: '"&amp;Z16&amp;"'","")&amp;", text: '"&amp;SUBSTITUTE(SUBSTITUTE(AD16, CHAR(13), ""),CHAR(10),"\n")&amp;IF(AE16&lt;&gt;"", "', textAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AE16, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textZh: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AF16, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;"', textZhG1: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AH16, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AG16&lt;&gt;"", "', textZhAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AG16, CHAR(13), ""),CHAR(10),"\n"), "")&amp;IF(AI16&lt;&gt;"", "', textZhG1Additional: '"&amp;SUBSTITUTE(SUBSTITUTE(AI16, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textKo: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AJ16, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AK16&lt;&gt;"", "', textKoAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AK16, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textEn: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AL16, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AM16&lt;&gt;"", "', textEnAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AM16, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"'"&amp;IF(AB16="○",", sealable: true","")&amp;IF(AC16="○",", removable: true","")&amp;"}")</f>
+      <c r="AS16" s="18"/>
+      <c r="AT16" s="14" t="str">
+        <f>IF(A16="", "", IF(ROW()&gt;=3, ", ", "")&amp;"'"&amp;A16&amp;"': {megami: '"&amp;B16&amp;"'"&amp;IF(C16&lt;&gt;"",", anotherID: '"&amp;C16&amp;"', replace: '"&amp;D16&amp;"'","")&amp;", name: '"&amp;SUBSTITUTE(E16,"'","\'")&amp;"', nameEn: '"&amp;SUBSTITUTE(K16,"'","\'")&amp;"', nameZh: '"&amp;SUBSTITUTE(G16,"'","\'")&amp;"', nameZhG1: '"&amp;SUBSTITUTE(H16,"'","\'")&amp;"', nameKo: '"&amp;SUBSTITUTE(J16,"'","\'")&amp;"', ruby: '"&amp;F16&amp;"', rubyEn: '"&amp;L16&amp;IF(I16&lt;&gt;"", "', rubyZh: '"&amp;I16, "")&amp;"', baseType: '"&amp;VLOOKUP(M16,マスタ!$A$1:$B$99,2,0)&amp;"'"&amp;IF(N16="○",", extra: true","")&amp;IF(O16&lt;&gt;"",", extraFrom: '"&amp;O16&amp;"'","")&amp;IF(P16&lt;&gt;"",", exchangableTo: '"&amp;P16&amp;"'","")&amp;IF(Q16="○",", poison: true","")&amp;IF(R16&lt;&gt;"", ", type: '"&amp;VLOOKUP(R16,マスタ!$D$1:$E$99,2,0)&amp;"'", "")&amp;IF(S16&lt;&gt;"",", subType: '"&amp;VLOOKUP(S16,マスタ!$D$1:$E$99,2,0)&amp;"'","")&amp;""&amp;IF(T16&lt;&gt;"",", range: '"&amp;T16&amp;"'","")&amp;IF(V16&lt;&gt;"",", damage: '"&amp;V16&amp;"'","")&amp;IF(X16&lt;&gt;"",", capacity: '"&amp;X16&amp;"'","")&amp;IF(Y16&lt;&gt;"",", growth: "&amp;Y16&amp;"","")&amp;IF(Z16&lt;&gt;"",", cost: '"&amp;Z16&amp;"'","")&amp;", text: '"&amp;SUBSTITUTE(SUBSTITUTE(AE16, CHAR(13), ""),CHAR(10),"\n")&amp;IF(AF16&lt;&gt;"", "', textAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AF16, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textZh: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AG16, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;"', textZhG1: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AI16, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AH16&lt;&gt;"", "', textZhAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AH16, CHAR(13), ""),CHAR(10),"\n"), "")&amp;IF(AJ16&lt;&gt;"", "', textZhG1Additional: '"&amp;SUBSTITUTE(SUBSTITUTE(AJ16, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textKo: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AK16, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AL16&lt;&gt;"", "', textKoAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AL16, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textEn: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AM16, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AN16&lt;&gt;"", "', textEnAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AN16, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"'"&amp;IF(AB16="○",", sealable: true","")&amp;IF(AC16="○",", removable: true","")&amp;"}")</f>
         <v/>
       </c>
-      <c r="AT16" s="5" t="str">
+      <c r="AU16" s="5" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="AU16" s="6" t="str">
+      <c r="AV16" s="6" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:47">
+    <row r="17" spans="1:48">
       <c r="A17" s="16"/>
       <c r="B17" s="16"/>
       <c r="C17" s="16"/>
@@ -17512,35 +17986,36 @@
       <c r="AA17" s="16"/>
       <c r="AB17" s="16"/>
       <c r="AC17" s="16"/>
-      <c r="AD17" s="21"/>
+      <c r="AD17" s="16"/>
       <c r="AE17" s="21"/>
-      <c r="AF17" s="13"/>
-      <c r="AG17" s="19"/>
-      <c r="AH17" s="13"/>
-      <c r="AI17" s="19"/>
-      <c r="AJ17" s="21"/>
-      <c r="AK17" s="19"/>
-      <c r="AL17" s="21"/>
-      <c r="AM17" s="19"/>
-      <c r="AN17" s="18"/>
+      <c r="AF17" s="21"/>
+      <c r="AG17" s="13"/>
+      <c r="AH17" s="19"/>
+      <c r="AI17" s="13"/>
+      <c r="AJ17" s="19"/>
+      <c r="AK17" s="21"/>
+      <c r="AL17" s="19"/>
+      <c r="AM17" s="21"/>
+      <c r="AN17" s="19"/>
       <c r="AO17" s="18"/>
       <c r="AP17" s="18"/>
       <c r="AQ17" s="18"/>
       <c r="AR17" s="18"/>
-      <c r="AS17" s="14" t="str">
-        <f>IF(A17="", "", IF(ROW()&gt;=3, ", ", "")&amp;"'"&amp;A17&amp;"': {megami: '"&amp;B17&amp;"'"&amp;IF(C17&lt;&gt;"",", anotherID: '"&amp;C17&amp;"', replace: '"&amp;D17&amp;"'","")&amp;", name: '"&amp;SUBSTITUTE(E17,"'","\'")&amp;"', nameEn: '"&amp;SUBSTITUTE(K17,"'","\'")&amp;"', nameZh: '"&amp;SUBSTITUTE(G17,"'","\'")&amp;"', nameZhG1: '"&amp;SUBSTITUTE(H17,"'","\'")&amp;"', nameKo: '"&amp;SUBSTITUTE(J17,"'","\'")&amp;"', ruby: '"&amp;F17&amp;"', rubyEn: '"&amp;L17&amp;IF(I17&lt;&gt;"", "', rubyZh: '"&amp;I17, "")&amp;"', baseType: '"&amp;VLOOKUP(M17,マスタ!$A$1:$B$99,2,0)&amp;"'"&amp;IF(N17="○",", extra: true","")&amp;IF(O17&lt;&gt;"",", extraFrom: '"&amp;O17&amp;"'","")&amp;IF(P17&lt;&gt;"",", exchangableTo: '"&amp;P17&amp;"'","")&amp;IF(Q17="○",", poison: true","")&amp;IF(R17&lt;&gt;"", ", type: '"&amp;VLOOKUP(R17,マスタ!$D$1:$E$99,2,0)&amp;"'", "")&amp;IF(S17&lt;&gt;"",", subType: '"&amp;VLOOKUP(S17,マスタ!$D$1:$E$99,2,0)&amp;"'","")&amp;""&amp;IF(T17&lt;&gt;"",", range: '"&amp;T17&amp;"'","")&amp;IF(V17&lt;&gt;"",", damage: '"&amp;V17&amp;"'","")&amp;IF(X17&lt;&gt;"",", capacity: '"&amp;X17&amp;"'","")&amp;IF(Y17&lt;&gt;"",", growth: "&amp;Y17&amp;"","")&amp;IF(Z17&lt;&gt;"",", cost: '"&amp;Z17&amp;"'","")&amp;", text: '"&amp;SUBSTITUTE(SUBSTITUTE(AD17, CHAR(13), ""),CHAR(10),"\n")&amp;IF(AE17&lt;&gt;"", "', textAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AE17, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textZh: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AF17, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;"', textZhG1: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AH17, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AG17&lt;&gt;"", "', textZhAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AG17, CHAR(13), ""),CHAR(10),"\n"), "")&amp;IF(AI17&lt;&gt;"", "', textZhG1Additional: '"&amp;SUBSTITUTE(SUBSTITUTE(AI17, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textKo: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AJ17, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AK17&lt;&gt;"", "', textKoAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AK17, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textEn: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AL17, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AM17&lt;&gt;"", "', textEnAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AM17, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"'"&amp;IF(AB17="○",", sealable: true","")&amp;IF(AC17="○",", removable: true","")&amp;"}")</f>
+      <c r="AS17" s="18"/>
+      <c r="AT17" s="14" t="str">
+        <f>IF(A17="", "", IF(ROW()&gt;=3, ", ", "")&amp;"'"&amp;A17&amp;"': {megami: '"&amp;B17&amp;"'"&amp;IF(C17&lt;&gt;"",", anotherID: '"&amp;C17&amp;"', replace: '"&amp;D17&amp;"'","")&amp;", name: '"&amp;SUBSTITUTE(E17,"'","\'")&amp;"', nameEn: '"&amp;SUBSTITUTE(K17,"'","\'")&amp;"', nameZh: '"&amp;SUBSTITUTE(G17,"'","\'")&amp;"', nameZhG1: '"&amp;SUBSTITUTE(H17,"'","\'")&amp;"', nameKo: '"&amp;SUBSTITUTE(J17,"'","\'")&amp;"', ruby: '"&amp;F17&amp;"', rubyEn: '"&amp;L17&amp;IF(I17&lt;&gt;"", "', rubyZh: '"&amp;I17, "")&amp;"', baseType: '"&amp;VLOOKUP(M17,マスタ!$A$1:$B$99,2,0)&amp;"'"&amp;IF(N17="○",", extra: true","")&amp;IF(O17&lt;&gt;"",", extraFrom: '"&amp;O17&amp;"'","")&amp;IF(P17&lt;&gt;"",", exchangableTo: '"&amp;P17&amp;"'","")&amp;IF(Q17="○",", poison: true","")&amp;IF(R17&lt;&gt;"", ", type: '"&amp;VLOOKUP(R17,マスタ!$D$1:$E$99,2,0)&amp;"'", "")&amp;IF(S17&lt;&gt;"",", subType: '"&amp;VLOOKUP(S17,マスタ!$D$1:$E$99,2,0)&amp;"'","")&amp;""&amp;IF(T17&lt;&gt;"",", range: '"&amp;T17&amp;"'","")&amp;IF(V17&lt;&gt;"",", damage: '"&amp;V17&amp;"'","")&amp;IF(X17&lt;&gt;"",", capacity: '"&amp;X17&amp;"'","")&amp;IF(Y17&lt;&gt;"",", growth: "&amp;Y17&amp;"","")&amp;IF(Z17&lt;&gt;"",", cost: '"&amp;Z17&amp;"'","")&amp;", text: '"&amp;SUBSTITUTE(SUBSTITUTE(AE17, CHAR(13), ""),CHAR(10),"\n")&amp;IF(AF17&lt;&gt;"", "', textAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AF17, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textZh: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AG17, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;"', textZhG1: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AI17, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AH17&lt;&gt;"", "', textZhAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AH17, CHAR(13), ""),CHAR(10),"\n"), "")&amp;IF(AJ17&lt;&gt;"", "', textZhG1Additional: '"&amp;SUBSTITUTE(SUBSTITUTE(AJ17, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textKo: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AK17, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AL17&lt;&gt;"", "', textKoAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AL17, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textEn: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AM17, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AN17&lt;&gt;"", "', textEnAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AN17, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"'"&amp;IF(AB17="○",", sealable: true","")&amp;IF(AC17="○",", removable: true","")&amp;"}")</f>
         <v/>
       </c>
-      <c r="AT17" s="5" t="str">
+      <c r="AU17" s="5" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="AU17" s="6" t="str">
+      <c r="AV17" s="6" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:47">
+    <row r="18" spans="1:48">
       <c r="A18" s="16"/>
       <c r="B18" s="16"/>
       <c r="C18" s="16"/>
@@ -17570,35 +18045,36 @@
       <c r="AA18" s="16"/>
       <c r="AB18" s="16"/>
       <c r="AC18" s="16"/>
-      <c r="AD18" s="21"/>
+      <c r="AD18" s="16"/>
       <c r="AE18" s="21"/>
-      <c r="AF18" s="13"/>
-      <c r="AG18" s="19"/>
-      <c r="AH18" s="13"/>
-      <c r="AI18" s="19"/>
-      <c r="AJ18" s="21"/>
-      <c r="AK18" s="19"/>
-      <c r="AL18" s="21"/>
-      <c r="AM18" s="19"/>
-      <c r="AN18" s="18"/>
+      <c r="AF18" s="21"/>
+      <c r="AG18" s="13"/>
+      <c r="AH18" s="19"/>
+      <c r="AI18" s="13"/>
+      <c r="AJ18" s="19"/>
+      <c r="AK18" s="21"/>
+      <c r="AL18" s="19"/>
+      <c r="AM18" s="21"/>
+      <c r="AN18" s="19"/>
       <c r="AO18" s="18"/>
       <c r="AP18" s="18"/>
       <c r="AQ18" s="18"/>
       <c r="AR18" s="18"/>
-      <c r="AS18" s="14" t="str">
-        <f>IF(A18="", "", IF(ROW()&gt;=3, ", ", "")&amp;"'"&amp;A18&amp;"': {megami: '"&amp;B18&amp;"'"&amp;IF(C18&lt;&gt;"",", anotherID: '"&amp;C18&amp;"', replace: '"&amp;D18&amp;"'","")&amp;", name: '"&amp;SUBSTITUTE(E18,"'","\'")&amp;"', nameEn: '"&amp;SUBSTITUTE(K18,"'","\'")&amp;"', nameZh: '"&amp;SUBSTITUTE(G18,"'","\'")&amp;"', nameZhG1: '"&amp;SUBSTITUTE(H18,"'","\'")&amp;"', nameKo: '"&amp;SUBSTITUTE(J18,"'","\'")&amp;"', ruby: '"&amp;F18&amp;"', rubyEn: '"&amp;L18&amp;IF(I18&lt;&gt;"", "', rubyZh: '"&amp;I18, "")&amp;"', baseType: '"&amp;VLOOKUP(M18,マスタ!$A$1:$B$99,2,0)&amp;"'"&amp;IF(N18="○",", extra: true","")&amp;IF(O18&lt;&gt;"",", extraFrom: '"&amp;O18&amp;"'","")&amp;IF(P18&lt;&gt;"",", exchangableTo: '"&amp;P18&amp;"'","")&amp;IF(Q18="○",", poison: true","")&amp;IF(R18&lt;&gt;"", ", type: '"&amp;VLOOKUP(R18,マスタ!$D$1:$E$99,2,0)&amp;"'", "")&amp;IF(S18&lt;&gt;"",", subType: '"&amp;VLOOKUP(S18,マスタ!$D$1:$E$99,2,0)&amp;"'","")&amp;""&amp;IF(T18&lt;&gt;"",", range: '"&amp;T18&amp;"'","")&amp;IF(V18&lt;&gt;"",", damage: '"&amp;V18&amp;"'","")&amp;IF(X18&lt;&gt;"",", capacity: '"&amp;X18&amp;"'","")&amp;IF(Y18&lt;&gt;"",", growth: "&amp;Y18&amp;"","")&amp;IF(Z18&lt;&gt;"",", cost: '"&amp;Z18&amp;"'","")&amp;", text: '"&amp;SUBSTITUTE(SUBSTITUTE(AD18, CHAR(13), ""),CHAR(10),"\n")&amp;IF(AE18&lt;&gt;"", "', textAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AE18, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textZh: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AF18, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;"', textZhG1: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AH18, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AG18&lt;&gt;"", "', textZhAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AG18, CHAR(13), ""),CHAR(10),"\n"), "")&amp;IF(AI18&lt;&gt;"", "', textZhG1Additional: '"&amp;SUBSTITUTE(SUBSTITUTE(AI18, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textKo: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AJ18, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AK18&lt;&gt;"", "', textKoAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AK18, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textEn: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AL18, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AM18&lt;&gt;"", "', textEnAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AM18, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"'"&amp;IF(AB18="○",", sealable: true","")&amp;IF(AC18="○",", removable: true","")&amp;"}")</f>
+      <c r="AS18" s="18"/>
+      <c r="AT18" s="14" t="str">
+        <f>IF(A18="", "", IF(ROW()&gt;=3, ", ", "")&amp;"'"&amp;A18&amp;"': {megami: '"&amp;B18&amp;"'"&amp;IF(C18&lt;&gt;"",", anotherID: '"&amp;C18&amp;"', replace: '"&amp;D18&amp;"'","")&amp;", name: '"&amp;SUBSTITUTE(E18,"'","\'")&amp;"', nameEn: '"&amp;SUBSTITUTE(K18,"'","\'")&amp;"', nameZh: '"&amp;SUBSTITUTE(G18,"'","\'")&amp;"', nameZhG1: '"&amp;SUBSTITUTE(H18,"'","\'")&amp;"', nameKo: '"&amp;SUBSTITUTE(J18,"'","\'")&amp;"', ruby: '"&amp;F18&amp;"', rubyEn: '"&amp;L18&amp;IF(I18&lt;&gt;"", "', rubyZh: '"&amp;I18, "")&amp;"', baseType: '"&amp;VLOOKUP(M18,マスタ!$A$1:$B$99,2,0)&amp;"'"&amp;IF(N18="○",", extra: true","")&amp;IF(O18&lt;&gt;"",", extraFrom: '"&amp;O18&amp;"'","")&amp;IF(P18&lt;&gt;"",", exchangableTo: '"&amp;P18&amp;"'","")&amp;IF(Q18="○",", poison: true","")&amp;IF(R18&lt;&gt;"", ", type: '"&amp;VLOOKUP(R18,マスタ!$D$1:$E$99,2,0)&amp;"'", "")&amp;IF(S18&lt;&gt;"",", subType: '"&amp;VLOOKUP(S18,マスタ!$D$1:$E$99,2,0)&amp;"'","")&amp;""&amp;IF(T18&lt;&gt;"",", range: '"&amp;T18&amp;"'","")&amp;IF(V18&lt;&gt;"",", damage: '"&amp;V18&amp;"'","")&amp;IF(X18&lt;&gt;"",", capacity: '"&amp;X18&amp;"'","")&amp;IF(Y18&lt;&gt;"",", growth: "&amp;Y18&amp;"","")&amp;IF(Z18&lt;&gt;"",", cost: '"&amp;Z18&amp;"'","")&amp;", text: '"&amp;SUBSTITUTE(SUBSTITUTE(AE18, CHAR(13), ""),CHAR(10),"\n")&amp;IF(AF18&lt;&gt;"", "', textAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AF18, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textZh: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AG18, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;"', textZhG1: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AI18, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AH18&lt;&gt;"", "', textZhAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AH18, CHAR(13), ""),CHAR(10),"\n"), "")&amp;IF(AJ18&lt;&gt;"", "', textZhG1Additional: '"&amp;SUBSTITUTE(SUBSTITUTE(AJ18, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textKo: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AK18, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AL18&lt;&gt;"", "', textKoAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AL18, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textEn: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AM18, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AN18&lt;&gt;"", "', textEnAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AN18, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"'"&amp;IF(AB18="○",", sealable: true","")&amp;IF(AC18="○",", removable: true","")&amp;"}")</f>
         <v/>
       </c>
-      <c r="AT18" s="5" t="str">
+      <c r="AU18" s="5" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="AU18" s="6" t="str">
+      <c r="AV18" s="6" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:47">
+    <row r="19" spans="1:48">
       <c r="A19" s="16"/>
       <c r="B19" s="16"/>
       <c r="C19" s="16"/>
@@ -17628,35 +18104,36 @@
       <c r="AA19" s="16"/>
       <c r="AB19" s="16"/>
       <c r="AC19" s="16"/>
-      <c r="AD19" s="21"/>
+      <c r="AD19" s="16"/>
       <c r="AE19" s="21"/>
-      <c r="AF19" s="13"/>
-      <c r="AG19" s="19"/>
-      <c r="AH19" s="13"/>
-      <c r="AI19" s="19"/>
-      <c r="AJ19" s="21"/>
-      <c r="AK19" s="19"/>
-      <c r="AL19" s="21"/>
-      <c r="AM19" s="19"/>
-      <c r="AN19" s="18"/>
+      <c r="AF19" s="21"/>
+      <c r="AG19" s="13"/>
+      <c r="AH19" s="19"/>
+      <c r="AI19" s="13"/>
+      <c r="AJ19" s="19"/>
+      <c r="AK19" s="21"/>
+      <c r="AL19" s="19"/>
+      <c r="AM19" s="21"/>
+      <c r="AN19" s="19"/>
       <c r="AO19" s="18"/>
       <c r="AP19" s="18"/>
       <c r="AQ19" s="18"/>
       <c r="AR19" s="18"/>
-      <c r="AS19" s="14" t="str">
-        <f>IF(A19="", "", IF(ROW()&gt;=3, ", ", "")&amp;"'"&amp;A19&amp;"': {megami: '"&amp;B19&amp;"'"&amp;IF(C19&lt;&gt;"",", anotherID: '"&amp;C19&amp;"', replace: '"&amp;D19&amp;"'","")&amp;", name: '"&amp;SUBSTITUTE(E19,"'","\'")&amp;"', nameEn: '"&amp;SUBSTITUTE(K19,"'","\'")&amp;"', nameZh: '"&amp;SUBSTITUTE(G19,"'","\'")&amp;"', nameZhG1: '"&amp;SUBSTITUTE(H19,"'","\'")&amp;"', nameKo: '"&amp;SUBSTITUTE(J19,"'","\'")&amp;"', ruby: '"&amp;F19&amp;"', rubyEn: '"&amp;L19&amp;IF(I19&lt;&gt;"", "', rubyZh: '"&amp;I19, "")&amp;"', baseType: '"&amp;VLOOKUP(M19,マスタ!$A$1:$B$99,2,0)&amp;"'"&amp;IF(N19="○",", extra: true","")&amp;IF(O19&lt;&gt;"",", extraFrom: '"&amp;O19&amp;"'","")&amp;IF(P19&lt;&gt;"",", exchangableTo: '"&amp;P19&amp;"'","")&amp;IF(Q19="○",", poison: true","")&amp;IF(R19&lt;&gt;"", ", type: '"&amp;VLOOKUP(R19,マスタ!$D$1:$E$99,2,0)&amp;"'", "")&amp;IF(S19&lt;&gt;"",", subType: '"&amp;VLOOKUP(S19,マスタ!$D$1:$E$99,2,0)&amp;"'","")&amp;""&amp;IF(T19&lt;&gt;"",", range: '"&amp;T19&amp;"'","")&amp;IF(V19&lt;&gt;"",", damage: '"&amp;V19&amp;"'","")&amp;IF(X19&lt;&gt;"",", capacity: '"&amp;X19&amp;"'","")&amp;IF(Y19&lt;&gt;"",", growth: "&amp;Y19&amp;"","")&amp;IF(Z19&lt;&gt;"",", cost: '"&amp;Z19&amp;"'","")&amp;", text: '"&amp;SUBSTITUTE(SUBSTITUTE(AD19, CHAR(13), ""),CHAR(10),"\n")&amp;IF(AE19&lt;&gt;"", "', textAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AE19, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textZh: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AF19, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;"', textZhG1: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AH19, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AG19&lt;&gt;"", "', textZhAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AG19, CHAR(13), ""),CHAR(10),"\n"), "")&amp;IF(AI19&lt;&gt;"", "', textZhG1Additional: '"&amp;SUBSTITUTE(SUBSTITUTE(AI19, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textKo: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AJ19, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AK19&lt;&gt;"", "', textKoAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AK19, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textEn: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AL19, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AM19&lt;&gt;"", "', textEnAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AM19, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"'"&amp;IF(AB19="○",", sealable: true","")&amp;IF(AC19="○",", removable: true","")&amp;"}")</f>
+      <c r="AS19" s="18"/>
+      <c r="AT19" s="14" t="str">
+        <f>IF(A19="", "", IF(ROW()&gt;=3, ", ", "")&amp;"'"&amp;A19&amp;"': {megami: '"&amp;B19&amp;"'"&amp;IF(C19&lt;&gt;"",", anotherID: '"&amp;C19&amp;"', replace: '"&amp;D19&amp;"'","")&amp;", name: '"&amp;SUBSTITUTE(E19,"'","\'")&amp;"', nameEn: '"&amp;SUBSTITUTE(K19,"'","\'")&amp;"', nameZh: '"&amp;SUBSTITUTE(G19,"'","\'")&amp;"', nameZhG1: '"&amp;SUBSTITUTE(H19,"'","\'")&amp;"', nameKo: '"&amp;SUBSTITUTE(J19,"'","\'")&amp;"', ruby: '"&amp;F19&amp;"', rubyEn: '"&amp;L19&amp;IF(I19&lt;&gt;"", "', rubyZh: '"&amp;I19, "")&amp;"', baseType: '"&amp;VLOOKUP(M19,マスタ!$A$1:$B$99,2,0)&amp;"'"&amp;IF(N19="○",", extra: true","")&amp;IF(O19&lt;&gt;"",", extraFrom: '"&amp;O19&amp;"'","")&amp;IF(P19&lt;&gt;"",", exchangableTo: '"&amp;P19&amp;"'","")&amp;IF(Q19="○",", poison: true","")&amp;IF(R19&lt;&gt;"", ", type: '"&amp;VLOOKUP(R19,マスタ!$D$1:$E$99,2,0)&amp;"'", "")&amp;IF(S19&lt;&gt;"",", subType: '"&amp;VLOOKUP(S19,マスタ!$D$1:$E$99,2,0)&amp;"'","")&amp;""&amp;IF(T19&lt;&gt;"",", range: '"&amp;T19&amp;"'","")&amp;IF(V19&lt;&gt;"",", damage: '"&amp;V19&amp;"'","")&amp;IF(X19&lt;&gt;"",", capacity: '"&amp;X19&amp;"'","")&amp;IF(Y19&lt;&gt;"",", growth: "&amp;Y19&amp;"","")&amp;IF(Z19&lt;&gt;"",", cost: '"&amp;Z19&amp;"'","")&amp;", text: '"&amp;SUBSTITUTE(SUBSTITUTE(AE19, CHAR(13), ""),CHAR(10),"\n")&amp;IF(AF19&lt;&gt;"", "', textAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AF19, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textZh: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AG19, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;"', textZhG1: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AI19, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AH19&lt;&gt;"", "', textZhAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AH19, CHAR(13), ""),CHAR(10),"\n"), "")&amp;IF(AJ19&lt;&gt;"", "', textZhG1Additional: '"&amp;SUBSTITUTE(SUBSTITUTE(AJ19, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textKo: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AK19, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AL19&lt;&gt;"", "', textKoAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AL19, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textEn: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AM19, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AN19&lt;&gt;"", "', textEnAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AN19, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"'"&amp;IF(AB19="○",", sealable: true","")&amp;IF(AC19="○",", removable: true","")&amp;"}")</f>
         <v/>
       </c>
-      <c r="AT19" s="5" t="str">
-        <f t="shared" ref="AT19:AT27" si="4">IF($A19&lt;&gt;"", "    /** 《"&amp;$E19&amp;"》 */ export const "&amp;SUBSTITUTE(UPPER(IF(MID($A19, 3, 1)="-", RIGHT($A19,LEN($A19)-3), $A19)), "-", "_")&amp;": TCardId = '"&amp;$A19&amp;"';", "")</f>
+      <c r="AU19" s="5" t="str">
+        <f t="shared" ref="AU19:AU27" si="4">IF($A19&lt;&gt;"", "    /** 《"&amp;$E19&amp;"》 */ export const "&amp;SUBSTITUTE(UPPER(IF(MID($A19, 3, 1)="-", RIGHT($A19,LEN($A19)-3), $A19)), "-", "_")&amp;": TCardId = '"&amp;$A19&amp;"';", "")</f>
         <v/>
       </c>
-      <c r="AU19" s="6" t="str">
-        <f t="shared" ref="AU19:AU27" si="5">IF($A19&lt;&gt;"", "    | '"&amp;$A19&amp;"'", "")</f>
+      <c r="AV19" s="6" t="str">
+        <f t="shared" ref="AV19:AV27" si="5">IF($A19&lt;&gt;"", "    | '"&amp;$A19&amp;"'", "")</f>
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:47">
+    <row r="20" spans="1:48">
       <c r="A20" s="16"/>
       <c r="B20" s="16"/>
       <c r="C20" s="16"/>
@@ -17686,35 +18163,36 @@
       <c r="AA20" s="16"/>
       <c r="AB20" s="16"/>
       <c r="AC20" s="16"/>
-      <c r="AD20" s="21"/>
+      <c r="AD20" s="16"/>
       <c r="AE20" s="21"/>
-      <c r="AF20" s="13"/>
-      <c r="AG20" s="19"/>
-      <c r="AH20" s="13"/>
-      <c r="AI20" s="19"/>
-      <c r="AJ20" s="21"/>
-      <c r="AK20" s="19"/>
-      <c r="AL20" s="21"/>
-      <c r="AM20" s="19"/>
-      <c r="AN20" s="18"/>
+      <c r="AF20" s="21"/>
+      <c r="AG20" s="13"/>
+      <c r="AH20" s="19"/>
+      <c r="AI20" s="13"/>
+      <c r="AJ20" s="19"/>
+      <c r="AK20" s="21"/>
+      <c r="AL20" s="19"/>
+      <c r="AM20" s="21"/>
+      <c r="AN20" s="19"/>
       <c r="AO20" s="18"/>
       <c r="AP20" s="18"/>
       <c r="AQ20" s="18"/>
       <c r="AR20" s="18"/>
-      <c r="AS20" s="14" t="str">
-        <f>IF(A20="", "", IF(ROW()&gt;=3, ", ", "")&amp;"'"&amp;A20&amp;"': {megami: '"&amp;B20&amp;"'"&amp;IF(C20&lt;&gt;"",", anotherID: '"&amp;C20&amp;"', replace: '"&amp;D20&amp;"'","")&amp;", name: '"&amp;SUBSTITUTE(E20,"'","\'")&amp;"', nameEn: '"&amp;SUBSTITUTE(K20,"'","\'")&amp;"', nameZh: '"&amp;SUBSTITUTE(G20,"'","\'")&amp;"', nameZhG1: '"&amp;SUBSTITUTE(H20,"'","\'")&amp;"', nameKo: '"&amp;SUBSTITUTE(J20,"'","\'")&amp;"', ruby: '"&amp;F20&amp;"', rubyEn: '"&amp;L20&amp;IF(I20&lt;&gt;"", "', rubyZh: '"&amp;I20, "")&amp;"', baseType: '"&amp;VLOOKUP(M20,マスタ!$A$1:$B$99,2,0)&amp;"'"&amp;IF(N20="○",", extra: true","")&amp;IF(O20&lt;&gt;"",", extraFrom: '"&amp;O20&amp;"'","")&amp;IF(P20&lt;&gt;"",", exchangableTo: '"&amp;P20&amp;"'","")&amp;IF(Q20="○",", poison: true","")&amp;IF(R20&lt;&gt;"", ", type: '"&amp;VLOOKUP(R20,マスタ!$D$1:$E$99,2,0)&amp;"'", "")&amp;IF(S20&lt;&gt;"",", subType: '"&amp;VLOOKUP(S20,マスタ!$D$1:$E$99,2,0)&amp;"'","")&amp;""&amp;IF(T20&lt;&gt;"",", range: '"&amp;T20&amp;"'","")&amp;IF(V20&lt;&gt;"",", damage: '"&amp;V20&amp;"'","")&amp;IF(X20&lt;&gt;"",", capacity: '"&amp;X20&amp;"'","")&amp;IF(Y20&lt;&gt;"",", growth: "&amp;Y20&amp;"","")&amp;IF(Z20&lt;&gt;"",", cost: '"&amp;Z20&amp;"'","")&amp;", text: '"&amp;SUBSTITUTE(SUBSTITUTE(AD20, CHAR(13), ""),CHAR(10),"\n")&amp;IF(AE20&lt;&gt;"", "', textAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AE20, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textZh: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AF20, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;"', textZhG1: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AH20, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AG20&lt;&gt;"", "', textZhAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AG20, CHAR(13), ""),CHAR(10),"\n"), "")&amp;IF(AI20&lt;&gt;"", "', textZhG1Additional: '"&amp;SUBSTITUTE(SUBSTITUTE(AI20, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textKo: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AJ20, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AK20&lt;&gt;"", "', textKoAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AK20, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textEn: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AL20, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AM20&lt;&gt;"", "', textEnAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AM20, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"'"&amp;IF(AB20="○",", sealable: true","")&amp;IF(AC20="○",", removable: true","")&amp;"}")</f>
+      <c r="AS20" s="18"/>
+      <c r="AT20" s="14" t="str">
+        <f>IF(A20="", "", IF(ROW()&gt;=3, ", ", "")&amp;"'"&amp;A20&amp;"': {megami: '"&amp;B20&amp;"'"&amp;IF(C20&lt;&gt;"",", anotherID: '"&amp;C20&amp;"', replace: '"&amp;D20&amp;"'","")&amp;", name: '"&amp;SUBSTITUTE(E20,"'","\'")&amp;"', nameEn: '"&amp;SUBSTITUTE(K20,"'","\'")&amp;"', nameZh: '"&amp;SUBSTITUTE(G20,"'","\'")&amp;"', nameZhG1: '"&amp;SUBSTITUTE(H20,"'","\'")&amp;"', nameKo: '"&amp;SUBSTITUTE(J20,"'","\'")&amp;"', ruby: '"&amp;F20&amp;"', rubyEn: '"&amp;L20&amp;IF(I20&lt;&gt;"", "', rubyZh: '"&amp;I20, "")&amp;"', baseType: '"&amp;VLOOKUP(M20,マスタ!$A$1:$B$99,2,0)&amp;"'"&amp;IF(N20="○",", extra: true","")&amp;IF(O20&lt;&gt;"",", extraFrom: '"&amp;O20&amp;"'","")&amp;IF(P20&lt;&gt;"",", exchangableTo: '"&amp;P20&amp;"'","")&amp;IF(Q20="○",", poison: true","")&amp;IF(R20&lt;&gt;"", ", type: '"&amp;VLOOKUP(R20,マスタ!$D$1:$E$99,2,0)&amp;"'", "")&amp;IF(S20&lt;&gt;"",", subType: '"&amp;VLOOKUP(S20,マスタ!$D$1:$E$99,2,0)&amp;"'","")&amp;""&amp;IF(T20&lt;&gt;"",", range: '"&amp;T20&amp;"'","")&amp;IF(V20&lt;&gt;"",", damage: '"&amp;V20&amp;"'","")&amp;IF(X20&lt;&gt;"",", capacity: '"&amp;X20&amp;"'","")&amp;IF(Y20&lt;&gt;"",", growth: "&amp;Y20&amp;"","")&amp;IF(Z20&lt;&gt;"",", cost: '"&amp;Z20&amp;"'","")&amp;", text: '"&amp;SUBSTITUTE(SUBSTITUTE(AE20, CHAR(13), ""),CHAR(10),"\n")&amp;IF(AF20&lt;&gt;"", "', textAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AF20, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textZh: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AG20, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;"', textZhG1: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AI20, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AH20&lt;&gt;"", "', textZhAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AH20, CHAR(13), ""),CHAR(10),"\n"), "")&amp;IF(AJ20&lt;&gt;"", "', textZhG1Additional: '"&amp;SUBSTITUTE(SUBSTITUTE(AJ20, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textKo: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AK20, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AL20&lt;&gt;"", "', textKoAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AL20, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textEn: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AM20, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AN20&lt;&gt;"", "', textEnAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AN20, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"'"&amp;IF(AB20="○",", sealable: true","")&amp;IF(AC20="○",", removable: true","")&amp;"}")</f>
         <v/>
       </c>
-      <c r="AT20" s="5" t="str">
+      <c r="AU20" s="5" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="AU20" s="6" t="str">
+      <c r="AV20" s="6" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:47">
+    <row r="21" spans="1:48">
       <c r="A21" s="16"/>
       <c r="B21" s="16"/>
       <c r="C21" s="16"/>
@@ -17744,35 +18222,36 @@
       <c r="AA21" s="16"/>
       <c r="AB21" s="16"/>
       <c r="AC21" s="16"/>
-      <c r="AD21" s="21"/>
+      <c r="AD21" s="16"/>
       <c r="AE21" s="21"/>
-      <c r="AF21" s="13"/>
-      <c r="AG21" s="19"/>
-      <c r="AH21" s="13"/>
-      <c r="AI21" s="19"/>
-      <c r="AJ21" s="21"/>
-      <c r="AK21" s="19"/>
-      <c r="AL21" s="21"/>
-      <c r="AM21" s="19"/>
-      <c r="AN21" s="18"/>
+      <c r="AF21" s="21"/>
+      <c r="AG21" s="13"/>
+      <c r="AH21" s="19"/>
+      <c r="AI21" s="13"/>
+      <c r="AJ21" s="19"/>
+      <c r="AK21" s="21"/>
+      <c r="AL21" s="19"/>
+      <c r="AM21" s="21"/>
+      <c r="AN21" s="19"/>
       <c r="AO21" s="18"/>
       <c r="AP21" s="18"/>
       <c r="AQ21" s="18"/>
       <c r="AR21" s="18"/>
-      <c r="AS21" s="14" t="str">
-        <f>IF(A21="", "", IF(ROW()&gt;=3, ", ", "")&amp;"'"&amp;A21&amp;"': {megami: '"&amp;B21&amp;"'"&amp;IF(C21&lt;&gt;"",", anotherID: '"&amp;C21&amp;"', replace: '"&amp;D21&amp;"'","")&amp;", name: '"&amp;SUBSTITUTE(E21,"'","\'")&amp;"', nameEn: '"&amp;SUBSTITUTE(K21,"'","\'")&amp;"', nameZh: '"&amp;SUBSTITUTE(G21,"'","\'")&amp;"', nameZhG1: '"&amp;SUBSTITUTE(H21,"'","\'")&amp;"', nameKo: '"&amp;SUBSTITUTE(J21,"'","\'")&amp;"', ruby: '"&amp;F21&amp;"', rubyEn: '"&amp;L21&amp;IF(I21&lt;&gt;"", "', rubyZh: '"&amp;I21, "")&amp;"', baseType: '"&amp;VLOOKUP(M21,マスタ!$A$1:$B$99,2,0)&amp;"'"&amp;IF(N21="○",", extra: true","")&amp;IF(O21&lt;&gt;"",", extraFrom: '"&amp;O21&amp;"'","")&amp;IF(P21&lt;&gt;"",", exchangableTo: '"&amp;P21&amp;"'","")&amp;IF(Q21="○",", poison: true","")&amp;IF(R21&lt;&gt;"", ", type: '"&amp;VLOOKUP(R21,マスタ!$D$1:$E$99,2,0)&amp;"'", "")&amp;IF(S21&lt;&gt;"",", subType: '"&amp;VLOOKUP(S21,マスタ!$D$1:$E$99,2,0)&amp;"'","")&amp;""&amp;IF(T21&lt;&gt;"",", range: '"&amp;T21&amp;"'","")&amp;IF(V21&lt;&gt;"",", damage: '"&amp;V21&amp;"'","")&amp;IF(X21&lt;&gt;"",", capacity: '"&amp;X21&amp;"'","")&amp;IF(Y21&lt;&gt;"",", growth: "&amp;Y21&amp;"","")&amp;IF(Z21&lt;&gt;"",", cost: '"&amp;Z21&amp;"'","")&amp;", text: '"&amp;SUBSTITUTE(SUBSTITUTE(AD21, CHAR(13), ""),CHAR(10),"\n")&amp;IF(AE21&lt;&gt;"", "', textAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AE21, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textZh: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AF21, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;"', textZhG1: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AH21, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AG21&lt;&gt;"", "', textZhAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AG21, CHAR(13), ""),CHAR(10),"\n"), "")&amp;IF(AI21&lt;&gt;"", "', textZhG1Additional: '"&amp;SUBSTITUTE(SUBSTITUTE(AI21, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textKo: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AJ21, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AK21&lt;&gt;"", "', textKoAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AK21, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textEn: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AL21, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AM21&lt;&gt;"", "', textEnAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AM21, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"'"&amp;IF(AB21="○",", sealable: true","")&amp;IF(AC21="○",", removable: true","")&amp;"}")</f>
+      <c r="AS21" s="18"/>
+      <c r="AT21" s="14" t="str">
+        <f>IF(A21="", "", IF(ROW()&gt;=3, ", ", "")&amp;"'"&amp;A21&amp;"': {megami: '"&amp;B21&amp;"'"&amp;IF(C21&lt;&gt;"",", anotherID: '"&amp;C21&amp;"', replace: '"&amp;D21&amp;"'","")&amp;", name: '"&amp;SUBSTITUTE(E21,"'","\'")&amp;"', nameEn: '"&amp;SUBSTITUTE(K21,"'","\'")&amp;"', nameZh: '"&amp;SUBSTITUTE(G21,"'","\'")&amp;"', nameZhG1: '"&amp;SUBSTITUTE(H21,"'","\'")&amp;"', nameKo: '"&amp;SUBSTITUTE(J21,"'","\'")&amp;"', ruby: '"&amp;F21&amp;"', rubyEn: '"&amp;L21&amp;IF(I21&lt;&gt;"", "', rubyZh: '"&amp;I21, "")&amp;"', baseType: '"&amp;VLOOKUP(M21,マスタ!$A$1:$B$99,2,0)&amp;"'"&amp;IF(N21="○",", extra: true","")&amp;IF(O21&lt;&gt;"",", extraFrom: '"&amp;O21&amp;"'","")&amp;IF(P21&lt;&gt;"",", exchangableTo: '"&amp;P21&amp;"'","")&amp;IF(Q21="○",", poison: true","")&amp;IF(R21&lt;&gt;"", ", type: '"&amp;VLOOKUP(R21,マスタ!$D$1:$E$99,2,0)&amp;"'", "")&amp;IF(S21&lt;&gt;"",", subType: '"&amp;VLOOKUP(S21,マスタ!$D$1:$E$99,2,0)&amp;"'","")&amp;""&amp;IF(T21&lt;&gt;"",", range: '"&amp;T21&amp;"'","")&amp;IF(V21&lt;&gt;"",", damage: '"&amp;V21&amp;"'","")&amp;IF(X21&lt;&gt;"",", capacity: '"&amp;X21&amp;"'","")&amp;IF(Y21&lt;&gt;"",", growth: "&amp;Y21&amp;"","")&amp;IF(Z21&lt;&gt;"",", cost: '"&amp;Z21&amp;"'","")&amp;", text: '"&amp;SUBSTITUTE(SUBSTITUTE(AE21, CHAR(13), ""),CHAR(10),"\n")&amp;IF(AF21&lt;&gt;"", "', textAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AF21, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textZh: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AG21, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;"', textZhG1: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AI21, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AH21&lt;&gt;"", "', textZhAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AH21, CHAR(13), ""),CHAR(10),"\n"), "")&amp;IF(AJ21&lt;&gt;"", "', textZhG1Additional: '"&amp;SUBSTITUTE(SUBSTITUTE(AJ21, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textKo: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AK21, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AL21&lt;&gt;"", "', textKoAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AL21, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textEn: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AM21, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AN21&lt;&gt;"", "', textEnAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AN21, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"'"&amp;IF(AB21="○",", sealable: true","")&amp;IF(AC21="○",", removable: true","")&amp;"}")</f>
         <v/>
       </c>
-      <c r="AT21" s="5" t="str">
+      <c r="AU21" s="5" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="AU21" s="6" t="str">
+      <c r="AV21" s="6" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:47">
+    <row r="22" spans="1:48">
       <c r="A22" s="16"/>
       <c r="B22" s="16"/>
       <c r="C22" s="16"/>
@@ -17802,35 +18281,36 @@
       <c r="AA22" s="16"/>
       <c r="AB22" s="16"/>
       <c r="AC22" s="16"/>
-      <c r="AD22" s="21"/>
+      <c r="AD22" s="16"/>
       <c r="AE22" s="21"/>
-      <c r="AF22" s="13"/>
-      <c r="AG22" s="19"/>
-      <c r="AH22" s="13"/>
-      <c r="AI22" s="19"/>
-      <c r="AJ22" s="21"/>
-      <c r="AK22" s="19"/>
-      <c r="AL22" s="21"/>
-      <c r="AM22" s="19"/>
-      <c r="AN22" s="18"/>
+      <c r="AF22" s="21"/>
+      <c r="AG22" s="13"/>
+      <c r="AH22" s="19"/>
+      <c r="AI22" s="13"/>
+      <c r="AJ22" s="19"/>
+      <c r="AK22" s="21"/>
+      <c r="AL22" s="19"/>
+      <c r="AM22" s="21"/>
+      <c r="AN22" s="19"/>
       <c r="AO22" s="18"/>
       <c r="AP22" s="18"/>
       <c r="AQ22" s="18"/>
       <c r="AR22" s="18"/>
-      <c r="AS22" s="14" t="str">
-        <f>IF(A22="", "", IF(ROW()&gt;=3, ", ", "")&amp;"'"&amp;A22&amp;"': {megami: '"&amp;B22&amp;"'"&amp;IF(C22&lt;&gt;"",", anotherID: '"&amp;C22&amp;"', replace: '"&amp;D22&amp;"'","")&amp;", name: '"&amp;SUBSTITUTE(E22,"'","\'")&amp;"', nameEn: '"&amp;SUBSTITUTE(K22,"'","\'")&amp;"', nameZh: '"&amp;SUBSTITUTE(G22,"'","\'")&amp;"', nameZhG1: '"&amp;SUBSTITUTE(H22,"'","\'")&amp;"', nameKo: '"&amp;SUBSTITUTE(J22,"'","\'")&amp;"', ruby: '"&amp;F22&amp;"', rubyEn: '"&amp;L22&amp;IF(I22&lt;&gt;"", "', rubyZh: '"&amp;I22, "")&amp;"', baseType: '"&amp;VLOOKUP(M22,マスタ!$A$1:$B$99,2,0)&amp;"'"&amp;IF(N22="○",", extra: true","")&amp;IF(O22&lt;&gt;"",", extraFrom: '"&amp;O22&amp;"'","")&amp;IF(P22&lt;&gt;"",", exchangableTo: '"&amp;P22&amp;"'","")&amp;IF(Q22="○",", poison: true","")&amp;IF(R22&lt;&gt;"", ", type: '"&amp;VLOOKUP(R22,マスタ!$D$1:$E$99,2,0)&amp;"'", "")&amp;IF(S22&lt;&gt;"",", subType: '"&amp;VLOOKUP(S22,マスタ!$D$1:$E$99,2,0)&amp;"'","")&amp;""&amp;IF(T22&lt;&gt;"",", range: '"&amp;T22&amp;"'","")&amp;IF(V22&lt;&gt;"",", damage: '"&amp;V22&amp;"'","")&amp;IF(X22&lt;&gt;"",", capacity: '"&amp;X22&amp;"'","")&amp;IF(Y22&lt;&gt;"",", growth: "&amp;Y22&amp;"","")&amp;IF(Z22&lt;&gt;"",", cost: '"&amp;Z22&amp;"'","")&amp;", text: '"&amp;SUBSTITUTE(SUBSTITUTE(AD22, CHAR(13), ""),CHAR(10),"\n")&amp;IF(AE22&lt;&gt;"", "', textAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AE22, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textZh: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AF22, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;"', textZhG1: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AH22, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AG22&lt;&gt;"", "', textZhAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AG22, CHAR(13), ""),CHAR(10),"\n"), "")&amp;IF(AI22&lt;&gt;"", "', textZhG1Additional: '"&amp;SUBSTITUTE(SUBSTITUTE(AI22, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textKo: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AJ22, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AK22&lt;&gt;"", "', textKoAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AK22, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textEn: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AL22, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AM22&lt;&gt;"", "', textEnAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AM22, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"'"&amp;IF(AB22="○",", sealable: true","")&amp;IF(AC22="○",", removable: true","")&amp;"}")</f>
+      <c r="AS22" s="18"/>
+      <c r="AT22" s="14" t="str">
+        <f>IF(A22="", "", IF(ROW()&gt;=3, ", ", "")&amp;"'"&amp;A22&amp;"': {megami: '"&amp;B22&amp;"'"&amp;IF(C22&lt;&gt;"",", anotherID: '"&amp;C22&amp;"', replace: '"&amp;D22&amp;"'","")&amp;", name: '"&amp;SUBSTITUTE(E22,"'","\'")&amp;"', nameEn: '"&amp;SUBSTITUTE(K22,"'","\'")&amp;"', nameZh: '"&amp;SUBSTITUTE(G22,"'","\'")&amp;"', nameZhG1: '"&amp;SUBSTITUTE(H22,"'","\'")&amp;"', nameKo: '"&amp;SUBSTITUTE(J22,"'","\'")&amp;"', ruby: '"&amp;F22&amp;"', rubyEn: '"&amp;L22&amp;IF(I22&lt;&gt;"", "', rubyZh: '"&amp;I22, "")&amp;"', baseType: '"&amp;VLOOKUP(M22,マスタ!$A$1:$B$99,2,0)&amp;"'"&amp;IF(N22="○",", extra: true","")&amp;IF(O22&lt;&gt;"",", extraFrom: '"&amp;O22&amp;"'","")&amp;IF(P22&lt;&gt;"",", exchangableTo: '"&amp;P22&amp;"'","")&amp;IF(Q22="○",", poison: true","")&amp;IF(R22&lt;&gt;"", ", type: '"&amp;VLOOKUP(R22,マスタ!$D$1:$E$99,2,0)&amp;"'", "")&amp;IF(S22&lt;&gt;"",", subType: '"&amp;VLOOKUP(S22,マスタ!$D$1:$E$99,2,0)&amp;"'","")&amp;""&amp;IF(T22&lt;&gt;"",", range: '"&amp;T22&amp;"'","")&amp;IF(V22&lt;&gt;"",", damage: '"&amp;V22&amp;"'","")&amp;IF(X22&lt;&gt;"",", capacity: '"&amp;X22&amp;"'","")&amp;IF(Y22&lt;&gt;"",", growth: "&amp;Y22&amp;"","")&amp;IF(Z22&lt;&gt;"",", cost: '"&amp;Z22&amp;"'","")&amp;", text: '"&amp;SUBSTITUTE(SUBSTITUTE(AE22, CHAR(13), ""),CHAR(10),"\n")&amp;IF(AF22&lt;&gt;"", "', textAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AF22, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textZh: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AG22, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;"', textZhG1: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AI22, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AH22&lt;&gt;"", "', textZhAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AH22, CHAR(13), ""),CHAR(10),"\n"), "")&amp;IF(AJ22&lt;&gt;"", "', textZhG1Additional: '"&amp;SUBSTITUTE(SUBSTITUTE(AJ22, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textKo: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AK22, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AL22&lt;&gt;"", "', textKoAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AL22, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textEn: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AM22, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AN22&lt;&gt;"", "', textEnAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AN22, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"'"&amp;IF(AB22="○",", sealable: true","")&amp;IF(AC22="○",", removable: true","")&amp;"}")</f>
         <v/>
       </c>
-      <c r="AT22" s="5" t="str">
+      <c r="AU22" s="5" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="AU22" s="6" t="str">
+      <c r="AV22" s="6" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:47">
+    <row r="23" spans="1:48">
       <c r="A23" s="16"/>
       <c r="B23" s="16"/>
       <c r="C23" s="16"/>
@@ -17860,35 +18340,36 @@
       <c r="AA23" s="16"/>
       <c r="AB23" s="16"/>
       <c r="AC23" s="16"/>
-      <c r="AD23" s="21"/>
+      <c r="AD23" s="16"/>
       <c r="AE23" s="21"/>
-      <c r="AF23" s="13"/>
-      <c r="AG23" s="19"/>
-      <c r="AH23" s="13"/>
-      <c r="AI23" s="19"/>
-      <c r="AJ23" s="21"/>
-      <c r="AK23" s="19"/>
-      <c r="AL23" s="21"/>
-      <c r="AM23" s="19"/>
-      <c r="AN23" s="18"/>
+      <c r="AF23" s="21"/>
+      <c r="AG23" s="13"/>
+      <c r="AH23" s="19"/>
+      <c r="AI23" s="13"/>
+      <c r="AJ23" s="19"/>
+      <c r="AK23" s="21"/>
+      <c r="AL23" s="19"/>
+      <c r="AM23" s="21"/>
+      <c r="AN23" s="19"/>
       <c r="AO23" s="18"/>
       <c r="AP23" s="18"/>
       <c r="AQ23" s="18"/>
       <c r="AR23" s="18"/>
-      <c r="AS23" s="14" t="str">
-        <f>IF(A23="", "", IF(ROW()&gt;=3, ", ", "")&amp;"'"&amp;A23&amp;"': {megami: '"&amp;B23&amp;"'"&amp;IF(C23&lt;&gt;"",", anotherID: '"&amp;C23&amp;"', replace: '"&amp;D23&amp;"'","")&amp;", name: '"&amp;SUBSTITUTE(E23,"'","\'")&amp;"', nameEn: '"&amp;SUBSTITUTE(K23,"'","\'")&amp;"', nameZh: '"&amp;SUBSTITUTE(G23,"'","\'")&amp;"', nameZhG1: '"&amp;SUBSTITUTE(H23,"'","\'")&amp;"', nameKo: '"&amp;SUBSTITUTE(J23,"'","\'")&amp;"', ruby: '"&amp;F23&amp;"', rubyEn: '"&amp;L23&amp;IF(I23&lt;&gt;"", "', rubyZh: '"&amp;I23, "")&amp;"', baseType: '"&amp;VLOOKUP(M23,マスタ!$A$1:$B$99,2,0)&amp;"'"&amp;IF(N23="○",", extra: true","")&amp;IF(O23&lt;&gt;"",", extraFrom: '"&amp;O23&amp;"'","")&amp;IF(P23&lt;&gt;"",", exchangableTo: '"&amp;P23&amp;"'","")&amp;IF(Q23="○",", poison: true","")&amp;IF(R23&lt;&gt;"", ", type: '"&amp;VLOOKUP(R23,マスタ!$D$1:$E$99,2,0)&amp;"'", "")&amp;IF(S23&lt;&gt;"",", subType: '"&amp;VLOOKUP(S23,マスタ!$D$1:$E$99,2,0)&amp;"'","")&amp;""&amp;IF(T23&lt;&gt;"",", range: '"&amp;T23&amp;"'","")&amp;IF(V23&lt;&gt;"",", damage: '"&amp;V23&amp;"'","")&amp;IF(X23&lt;&gt;"",", capacity: '"&amp;X23&amp;"'","")&amp;IF(Y23&lt;&gt;"",", growth: "&amp;Y23&amp;"","")&amp;IF(Z23&lt;&gt;"",", cost: '"&amp;Z23&amp;"'","")&amp;", text: '"&amp;SUBSTITUTE(SUBSTITUTE(AD23, CHAR(13), ""),CHAR(10),"\n")&amp;IF(AE23&lt;&gt;"", "', textAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AE23, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textZh: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AF23, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;"', textZhG1: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AH23, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AG23&lt;&gt;"", "', textZhAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AG23, CHAR(13), ""),CHAR(10),"\n"), "")&amp;IF(AI23&lt;&gt;"", "', textZhG1Additional: '"&amp;SUBSTITUTE(SUBSTITUTE(AI23, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textKo: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AJ23, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AK23&lt;&gt;"", "', textKoAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AK23, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textEn: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AL23, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AM23&lt;&gt;"", "', textEnAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AM23, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"'"&amp;IF(AB23="○",", sealable: true","")&amp;IF(AC23="○",", removable: true","")&amp;"}")</f>
+      <c r="AS23" s="18"/>
+      <c r="AT23" s="14" t="str">
+        <f>IF(A23="", "", IF(ROW()&gt;=3, ", ", "")&amp;"'"&amp;A23&amp;"': {megami: '"&amp;B23&amp;"'"&amp;IF(C23&lt;&gt;"",", anotherID: '"&amp;C23&amp;"', replace: '"&amp;D23&amp;"'","")&amp;", name: '"&amp;SUBSTITUTE(E23,"'","\'")&amp;"', nameEn: '"&amp;SUBSTITUTE(K23,"'","\'")&amp;"', nameZh: '"&amp;SUBSTITUTE(G23,"'","\'")&amp;"', nameZhG1: '"&amp;SUBSTITUTE(H23,"'","\'")&amp;"', nameKo: '"&amp;SUBSTITUTE(J23,"'","\'")&amp;"', ruby: '"&amp;F23&amp;"', rubyEn: '"&amp;L23&amp;IF(I23&lt;&gt;"", "', rubyZh: '"&amp;I23, "")&amp;"', baseType: '"&amp;VLOOKUP(M23,マスタ!$A$1:$B$99,2,0)&amp;"'"&amp;IF(N23="○",", extra: true","")&amp;IF(O23&lt;&gt;"",", extraFrom: '"&amp;O23&amp;"'","")&amp;IF(P23&lt;&gt;"",", exchangableTo: '"&amp;P23&amp;"'","")&amp;IF(Q23="○",", poison: true","")&amp;IF(R23&lt;&gt;"", ", type: '"&amp;VLOOKUP(R23,マスタ!$D$1:$E$99,2,0)&amp;"'", "")&amp;IF(S23&lt;&gt;"",", subType: '"&amp;VLOOKUP(S23,マスタ!$D$1:$E$99,2,0)&amp;"'","")&amp;""&amp;IF(T23&lt;&gt;"",", range: '"&amp;T23&amp;"'","")&amp;IF(V23&lt;&gt;"",", damage: '"&amp;V23&amp;"'","")&amp;IF(X23&lt;&gt;"",", capacity: '"&amp;X23&amp;"'","")&amp;IF(Y23&lt;&gt;"",", growth: "&amp;Y23&amp;"","")&amp;IF(Z23&lt;&gt;"",", cost: '"&amp;Z23&amp;"'","")&amp;", text: '"&amp;SUBSTITUTE(SUBSTITUTE(AE23, CHAR(13), ""),CHAR(10),"\n")&amp;IF(AF23&lt;&gt;"", "', textAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AF23, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textZh: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AG23, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;"', textZhG1: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AI23, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AH23&lt;&gt;"", "', textZhAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AH23, CHAR(13), ""),CHAR(10),"\n"), "")&amp;IF(AJ23&lt;&gt;"", "', textZhG1Additional: '"&amp;SUBSTITUTE(SUBSTITUTE(AJ23, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textKo: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AK23, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AL23&lt;&gt;"", "', textKoAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AL23, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textEn: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AM23, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AN23&lt;&gt;"", "', textEnAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AN23, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"'"&amp;IF(AB23="○",", sealable: true","")&amp;IF(AC23="○",", removable: true","")&amp;"}")</f>
         <v/>
       </c>
-      <c r="AT23" s="5" t="str">
+      <c r="AU23" s="5" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="AU23" s="6" t="str">
+      <c r="AV23" s="6" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:47">
+    <row r="24" spans="1:48">
       <c r="A24" s="16"/>
       <c r="B24" s="16"/>
       <c r="C24" s="16"/>
@@ -17918,35 +18399,36 @@
       <c r="AA24" s="16"/>
       <c r="AB24" s="16"/>
       <c r="AC24" s="16"/>
-      <c r="AD24" s="21"/>
+      <c r="AD24" s="16"/>
       <c r="AE24" s="21"/>
-      <c r="AF24" s="13"/>
-      <c r="AG24" s="19"/>
-      <c r="AH24" s="13"/>
-      <c r="AI24" s="19"/>
-      <c r="AJ24" s="21"/>
-      <c r="AK24" s="19"/>
-      <c r="AL24" s="21"/>
-      <c r="AM24" s="19"/>
-      <c r="AN24" s="18"/>
+      <c r="AF24" s="21"/>
+      <c r="AG24" s="13"/>
+      <c r="AH24" s="19"/>
+      <c r="AI24" s="13"/>
+      <c r="AJ24" s="19"/>
+      <c r="AK24" s="21"/>
+      <c r="AL24" s="19"/>
+      <c r="AM24" s="21"/>
+      <c r="AN24" s="19"/>
       <c r="AO24" s="18"/>
       <c r="AP24" s="18"/>
       <c r="AQ24" s="18"/>
       <c r="AR24" s="18"/>
-      <c r="AS24" s="14" t="str">
-        <f>IF(A24="", "", IF(ROW()&gt;=3, ", ", "")&amp;"'"&amp;A24&amp;"': {megami: '"&amp;B24&amp;"'"&amp;IF(C24&lt;&gt;"",", anotherID: '"&amp;C24&amp;"', replace: '"&amp;D24&amp;"'","")&amp;", name: '"&amp;SUBSTITUTE(E24,"'","\'")&amp;"', nameEn: '"&amp;SUBSTITUTE(K24,"'","\'")&amp;"', nameZh: '"&amp;SUBSTITUTE(G24,"'","\'")&amp;"', nameZhG1: '"&amp;SUBSTITUTE(H24,"'","\'")&amp;"', nameKo: '"&amp;SUBSTITUTE(J24,"'","\'")&amp;"', ruby: '"&amp;F24&amp;"', rubyEn: '"&amp;L24&amp;IF(I24&lt;&gt;"", "', rubyZh: '"&amp;I24, "")&amp;"', baseType: '"&amp;VLOOKUP(M24,マスタ!$A$1:$B$99,2,0)&amp;"'"&amp;IF(N24="○",", extra: true","")&amp;IF(O24&lt;&gt;"",", extraFrom: '"&amp;O24&amp;"'","")&amp;IF(P24&lt;&gt;"",", exchangableTo: '"&amp;P24&amp;"'","")&amp;IF(Q24="○",", poison: true","")&amp;IF(R24&lt;&gt;"", ", type: '"&amp;VLOOKUP(R24,マスタ!$D$1:$E$99,2,0)&amp;"'", "")&amp;IF(S24&lt;&gt;"",", subType: '"&amp;VLOOKUP(S24,マスタ!$D$1:$E$99,2,0)&amp;"'","")&amp;""&amp;IF(T24&lt;&gt;"",", range: '"&amp;T24&amp;"'","")&amp;IF(V24&lt;&gt;"",", damage: '"&amp;V24&amp;"'","")&amp;IF(X24&lt;&gt;"",", capacity: '"&amp;X24&amp;"'","")&amp;IF(Y24&lt;&gt;"",", growth: "&amp;Y24&amp;"","")&amp;IF(Z24&lt;&gt;"",", cost: '"&amp;Z24&amp;"'","")&amp;", text: '"&amp;SUBSTITUTE(SUBSTITUTE(AD24, CHAR(13), ""),CHAR(10),"\n")&amp;IF(AE24&lt;&gt;"", "', textAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AE24, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textZh: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AF24, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;"', textZhG1: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AH24, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AG24&lt;&gt;"", "', textZhAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AG24, CHAR(13), ""),CHAR(10),"\n"), "")&amp;IF(AI24&lt;&gt;"", "', textZhG1Additional: '"&amp;SUBSTITUTE(SUBSTITUTE(AI24, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textKo: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AJ24, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AK24&lt;&gt;"", "', textKoAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AK24, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textEn: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AL24, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AM24&lt;&gt;"", "', textEnAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AM24, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"'"&amp;IF(AB24="○",", sealable: true","")&amp;IF(AC24="○",", removable: true","")&amp;"}")</f>
+      <c r="AS24" s="18"/>
+      <c r="AT24" s="14" t="str">
+        <f>IF(A24="", "", IF(ROW()&gt;=3, ", ", "")&amp;"'"&amp;A24&amp;"': {megami: '"&amp;B24&amp;"'"&amp;IF(C24&lt;&gt;"",", anotherID: '"&amp;C24&amp;"', replace: '"&amp;D24&amp;"'","")&amp;", name: '"&amp;SUBSTITUTE(E24,"'","\'")&amp;"', nameEn: '"&amp;SUBSTITUTE(K24,"'","\'")&amp;"', nameZh: '"&amp;SUBSTITUTE(G24,"'","\'")&amp;"', nameZhG1: '"&amp;SUBSTITUTE(H24,"'","\'")&amp;"', nameKo: '"&amp;SUBSTITUTE(J24,"'","\'")&amp;"', ruby: '"&amp;F24&amp;"', rubyEn: '"&amp;L24&amp;IF(I24&lt;&gt;"", "', rubyZh: '"&amp;I24, "")&amp;"', baseType: '"&amp;VLOOKUP(M24,マスタ!$A$1:$B$99,2,0)&amp;"'"&amp;IF(N24="○",", extra: true","")&amp;IF(O24&lt;&gt;"",", extraFrom: '"&amp;O24&amp;"'","")&amp;IF(P24&lt;&gt;"",", exchangableTo: '"&amp;P24&amp;"'","")&amp;IF(Q24="○",", poison: true","")&amp;IF(R24&lt;&gt;"", ", type: '"&amp;VLOOKUP(R24,マスタ!$D$1:$E$99,2,0)&amp;"'", "")&amp;IF(S24&lt;&gt;"",", subType: '"&amp;VLOOKUP(S24,マスタ!$D$1:$E$99,2,0)&amp;"'","")&amp;""&amp;IF(T24&lt;&gt;"",", range: '"&amp;T24&amp;"'","")&amp;IF(V24&lt;&gt;"",", damage: '"&amp;V24&amp;"'","")&amp;IF(X24&lt;&gt;"",", capacity: '"&amp;X24&amp;"'","")&amp;IF(Y24&lt;&gt;"",", growth: "&amp;Y24&amp;"","")&amp;IF(Z24&lt;&gt;"",", cost: '"&amp;Z24&amp;"'","")&amp;", text: '"&amp;SUBSTITUTE(SUBSTITUTE(AE24, CHAR(13), ""),CHAR(10),"\n")&amp;IF(AF24&lt;&gt;"", "', textAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AF24, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textZh: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AG24, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;"', textZhG1: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AI24, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AH24&lt;&gt;"", "', textZhAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AH24, CHAR(13), ""),CHAR(10),"\n"), "")&amp;IF(AJ24&lt;&gt;"", "', textZhG1Additional: '"&amp;SUBSTITUTE(SUBSTITUTE(AJ24, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textKo: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AK24, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AL24&lt;&gt;"", "', textKoAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AL24, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textEn: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AM24, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AN24&lt;&gt;"", "', textEnAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AN24, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"'"&amp;IF(AB24="○",", sealable: true","")&amp;IF(AC24="○",", removable: true","")&amp;"}")</f>
         <v/>
       </c>
-      <c r="AT24" s="5" t="str">
+      <c r="AU24" s="5" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="AU24" s="6" t="str">
+      <c r="AV24" s="6" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:47">
+    <row r="25" spans="1:48">
       <c r="A25" s="16"/>
       <c r="B25" s="16"/>
       <c r="C25" s="16"/>
@@ -17976,35 +18458,36 @@
       <c r="AA25" s="16"/>
       <c r="AB25" s="16"/>
       <c r="AC25" s="16"/>
-      <c r="AD25" s="21"/>
+      <c r="AD25" s="16"/>
       <c r="AE25" s="21"/>
-      <c r="AF25" s="13"/>
-      <c r="AG25" s="19"/>
-      <c r="AH25" s="13"/>
-      <c r="AI25" s="19"/>
-      <c r="AJ25" s="21"/>
-      <c r="AK25" s="19"/>
-      <c r="AL25" s="21"/>
-      <c r="AM25" s="19"/>
-      <c r="AN25" s="18"/>
+      <c r="AF25" s="21"/>
+      <c r="AG25" s="13"/>
+      <c r="AH25" s="19"/>
+      <c r="AI25" s="13"/>
+      <c r="AJ25" s="19"/>
+      <c r="AK25" s="21"/>
+      <c r="AL25" s="19"/>
+      <c r="AM25" s="21"/>
+      <c r="AN25" s="19"/>
       <c r="AO25" s="18"/>
       <c r="AP25" s="18"/>
       <c r="AQ25" s="18"/>
       <c r="AR25" s="18"/>
-      <c r="AS25" s="14" t="str">
-        <f>IF(A25="", "", IF(ROW()&gt;=3, ", ", "")&amp;"'"&amp;A25&amp;"': {megami: '"&amp;B25&amp;"'"&amp;IF(C25&lt;&gt;"",", anotherID: '"&amp;C25&amp;"', replace: '"&amp;D25&amp;"'","")&amp;", name: '"&amp;SUBSTITUTE(E25,"'","\'")&amp;"', nameEn: '"&amp;SUBSTITUTE(K25,"'","\'")&amp;"', nameZh: '"&amp;SUBSTITUTE(G25,"'","\'")&amp;"', nameZhG1: '"&amp;SUBSTITUTE(H25,"'","\'")&amp;"', nameKo: '"&amp;SUBSTITUTE(J25,"'","\'")&amp;"', ruby: '"&amp;F25&amp;"', rubyEn: '"&amp;L25&amp;IF(I25&lt;&gt;"", "', rubyZh: '"&amp;I25, "")&amp;"', baseType: '"&amp;VLOOKUP(M25,マスタ!$A$1:$B$99,2,0)&amp;"'"&amp;IF(N25="○",", extra: true","")&amp;IF(O25&lt;&gt;"",", extraFrom: '"&amp;O25&amp;"'","")&amp;IF(P25&lt;&gt;"",", exchangableTo: '"&amp;P25&amp;"'","")&amp;IF(Q25="○",", poison: true","")&amp;IF(R25&lt;&gt;"", ", type: '"&amp;VLOOKUP(R25,マスタ!$D$1:$E$99,2,0)&amp;"'", "")&amp;IF(S25&lt;&gt;"",", subType: '"&amp;VLOOKUP(S25,マスタ!$D$1:$E$99,2,0)&amp;"'","")&amp;""&amp;IF(T25&lt;&gt;"",", range: '"&amp;T25&amp;"'","")&amp;IF(V25&lt;&gt;"",", damage: '"&amp;V25&amp;"'","")&amp;IF(X25&lt;&gt;"",", capacity: '"&amp;X25&amp;"'","")&amp;IF(Y25&lt;&gt;"",", growth: "&amp;Y25&amp;"","")&amp;IF(Z25&lt;&gt;"",", cost: '"&amp;Z25&amp;"'","")&amp;", text: '"&amp;SUBSTITUTE(SUBSTITUTE(AD25, CHAR(13), ""),CHAR(10),"\n")&amp;IF(AE25&lt;&gt;"", "', textAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AE25, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textZh: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AF25, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;"', textZhG1: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AH25, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AG25&lt;&gt;"", "', textZhAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AG25, CHAR(13), ""),CHAR(10),"\n"), "")&amp;IF(AI25&lt;&gt;"", "', textZhG1Additional: '"&amp;SUBSTITUTE(SUBSTITUTE(AI25, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textKo: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AJ25, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AK25&lt;&gt;"", "', textKoAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AK25, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textEn: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AL25, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AM25&lt;&gt;"", "', textEnAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AM25, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"'"&amp;IF(AB25="○",", sealable: true","")&amp;IF(AC25="○",", removable: true","")&amp;"}")</f>
+      <c r="AS25" s="18"/>
+      <c r="AT25" s="14" t="str">
+        <f>IF(A25="", "", IF(ROW()&gt;=3, ", ", "")&amp;"'"&amp;A25&amp;"': {megami: '"&amp;B25&amp;"'"&amp;IF(C25&lt;&gt;"",", anotherID: '"&amp;C25&amp;"', replace: '"&amp;D25&amp;"'","")&amp;", name: '"&amp;SUBSTITUTE(E25,"'","\'")&amp;"', nameEn: '"&amp;SUBSTITUTE(K25,"'","\'")&amp;"', nameZh: '"&amp;SUBSTITUTE(G25,"'","\'")&amp;"', nameZhG1: '"&amp;SUBSTITUTE(H25,"'","\'")&amp;"', nameKo: '"&amp;SUBSTITUTE(J25,"'","\'")&amp;"', ruby: '"&amp;F25&amp;"', rubyEn: '"&amp;L25&amp;IF(I25&lt;&gt;"", "', rubyZh: '"&amp;I25, "")&amp;"', baseType: '"&amp;VLOOKUP(M25,マスタ!$A$1:$B$99,2,0)&amp;"'"&amp;IF(N25="○",", extra: true","")&amp;IF(O25&lt;&gt;"",", extraFrom: '"&amp;O25&amp;"'","")&amp;IF(P25&lt;&gt;"",", exchangableTo: '"&amp;P25&amp;"'","")&amp;IF(Q25="○",", poison: true","")&amp;IF(R25&lt;&gt;"", ", type: '"&amp;VLOOKUP(R25,マスタ!$D$1:$E$99,2,0)&amp;"'", "")&amp;IF(S25&lt;&gt;"",", subType: '"&amp;VLOOKUP(S25,マスタ!$D$1:$E$99,2,0)&amp;"'","")&amp;""&amp;IF(T25&lt;&gt;"",", range: '"&amp;T25&amp;"'","")&amp;IF(V25&lt;&gt;"",", damage: '"&amp;V25&amp;"'","")&amp;IF(X25&lt;&gt;"",", capacity: '"&amp;X25&amp;"'","")&amp;IF(Y25&lt;&gt;"",", growth: "&amp;Y25&amp;"","")&amp;IF(Z25&lt;&gt;"",", cost: '"&amp;Z25&amp;"'","")&amp;", text: '"&amp;SUBSTITUTE(SUBSTITUTE(AE25, CHAR(13), ""),CHAR(10),"\n")&amp;IF(AF25&lt;&gt;"", "', textAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AF25, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textZh: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AG25, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;"', textZhG1: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AI25, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AH25&lt;&gt;"", "', textZhAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AH25, CHAR(13), ""),CHAR(10),"\n"), "")&amp;IF(AJ25&lt;&gt;"", "', textZhG1Additional: '"&amp;SUBSTITUTE(SUBSTITUTE(AJ25, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textKo: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AK25, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AL25&lt;&gt;"", "', textKoAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AL25, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textEn: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AM25, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AN25&lt;&gt;"", "', textEnAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AN25, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"'"&amp;IF(AB25="○",", sealable: true","")&amp;IF(AC25="○",", removable: true","")&amp;"}")</f>
         <v/>
       </c>
-      <c r="AT25" s="5" t="str">
+      <c r="AU25" s="5" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="AU25" s="6" t="str">
+      <c r="AV25" s="6" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="26" spans="1:47">
+    <row r="26" spans="1:48">
       <c r="A26" s="16"/>
       <c r="B26" s="16"/>
       <c r="C26" s="16"/>
@@ -18034,35 +18517,36 @@
       <c r="AA26" s="16"/>
       <c r="AB26" s="16"/>
       <c r="AC26" s="16"/>
-      <c r="AD26" s="21"/>
+      <c r="AD26" s="16"/>
       <c r="AE26" s="21"/>
-      <c r="AF26" s="13"/>
-      <c r="AG26" s="19"/>
-      <c r="AH26" s="13"/>
-      <c r="AI26" s="19"/>
-      <c r="AJ26" s="21"/>
-      <c r="AK26" s="19"/>
-      <c r="AL26" s="21"/>
-      <c r="AM26" s="19"/>
-      <c r="AN26" s="18"/>
+      <c r="AF26" s="21"/>
+      <c r="AG26" s="13"/>
+      <c r="AH26" s="19"/>
+      <c r="AI26" s="13"/>
+      <c r="AJ26" s="19"/>
+      <c r="AK26" s="21"/>
+      <c r="AL26" s="19"/>
+      <c r="AM26" s="21"/>
+      <c r="AN26" s="19"/>
       <c r="AO26" s="18"/>
       <c r="AP26" s="18"/>
       <c r="AQ26" s="18"/>
       <c r="AR26" s="18"/>
-      <c r="AS26" s="14" t="str">
-        <f>IF(A26="", "", IF(ROW()&gt;=3, ", ", "")&amp;"'"&amp;A26&amp;"': {megami: '"&amp;B26&amp;"'"&amp;IF(C26&lt;&gt;"",", anotherID: '"&amp;C26&amp;"', replace: '"&amp;D26&amp;"'","")&amp;", name: '"&amp;SUBSTITUTE(E26,"'","\'")&amp;"', nameEn: '"&amp;SUBSTITUTE(K26,"'","\'")&amp;"', nameZh: '"&amp;SUBSTITUTE(G26,"'","\'")&amp;"', nameZhG1: '"&amp;SUBSTITUTE(H26,"'","\'")&amp;"', nameKo: '"&amp;SUBSTITUTE(J26,"'","\'")&amp;"', ruby: '"&amp;F26&amp;"', rubyEn: '"&amp;L26&amp;IF(I26&lt;&gt;"", "', rubyZh: '"&amp;I26, "")&amp;"', baseType: '"&amp;VLOOKUP(M26,マスタ!$A$1:$B$99,2,0)&amp;"'"&amp;IF(N26="○",", extra: true","")&amp;IF(O26&lt;&gt;"",", extraFrom: '"&amp;O26&amp;"'","")&amp;IF(P26&lt;&gt;"",", exchangableTo: '"&amp;P26&amp;"'","")&amp;IF(Q26="○",", poison: true","")&amp;IF(R26&lt;&gt;"", ", type: '"&amp;VLOOKUP(R26,マスタ!$D$1:$E$99,2,0)&amp;"'", "")&amp;IF(S26&lt;&gt;"",", subType: '"&amp;VLOOKUP(S26,マスタ!$D$1:$E$99,2,0)&amp;"'","")&amp;""&amp;IF(T26&lt;&gt;"",", range: '"&amp;T26&amp;"'","")&amp;IF(V26&lt;&gt;"",", damage: '"&amp;V26&amp;"'","")&amp;IF(X26&lt;&gt;"",", capacity: '"&amp;X26&amp;"'","")&amp;IF(Y26&lt;&gt;"",", growth: "&amp;Y26&amp;"","")&amp;IF(Z26&lt;&gt;"",", cost: '"&amp;Z26&amp;"'","")&amp;", text: '"&amp;SUBSTITUTE(SUBSTITUTE(AD26, CHAR(13), ""),CHAR(10),"\n")&amp;IF(AE26&lt;&gt;"", "', textAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AE26, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textZh: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AF26, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;"', textZhG1: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AH26, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AG26&lt;&gt;"", "', textZhAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AG26, CHAR(13), ""),CHAR(10),"\n"), "")&amp;IF(AI26&lt;&gt;"", "', textZhG1Additional: '"&amp;SUBSTITUTE(SUBSTITUTE(AI26, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textKo: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AJ26, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AK26&lt;&gt;"", "', textKoAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AK26, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textEn: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AL26, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AM26&lt;&gt;"", "', textEnAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AM26, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"'"&amp;IF(AB26="○",", sealable: true","")&amp;IF(AC26="○",", removable: true","")&amp;"}")</f>
+      <c r="AS26" s="18"/>
+      <c r="AT26" s="14" t="str">
+        <f>IF(A26="", "", IF(ROW()&gt;=3, ", ", "")&amp;"'"&amp;A26&amp;"': {megami: '"&amp;B26&amp;"'"&amp;IF(C26&lt;&gt;"",", anotherID: '"&amp;C26&amp;"', replace: '"&amp;D26&amp;"'","")&amp;", name: '"&amp;SUBSTITUTE(E26,"'","\'")&amp;"', nameEn: '"&amp;SUBSTITUTE(K26,"'","\'")&amp;"', nameZh: '"&amp;SUBSTITUTE(G26,"'","\'")&amp;"', nameZhG1: '"&amp;SUBSTITUTE(H26,"'","\'")&amp;"', nameKo: '"&amp;SUBSTITUTE(J26,"'","\'")&amp;"', ruby: '"&amp;F26&amp;"', rubyEn: '"&amp;L26&amp;IF(I26&lt;&gt;"", "', rubyZh: '"&amp;I26, "")&amp;"', baseType: '"&amp;VLOOKUP(M26,マスタ!$A$1:$B$99,2,0)&amp;"'"&amp;IF(N26="○",", extra: true","")&amp;IF(O26&lt;&gt;"",", extraFrom: '"&amp;O26&amp;"'","")&amp;IF(P26&lt;&gt;"",", exchangableTo: '"&amp;P26&amp;"'","")&amp;IF(Q26="○",", poison: true","")&amp;IF(R26&lt;&gt;"", ", type: '"&amp;VLOOKUP(R26,マスタ!$D$1:$E$99,2,0)&amp;"'", "")&amp;IF(S26&lt;&gt;"",", subType: '"&amp;VLOOKUP(S26,マスタ!$D$1:$E$99,2,0)&amp;"'","")&amp;""&amp;IF(T26&lt;&gt;"",", range: '"&amp;T26&amp;"'","")&amp;IF(V26&lt;&gt;"",", damage: '"&amp;V26&amp;"'","")&amp;IF(X26&lt;&gt;"",", capacity: '"&amp;X26&amp;"'","")&amp;IF(Y26&lt;&gt;"",", growth: "&amp;Y26&amp;"","")&amp;IF(Z26&lt;&gt;"",", cost: '"&amp;Z26&amp;"'","")&amp;", text: '"&amp;SUBSTITUTE(SUBSTITUTE(AE26, CHAR(13), ""),CHAR(10),"\n")&amp;IF(AF26&lt;&gt;"", "', textAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AF26, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textZh: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AG26, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;"', textZhG1: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AI26, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AH26&lt;&gt;"", "', textZhAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AH26, CHAR(13), ""),CHAR(10),"\n"), "")&amp;IF(AJ26&lt;&gt;"", "', textZhG1Additional: '"&amp;SUBSTITUTE(SUBSTITUTE(AJ26, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textKo: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AK26, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AL26&lt;&gt;"", "', textKoAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AL26, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textEn: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AM26, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AN26&lt;&gt;"", "', textEnAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AN26, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"'"&amp;IF(AB26="○",", sealable: true","")&amp;IF(AC26="○",", removable: true","")&amp;"}")</f>
         <v/>
       </c>
-      <c r="AT26" s="5" t="str">
+      <c r="AU26" s="5" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="AU26" s="6" t="str">
+      <c r="AV26" s="6" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="27" spans="1:47">
+    <row r="27" spans="1:48">
       <c r="A27" s="16"/>
       <c r="B27" s="16"/>
       <c r="C27" s="16"/>
@@ -18092,47 +18576,48 @@
       <c r="AA27" s="16"/>
       <c r="AB27" s="16"/>
       <c r="AC27" s="16"/>
-      <c r="AD27" s="21"/>
+      <c r="AD27" s="16"/>
       <c r="AE27" s="21"/>
-      <c r="AF27" s="13"/>
-      <c r="AG27" s="19"/>
-      <c r="AH27" s="13"/>
-      <c r="AI27" s="19"/>
-      <c r="AJ27" s="21"/>
-      <c r="AK27" s="19"/>
-      <c r="AL27" s="21"/>
-      <c r="AM27" s="19"/>
-      <c r="AN27" s="18"/>
+      <c r="AF27" s="21"/>
+      <c r="AG27" s="13"/>
+      <c r="AH27" s="19"/>
+      <c r="AI27" s="13"/>
+      <c r="AJ27" s="19"/>
+      <c r="AK27" s="21"/>
+      <c r="AL27" s="19"/>
+      <c r="AM27" s="21"/>
+      <c r="AN27" s="19"/>
       <c r="AO27" s="18"/>
       <c r="AP27" s="18"/>
       <c r="AQ27" s="18"/>
       <c r="AR27" s="18"/>
-      <c r="AS27" s="14" t="str">
-        <f>IF(A27="", "", IF(ROW()&gt;=3, ", ", "")&amp;"'"&amp;A27&amp;"': {megami: '"&amp;B27&amp;"'"&amp;IF(C27&lt;&gt;"",", anotherID: '"&amp;C27&amp;"', replace: '"&amp;D27&amp;"'","")&amp;", name: '"&amp;SUBSTITUTE(E27,"'","\'")&amp;"', nameEn: '"&amp;SUBSTITUTE(K27,"'","\'")&amp;"', nameZh: '"&amp;SUBSTITUTE(G27,"'","\'")&amp;"', nameZhG1: '"&amp;SUBSTITUTE(H27,"'","\'")&amp;"', nameKo: '"&amp;SUBSTITUTE(J27,"'","\'")&amp;"', ruby: '"&amp;F27&amp;"', rubyEn: '"&amp;L27&amp;IF(I27&lt;&gt;"", "', rubyZh: '"&amp;I27, "")&amp;"', baseType: '"&amp;VLOOKUP(M27,マスタ!$A$1:$B$99,2,0)&amp;"'"&amp;IF(N27="○",", extra: true","")&amp;IF(O27&lt;&gt;"",", extraFrom: '"&amp;O27&amp;"'","")&amp;IF(P27&lt;&gt;"",", exchangableTo: '"&amp;P27&amp;"'","")&amp;IF(Q27="○",", poison: true","")&amp;IF(R27&lt;&gt;"", ", type: '"&amp;VLOOKUP(R27,マスタ!$D$1:$E$99,2,0)&amp;"'", "")&amp;IF(S27&lt;&gt;"",", subType: '"&amp;VLOOKUP(S27,マスタ!$D$1:$E$99,2,0)&amp;"'","")&amp;""&amp;IF(T27&lt;&gt;"",", range: '"&amp;T27&amp;"'","")&amp;IF(V27&lt;&gt;"",", damage: '"&amp;V27&amp;"'","")&amp;IF(X27&lt;&gt;"",", capacity: '"&amp;X27&amp;"'","")&amp;IF(Y27&lt;&gt;"",", growth: "&amp;Y27&amp;"","")&amp;IF(Z27&lt;&gt;"",", cost: '"&amp;Z27&amp;"'","")&amp;", text: '"&amp;SUBSTITUTE(SUBSTITUTE(AD27, CHAR(13), ""),CHAR(10),"\n")&amp;IF(AE27&lt;&gt;"", "', textAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AE27, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textZh: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AF27, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;"', textZhG1: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AH27, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AG27&lt;&gt;"", "', textZhAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AG27, CHAR(13), ""),CHAR(10),"\n"), "")&amp;IF(AI27&lt;&gt;"", "', textZhG1Additional: '"&amp;SUBSTITUTE(SUBSTITUTE(AI27, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textKo: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AJ27, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AK27&lt;&gt;"", "', textKoAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AK27, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textEn: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AL27, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AM27&lt;&gt;"", "', textEnAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AM27, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"'"&amp;IF(AB27="○",", sealable: true","")&amp;IF(AC27="○",", removable: true","")&amp;"}")</f>
+      <c r="AS27" s="18"/>
+      <c r="AT27" s="14" t="str">
+        <f>IF(A27="", "", IF(ROW()&gt;=3, ", ", "")&amp;"'"&amp;A27&amp;"': {megami: '"&amp;B27&amp;"'"&amp;IF(C27&lt;&gt;"",", anotherID: '"&amp;C27&amp;"', replace: '"&amp;D27&amp;"'","")&amp;", name: '"&amp;SUBSTITUTE(E27,"'","\'")&amp;"', nameEn: '"&amp;SUBSTITUTE(K27,"'","\'")&amp;"', nameZh: '"&amp;SUBSTITUTE(G27,"'","\'")&amp;"', nameZhG1: '"&amp;SUBSTITUTE(H27,"'","\'")&amp;"', nameKo: '"&amp;SUBSTITUTE(J27,"'","\'")&amp;"', ruby: '"&amp;F27&amp;"', rubyEn: '"&amp;L27&amp;IF(I27&lt;&gt;"", "', rubyZh: '"&amp;I27, "")&amp;"', baseType: '"&amp;VLOOKUP(M27,マスタ!$A$1:$B$99,2,0)&amp;"'"&amp;IF(N27="○",", extra: true","")&amp;IF(O27&lt;&gt;"",", extraFrom: '"&amp;O27&amp;"'","")&amp;IF(P27&lt;&gt;"",", exchangableTo: '"&amp;P27&amp;"'","")&amp;IF(Q27="○",", poison: true","")&amp;IF(R27&lt;&gt;"", ", type: '"&amp;VLOOKUP(R27,マスタ!$D$1:$E$99,2,0)&amp;"'", "")&amp;IF(S27&lt;&gt;"",", subType: '"&amp;VLOOKUP(S27,マスタ!$D$1:$E$99,2,0)&amp;"'","")&amp;""&amp;IF(T27&lt;&gt;"",", range: '"&amp;T27&amp;"'","")&amp;IF(V27&lt;&gt;"",", damage: '"&amp;V27&amp;"'","")&amp;IF(X27&lt;&gt;"",", capacity: '"&amp;X27&amp;"'","")&amp;IF(Y27&lt;&gt;"",", growth: "&amp;Y27&amp;"","")&amp;IF(Z27&lt;&gt;"",", cost: '"&amp;Z27&amp;"'","")&amp;", text: '"&amp;SUBSTITUTE(SUBSTITUTE(AE27, CHAR(13), ""),CHAR(10),"\n")&amp;IF(AF27&lt;&gt;"", "', textAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AF27, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textZh: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AG27, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;"', textZhG1: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AI27, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AH27&lt;&gt;"", "', textZhAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AH27, CHAR(13), ""),CHAR(10),"\n"), "")&amp;IF(AJ27&lt;&gt;"", "', textZhG1Additional: '"&amp;SUBSTITUTE(SUBSTITUTE(AJ27, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textKo: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AK27, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AL27&lt;&gt;"", "', textKoAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AL27, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textEn: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AM27, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AN27&lt;&gt;"", "', textEnAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AN27, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"'"&amp;IF(AB27="○",", sealable: true","")&amp;IF(AC27="○",", removable: true","")&amp;"}")</f>
         <v/>
       </c>
-      <c r="AT27" s="5" t="str">
+      <c r="AU27" s="5" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="AU27" s="6" t="str">
+      <c r="AV27" s="6" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="28" spans="1:47">
+    <row r="28" spans="1:48">
       <c r="I28" s="23"/>
     </row>
-    <row r="29" spans="1:47">
+    <row r="29" spans="1:48">
       <c r="I29" s="23"/>
     </row>
-    <row r="30" spans="1:47">
+    <row r="30" spans="1:48">
       <c r="I30" s="23"/>
     </row>
-    <row r="31" spans="1:47">
+    <row r="31" spans="1:48">
       <c r="I31" s="23"/>
     </row>
-    <row r="32" spans="1:47">
+    <row r="32" spans="1:48">
       <c r="I32" s="23"/>
     </row>
     <row r="33" spans="9:9">

--- a/sheet/cards_s8.xlsx
+++ b/sheet/cards_s8.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="149">
   <si>
     <t>カードID</t>
   </si>
@@ -16693,10 +16693,10 @@
   <dimension ref="A1:AML810"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="AR7" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="T7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A15" sqref="A15"/>
-      <selection pane="bottomRight" activeCell="AU12" sqref="AU2:AU12"/>
+      <selection pane="bottomRight" activeCell="AE12" sqref="AE12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -17686,7 +17686,9 @@
       </c>
       <c r="AA12" s="10"/>
       <c r="AB12" s="10"/>
-      <c r="AC12" s="10"/>
+      <c r="AC12" s="10" t="s">
+        <v>146</v>
+      </c>
       <c r="AD12" s="10" t="s">
         <v>146</v>
       </c>
@@ -17709,7 +17711,7 @@
       <c r="AS12" s="12"/>
       <c r="AT12" s="14" t="str">
         <f>IF(A12="", "", IF(ROW()&gt;=3, ", ", "")&amp;"'"&amp;A12&amp;"': {megami: '"&amp;B12&amp;"'"&amp;IF(C12&lt;&gt;"",", anotherID: '"&amp;C12&amp;"', replace: '"&amp;D12&amp;"'","")&amp;", name: '"&amp;SUBSTITUTE(E12,"'","\'")&amp;"', nameEn: '"&amp;SUBSTITUTE(K12,"'","\'")&amp;"', nameZh: '"&amp;SUBSTITUTE(G12,"'","\'")&amp;"', nameZhG1: '"&amp;SUBSTITUTE(H12,"'","\'")&amp;"', nameKo: '"&amp;SUBSTITUTE(J12,"'","\'")&amp;"', ruby: '"&amp;F12&amp;"', rubyEn: '"&amp;L12&amp;IF(I12&lt;&gt;"", "', rubyZh: '"&amp;I12, "")&amp;"', baseType: '"&amp;VLOOKUP(M12,マスタ!$A$1:$B$99,2,0)&amp;"'"&amp;IF(N12="○",", extra: true","")&amp;IF(O12&lt;&gt;"",", extraFrom: '"&amp;O12&amp;"'","")&amp;IF(P12&lt;&gt;"",", exchangableTo: '"&amp;P12&amp;"'","")&amp;IF(Q12="○",", poison: true","")&amp;IF(R12&lt;&gt;"", ", type: '"&amp;VLOOKUP(R12,マスタ!$D$1:$E$99,2,0)&amp;"'", "")&amp;IF(S12&lt;&gt;"",", subType: '"&amp;VLOOKUP(S12,マスタ!$D$1:$E$99,2,0)&amp;"'","")&amp;""&amp;IF(T12&lt;&gt;"",", range: '"&amp;T12&amp;"'","")&amp;IF(V12&lt;&gt;"",", damage: '"&amp;V12&amp;"'","")&amp;IF(X12&lt;&gt;"",", capacity: '"&amp;X12&amp;"'","")&amp;IF(Y12&lt;&gt;"",", growth: "&amp;Y12&amp;"","")&amp;IF(Z12&lt;&gt;"",", cost: '"&amp;Z12&amp;"'","")&amp;", text: '"&amp;SUBSTITUTE(SUBSTITUTE(AE12, CHAR(13), ""),CHAR(10),"\n")&amp;IF(AF12&lt;&gt;"", "', textAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AF12, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textZh: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AG12, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;"', textZhG1: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AI12, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AH12&lt;&gt;"", "', textZhAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AH12, CHAR(13), ""),CHAR(10),"\n"), "")&amp;IF(AJ12&lt;&gt;"", "', textZhG1Additional: '"&amp;SUBSTITUTE(SUBSTITUTE(AJ12, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textKo: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AK12, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AL12&lt;&gt;"", "', textKoAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AL12, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textEn: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AM12, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AN12&lt;&gt;"", "', textEnAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AN12, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"'"&amp;IF(AB12="○",", sealable: true","")&amp;IF(AC12="○",", removable: true","")&amp;IF(AA12="○",", lie: true","")&amp;IF(AD12="○",", investable: true","")&amp;"}")</f>
-        <v>, '23-akina-o-s-4': {megami: 'akina', name: '源上安岐那の御明算', nameEn: '', nameZh: '', nameZhG1: '', nameKo: '', ruby: 'みなかみあきなのごめいさん', rubyEn: '', baseType: 'special', type: 'action', cost: '時価', text: '間合制限（0-7）　投資券\n回収を行ってもよい。そうした場合、基本動作《纏い》を2回まで行い、このカードを取り除く。\n【使用済】あなたの開始フェイズの開始時に基本動作《宿し》を1回行ってもよい。', textZh: '', textZhG1: '', textKo: '', textEn: '', investable: true}</v>
+        <v>, '23-akina-o-s-4': {megami: 'akina', name: '源上安岐那の御明算', nameEn: '', nameZh: '', nameZhG1: '', nameKo: '', ruby: 'みなかみあきなのごめいさん', rubyEn: '', baseType: 'special', type: 'action', cost: '時価', text: '間合制限（0-7）　投資券\n回収を行ってもよい。そうした場合、基本動作《纏い》を2回まで行い、このカードを取り除く。\n【使用済】あなたの開始フェイズの開始時に基本動作《宿し》を1回行ってもよい。', textZh: '', textZhG1: '', textKo: '', textEn: '', removable: true, investable: true}</v>
       </c>
       <c r="AU12" s="5" t="str">
         <f t="shared" si="2"/>

--- a/sheet/cards_s8.xlsx
+++ b/sheet/cards_s8.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="150">
   <si>
     <t>カードID</t>
   </si>
@@ -807,6 +807,10 @@
     </rPh>
     <phoneticPr fontId="3"/>
   </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="20"/>
+  </si>
 </sst>
 </file>
 
@@ -16693,10 +16697,10 @@
   <dimension ref="A1:AML810"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="T7" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="AT4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A15" sqref="A15"/>
-      <selection pane="bottomRight" activeCell="AE12" sqref="AE12"/>
+      <selection pane="bottomRight" activeCell="AT11" sqref="AT11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -17602,7 +17606,9 @@
       <c r="U11" s="12"/>
       <c r="V11" s="10"/>
       <c r="W11" s="12"/>
-      <c r="X11" s="10"/>
+      <c r="X11" s="10" t="s">
+        <v>149</v>
+      </c>
       <c r="Y11" s="10"/>
       <c r="Z11" s="10">
         <v>1</v>
@@ -17632,7 +17638,7 @@
       <c r="AS11" s="12"/>
       <c r="AT11" s="14" t="str">
         <f>IF(A11="", "", IF(ROW()&gt;=3, ", ", "")&amp;"'"&amp;A11&amp;"': {megami: '"&amp;B11&amp;"'"&amp;IF(C11&lt;&gt;"",", anotherID: '"&amp;C11&amp;"', replace: '"&amp;D11&amp;"'","")&amp;", name: '"&amp;SUBSTITUTE(E11,"'","\'")&amp;"', nameEn: '"&amp;SUBSTITUTE(K11,"'","\'")&amp;"', nameZh: '"&amp;SUBSTITUTE(G11,"'","\'")&amp;"', nameZhG1: '"&amp;SUBSTITUTE(H11,"'","\'")&amp;"', nameKo: '"&amp;SUBSTITUTE(J11,"'","\'")&amp;"', ruby: '"&amp;F11&amp;"', rubyEn: '"&amp;L11&amp;IF(I11&lt;&gt;"", "', rubyZh: '"&amp;I11, "")&amp;"', baseType: '"&amp;VLOOKUP(M11,マスタ!$A$1:$B$99,2,0)&amp;"'"&amp;IF(N11="○",", extra: true","")&amp;IF(O11&lt;&gt;"",", extraFrom: '"&amp;O11&amp;"'","")&amp;IF(P11&lt;&gt;"",", exchangableTo: '"&amp;P11&amp;"'","")&amp;IF(Q11="○",", poison: true","")&amp;IF(R11&lt;&gt;"", ", type: '"&amp;VLOOKUP(R11,マスタ!$D$1:$E$99,2,0)&amp;"'", "")&amp;IF(S11&lt;&gt;"",", subType: '"&amp;VLOOKUP(S11,マスタ!$D$1:$E$99,2,0)&amp;"'","")&amp;""&amp;IF(T11&lt;&gt;"",", range: '"&amp;T11&amp;"'","")&amp;IF(V11&lt;&gt;"",", damage: '"&amp;V11&amp;"'","")&amp;IF(X11&lt;&gt;"",", capacity: '"&amp;X11&amp;"'","")&amp;IF(Y11&lt;&gt;"",", growth: "&amp;Y11&amp;"","")&amp;IF(Z11&lt;&gt;"",", cost: '"&amp;Z11&amp;"'","")&amp;", text: '"&amp;SUBSTITUTE(SUBSTITUTE(AE11, CHAR(13), ""),CHAR(10),"\n")&amp;IF(AF11&lt;&gt;"", "', textAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AF11, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textZh: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AG11, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;"', textZhG1: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AI11, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AH11&lt;&gt;"", "', textZhAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AH11, CHAR(13), ""),CHAR(10),"\n"), "")&amp;IF(AJ11&lt;&gt;"", "', textZhG1Additional: '"&amp;SUBSTITUTE(SUBSTITUTE(AJ11, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textKo: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AK11, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AL11&lt;&gt;"", "', textKoAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AL11, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textEn: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AM11, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AN11&lt;&gt;"", "', textEnAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AN11, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"'"&amp;IF(AB11="○",", sealable: true","")&amp;IF(AC11="○",", removable: true","")&amp;IF(AA11="○",", lie: true","")&amp;IF(AD11="○",", investable: true","")&amp;"}")</f>
-        <v>, '23-akina-o-s-3': {megami: 'akina', name: '衰垜逐肘守料術', nameEn: '', nameZh: '', nameZhG1: '', nameKo: '', ruby: 'すいだちくちゅうもりりょうじゅつ', rubyEn: '', baseType: 'special', type: 'enhance', cost: '1', text: '【展開時】あなたのライフからフレアへと桜花結晶を4つ移動させる。\n【展開中】このカードの効果以外でこの付与札の上の桜花結晶は移動しない。\n【展開中】あなたのライフが0の時にあなたが敗北するならば、代わりにあなたのフレアからライフへと桜花結晶を4つ移動させる。その後、この上の桜花結晶を全てダストに送り、このカードを取り除く。', textZh: '', textZhG1: '', textKo: '', textEn: '', removable: true}</v>
+        <v>, '23-akina-o-s-3': {megami: 'akina', name: '衰垜逐肘守料術', nameEn: '', nameZh: '', nameZhG1: '', nameKo: '', ruby: 'すいだちくちゅうもりりょうじゅつ', rubyEn: '', baseType: 'special', type: 'enhance', capacity: '1', cost: '1', text: '【展開時】あなたのライフからフレアへと桜花結晶を4つ移動させる。\n【展開中】このカードの効果以外でこの付与札の上の桜花結晶は移動しない。\n【展開中】あなたのライフが0の時にあなたが敗北するならば、代わりにあなたのフレアからライフへと桜花結晶を4つ移動させる。その後、この上の桜花結晶を全てダストに送り、このカードを取り除く。', textZh: '', textZhG1: '', textKo: '', textEn: '', removable: true}</v>
       </c>
       <c r="AU11" s="5" t="str">
         <f t="shared" ref="AU11:AU18" si="2">IF($A11&lt;&gt;"", "    /** 《"&amp;$E11&amp;"》 */ export const "&amp;SUBSTITUTE(UPPER(IF(MID($A11, 3, 1)="-", RIGHT($A11,LEN($A11)-3), $A11)), "-", "_")&amp;": TCardId = '"&amp;$A11&amp;"';", "")</f>

--- a/sheet/cards_s8.xlsx
+++ b/sheet/cards_s8.xlsx
@@ -567,44 +567,6 @@
     <phoneticPr fontId="20"/>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">投資券
-【展開時】相オーラ→自オーラ：２
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="MS PGothic"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>【破棄時】攻撃『適正距離2-5、1/0』を行ってもよい。</t>
-    </r>
-    <rPh sb="5" eb="8">
-      <t>テンカイジ</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>ソウ</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>ジ</t>
-    </rPh>
-    <rPh sb="22" eb="25">
-      <t>ハキジ</t>
-    </rPh>
-    <rPh sb="26" eb="28">
-      <t>コウゲキ</t>
-    </rPh>
-    <rPh sb="29" eb="33">
-      <t>テキセイキョリ</t>
-    </rPh>
-    <rPh sb="42" eb="43">
-      <t>オコナ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>以下から1つを選ぶ。
 ・自オーラ→自フロー：2
 ・ダスト→自オーラ：2</t>
@@ -619,18 +581,6 @@
     </rPh>
     <rPh sb="17" eb="18">
       <t>ジ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>間合制限（0-3）
-【展開時】相フレア→間合：２
-【破棄時】間合→相フレア：１</t>
-    <rPh sb="0" eb="4">
-      <t>マアイセイゲン</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>マアイ</t>
     </rPh>
     <phoneticPr fontId="3"/>
   </si>
@@ -810,6 +760,56 @@
   <si>
     <t>1</t>
     <phoneticPr fontId="20"/>
+  </si>
+  <si>
+    <t>間合制限（0-3）
+【展開時】相フレア→間合：2
+【破棄時】間合→相フレア：1</t>
+    <rPh sb="0" eb="4">
+      <t>マアイセイゲン</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>マアイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">投資券
+【展開時】相オーラ→自オーラ：2
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="MS PGothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>【破棄時】攻撃『適正距離2-5、1/0』を行ってもよい。</t>
+    </r>
+    <rPh sb="5" eb="8">
+      <t>テンカイジ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ソウ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="22" eb="25">
+      <t>ハキジ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>コウゲキ</t>
+    </rPh>
+    <rPh sb="29" eb="33">
+      <t>テキセイキョリ</t>
+    </rPh>
+    <rPh sb="42" eb="43">
+      <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
   </si>
 </sst>
 </file>
@@ -16697,10 +16697,10 @@
   <dimension ref="A1:AML810"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="AT4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="X4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A15" sqref="A15"/>
-      <selection pane="bottomRight" activeCell="AT11" sqref="AT11"/>
+      <selection pane="bottomRight" activeCell="AE9" sqref="AE9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -16830,7 +16830,7 @@
         <v>25</v>
       </c>
       <c r="AD1" s="16" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="AE1" s="16" t="s">
         <v>26</v>
@@ -16916,7 +16916,7 @@
       </c>
       <c r="U2" s="12"/>
       <c r="V2" s="10" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="W2" s="12"/>
       <c r="X2" s="10"/>
@@ -16927,7 +16927,7 @@
       <c r="AC2" s="10"/>
       <c r="AD2" s="10"/>
       <c r="AE2" s="40" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="AF2" s="35"/>
       <c r="AG2" s="36"/>
@@ -16993,7 +16993,7 @@
       </c>
       <c r="U3" s="12"/>
       <c r="V3" s="10" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="W3" s="12"/>
       <c r="X3" s="10"/>
@@ -17003,7 +17003,7 @@
       <c r="AB3" s="10"/>
       <c r="AC3" s="10"/>
       <c r="AD3" s="10" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="AE3" s="40" t="s">
         <v>122</v>
@@ -17072,7 +17072,7 @@
       </c>
       <c r="U4" s="12"/>
       <c r="V4" s="10" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="W4" s="12"/>
       <c r="X4" s="10"/>
@@ -17083,7 +17083,7 @@
       <c r="AC4" s="10"/>
       <c r="AD4" s="10"/>
       <c r="AE4" s="40" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="AF4" s="35"/>
       <c r="AG4" s="36"/>
@@ -17156,7 +17156,7 @@
       <c r="AC5" s="10"/>
       <c r="AD5" s="10"/>
       <c r="AE5" s="40" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AF5" s="35"/>
       <c r="AG5" s="36"/>
@@ -17231,7 +17231,7 @@
       <c r="AC6" s="10"/>
       <c r="AD6" s="10"/>
       <c r="AE6" s="41" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="AF6" s="35"/>
       <c r="AG6" s="36"/>
@@ -17306,7 +17306,7 @@
       <c r="AC7" s="10"/>
       <c r="AD7" s="10"/>
       <c r="AE7" s="40" t="s">
-        <v>136</v>
+        <v>148</v>
       </c>
       <c r="AF7" s="35"/>
       <c r="AG7" s="36"/>
@@ -17324,7 +17324,7 @@
       <c r="AS7" s="12"/>
       <c r="AT7" s="14" t="str">
         <f>IF(A7="", "", IF(ROW()&gt;=3, ", ", "")&amp;"'"&amp;A7&amp;"': {megami: '"&amp;B7&amp;"'"&amp;IF(C7&lt;&gt;"",", anotherID: '"&amp;C7&amp;"', replace: '"&amp;D7&amp;"'","")&amp;", name: '"&amp;SUBSTITUTE(E7,"'","\'")&amp;"', nameEn: '"&amp;SUBSTITUTE(K7,"'","\'")&amp;"', nameZh: '"&amp;SUBSTITUTE(G7,"'","\'")&amp;"', nameZhG1: '"&amp;SUBSTITUTE(H7,"'","\'")&amp;"', nameKo: '"&amp;SUBSTITUTE(J7,"'","\'")&amp;"', ruby: '"&amp;F7&amp;"', rubyEn: '"&amp;L7&amp;IF(I7&lt;&gt;"", "', rubyZh: '"&amp;I7, "")&amp;"', baseType: '"&amp;VLOOKUP(M7,マスタ!$A$1:$B$99,2,0)&amp;"'"&amp;IF(N7="○",", extra: true","")&amp;IF(O7&lt;&gt;"",", extraFrom: '"&amp;O7&amp;"'","")&amp;IF(P7&lt;&gt;"",", exchangableTo: '"&amp;P7&amp;"'","")&amp;IF(Q7="○",", poison: true","")&amp;IF(R7&lt;&gt;"", ", type: '"&amp;VLOOKUP(R7,マスタ!$D$1:$E$99,2,0)&amp;"'", "")&amp;IF(S7&lt;&gt;"",", subType: '"&amp;VLOOKUP(S7,マスタ!$D$1:$E$99,2,0)&amp;"'","")&amp;""&amp;IF(T7&lt;&gt;"",", range: '"&amp;T7&amp;"'","")&amp;IF(V7&lt;&gt;"",", damage: '"&amp;V7&amp;"'","")&amp;IF(X7&lt;&gt;"",", capacity: '"&amp;X7&amp;"'","")&amp;IF(Y7&lt;&gt;"",", growth: "&amp;Y7&amp;"","")&amp;IF(Z7&lt;&gt;"",", cost: '"&amp;Z7&amp;"'","")&amp;", text: '"&amp;SUBSTITUTE(SUBSTITUTE(AE7, CHAR(13), ""),CHAR(10),"\n")&amp;IF(AF7&lt;&gt;"", "', textAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AF7, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textZh: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AG7, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;"', textZhG1: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AI7, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AH7&lt;&gt;"", "', textZhAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AH7, CHAR(13), ""),CHAR(10),"\n"), "")&amp;IF(AJ7&lt;&gt;"", "', textZhG1Additional: '"&amp;SUBSTITUTE(SUBSTITUTE(AJ7, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textKo: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AK7, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AL7&lt;&gt;"", "', textKoAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AL7, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textEn: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AM7, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AN7&lt;&gt;"", "', textEnAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AN7, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"'"&amp;IF(AB7="○",", sealable: true","")&amp;IF(AC7="○",", removable: true","")&amp;IF(AA7="○",", lie: true","")&amp;IF(AD7="○",", investable: true","")&amp;"}")</f>
-        <v>, '23-akina-o-n-6': {megami: 'akina', name: '盤狂わせ', nameEn: '', nameZh: '', nameZhG1: '', nameKo: '', ruby: 'ばんくるわせ', rubyEn: '', baseType: 'normal', type: 'enhance', capacity: '2', text: '間合制限（0-3）\n【展開時】相フレア→間合：２\n【破棄時】間合→相フレア：１', textZh: '', textZhG1: '', textKo: '', textEn: ''}</v>
+        <v>, '23-akina-o-n-6': {megami: 'akina', name: '盤狂わせ', nameEn: '', nameZh: '', nameZhG1: '', nameKo: '', ruby: 'ばんくるわせ', rubyEn: '', baseType: 'normal', type: 'enhance', capacity: '2', text: '間合制限（0-3）\n【展開時】相フレア→間合：2\n【破棄時】間合→相フレア：1', textZh: '', textZhG1: '', textKo: '', textEn: ''}</v>
       </c>
       <c r="AU7" s="5" t="str">
         <f t="shared" si="0"/>
@@ -17382,10 +17382,10 @@
       <c r="AB8" s="10"/>
       <c r="AC8" s="10"/>
       <c r="AD8" s="10" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="AE8" s="40" t="s">
-        <v>134</v>
+        <v>149</v>
       </c>
       <c r="AF8" s="35"/>
       <c r="AG8" s="36"/>
@@ -17403,7 +17403,7 @@
       <c r="AS8" s="12"/>
       <c r="AT8" s="14" t="str">
         <f>IF(A8="", "", IF(ROW()&gt;=3, ", ", "")&amp;"'"&amp;A8&amp;"': {megami: '"&amp;B8&amp;"'"&amp;IF(C8&lt;&gt;"",", anotherID: '"&amp;C8&amp;"', replace: '"&amp;D8&amp;"'","")&amp;", name: '"&amp;SUBSTITUTE(E8,"'","\'")&amp;"', nameEn: '"&amp;SUBSTITUTE(K8,"'","\'")&amp;"', nameZh: '"&amp;SUBSTITUTE(G8,"'","\'")&amp;"', nameZhG1: '"&amp;SUBSTITUTE(H8,"'","\'")&amp;"', nameKo: '"&amp;SUBSTITUTE(J8,"'","\'")&amp;"', ruby: '"&amp;F8&amp;"', rubyEn: '"&amp;L8&amp;IF(I8&lt;&gt;"", "', rubyZh: '"&amp;I8, "")&amp;"', baseType: '"&amp;VLOOKUP(M8,マスタ!$A$1:$B$99,2,0)&amp;"'"&amp;IF(N8="○",", extra: true","")&amp;IF(O8&lt;&gt;"",", extraFrom: '"&amp;O8&amp;"'","")&amp;IF(P8&lt;&gt;"",", exchangableTo: '"&amp;P8&amp;"'","")&amp;IF(Q8="○",", poison: true","")&amp;IF(R8&lt;&gt;"", ", type: '"&amp;VLOOKUP(R8,マスタ!$D$1:$E$99,2,0)&amp;"'", "")&amp;IF(S8&lt;&gt;"",", subType: '"&amp;VLOOKUP(S8,マスタ!$D$1:$E$99,2,0)&amp;"'","")&amp;""&amp;IF(T8&lt;&gt;"",", range: '"&amp;T8&amp;"'","")&amp;IF(V8&lt;&gt;"",", damage: '"&amp;V8&amp;"'","")&amp;IF(X8&lt;&gt;"",", capacity: '"&amp;X8&amp;"'","")&amp;IF(Y8&lt;&gt;"",", growth: "&amp;Y8&amp;"","")&amp;IF(Z8&lt;&gt;"",", cost: '"&amp;Z8&amp;"'","")&amp;", text: '"&amp;SUBSTITUTE(SUBSTITUTE(AE8, CHAR(13), ""),CHAR(10),"\n")&amp;IF(AF8&lt;&gt;"", "', textAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AF8, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textZh: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AG8, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;"', textZhG1: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AI8, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AH8&lt;&gt;"", "', textZhAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AH8, CHAR(13), ""),CHAR(10),"\n"), "")&amp;IF(AJ8&lt;&gt;"", "', textZhG1Additional: '"&amp;SUBSTITUTE(SUBSTITUTE(AJ8, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textKo: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AK8, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AL8&lt;&gt;"", "', textKoAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AL8, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textEn: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AM8, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AN8&lt;&gt;"", "', textEnAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AN8, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"'"&amp;IF(AB8="○",", sealable: true","")&amp;IF(AC8="○",", removable: true","")&amp;IF(AA8="○",", lie: true","")&amp;IF(AD8="○",", investable: true","")&amp;"}")</f>
-        <v>, '23-akina-o-n-7': {megami: 'akina', name: '直接金融', nameEn: '', nameZh: '', nameZhG1: '', nameKo: '', ruby: 'ちょくせつきんゆう', rubyEn: '', baseType: 'normal', type: 'enhance', subType: 'fullpower', capacity: '2', text: '投資券\n【展開時】相オーラ→自オーラ：２\n【破棄時】攻撃『適正距離2-5、1/0』を行ってもよい。', textZh: '', textZhG1: '', textKo: '', textEn: '', investable: true}</v>
+        <v>, '23-akina-o-n-7': {megami: 'akina', name: '直接金融', nameEn: '', nameZh: '', nameZhG1: '', nameKo: '', ruby: 'ちょくせつきんゆう', rubyEn: '', baseType: 'normal', type: 'enhance', subType: 'fullpower', capacity: '2', text: '投資券\n【展開時】相オーラ→自オーラ：2\n【破棄時】攻撃『適正距離2-5、1/0』を行ってもよい。', textZh: '', textZhG1: '', textKo: '', textEn: '', investable: true}</v>
       </c>
       <c r="AU8" s="5" t="str">
         <f t="shared" si="0"/>
@@ -17460,7 +17460,7 @@
       <c r="AC9" s="10"/>
       <c r="AD9" s="10"/>
       <c r="AE9" s="40" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="AF9" s="35"/>
       <c r="AG9" s="36"/>
@@ -17528,7 +17528,7 @@
       </c>
       <c r="U10" s="12"/>
       <c r="V10" s="10" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="W10" s="12"/>
       <c r="X10" s="10"/>
@@ -17541,7 +17541,7 @@
       <c r="AC10" s="10"/>
       <c r="AD10" s="10"/>
       <c r="AE10" s="40" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="AF10" s="35"/>
       <c r="AG10" s="36"/>
@@ -17607,7 +17607,7 @@
       <c r="V11" s="10"/>
       <c r="W11" s="12"/>
       <c r="X11" s="10" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="Y11" s="10"/>
       <c r="Z11" s="10">
@@ -17616,11 +17616,11 @@
       <c r="AA11" s="10"/>
       <c r="AB11" s="10"/>
       <c r="AC11" s="10" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="AD11" s="10"/>
       <c r="AE11" s="40" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="AF11" s="35"/>
       <c r="AG11" s="36"/>
@@ -17693,13 +17693,13 @@
       <c r="AA12" s="10"/>
       <c r="AB12" s="10"/>
       <c r="AC12" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="AD12" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="AE12" s="40" t="s">
         <v>146</v>
-      </c>
-      <c r="AD12" s="10" t="s">
-        <v>146</v>
-      </c>
-      <c r="AE12" s="40" t="s">
-        <v>148</v>
       </c>
       <c r="AF12" s="35"/>
       <c r="AG12" s="36"/>

--- a/sheet/cards_s8.xlsx
+++ b/sheet/cards_s8.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="メガミ" sheetId="8" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="284">
   <si>
     <t>カードID</t>
   </si>
@@ -270,26 +270,26 @@
   </si>
   <si>
     <t>akina</t>
-    <phoneticPr fontId="20"/>
+    <phoneticPr fontId="19"/>
   </si>
   <si>
     <t>アキナ</t>
-    <phoneticPr fontId="20"/>
+    <phoneticPr fontId="19"/>
   </si>
   <si>
     <t>23</t>
-    <phoneticPr fontId="20"/>
+    <phoneticPr fontId="19"/>
   </si>
   <si>
     <t>算盤</t>
     <rPh sb="0" eb="2">
       <t>ソロバン</t>
     </rPh>
-    <phoneticPr fontId="20"/>
+    <phoneticPr fontId="19"/>
   </si>
   <si>
     <t>シーズン8から</t>
-    <phoneticPr fontId="20"/>
+    <phoneticPr fontId="19"/>
   </si>
   <si>
     <t>23-akina-o-n-1</t>
@@ -329,7 +329,7 @@
   </si>
   <si>
     <t>○</t>
-    <phoneticPr fontId="20"/>
+    <phoneticPr fontId="19"/>
   </si>
   <si>
     <t>算盤玉</t>
@@ -391,23 +391,23 @@
   </si>
   <si>
     <t>かいほうめいしききりとりほう</t>
-    <phoneticPr fontId="20"/>
+    <phoneticPr fontId="19"/>
   </si>
   <si>
     <t>だいえんさんかてうちひょう</t>
-    <phoneticPr fontId="20"/>
+    <phoneticPr fontId="19"/>
   </si>
   <si>
     <t>すいだちくちゅうもりりょうじゅつ</t>
-    <phoneticPr fontId="20"/>
+    <phoneticPr fontId="19"/>
   </si>
   <si>
     <t>みなかみあきなのごめいさん</t>
-    <phoneticPr fontId="20"/>
+    <phoneticPr fontId="19"/>
   </si>
   <si>
     <t>開方冥式切取法</t>
-    <phoneticPr fontId="20"/>
+    <phoneticPr fontId="19"/>
   </si>
   <si>
     <t>大衍算顆手打表</t>
@@ -458,35 +458,35 @@
   </si>
   <si>
     <t>源上安岐那の御明算</t>
-    <phoneticPr fontId="20"/>
+    <phoneticPr fontId="19"/>
   </si>
   <si>
     <t>そろばんだま</t>
-    <phoneticPr fontId="20"/>
+    <phoneticPr fontId="19"/>
   </si>
   <si>
     <t>どうかつ</t>
-    <phoneticPr fontId="20"/>
+    <phoneticPr fontId="19"/>
   </si>
   <si>
     <t>こうえき</t>
-    <phoneticPr fontId="20"/>
+    <phoneticPr fontId="19"/>
   </si>
   <si>
     <t>とうき</t>
-    <phoneticPr fontId="20"/>
+    <phoneticPr fontId="19"/>
   </si>
   <si>
     <t>さんぽう</t>
-    <phoneticPr fontId="20"/>
+    <phoneticPr fontId="19"/>
   </si>
   <si>
     <t>ばんくるわせ</t>
-    <phoneticPr fontId="20"/>
+    <phoneticPr fontId="19"/>
   </si>
   <si>
     <t>ちょくせつきんゆう</t>
-    <phoneticPr fontId="20"/>
+    <phoneticPr fontId="19"/>
   </si>
   <si>
     <t>投資券
@@ -556,15 +556,15 @@
   </si>
   <si>
     <t>対応</t>
-    <phoneticPr fontId="20"/>
+    <phoneticPr fontId="19"/>
   </si>
   <si>
     <t>対応</t>
-    <phoneticPr fontId="20"/>
+    <phoneticPr fontId="19"/>
   </si>
   <si>
     <t>全力</t>
-    <phoneticPr fontId="20"/>
+    <phoneticPr fontId="19"/>
   </si>
   <si>
     <t>以下から1つを選ぶ。
@@ -640,15 +640,15 @@
   </si>
   <si>
     <t>1/0</t>
-    <phoneticPr fontId="20"/>
+    <phoneticPr fontId="19"/>
   </si>
   <si>
     <t>-/0</t>
-    <phoneticPr fontId="20"/>
+    <phoneticPr fontId="19"/>
   </si>
   <si>
     <t>2/0</t>
-    <phoneticPr fontId="20"/>
+    <phoneticPr fontId="19"/>
   </si>
   <si>
     <t>あなたは集中力を1得る。
@@ -707,7 +707,7 @@
   </si>
   <si>
     <t>○</t>
-    <phoneticPr fontId="20"/>
+    <phoneticPr fontId="19"/>
   </si>
   <si>
     <t>投資券</t>
@@ -717,7 +717,7 @@
     <rPh sb="2" eb="3">
       <t>ケン</t>
     </rPh>
-    <phoneticPr fontId="20"/>
+    <phoneticPr fontId="19"/>
   </si>
   <si>
     <r>
@@ -759,7 +759,7 @@
   </si>
   <si>
     <t>1</t>
-    <phoneticPr fontId="20"/>
+    <phoneticPr fontId="19"/>
   </si>
   <si>
     <t>間合制限（0-3）
@@ -811,12 +811,1113 @@
     </rPh>
     <phoneticPr fontId="3"/>
   </si>
+  <si>
+    <t>24-shisui-o-n-1</t>
+  </si>
+  <si>
+    <t>24-shisui-o-n-2</t>
+  </si>
+  <si>
+    <t>24-shisui-o-n-3</t>
+  </si>
+  <si>
+    <t>24-shisui-o-n-4</t>
+  </si>
+  <si>
+    <t>24-shisui-o-n-5</t>
+  </si>
+  <si>
+    <t>24-shisui-o-n-6</t>
+  </si>
+  <si>
+    <t>24-shisui-o-n-7</t>
+  </si>
+  <si>
+    <t>24-shisui-o-s-1</t>
+  </si>
+  <si>
+    <t>24-shisui-o-s-2</t>
+  </si>
+  <si>
+    <t>24-shisui-o-s-3</t>
+  </si>
+  <si>
+    <t>24-shisui-o-s-4</t>
+  </si>
+  <si>
+    <t>shisui</t>
+    <phoneticPr fontId="19"/>
+  </si>
+  <si>
+    <t>鋸斬り</t>
+    <rPh sb="0" eb="1">
+      <t>ノコギリ</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>キ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>のこぎり</t>
+    <phoneticPr fontId="19"/>
+  </si>
+  <si>
+    <t>刻み刃</t>
+    <rPh sb="0" eb="1">
+      <t>キザ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ヤイバ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>きざみやいば</t>
+    <phoneticPr fontId="19"/>
+  </si>
+  <si>
+    <t>反乱撃</t>
+    <rPh sb="0" eb="3">
+      <t>ハンランゲキ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>はんらんげき</t>
+    <phoneticPr fontId="19"/>
+  </si>
+  <si>
+    <t>徹底抗戦</t>
+    <rPh sb="0" eb="4">
+      <t>テッテイコウセン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>てっていこうせん</t>
+    <phoneticPr fontId="19"/>
+  </si>
+  <si>
+    <t>茨道</t>
+    <rPh sb="0" eb="1">
+      <t>イバラ</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>ミチ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>いばらみち</t>
+    <phoneticPr fontId="19"/>
+  </si>
+  <si>
+    <t>金屑纏い</t>
+    <rPh sb="0" eb="2">
+      <t>カナクズ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>マト</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>黒き鎧</t>
+    <rPh sb="0" eb="1">
+      <t>クロ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ヨロイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ハドマギリ</t>
+    <phoneticPr fontId="19"/>
+  </si>
+  <si>
+    <t>くろきよろい</t>
+    <phoneticPr fontId="19"/>
+  </si>
+  <si>
+    <t>かなくずまとい</t>
+    <phoneticPr fontId="19"/>
+  </si>
+  <si>
+    <t>ウバラザキ</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>アブダグイ</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>桑畑志水の死に所</t>
+    <rPh sb="0" eb="2">
+      <t>クワハタ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ココロザシ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ミズ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>シ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ドコロ</t>
+    </rPh>
+    <phoneticPr fontId="19"/>
+  </si>
+  <si>
+    <t>くわはたしすいのしにどころ</t>
+    <phoneticPr fontId="19"/>
+  </si>
+  <si>
+    <t>全力</t>
+    <rPh sb="0" eb="2">
+      <t>ゼンリョク</t>
+    </rPh>
+    <phoneticPr fontId="19"/>
+  </si>
+  <si>
+    <t>2-3</t>
+    <phoneticPr fontId="19"/>
+  </si>
+  <si>
+    <t>3/1</t>
+  </si>
+  <si>
+    <t>3/1</t>
+    <phoneticPr fontId="19"/>
+  </si>
+  <si>
+    <t>1~/1~</t>
+    <phoneticPr fontId="19"/>
+  </si>
+  <si>
+    <t>2-4</t>
+    <phoneticPr fontId="19"/>
+  </si>
+  <si>
+    <t>1/1</t>
+    <phoneticPr fontId="19"/>
+  </si>
+  <si>
+    <t>1-7</t>
+    <phoneticPr fontId="19"/>
+  </si>
+  <si>
+    <t>2~/3~</t>
+    <phoneticPr fontId="19"/>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="19"/>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>3</t>
+    <phoneticPr fontId="19"/>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="19"/>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="19"/>
+  </si>
+  <si>
+    <t>2~</t>
+    <phoneticPr fontId="19"/>
+  </si>
+  <si>
+    <t>2~/1~</t>
+    <phoneticPr fontId="19"/>
+  </si>
+  <si>
+    <t>1-4</t>
+    <phoneticPr fontId="19"/>
+  </si>
+  <si>
+    <t>【攻撃後】攻撃『適正距離2-3、1~/2~、【常時】相手のオーラに置かれたあなたの裂傷トークンの個数が相手のオーラ以上ならば、相手はオーラへのダメージを選べない』を行う。</t>
+    <rPh sb="1" eb="4">
+      <t>コウゲキゴ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>コウゲキ</t>
+    </rPh>
+    <rPh sb="8" eb="12">
+      <t>テキセイキョリ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ジョウジ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>アイテ</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>レッショウ</t>
+    </rPh>
+    <rPh sb="48" eb="50">
+      <t>コスウ</t>
+    </rPh>
+    <rPh sb="51" eb="53">
+      <t>アイテ</t>
+    </rPh>
+    <rPh sb="57" eb="59">
+      <t>イジョウ</t>
+    </rPh>
+    <rPh sb="63" eb="65">
+      <t>アイテ</t>
+    </rPh>
+    <rPh sb="76" eb="77">
+      <t>エラ</t>
+    </rPh>
+    <rPh sb="82" eb="83">
+      <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="19"/>
+  </si>
+  <si>
+    <t>【常時】あなたがこのターン中にダメージを受けているならば、この《攻撃》は+1/+1となる。
+【攻撃後】あなたがこのターン中にダメージを2回以上受けているならば、基本動作《纏い》を1回行う。</t>
+    <rPh sb="1" eb="3">
+      <t>ジョウジ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>チュウ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>ウ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>コウゲキ</t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t>コウゲキ</t>
+    </rPh>
+    <rPh sb="49" eb="50">
+      <t>アト</t>
+    </rPh>
+    <rPh sb="60" eb="61">
+      <t>チュウ</t>
+    </rPh>
+    <rPh sb="68" eb="69">
+      <t>カイ</t>
+    </rPh>
+    <rPh sb="69" eb="71">
+      <t>イジョウ</t>
+    </rPh>
+    <rPh sb="71" eb="72">
+      <t>ウ</t>
+    </rPh>
+    <rPh sb="80" eb="84">
+      <t>キホンドウサ</t>
+    </rPh>
+    <rPh sb="85" eb="86">
+      <t>マト</t>
+    </rPh>
+    <rPh sb="90" eb="91">
+      <t>カイ</t>
+    </rPh>
+    <rPh sb="91" eb="92">
+      <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="19"/>
+  </si>
+  <si>
+    <t>対応不可
+【攻撃後】相手を畏縮させ、あなたのオーラかライフかフレアに裂傷を1与える。</t>
+    <rPh sb="0" eb="4">
+      <t>タイオウフカ</t>
+    </rPh>
+    <rPh sb="6" eb="9">
+      <t>コウゲキゴ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>アイテ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>イシュク</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>レッショウ</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>アタ</t>
+    </rPh>
+    <phoneticPr fontId="19"/>
+  </si>
+  <si>
+    <t>間合→ダスト：2
+あなたのオーラかフレアに裂傷を1与える。現在の間合が0ならば、代わりにライフに裂傷を1与える。</t>
+    <rPh sb="0" eb="2">
+      <t>マア</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>レッショウ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>アタ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ゲンザイ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>マア</t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="48" eb="50">
+      <t>レッショウ</t>
+    </rPh>
+    <rPh sb="52" eb="53">
+      <t>アタ</t>
+    </rPh>
+    <phoneticPr fontId="19"/>
+  </si>
+  <si>
+    <t>基本動作《纏い》を2回行う。その後、以下から1つを選ぶ。
+・あなたと相手のオーラに裂傷を1与える。
+・あなたと相手のフレアに裂傷を1与える。</t>
+    <rPh sb="0" eb="4">
+      <t>キホンドウサ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>マト</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>カイ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>アト</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>エラ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>アイテ</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>レッショウ</t>
+    </rPh>
+    <rPh sb="45" eb="46">
+      <t>アタ</t>
+    </rPh>
+    <phoneticPr fontId="19"/>
+  </si>
+  <si>
+    <t>【展開時】このカードの上に桜花結晶をX個ダストから置く。Xはあなたがこのターン中にダメージを受けた回数の2倍に等しい。Xが4以上ならばもう1つ置く。
+【展開中】相手の《攻撃》は+0/-1となり、その解決後にこの付与札の上の桜花結晶を2つダストに送る。</t>
+    <rPh sb="1" eb="4">
+      <t>テンカイジ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ウエ</t>
+    </rPh>
+    <rPh sb="13" eb="17">
+      <t>オウカケッショウ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="46" eb="47">
+      <t>ウ</t>
+    </rPh>
+    <rPh sb="49" eb="51">
+      <t>カイスウ</t>
+    </rPh>
+    <rPh sb="53" eb="54">
+      <t>バイ</t>
+    </rPh>
+    <rPh sb="55" eb="56">
+      <t>ヒト</t>
+    </rPh>
+    <rPh sb="62" eb="64">
+      <t>イジョウ</t>
+    </rPh>
+    <rPh sb="71" eb="72">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="76" eb="79">
+      <t>テンカイチュウ</t>
+    </rPh>
+    <rPh sb="80" eb="82">
+      <t>アイテ</t>
+    </rPh>
+    <rPh sb="84" eb="86">
+      <t>コウゲキ</t>
+    </rPh>
+    <rPh sb="99" eb="102">
+      <t>カイケツゴ</t>
+    </rPh>
+    <rPh sb="105" eb="108">
+      <t>フヨフダ</t>
+    </rPh>
+    <rPh sb="109" eb="110">
+      <t>ウエ</t>
+    </rPh>
+    <rPh sb="111" eb="115">
+      <t>オウカケッショウ</t>
+    </rPh>
+    <rPh sb="122" eb="123">
+      <t>オク</t>
+    </rPh>
+    <phoneticPr fontId="19"/>
+  </si>
+  <si>
+    <t>【常時】このカードが対応している《攻撃》があるならば、その《攻撃》の解決後にこのカードの効果を解決する。
+任意の数の領域を選び、それらに置かれたあなたの裂傷トークンを任意の順でダメージ化する。その後、攻撃『適正距離1-4、2/1、対応不可（通常札）、【常時】この《攻撃》は+0/+Xとなる。Xはあなたがこのターン中にダメージを受けた回数の半分（切り上げ）に等しい』を行う。</t>
+    <rPh sb="1" eb="3">
+      <t>ジョウジ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>タイオウ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>コウゲキ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>コウゲキ</t>
+    </rPh>
+    <rPh sb="34" eb="37">
+      <t>カイケツゴ</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>コウカ</t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t>カイケツ</t>
+    </rPh>
+    <rPh sb="53" eb="55">
+      <t>ニンイ</t>
+    </rPh>
+    <rPh sb="56" eb="57">
+      <t>カズ</t>
+    </rPh>
+    <rPh sb="58" eb="60">
+      <t>リョウイキ</t>
+    </rPh>
+    <rPh sb="61" eb="62">
+      <t>エラ</t>
+    </rPh>
+    <rPh sb="68" eb="69">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="76" eb="78">
+      <t>レッショウ</t>
+    </rPh>
+    <rPh sb="83" eb="85">
+      <t>ニンイ</t>
+    </rPh>
+    <rPh sb="86" eb="87">
+      <t>ジュン</t>
+    </rPh>
+    <rPh sb="92" eb="93">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="98" eb="99">
+      <t>アト</t>
+    </rPh>
+    <rPh sb="100" eb="102">
+      <t>コウゲキ</t>
+    </rPh>
+    <rPh sb="103" eb="107">
+      <t>テキセイキョリ</t>
+    </rPh>
+    <rPh sb="115" eb="119">
+      <t>タイオウフカ</t>
+    </rPh>
+    <rPh sb="120" eb="123">
+      <t>ツウジョウフダ</t>
+    </rPh>
+    <rPh sb="126" eb="128">
+      <t>ジョウジ</t>
+    </rPh>
+    <rPh sb="132" eb="134">
+      <t>コウゲキ</t>
+    </rPh>
+    <rPh sb="156" eb="157">
+      <t>チュウ</t>
+    </rPh>
+    <rPh sb="163" eb="164">
+      <t>ウ</t>
+    </rPh>
+    <rPh sb="166" eb="168">
+      <t>カイスウ</t>
+    </rPh>
+    <rPh sb="169" eb="171">
+      <t>ハンブン</t>
+    </rPh>
+    <rPh sb="172" eb="173">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="174" eb="175">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="178" eb="179">
+      <t>ヒト</t>
+    </rPh>
+    <rPh sb="183" eb="184">
+      <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="19"/>
+  </si>
+  <si>
+    <t>【攻撃後】相手がライフへのダメージを選んだならば、このターンにあなたが次に行うオーラへのダメージが2以下の《攻撃》のダメージは裂傷化する。
+----
+【再起】あなたのオーラとフレアの合計が6以下である。</t>
+    <rPh sb="1" eb="4">
+      <t>コウゲキアト</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>アイテ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>エラ</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>ツギ</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="50" eb="52">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="54" eb="56">
+      <t>コウゲキ</t>
+    </rPh>
+    <rPh sb="63" eb="65">
+      <t>レッショウ</t>
+    </rPh>
+    <rPh sb="65" eb="66">
+      <t>バ</t>
+    </rPh>
+    <rPh sb="76" eb="78">
+      <t>サイキ</t>
+    </rPh>
+    <rPh sb="91" eb="93">
+      <t>ゴウケイ</t>
+    </rPh>
+    <rPh sb="95" eb="97">
+      <t>イカ</t>
+    </rPh>
+    <phoneticPr fontId="19"/>
+  </si>
+  <si>
+    <t>対応した《攻撃》のダメージを打ち消す。そうした場合、あなたはX~/Y~の裂傷を受ける。X/Yは打ち消したダメージの値に等しい。
+----
+【即再起】あなたがこのターンに3回目のダメージを受ける。</t>
+    <rPh sb="0" eb="2">
+      <t>タイオウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>コウゲキ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ウ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ケ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>レッショウ</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>ウ</t>
+    </rPh>
+    <rPh sb="47" eb="48">
+      <t>ウ</t>
+    </rPh>
+    <rPh sb="49" eb="50">
+      <t>ケ</t>
+    </rPh>
+    <rPh sb="57" eb="58">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="59" eb="60">
+      <t>ヒト</t>
+    </rPh>
+    <rPh sb="70" eb="73">
+      <t>ソクサイキ</t>
+    </rPh>
+    <rPh sb="85" eb="87">
+      <t>カイメ</t>
+    </rPh>
+    <rPh sb="93" eb="94">
+      <t>ウ</t>
+    </rPh>
+    <phoneticPr fontId="19"/>
+  </si>
+  <si>
+    <t>【展開時】このカードの上に桜花結晶をX個相手のフレアから置く。相手のフレアがあなたのフレアより大きいならば、Xはその差に等しい。そうでないならばXは0である。
+【展開中】あなたは敗北しない。
+【展開中】あなたのライフが0ならば、相手は集中力を支払えない。</t>
+    <rPh sb="1" eb="4">
+      <t>テンカイジ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ウエ</t>
+    </rPh>
+    <rPh sb="13" eb="17">
+      <t>オウカケッショウ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>アイテ</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>アイテ</t>
+    </rPh>
+    <rPh sb="47" eb="48">
+      <t>オオ</t>
+    </rPh>
+    <rPh sb="58" eb="59">
+      <t>サ</t>
+    </rPh>
+    <rPh sb="60" eb="61">
+      <t>ヒト</t>
+    </rPh>
+    <rPh sb="81" eb="84">
+      <t>テンカイチュウ</t>
+    </rPh>
+    <rPh sb="89" eb="91">
+      <t>ハイボク</t>
+    </rPh>
+    <rPh sb="97" eb="100">
+      <t>テンカイチュウ</t>
+    </rPh>
+    <rPh sb="114" eb="116">
+      <t>アイテ</t>
+    </rPh>
+    <rPh sb="117" eb="120">
+      <t>シュウチュウリョク</t>
+    </rPh>
+    <rPh sb="121" eb="123">
+      <t>シハラ</t>
+    </rPh>
+    <phoneticPr fontId="19"/>
+  </si>
+  <si>
+    <t>06-yukihi-o-s-1</t>
+  </si>
+  <si>
+    <t>yukihi</t>
+  </si>
+  <si>
+    <t>はらりゆき</t>
+  </si>
+  <si>
+    <t>纷扬如雪</t>
+  </si>
+  <si>
+    <t>흩날리는 눈꽃</t>
+  </si>
+  <si>
+    <t>Gentle Snow</t>
+  </si>
+  <si>
+    <t>3-5</t>
+  </si>
+  <si>
+    <t>0-1</t>
+  </si>
+  <si>
+    <t>0/0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">----
+【即再起】あなたが傘の開閉を行う。 </t>
+  </si>
+  <si>
+    <t>----
+【即再起】进行一次伞的开合操作。</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="MS PGothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>无 
+----
+【即再起】</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>进行伞的开合操作</t>
+    </r>
+  </si>
+  <si>
+    <t>----
+【즉재기】당신이 우산의 개폐를 행한다.</t>
+  </si>
+  <si>
+    <t>----
+Immediate Resurgence: You open or close your umbrella.</t>
+  </si>
+  <si>
+    <t>08-hagane-o-n-6</t>
+  </si>
+  <si>
+    <t>hagane</t>
+  </si>
+  <si>
+    <t>鐘鳴らし</t>
+  </si>
+  <si>
+    <t>かねならし</t>
+  </si>
+  <si>
+    <t>钟鸣响</t>
+  </si>
+  <si>
+    <t>大鸣钟</t>
+  </si>
+  <si>
+    <t>종 울리기</t>
+  </si>
+  <si>
+    <t>Sound the Bell</t>
+  </si>
+  <si>
+    <t>遠心 
+以下から１つを選ぶ。
+・このターンにあなたが次に行う《攻撃》は対応不可を得る。
+・このターンにあなたが次に行う《攻撃》はオーラへのダメージが3以上ならば+0/+1、そうでないならば+2/+0となる。</t>
+  </si>
+  <si>
+    <t>远心 
+选择一项：
+●本回合内，你的下一次《攻击》得不可被对应；
+●本回合内，若你的下一次《攻击》对装伤害大于等于3，则该《攻击》得+0/+1，否则得+2/+0。</t>
+  </si>
+  <si>
+    <t>远心 选择一项：
+1.本回合内，你的下一次《攻击》得不可被对应；
+2.本回合内，若你的下一次《攻击》对装伤害大于3，则该《攻击》得+0/+1，否则得+2/+0。</t>
+  </si>
+  <si>
+    <t>원심 
+ 이하에서 하나를 고른다.
+ ・이 턴에 당신이 다음에 행하는 《공격》은 대응불가를 얻는다.
+ ・이 턴에 당신이 다음에 행하는 《공격》은 오라로의 대미지가 3 이상이라면 +0/+1, 그렇지 않다면 +2/+0이 된다.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+      </rPr>
+      <t xml:space="preserve">Centrifuge
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+      </rPr>
+      <t xml:space="preserve">
+Choose one:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="MS Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>・</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+      </rPr>
+      <t xml:space="preserve">Your next attack this turn gains </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+      </rPr>
+      <t>No Reactions</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+      </rPr>
+      <t xml:space="preserve">.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="MS Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>・</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+      </rPr>
+      <t xml:space="preserve">Your next attack this turn gains +0/+1 if it has 3 or more Damage to </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+      </rPr>
+      <t>Aura</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+      </rPr>
+      <t>. Otherwise, it gains +2/+0.</t>
+    </r>
+  </si>
+  <si>
+    <t>16-yatsuha-A1-s-4</t>
+    <phoneticPr fontId="19"/>
+  </si>
+  <si>
+    <t>yatsuha</t>
+  </si>
+  <si>
+    <t>A1</t>
+  </si>
+  <si>
+    <t>16-yatsuha-o-s-4</t>
+  </si>
+  <si>
+    <t>八葉鏡の徒桜</t>
+  </si>
+  <si>
+    <t>やつはかがみのあだざくら</t>
+  </si>
+  <si>
+    <t>八叶镜的徒樱</t>
+  </si>
+  <si>
+    <t>야츠하거울의 허무의 벚꽃</t>
+  </si>
+  <si>
+    <t>Naughtbloom of the Eight Mirrors</t>
+  </si>
+  <si>
+    <t>0-8</t>
+  </si>
+  <si>
+    <t>1/0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>終端　対応不可
+【攻撃後/使用済】攻撃後とあなたが山札を再構成する直前に、あなたの捨て札または手札にあるヤツハのカード1枚を公開し、完全態にしてもよい。
+（例えば手札の「星の爪」を公開したなら追加札の「星辰の鉤爪」と交換され、手札に加わる）</t>
+  </si>
+  <si>
+    <t>终端　不可被对应 
+【攻击后/使用后】如果你要重铸牌库，则在之前你可以公开你弃牌或者手牌中的一张八叶的牌并将其变为完全态。 
+（例如将手牌中的『星之爪』公开的话就和追加牌区的『星辰之钩爪』作交换并加入手牌。）</t>
+  </si>
+  <si>
+    <t>终端 不可被对应
+【攻击后/使用后】攻击后或每当妳将要重铸牌库时，妳可以从弃牌或手牌中选择1张八叶的牌，展示该牌，然后将其变为完全态。
+（例如，若妳展示了手牌中的『星之爪』，则将其与追加牌区中的『星尘之利爪』交换，并加入手牌。）</t>
+    <phoneticPr fontId="19"/>
+  </si>
+  <si>
+    <t xml:space="preserve">	
+종단, 대응불가
+【공격후/사용됨】공격후와 당신이 패산의 재구성을 수행하기 직전에, 당신의 버림패나 손패의 야츠하의 카드 1장을 공개한 뒤 완전태로 바꿀 수 있다.
+(예를 들어 손패의 별의 손톱을 공개했다면, 추가패의 성신의 갈퀴손과 교환하여 손패로 추가한다.)</t>
+  </si>
+  <si>
+    <t>Terminal No Reactions
+After Attack/Devoted: After this attack, and immediately before reshuffling your deck, you may reveal a Yatsuha card from your hand or played pile and Perfect it. (For example, if you reveal "Astral Claw" from your hand, exchange it for your set aside "Celestial Talon" and add it your hand.)</t>
+  </si>
+  <si>
+    <t>17-hatsumi-o-n-7</t>
+  </si>
+  <si>
+    <t>hatsumi</t>
+  </si>
+  <si>
+    <t>波呼び</t>
+  </si>
+  <si>
+    <t>なみよび</t>
+  </si>
+  <si>
+    <t>唤浪</t>
+  </si>
+  <si>
+    <t>唤潮</t>
+  </si>
+  <si>
+    <t>파도 부르기</t>
+  </si>
+  <si>
+    <t>Wavecall</t>
+  </si>
+  <si>
+    <t>隙
+【展開中】あなたのターンかつ順風である場合のみ、このカードの上の桜花結晶は移動する。
+【破棄時】攻撃『適正距離2-7、1/-、【攻撃後】相手は山札をすべて伏せ札にする。』を行う。</t>
+  </si>
+  <si>
+    <t>破绽
+【展开中】仅在你的回合中且为顺风时，才可以移动此牌上的樱花结晶。
+【破弃时】进行一次“攻击距离2-7 伤害1/- 【攻击后】盖伏对手的牌库”的攻击。</t>
+  </si>
+  <si>
+    <t>破绽
+【展开中】仅当你的回合内你处于顺风状态时可以移除此牌上的樱花结晶。
+【破弃时】进行一次“攻击距离2-7 伤害1/- 【攻击后】盖伏对手的牌库。”的攻击。</t>
+  </si>
+  <si>
+    <t>틈
+【전개중】당신의 턴 및 순풍일 때에만, 이 카드 위의 벚꽃 결정이 이동한다.
+【파기시】공격 『적정 거리2-7, 1/-, 【공격후】상대는 패산을 전부 덮임패로 한다.』를 한다.</t>
+  </si>
+  <si>
+    <t>Unguarded
+Forced: Sakura tokens cannot leave this card unless it's your turn and there is a tailwind.
+Disenchant: You attack with "Range: 2-7, Damage: 1/-, After Attack: Put your opponent's deck into their discard pile."</t>
+  </si>
+  <si>
+    <t>19-megumi-o-s-2</t>
+  </si>
+  <si>
+    <t>megumi</t>
+  </si>
+  <si>
+    <t>可能性の枝</t>
+  </si>
+  <si>
+    <t>かのうせいのえだ</t>
+  </si>
+  <si>
+    <t>可能性之枝</t>
+  </si>
+  <si>
+    <t>가능성의 가지</t>
+  </si>
+  <si>
+    <t>Branch of Possibility</t>
+  </si>
+  <si>
+    <t>0/1</t>
+  </si>
+  <si>
+    <t>【常時】Xはあなたの付与札にある種結晶の個数の合計に等しい。
+【常時】この《攻撃》は+X/+0となる。
+【攻撃後】対応した《攻撃》は-X/+0となる。</t>
+  </si>
+  <si>
+    <t>【常时】X等于你付于区中展开中的付于牌上的种子结晶的数目。
+【常时】此《攻击》得+X/+0。
+【攻击后】被对应的《攻击》得-X/+0。</t>
+  </si>
+  <si>
+    <t>【常时】X等于置于你的展开中的付与牌上的种子结晶的总数。
+【常时】此《攻击》获得+X/+0。
+【攻击后】被对应的《攻击》获得-X/+0。</t>
+  </si>
+  <si>
+    <t>【상시】X는 당신의 부여패에 있는 씨앗 결정의 개수에 해당된다.
+【상시】이 《공격》은 +X/+0 된다.
+【공격후】대응한 《공격》은 -X/+0 된다.</t>
+  </si>
+  <si>
+    <t>Forced: X is the number of Seed tokens on your Enhancements in play.
+Forced: This attack gets +X/+0.
+After Attack: The attack this card was played as a Reaction to gets -X/+0.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">无
+</t>
+    <phoneticPr fontId="19"/>
+  </si>
+  <si>
+    <t>シスイ</t>
+    <phoneticPr fontId="19"/>
+  </si>
+  <si>
+    <t>shisui</t>
+    <phoneticPr fontId="19"/>
+  </si>
+  <si>
+    <t>鋸</t>
+    <rPh sb="0" eb="1">
+      <t>ノコ</t>
+    </rPh>
+    <phoneticPr fontId="19"/>
+  </si>
+  <si>
+    <t>24</t>
+    <phoneticPr fontId="19"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="23">
+  <fonts count="28">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -854,11 +1955,13 @@
       <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="SimSun"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="SimSun"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
@@ -885,6 +1988,7 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="SimSun"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -935,13 +2039,6 @@
       <charset val="129"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FF4F81BD"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -966,8 +2063,43 @@
       <family val="3"/>
       <charset val="128"/>
     </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="MS PGothic"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="10"/>
+      <name val="宋体"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="宋体"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="MS Gothic"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="宋体"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="SimSun"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -984,6 +2116,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor rgb="FFFFFFE0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFCC"/>
       </patternFill>
     </fill>
   </fills>
@@ -1020,7 +2158,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1094,10 +2232,7 @@
     <xf numFmtId="49" fontId="17" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="18" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1137,10 +2272,87 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1521,11 +2733,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AH963"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="H2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="T7" sqref="T7"/>
+      <selection pane="bottomRight" activeCell="V3" sqref="V3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1633,17 +2845,17 @@
       <c r="B2" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="29"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="28"/>
       <c r="G2" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="H2" s="27"/>
-      <c r="I2" s="27"/>
-      <c r="J2" s="30"/>
-      <c r="K2" s="29"/>
+      <c r="H2" s="26"/>
+      <c r="I2" s="26"/>
+      <c r="J2" s="29"/>
+      <c r="K2" s="28"/>
       <c r="L2" s="1" t="s">
         <v>84</v>
       </c>
@@ -1659,8 +2871,8 @@
         <v>99</v>
       </c>
       <c r="V2" s="8" t="str">
-        <f>IF(ROW()&gt;=3, ", ", "")&amp;"'"&amp;A2&amp;"': { name: '"&amp;B2&amp;"', nameZh: '"&amp;C2&amp;"', nameZhG1: '"&amp;D2&amp;"', nameKo: '"&amp;E2&amp;"', nameEn: '"&amp;F2&amp;"', symbol: '"&amp;G2&amp;"', symbolZh: '"&amp;H2&amp;"', symbolZhG1: '"&amp;I2&amp;"', symbolKo: '"&amp;J2&amp;"', symbolEn: '"&amp;K2&amp;"'"&amp;IF(N2&lt;&gt;"",", base: '"&amp;M2&amp;"', anotherID: '"&amp;N2&amp;"'","")&amp;IF(O2="○", ", notExistCardSets: ['na-s2'] as CardSet[]", IF(P2="○", ", notExistCardSets: ['na-s2', 'na-s3'] as CardSet[]", IF(Q2="○", ", notExistCardSets: ['na-s2', 'na-s3', 'na-s4', 'na-s4-pre'] as CardSet[]", IF(R2="○", ", notExistCardSets: ['na-s2', 'na-s3', 'na-s4', 'na-s4-pre', 'na-s5'] as CardSet[]", IF(S2="○", ", notExistCardSets: ['na-s2', 'na-s3', 'na-s4', 'na-s4-pre', 'na-s5', 'na-s6', 'na-s6-2'] as CardSet[]", IF(T2="○", ", notExistCardSets: ['na-s2', 'na-s3', 'na-s4', 'na-s4-pre', 'na-s5', 'na-s6', 'na-s6-2', 'na-s7'] as CardSet[]", IF(U2="○", ", notExistCardSets: ['na-s2', 'na-s3', 'na-s4', 'na-s4-pre', 'na-s5', 'na-s6', 'na-s6-2', 'na-s7', 'na-s7-2'] as CardSet[]", ""))))))) &amp; ", tarotNo: '" &amp; L2 &amp; "'}"</f>
-        <v>'akina': { name: 'アキナ', nameZh: '', nameZhG1: '', nameKo: '', nameEn: '', symbol: '算盤', symbolZh: '', symbolZhG1: '', symbolKo: '', symbolEn: '', notExistCardSets: ['na-s2', 'na-s3', 'na-s4', 'na-s4-pre', 'na-s5', 'na-s6', 'na-s6-2', 'na-s7', 'na-s7-2'] as CardSet[], tarotNo: '23'}</v>
+        <f>"'"&amp;A2&amp;"': { name: '"&amp;B2&amp;"', nameZh: '"&amp;C2&amp;"', nameZhG1: '"&amp;D2&amp;"', nameKo: '"&amp;E2&amp;"', nameEn: '"&amp;F2&amp;"', symbol: '"&amp;G2&amp;"', symbolZh: '"&amp;H2&amp;"', symbolZhG1: '"&amp;I2&amp;"', symbolKo: '"&amp;J2&amp;"', symbolEn: '"&amp;K2&amp;"'"&amp;IF(N2&lt;&gt;"",", base: '"&amp;M2&amp;"', anotherID: '"&amp;N2&amp;"'","")&amp;IF(O2="○", ", notExistCardSets: ['na-s2'] as CardSet[]", IF(P2="○", ", notExistCardSets: ['na-s2', 'na-s3'] as CardSet[]", IF(Q2="○", ", notExistCardSets: ['na-s2', 'na-s3', 'na-s4', 'na-s4-pre'] as CardSet[]", IF(R2="○", ", notExistCardSets: ['na-s2', 'na-s3', 'na-s4', 'na-s4-pre', 'na-s5'] as CardSet[]", IF(S2="○", ", notExistCardSets: ['na-s2', 'na-s3', 'na-s4', 'na-s4-pre', 'na-s5', 'na-s6', 'na-s6-2'] as CardSet[]", IF(T2="○", ", notExistCardSets: ['na-s2', 'na-s3', 'na-s4', 'na-s4-pre', 'na-s5', 'na-s6', 'na-s6-2', 'na-s7'] as CardSet[]", IF(U2="○", ", notExistCardSets: ['na-s2', 'na-s3', 'na-s4', 'na-s4-pre', 'na-s5', 'na-s6', 'na-s6-2', 'na-s7', 'na-s7-2'] as CardSet[]", ""))))))) &amp; ", tarotNo: '" &amp; L2 &amp; "'},"</f>
+        <v>'akina': { name: 'アキナ', nameZh: '', nameZhG1: '', nameKo: '', nameEn: '', symbol: '算盤', symbolZh: '', symbolZhG1: '', symbolKo: '', symbolEn: '', notExistCardSets: ['na-s2', 'na-s3', 'na-s4', 'na-s4-pre', 'na-s5', 'na-s6', 'na-s6-2', 'na-s7', 'na-s7-2'] as CardSet[], tarotNo: '23'},</v>
       </c>
       <c r="W2" s="3"/>
       <c r="X2" s="3"/>
@@ -1676,18 +2888,26 @@
       <c r="AH2" s="3"/>
     </row>
     <row r="3" spans="1:34" ht="12" customHeight="1">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
+      <c r="A3" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="28"/>
+      <c r="G3" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="H3" s="26"/>
+      <c r="I3" s="26"/>
+      <c r="J3" s="29"/>
+      <c r="K3" s="28"/>
+      <c r="L3" s="1" t="s">
+        <v>283</v>
+      </c>
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
@@ -1696,8 +2916,13 @@
       <c r="R3" s="1"/>
       <c r="S3" s="1"/>
       <c r="T3" s="1"/>
-      <c r="U3" s="1"/>
-      <c r="V3" s="3"/>
+      <c r="U3" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="V3" s="8" t="str">
+        <f>"'"&amp;A3&amp;"': { name: '"&amp;B3&amp;"', nameZh: '"&amp;C3&amp;"', nameZhG1: '"&amp;D3&amp;"', nameKo: '"&amp;E3&amp;"', nameEn: '"&amp;F3&amp;"', symbol: '"&amp;G3&amp;"', symbolZh: '"&amp;H3&amp;"', symbolZhG1: '"&amp;I3&amp;"', symbolKo: '"&amp;J3&amp;"', symbolEn: '"&amp;K3&amp;"'"&amp;IF(N3&lt;&gt;"",", base: '"&amp;M3&amp;"', anotherID: '"&amp;N3&amp;"'","")&amp;IF(O3="○", ", notExistCardSets: ['na-s2'] as CardSet[]", IF(P3="○", ", notExistCardSets: ['na-s2', 'na-s3'] as CardSet[]", IF(Q3="○", ", notExistCardSets: ['na-s2', 'na-s3', 'na-s4', 'na-s4-pre'] as CardSet[]", IF(R3="○", ", notExistCardSets: ['na-s2', 'na-s3', 'na-s4', 'na-s4-pre', 'na-s5'] as CardSet[]", IF(S3="○", ", notExistCardSets: ['na-s2', 'na-s3', 'na-s4', 'na-s4-pre', 'na-s5', 'na-s6', 'na-s6-2'] as CardSet[]", IF(T3="○", ", notExistCardSets: ['na-s2', 'na-s3', 'na-s4', 'na-s4-pre', 'na-s5', 'na-s6', 'na-s6-2', 'na-s7'] as CardSet[]", IF(U3="○", ", notExistCardSets: ['na-s2', 'na-s3', 'na-s4', 'na-s4-pre', 'na-s5', 'na-s6', 'na-s6-2', 'na-s7', 'na-s7-2'] as CardSet[]", ""))))))) &amp; ", tarotNo: '" &amp; L3 &amp; "'},"</f>
+        <v>'shisui': { name: 'シスイ', nameZh: '', nameZhG1: '', nameKo: '', nameEn: '', symbol: '鋸', symbolZh: '', symbolZhG1: '', symbolKo: '', symbolEn: '', notExistCardSets: ['na-s2', 'na-s3', 'na-s4', 'na-s4-pre', 'na-s5', 'na-s6', 'na-s6-2', 'na-s7', 'na-s7-2'] as CardSet[], tarotNo: '24'},</v>
+      </c>
       <c r="W3" s="3"/>
       <c r="X3" s="3"/>
       <c r="Y3" s="3"/>
@@ -16686,7 +17911,7 @@
       <c r="P963" s="7"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="20"/>
+  <phoneticPr fontId="19"/>
   <pageMargins left="0.69930555555555496" right="0.69930555555555496" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
@@ -16694,13 +17919,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AML810"/>
+  <dimension ref="A1:AML816"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="X4" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="AN14" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A15" sqref="A15"/>
-      <selection pane="bottomRight" activeCell="AE9" sqref="AE9"/>
+      <selection pane="bottomRight" activeCell="AT29" sqref="AT19:AT29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -16879,64 +18104,86 @@
       </c>
       <c r="AT1" s="20"/>
     </row>
-    <row r="2" spans="1:48" s="11" customFormat="1" ht="49.5">
-      <c r="A2" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="B2" s="10" t="s">
-        <v>98</v>
-      </c>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="F2" s="10" t="s">
-        <v>115</v>
-      </c>
-      <c r="G2" s="31"/>
-      <c r="H2" s="32"/>
-      <c r="I2" s="31"/>
-      <c r="J2" s="32"/>
-      <c r="K2" s="33"/>
-      <c r="L2" s="34"/>
-      <c r="M2" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="N2" s="10"/>
-      <c r="O2" s="10"/>
-      <c r="P2" s="10"/>
-      <c r="Q2" s="10"/>
-      <c r="R2" s="10" t="s">
-        <v>127</v>
-      </c>
-      <c r="S2" s="10"/>
-      <c r="T2" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="U2" s="12"/>
-      <c r="V2" s="10" t="s">
-        <v>137</v>
-      </c>
-      <c r="W2" s="12"/>
-      <c r="X2" s="10"/>
-      <c r="Y2" s="10"/>
-      <c r="Z2" s="10"/>
-      <c r="AA2" s="10"/>
-      <c r="AB2" s="10"/>
-      <c r="AC2" s="10"/>
-      <c r="AD2" s="10"/>
-      <c r="AE2" s="40" t="s">
-        <v>136</v>
-      </c>
-      <c r="AF2" s="35"/>
-      <c r="AG2" s="36"/>
-      <c r="AH2" s="35"/>
-      <c r="AI2" s="37"/>
-      <c r="AJ2" s="35"/>
-      <c r="AK2" s="38"/>
-      <c r="AL2" s="35"/>
-      <c r="AM2" s="39"/>
+    <row r="2" spans="1:48" s="11" customFormat="1" ht="36">
+      <c r="A2" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="F2" s="1"/>
+      <c r="G2" s="41" t="s">
+        <v>212</v>
+      </c>
+      <c r="H2" s="42" t="s">
+        <v>212</v>
+      </c>
+      <c r="I2" s="41"/>
+      <c r="J2" s="42" t="s">
+        <v>213</v>
+      </c>
+      <c r="K2" s="43" t="s">
+        <v>214</v>
+      </c>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1"/>
+      <c r="R2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="S2" s="1"/>
+      <c r="T2" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="U2" s="44" t="s">
+        <v>216</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="W2" s="44" t="s">
+        <v>217</v>
+      </c>
+      <c r="X2" s="1"/>
+      <c r="Y2" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="Z2" s="1"/>
+      <c r="AA2" s="1"/>
+      <c r="AB2" s="2"/>
+      <c r="AC2" s="2"/>
+      <c r="AD2" s="45"/>
+      <c r="AE2" s="2"/>
+      <c r="AF2" s="46" t="s">
+        <v>279</v>
+      </c>
+      <c r="AG2" s="47"/>
+      <c r="AH2" s="48"/>
+      <c r="AI2" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="AJ2" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="AK2" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="AL2" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="AM2" s="2" t="s">
+        <v>222</v>
+      </c>
       <c r="AN2" s="2"/>
       <c r="AO2" s="12"/>
       <c r="AP2" s="12"/>
@@ -16945,377 +18192,426 @@
       <c r="AS2" s="12"/>
       <c r="AT2" s="14" t="str">
         <f>IF(A2="", "", IF(ROW()&gt;=3, ", ", "")&amp;"'"&amp;A2&amp;"': {megami: '"&amp;B2&amp;"'"&amp;IF(C2&lt;&gt;"",", anotherID: '"&amp;C2&amp;"', replace: '"&amp;D2&amp;"'","")&amp;", name: '"&amp;SUBSTITUTE(E2,"'","\'")&amp;"', nameEn: '"&amp;SUBSTITUTE(K2,"'","\'")&amp;"', nameZh: '"&amp;SUBSTITUTE(G2,"'","\'")&amp;"', nameZhG1: '"&amp;SUBSTITUTE(H2,"'","\'")&amp;"', nameKo: '"&amp;SUBSTITUTE(J2,"'","\'")&amp;"', ruby: '"&amp;F2&amp;"', rubyEn: '"&amp;L2&amp;IF(I2&lt;&gt;"", "', rubyZh: '"&amp;I2, "")&amp;"', baseType: '"&amp;VLOOKUP(M2,マスタ!$A$1:$B$99,2,0)&amp;"'"&amp;IF(N2="○",", extra: true","")&amp;IF(O2&lt;&gt;"",", extraFrom: '"&amp;O2&amp;"'","")&amp;IF(P2&lt;&gt;"",", exchangableTo: '"&amp;P2&amp;"'","")&amp;IF(Q2="○",", poison: true","")&amp;IF(R2&lt;&gt;"", ", type: '"&amp;VLOOKUP(R2,マスタ!$D$1:$E$99,2,0)&amp;"'", "")&amp;IF(S2&lt;&gt;"",", subType: '"&amp;VLOOKUP(S2,マスタ!$D$1:$E$99,2,0)&amp;"'","")&amp;""&amp;IF(T2&lt;&gt;"",", range: '"&amp;T2&amp;"'","")&amp;IF(V2&lt;&gt;"",", damage: '"&amp;V2&amp;"'","")&amp;IF(X2&lt;&gt;"",", capacity: '"&amp;X2&amp;"'","")&amp;IF(Y2&lt;&gt;"",", growth: "&amp;Y2&amp;"","")&amp;IF(Z2&lt;&gt;"",", cost: '"&amp;Z2&amp;"'","")&amp;", text: '"&amp;SUBSTITUTE(SUBSTITUTE(AE2, CHAR(13), ""),CHAR(10),"\n")&amp;IF(AF2&lt;&gt;"", "', textAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AF2, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textZh: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AG2, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;"', textZhG1: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AI2, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AH2&lt;&gt;"", "', textZhAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AH2, CHAR(13), ""),CHAR(10),"\n"), "")&amp;IF(AJ2&lt;&gt;"", "', textZhG1Additional: '"&amp;SUBSTITUTE(SUBSTITUTE(AJ2, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textKo: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AK2, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AL2&lt;&gt;"", "', textKoAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AL2, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textEn: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AM2, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AN2&lt;&gt;"", "', textEnAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AN2, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"'"&amp;IF(AB2="○",", sealable: true","")&amp;IF(AC2="○",", removable: true","")&amp;IF(AA2="○",", lie: true","")&amp;IF(AD2="○",", investable: true","")&amp;"}")</f>
-        <v>'23-akina-o-n-1': {megami: 'akina', name: '算盤玉', nameEn: '', nameZh: '', nameZhG1: '', nameKo: '', ruby: 'そろばんだま', rubyEn: '', baseType: 'normal', type: 'attack', range: '1-6', damage: '1/0', text: '【攻撃後】以下から1つを選ぶ。\n・あなたは集中力を１得る。\n・回収を行う。\n・自フレア⇔自フロー：1', textZh: '', textZhG1: '', textKo: '', textEn: ''}</v>
+        <v>'06-yukihi-o-s-1': {megami: 'yukihi', name: 'はらりゆき', nameEn: 'Gentle Snow', nameZh: '纷扬如雪', nameZhG1: '纷扬如雪', nameKo: '흩날리는 눈꽃', ruby: '', rubyEn: '', baseType: 'special', type: 'attack', range: '3-5', damage: '3/1', growth: 2, text: '', textAdditional: '无\n', textZh: '', textZhG1: '----\n【即再起】あなたが傘の開閉を行う。 ', textZhG1Additional: '----\n【即再起】进行一次伞的开合操作。', textKo: '无 \n----\n【即再起】进行伞的开合操作', textKoAdditional: '----\n【즉재기】당신이 우산의 개폐를 행한다.', textEn: '----\nImmediate Resurgence: You open or close your umbrella.'}</v>
       </c>
       <c r="AU2" s="5" t="str">
-        <f t="shared" ref="AU2:AU10" si="0">IF($A2&lt;&gt;"", "    /** 《"&amp;$E2&amp;"》 */ export const "&amp;SUBSTITUTE(UPPER(IF(MID($A2, 3, 1)="-", RIGHT($A2,LEN($A2)-3), $A2)), "-", "_")&amp;": TCardId = '"&amp;$A2&amp;"';", "")</f>
-        <v xml:space="preserve">    /** 《算盤玉》 */ export const AKINA_O_N_1: TCardId = '23-akina-o-n-1';</v>
+        <f t="shared" ref="AU2:AU7" si="0">IF($A2&lt;&gt;"", "    /** 《"&amp;$E2&amp;"》 */ export const "&amp;SUBSTITUTE(UPPER(IF(MID($A2, 3, 1)="-", RIGHT($A2,LEN($A2)-3), $A2)), "-", "_")&amp;": TCardId = '"&amp;$A2&amp;"';", "")</f>
+        <v xml:space="preserve">    /** 《はらりゆき》 */ export const YUKIHI_O_S_1: TCardId = '06-yukihi-o-s-1';</v>
       </c>
       <c r="AV2" s="6" t="str">
-        <f t="shared" ref="AV2:AV10" si="1">IF($A2&lt;&gt;"", "    | '"&amp;$A2&amp;"'", "")</f>
-        <v xml:space="preserve">    | '23-akina-o-n-1'</v>
-      </c>
-    </row>
-    <row r="3" spans="1:48" s="11" customFormat="1" ht="24">
-      <c r="A3" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="B3" s="10" t="s">
-        <v>98</v>
-      </c>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10" t="s">
-        <v>101</v>
-      </c>
-      <c r="F3" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="G3" s="31"/>
-      <c r="H3" s="32"/>
-      <c r="I3" s="31"/>
-      <c r="J3" s="32"/>
-      <c r="K3" s="33"/>
-      <c r="L3" s="34"/>
-      <c r="M3" s="10" t="s">
+        <f t="shared" ref="AV2:AV7" si="1">IF($A2&lt;&gt;"", "    | '"&amp;$A2&amp;"'", "")</f>
+        <v xml:space="preserve">    | '06-yukihi-o-s-1'</v>
+      </c>
+    </row>
+    <row r="3" spans="1:48" s="11" customFormat="1" ht="96.75">
+      <c r="A3" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="G3" s="41" t="s">
+        <v>227</v>
+      </c>
+      <c r="H3" s="42" t="s">
+        <v>228</v>
+      </c>
+      <c r="I3" s="41"/>
+      <c r="J3" s="42" t="s">
+        <v>229</v>
+      </c>
+      <c r="K3" s="43" t="s">
+        <v>230</v>
+      </c>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="N3" s="10"/>
-      <c r="O3" s="10"/>
-      <c r="P3" s="10"/>
-      <c r="Q3" s="10"/>
-      <c r="R3" s="10" t="s">
-        <v>127</v>
-      </c>
-      <c r="S3" s="10"/>
-      <c r="T3" s="10" t="s">
-        <v>124</v>
-      </c>
-      <c r="U3" s="12"/>
-      <c r="V3" s="10" t="s">
-        <v>138</v>
-      </c>
-      <c r="W3" s="12"/>
-      <c r="X3" s="10"/>
-      <c r="Y3" s="10"/>
-      <c r="Z3" s="10"/>
-      <c r="AA3" s="10"/>
-      <c r="AB3" s="10"/>
-      <c r="AC3" s="10"/>
-      <c r="AD3" s="10" t="s">
-        <v>144</v>
-      </c>
-      <c r="AE3" s="40" t="s">
-        <v>122</v>
-      </c>
-      <c r="AF3" s="35"/>
-      <c r="AG3" s="36"/>
-      <c r="AH3" s="35"/>
-      <c r="AI3" s="37"/>
-      <c r="AJ3" s="35"/>
-      <c r="AK3" s="38"/>
-      <c r="AL3" s="35"/>
-      <c r="AM3" s="39"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+      <c r="Q3" s="1"/>
+      <c r="R3" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="S3" s="1"/>
+      <c r="T3" s="1"/>
+      <c r="U3" s="49"/>
+      <c r="V3" s="1"/>
+      <c r="W3" s="49"/>
+      <c r="X3" s="1"/>
+      <c r="Y3" s="1"/>
+      <c r="Z3" s="1"/>
+      <c r="AA3" s="1"/>
+      <c r="AB3" s="2"/>
+      <c r="AC3" s="2"/>
+      <c r="AD3" s="45"/>
+      <c r="AE3" s="61" t="s">
+        <v>231</v>
+      </c>
+      <c r="AF3" s="61"/>
+      <c r="AG3" s="62" t="s">
+        <v>232</v>
+      </c>
+      <c r="AH3" s="61"/>
+      <c r="AI3" s="67" t="s">
+        <v>233</v>
+      </c>
+      <c r="AJ3" s="63"/>
+      <c r="AK3" s="63" t="s">
+        <v>234</v>
+      </c>
+      <c r="AL3" s="64"/>
+      <c r="AM3" s="65" t="s">
+        <v>235</v>
+      </c>
       <c r="AN3" s="2"/>
       <c r="AO3" s="12"/>
       <c r="AP3" s="12"/>
       <c r="AQ3" s="12"/>
       <c r="AR3" s="12"/>
       <c r="AS3" s="12"/>
-      <c r="AT3" s="14" t="str">
-        <f>IF(A3="", "", IF(ROW()&gt;=3, ", ", "")&amp;"'"&amp;A3&amp;"': {megami: '"&amp;B3&amp;"'"&amp;IF(C3&lt;&gt;"",", anotherID: '"&amp;C3&amp;"', replace: '"&amp;D3&amp;"'","")&amp;", name: '"&amp;SUBSTITUTE(E3,"'","\'")&amp;"', nameEn: '"&amp;SUBSTITUTE(K3,"'","\'")&amp;"', nameZh: '"&amp;SUBSTITUTE(G3,"'","\'")&amp;"', nameZhG1: '"&amp;SUBSTITUTE(H3,"'","\'")&amp;"', nameKo: '"&amp;SUBSTITUTE(J3,"'","\'")&amp;"', ruby: '"&amp;F3&amp;"', rubyEn: '"&amp;L3&amp;IF(I3&lt;&gt;"", "', rubyZh: '"&amp;I3, "")&amp;"', baseType: '"&amp;VLOOKUP(M3,マスタ!$A$1:$B$99,2,0)&amp;"'"&amp;IF(N3="○",", extra: true","")&amp;IF(O3&lt;&gt;"",", extraFrom: '"&amp;O3&amp;"'","")&amp;IF(P3&lt;&gt;"",", exchangableTo: '"&amp;P3&amp;"'","")&amp;IF(Q3="○",", poison: true","")&amp;IF(R3&lt;&gt;"", ", type: '"&amp;VLOOKUP(R3,マスタ!$D$1:$E$99,2,0)&amp;"'", "")&amp;IF(S3&lt;&gt;"",", subType: '"&amp;VLOOKUP(S3,マスタ!$D$1:$E$99,2,0)&amp;"'","")&amp;""&amp;IF(T3&lt;&gt;"",", range: '"&amp;T3&amp;"'","")&amp;IF(V3&lt;&gt;"",", damage: '"&amp;V3&amp;"'","")&amp;IF(X3&lt;&gt;"",", capacity: '"&amp;X3&amp;"'","")&amp;IF(Y3&lt;&gt;"",", growth: "&amp;Y3&amp;"","")&amp;IF(Z3&lt;&gt;"",", cost: '"&amp;Z3&amp;"'","")&amp;", text: '"&amp;SUBSTITUTE(SUBSTITUTE(AE3, CHAR(13), ""),CHAR(10),"\n")&amp;IF(AF3&lt;&gt;"", "', textAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AF3, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textZh: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AG3, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;"', textZhG1: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AI3, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AH3&lt;&gt;"", "', textZhAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AH3, CHAR(13), ""),CHAR(10),"\n"), "")&amp;IF(AJ3&lt;&gt;"", "', textZhG1Additional: '"&amp;SUBSTITUTE(SUBSTITUTE(AJ3, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textKo: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AK3, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AL3&lt;&gt;"", "', textKoAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AL3, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textEn: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AM3, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AN3&lt;&gt;"", "', textEnAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AN3, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"'"&amp;IF(AB3="○",", sealable: true","")&amp;IF(AC3="○",", removable: true","")&amp;IF(AA3="○",", lie: true","")&amp;IF(AD3="○",", investable: true","")&amp;"}")</f>
-        <v>, '23-akina-o-n-2': {megami: 'akina', name: '恫喝', nameEn: '', nameZh: '', nameZhG1: '', nameKo: '', ruby: 'どうかつ', rubyEn: '', baseType: 'normal', type: 'attack', range: '4-5', damage: '-/0', text: '投資券\n【常時】あなたの資本が相手の資本より大きいならば、この《攻撃》は+0/+1となる。', textZh: '', textZhG1: '', textKo: '', textEn: '', investable: true}</v>
+      <c r="AT3" s="14" t="e">
+        <f>IF(A3="", "", IF(ROW()&gt;=3, ", ", "")&amp;"'"&amp;A3&amp;"': {megami: '"&amp;B3&amp;"'"&amp;IF(C3&lt;&gt;"",", anotherID: '"&amp;C3&amp;"', replace: '"&amp;D3&amp;"'","")&amp;", name: '"&amp;SUBSTITUTE(E3,"'","\'")&amp;"', nameEn: '"&amp;SUBSTITUTE(K3,"'","\'")&amp;"', nameZh: '"&amp;SUBSTITUTE(G3,"'","\'")&amp;"', nameZhG1: '"&amp;SUBSTITUTE(H3,"'","\'")&amp;"', nameKo: '"&amp;SUBSTITUTE(J3,"'","\'")&amp;"', ruby: '"&amp;F3&amp;"', rubyEn: '"&amp;L3&amp;IF(I3&lt;&gt;"", "', rubyZh: '"&amp;I3, "")&amp;"', baseType: '"&amp;VLOOKUP(M3,マスタ!$A$1:$B$99,2,0)&amp;"'"&amp;IF(N3="○",", extra: true","")&amp;IF(O3&lt;&gt;"",", extraFrom: '"&amp;O3&amp;"'","")&amp;IF(P3&lt;&gt;"",", exchangableTo: '"&amp;P3&amp;"'","")&amp;IF(Q3="○",", poison: true","")&amp;IF(R3&lt;&gt;"", ", type: '"&amp;VLOOKUP(R3,マスタ!$D$1:$E$99,2,0)&amp;"'", "")&amp;IF(S3&lt;&gt;"",", subType: '"&amp;VLOOKUP(S3,マスタ!$D$1:$E$99,2,0)&amp;"'","")&amp;""&amp;IF(T3&lt;&gt;"",", range: '"&amp;T3&amp;"'","")&amp;IF(V3&lt;&gt;"",", damage: '"&amp;V3&amp;"'","")&amp;IF(X3&lt;&gt;"",", capacity: '"&amp;X3&amp;"'","")&amp;IF(Y3&lt;&gt;"",", growth: "&amp;Y3&amp;"","")&amp;IF(Z3&lt;&gt;"",", cost: '"&amp;Z3&amp;"'","")&amp;", text: '"&amp;SUBSTITUTE(SUBSTITUTE(AE3, CHAR(13), ""),CHAR(10),"\n")&amp;IF(AF3&lt;&gt;"", "', textAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AF3, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textZh: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AG3, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;"', textZhG1: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AI3, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AH3&lt;&gt;"", "', textZhAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AH3, CHAR(13), ""),CHAR(10),"\n"), "")&amp;IF(AJ3&lt;&gt;"", "', textZhG1Additional: '"&amp;SUBSTITUTE(SUBSTITUTE(AJ3, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textKo: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AK3, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AM3&lt;&gt;"", "', textKoAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AM3, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textEn: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(#REF!, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AN3&lt;&gt;"", "', textEnAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AN3, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"'"&amp;IF(AB3="○",", sealable: true","")&amp;IF(AC3="○",", removable: true","")&amp;IF(AA3="○",", lie: true","")&amp;IF(AD3="○",", investable: true","")&amp;"}")</f>
+        <v>#REF!</v>
       </c>
       <c r="AU3" s="5" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">    /** 《恫喝》 */ export const AKINA_O_N_2: TCardId = '23-akina-o-n-2';</v>
+        <v xml:space="preserve">    /** 《鐘鳴らし》 */ export const HAGANE_O_N_6: TCardId = '08-hagane-o-n-6';</v>
       </c>
       <c r="AV3" s="6" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">    | '23-akina-o-n-2'</v>
-      </c>
-    </row>
-    <row r="4" spans="1:48" s="11" customFormat="1" ht="60">
+        <v xml:space="preserve">    | '08-hagane-o-n-6'</v>
+      </c>
+    </row>
+    <row r="4" spans="1:48" s="11" customFormat="1" ht="102">
       <c r="A4" s="10" t="s">
-        <v>89</v>
+        <v>236</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>98</v>
-      </c>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
+        <v>237</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>238</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>239</v>
+      </c>
       <c r="E4" s="10" t="s">
-        <v>102</v>
+        <v>240</v>
       </c>
       <c r="F4" s="10" t="s">
-        <v>117</v>
-      </c>
-      <c r="G4" s="31"/>
-      <c r="H4" s="32"/>
-      <c r="I4" s="31"/>
-      <c r="J4" s="32"/>
-      <c r="K4" s="33"/>
-      <c r="L4" s="34"/>
+        <v>241</v>
+      </c>
+      <c r="G4" s="50" t="s">
+        <v>242</v>
+      </c>
+      <c r="H4" s="51" t="s">
+        <v>242</v>
+      </c>
+      <c r="I4" s="50"/>
+      <c r="J4" s="51" t="s">
+        <v>243</v>
+      </c>
+      <c r="K4" s="52" t="s">
+        <v>244</v>
+      </c>
+      <c r="L4" s="10"/>
       <c r="M4" s="10" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="N4" s="10"/>
       <c r="O4" s="10"/>
       <c r="P4" s="10"/>
       <c r="Q4" s="10"/>
       <c r="R4" s="10" t="s">
-        <v>127</v>
+        <v>38</v>
       </c>
       <c r="S4" s="10"/>
       <c r="T4" s="10" t="s">
-        <v>125</v>
+        <v>245</v>
       </c>
       <c r="U4" s="12"/>
       <c r="V4" s="10" t="s">
-        <v>139</v>
+        <v>246</v>
       </c>
       <c r="W4" s="12"/>
       <c r="X4" s="10"/>
       <c r="Y4" s="10"/>
-      <c r="Z4" s="10"/>
+      <c r="Z4" s="10" t="s">
+        <v>247</v>
+      </c>
       <c r="AA4" s="10"/>
-      <c r="AB4" s="10"/>
-      <c r="AC4" s="10"/>
-      <c r="AD4" s="10"/>
-      <c r="AE4" s="40" t="s">
-        <v>135</v>
-      </c>
-      <c r="AF4" s="35"/>
-      <c r="AG4" s="36"/>
-      <c r="AH4" s="35"/>
-      <c r="AI4" s="37"/>
-      <c r="AJ4" s="35"/>
-      <c r="AK4" s="38"/>
-      <c r="AL4" s="35"/>
-      <c r="AM4" s="39"/>
+      <c r="AB4" s="13"/>
+      <c r="AC4" s="13"/>
+      <c r="AE4" s="34" t="s">
+        <v>248</v>
+      </c>
+      <c r="AF4" s="34"/>
+      <c r="AG4" s="35" t="s">
+        <v>249</v>
+      </c>
+      <c r="AH4" s="34"/>
+      <c r="AI4" s="36" t="s">
+        <v>250</v>
+      </c>
+      <c r="AJ4" s="34"/>
+      <c r="AK4" s="37" t="s">
+        <v>251</v>
+      </c>
+      <c r="AL4" s="34"/>
+      <c r="AM4" s="66" t="s">
+        <v>252</v>
+      </c>
       <c r="AN4" s="2"/>
       <c r="AO4" s="12"/>
       <c r="AP4" s="12"/>
       <c r="AQ4" s="12"/>
       <c r="AR4" s="12"/>
       <c r="AS4" s="12"/>
-      <c r="AT4" s="14" t="str">
-        <f>IF(A4="", "", IF(ROW()&gt;=3, ", ", "")&amp;"'"&amp;A4&amp;"': {megami: '"&amp;B4&amp;"'"&amp;IF(C4&lt;&gt;"",", anotherID: '"&amp;C4&amp;"', replace: '"&amp;D4&amp;"'","")&amp;", name: '"&amp;SUBSTITUTE(E4,"'","\'")&amp;"', nameEn: '"&amp;SUBSTITUTE(K4,"'","\'")&amp;"', nameZh: '"&amp;SUBSTITUTE(G4,"'","\'")&amp;"', nameZhG1: '"&amp;SUBSTITUTE(H4,"'","\'")&amp;"', nameKo: '"&amp;SUBSTITUTE(J4,"'","\'")&amp;"', ruby: '"&amp;F4&amp;"', rubyEn: '"&amp;L4&amp;IF(I4&lt;&gt;"", "', rubyZh: '"&amp;I4, "")&amp;"', baseType: '"&amp;VLOOKUP(M4,マスタ!$A$1:$B$99,2,0)&amp;"'"&amp;IF(N4="○",", extra: true","")&amp;IF(O4&lt;&gt;"",", extraFrom: '"&amp;O4&amp;"'","")&amp;IF(P4&lt;&gt;"",", exchangableTo: '"&amp;P4&amp;"'","")&amp;IF(Q4="○",", poison: true","")&amp;IF(R4&lt;&gt;"", ", type: '"&amp;VLOOKUP(R4,マスタ!$D$1:$E$99,2,0)&amp;"'", "")&amp;IF(S4&lt;&gt;"",", subType: '"&amp;VLOOKUP(S4,マスタ!$D$1:$E$99,2,0)&amp;"'","")&amp;""&amp;IF(T4&lt;&gt;"",", range: '"&amp;T4&amp;"'","")&amp;IF(V4&lt;&gt;"",", damage: '"&amp;V4&amp;"'","")&amp;IF(X4&lt;&gt;"",", capacity: '"&amp;X4&amp;"'","")&amp;IF(Y4&lt;&gt;"",", growth: "&amp;Y4&amp;"","")&amp;IF(Z4&lt;&gt;"",", cost: '"&amp;Z4&amp;"'","")&amp;", text: '"&amp;SUBSTITUTE(SUBSTITUTE(AE4, CHAR(13), ""),CHAR(10),"\n")&amp;IF(AF4&lt;&gt;"", "', textAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AF4, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textZh: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AG4, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;"', textZhG1: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AI4, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AH4&lt;&gt;"", "', textZhAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AH4, CHAR(13), ""),CHAR(10),"\n"), "")&amp;IF(AJ4&lt;&gt;"", "', textZhG1Additional: '"&amp;SUBSTITUTE(SUBSTITUTE(AJ4, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textKo: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AK4, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AL4&lt;&gt;"", "', textKoAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AL4, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textEn: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AM4, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AN4&lt;&gt;"", "', textEnAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AN4, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"'"&amp;IF(AB4="○",", sealable: true","")&amp;IF(AC4="○",", removable: true","")&amp;IF(AA4="○",", lie: true","")&amp;IF(AD4="○",", investable: true","")&amp;"}")</f>
-        <v>, '23-akina-o-n-3': {megami: 'akina', name: '交易', nameEn: '', nameZh: '', nameZhG1: '', nameKo: '', ruby: 'こうえき', rubyEn: '', baseType: 'normal', type: 'attack', range: '1-5', damage: '2/0', text: '終端\n【攻撃後】あなたの資本が相手の資本より3以上大きいならば、捨て札にある他のメガミのカード１枚までを選び、手札に戻す。\n【攻撃後】あなたの資本が相手の資本より大きいならば、基本動作を1回行ってもよい。', textZh: '', textZhG1: '', textKo: '', textEn: ''}</v>
+      <c r="AT4" s="14" t="e">
+        <f>IF(A4="", "", IF(ROW()&gt;=3, ", ", "")&amp;"'"&amp;A4&amp;"': {megami: '"&amp;B4&amp;"'"&amp;IF(C4&lt;&gt;"",", anotherID: '"&amp;C4&amp;"', replace: '"&amp;D4&amp;"'","")&amp;", name: '"&amp;SUBSTITUTE(E4,"'","\'")&amp;"', nameEn: '"&amp;SUBSTITUTE(K4,"'","\'")&amp;"', nameZh: '"&amp;SUBSTITUTE(G4,"'","\'")&amp;"', nameZhG1: '"&amp;SUBSTITUTE(H4,"'","\'")&amp;"', nameKo: '"&amp;SUBSTITUTE(J4,"'","\'")&amp;"', ruby: '"&amp;F4&amp;"', rubyEn: '"&amp;L4&amp;IF(I4&lt;&gt;"", "', rubyZh: '"&amp;I4, "")&amp;"', baseType: '"&amp;VLOOKUP(M4,マスタ!$A$1:$B$99,2,0)&amp;"'"&amp;IF(N4="○",", extra: true","")&amp;IF(O4&lt;&gt;"",", extraFrom: '"&amp;O4&amp;"'","")&amp;IF(P4&lt;&gt;"",", exchangableTo: '"&amp;P4&amp;"'","")&amp;IF(Q4="○",", poison: true","")&amp;IF(R4&lt;&gt;"", ", type: '"&amp;VLOOKUP(R4,マスタ!$D$1:$E$99,2,0)&amp;"'", "")&amp;IF(S4&lt;&gt;"",", subType: '"&amp;VLOOKUP(S4,マスタ!$D$1:$E$99,2,0)&amp;"'","")&amp;""&amp;IF(T4&lt;&gt;"",", range: '"&amp;T4&amp;"'","")&amp;IF(V4&lt;&gt;"",", damage: '"&amp;V4&amp;"'","")&amp;IF(X4&lt;&gt;"",", capacity: '"&amp;X4&amp;"'","")&amp;IF(Y4&lt;&gt;"",", growth: "&amp;Y4&amp;"","")&amp;IF(Z4&lt;&gt;"",", cost: '"&amp;Z4&amp;"'","")&amp;", text: '"&amp;SUBSTITUTE(SUBSTITUTE(AF4, CHAR(13), ""),CHAR(10),"\n")&amp;IF(AG4&lt;&gt;"", "', textAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AG4, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textZh: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AH4, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;"', textZhG1: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AJ4, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AI4&lt;&gt;"", "', textZhAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AI4, CHAR(13), ""),CHAR(10),"\n"), "")&amp;IF(AK4&lt;&gt;"", "', textZhG1Additional: '"&amp;SUBSTITUTE(SUBSTITUTE(AK4, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textKo: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AL4, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AM4&lt;&gt;"", "', textKoAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AM4, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textEn: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(#REF!, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AN4&lt;&gt;"", "', textEnAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AN4, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"'"&amp;IF(AB4="○",", sealable: true","")&amp;IF(AC4="○",", removable: true","")&amp;IF(AA4="○",", lie: true","")&amp;IF(AE4="○",", investable: true","")&amp;"}")</f>
+        <v>#REF!</v>
       </c>
       <c r="AU4" s="5" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">    /** 《交易》 */ export const AKINA_O_N_3: TCardId = '23-akina-o-n-3';</v>
+        <v xml:space="preserve">    /** 《八葉鏡の徒桜》 */ export const YATSUHA_A1_S_4: TCardId = '16-yatsuha-A1-s-4';</v>
       </c>
       <c r="AV4" s="6" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">    | '23-akina-o-n-3'</v>
-      </c>
-    </row>
-    <row r="5" spans="1:48" s="11" customFormat="1" ht="36">
-      <c r="A5" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>98</v>
-      </c>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10" t="s">
-        <v>103</v>
-      </c>
-      <c r="F5" s="10" t="s">
-        <v>118</v>
-      </c>
-      <c r="G5" s="31"/>
-      <c r="H5" s="32"/>
-      <c r="I5" s="31"/>
-      <c r="J5" s="32"/>
-      <c r="K5" s="33"/>
-      <c r="L5" s="34"/>
-      <c r="M5" s="10" t="s">
+        <v xml:space="preserve">    | '16-yatsuha-A1-s-4'</v>
+      </c>
+    </row>
+    <row r="5" spans="1:48" s="11" customFormat="1" ht="96">
+      <c r="A5" s="53" t="s">
+        <v>253</v>
+      </c>
+      <c r="B5" s="53" t="s">
+        <v>254</v>
+      </c>
+      <c r="C5" s="53"/>
+      <c r="D5" s="53"/>
+      <c r="E5" s="53" t="s">
+        <v>255</v>
+      </c>
+      <c r="F5" s="53" t="s">
+        <v>256</v>
+      </c>
+      <c r="G5" s="53" t="s">
+        <v>257</v>
+      </c>
+      <c r="H5" s="53" t="s">
+        <v>258</v>
+      </c>
+      <c r="I5" s="54"/>
+      <c r="J5" s="53" t="s">
+        <v>259</v>
+      </c>
+      <c r="K5" s="55" t="s">
+        <v>260</v>
+      </c>
+      <c r="L5" s="53"/>
+      <c r="M5" s="53" t="s">
         <v>37</v>
       </c>
-      <c r="N5" s="10"/>
-      <c r="O5" s="10"/>
-      <c r="P5" s="10"/>
-      <c r="Q5" s="10"/>
-      <c r="R5" s="10" t="s">
-        <v>128</v>
-      </c>
-      <c r="S5" s="10"/>
-      <c r="T5" s="10"/>
-      <c r="U5" s="12"/>
-      <c r="V5" s="10"/>
-      <c r="W5" s="12"/>
-      <c r="X5" s="10"/>
-      <c r="Y5" s="10"/>
-      <c r="Z5" s="10"/>
-      <c r="AA5" s="10"/>
-      <c r="AB5" s="10"/>
-      <c r="AC5" s="10"/>
-      <c r="AD5" s="10"/>
-      <c r="AE5" s="40" t="s">
-        <v>134</v>
-      </c>
-      <c r="AF5" s="35"/>
-      <c r="AG5" s="36"/>
-      <c r="AH5" s="35"/>
-      <c r="AI5" s="37"/>
-      <c r="AJ5" s="35"/>
-      <c r="AK5" s="38"/>
-      <c r="AL5" s="35"/>
-      <c r="AM5" s="39"/>
+      <c r="N5" s="53"/>
+      <c r="O5" s="53"/>
+      <c r="P5" s="53"/>
+      <c r="Q5" s="53"/>
+      <c r="R5" s="53" t="s">
+        <v>41</v>
+      </c>
+      <c r="S5" s="53"/>
+      <c r="T5" s="53"/>
+      <c r="U5" s="56"/>
+      <c r="V5" s="53"/>
+      <c r="W5" s="56"/>
+      <c r="X5" s="53" t="s">
+        <v>247</v>
+      </c>
+      <c r="Y5" s="53"/>
+      <c r="Z5" s="53"/>
+      <c r="AA5" s="53"/>
+      <c r="AE5" s="57" t="s">
+        <v>261</v>
+      </c>
+      <c r="AF5" s="57"/>
+      <c r="AG5" s="58" t="s">
+        <v>262</v>
+      </c>
+      <c r="AH5" s="59"/>
+      <c r="AI5" s="58" t="s">
+        <v>263</v>
+      </c>
+      <c r="AK5" s="59" t="s">
+        <v>264</v>
+      </c>
+      <c r="AL5" s="34"/>
+      <c r="AM5" s="60" t="s">
+        <v>265</v>
+      </c>
       <c r="AN5" s="2"/>
       <c r="AO5" s="12"/>
       <c r="AP5" s="12"/>
       <c r="AQ5" s="12"/>
       <c r="AR5" s="12"/>
       <c r="AS5" s="12"/>
-      <c r="AT5" s="14" t="str">
-        <f>IF(A5="", "", IF(ROW()&gt;=3, ", ", "")&amp;"'"&amp;A5&amp;"': {megami: '"&amp;B5&amp;"'"&amp;IF(C5&lt;&gt;"",", anotherID: '"&amp;C5&amp;"', replace: '"&amp;D5&amp;"'","")&amp;", name: '"&amp;SUBSTITUTE(E5,"'","\'")&amp;"', nameEn: '"&amp;SUBSTITUTE(K5,"'","\'")&amp;"', nameZh: '"&amp;SUBSTITUTE(G5,"'","\'")&amp;"', nameZhG1: '"&amp;SUBSTITUTE(H5,"'","\'")&amp;"', nameKo: '"&amp;SUBSTITUTE(J5,"'","\'")&amp;"', ruby: '"&amp;F5&amp;"', rubyEn: '"&amp;L5&amp;IF(I5&lt;&gt;"", "', rubyZh: '"&amp;I5, "")&amp;"', baseType: '"&amp;VLOOKUP(M5,マスタ!$A$1:$B$99,2,0)&amp;"'"&amp;IF(N5="○",", extra: true","")&amp;IF(O5&lt;&gt;"",", extraFrom: '"&amp;O5&amp;"'","")&amp;IF(P5&lt;&gt;"",", exchangableTo: '"&amp;P5&amp;"'","")&amp;IF(Q5="○",", poison: true","")&amp;IF(R5&lt;&gt;"", ", type: '"&amp;VLOOKUP(R5,マスタ!$D$1:$E$99,2,0)&amp;"'", "")&amp;IF(S5&lt;&gt;"",", subType: '"&amp;VLOOKUP(S5,マスタ!$D$1:$E$99,2,0)&amp;"'","")&amp;""&amp;IF(T5&lt;&gt;"",", range: '"&amp;T5&amp;"'","")&amp;IF(V5&lt;&gt;"",", damage: '"&amp;V5&amp;"'","")&amp;IF(X5&lt;&gt;"",", capacity: '"&amp;X5&amp;"'","")&amp;IF(Y5&lt;&gt;"",", growth: "&amp;Y5&amp;"","")&amp;IF(Z5&lt;&gt;"",", cost: '"&amp;Z5&amp;"'","")&amp;", text: '"&amp;SUBSTITUTE(SUBSTITUTE(AE5, CHAR(13), ""),CHAR(10),"\n")&amp;IF(AF5&lt;&gt;"", "', textAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AF5, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textZh: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AG5, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;"', textZhG1: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AI5, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AH5&lt;&gt;"", "', textZhAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AH5, CHAR(13), ""),CHAR(10),"\n"), "")&amp;IF(AJ5&lt;&gt;"", "', textZhG1Additional: '"&amp;SUBSTITUTE(SUBSTITUTE(AJ5, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textKo: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AK5, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AL5&lt;&gt;"", "', textKoAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AL5, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textEn: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AM5, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AN5&lt;&gt;"", "', textEnAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AN5, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"'"&amp;IF(AB5="○",", sealable: true","")&amp;IF(AC5="○",", removable: true","")&amp;IF(AA5="○",", lie: true","")&amp;IF(AD5="○",", investable: true","")&amp;"}")</f>
-        <v>, '23-akina-o-n-4': {megami: 'akina', name: '投機', nameEn: '', nameZh: '', nameZhG1: '', nameKo: '', ruby: 'とうき', rubyEn: '', baseType: 'normal', type: 'action', text: '以下から1つを選ぶ。\n・自オーラ→自フロー：2\n・ダスト→自オーラ：2', textZh: '', textZhG1: '', textKo: '', textEn: ''}</v>
+      <c r="AT5" s="14" t="e">
+        <f>IF(A5="", "", IF(ROW()&gt;=3, ", ", "")&amp;"'"&amp;A5&amp;"': {megami: '"&amp;B5&amp;"'"&amp;IF(C5&lt;&gt;"",", anotherID: '"&amp;C5&amp;"', replace: '"&amp;D5&amp;"'","")&amp;", name: '"&amp;SUBSTITUTE(E5,"'","\'")&amp;"', nameEn: '"&amp;SUBSTITUTE(K5,"'","\'")&amp;"', nameZh: '"&amp;SUBSTITUTE(G5,"'","\'")&amp;"', nameZhG1: '"&amp;SUBSTITUTE(H5,"'","\'")&amp;"', nameKo: '"&amp;SUBSTITUTE(J5,"'","\'")&amp;"', ruby: '"&amp;F5&amp;"', rubyEn: '"&amp;L5&amp;IF(I5&lt;&gt;"", "', rubyZh: '"&amp;I5, "")&amp;"', baseType: '"&amp;VLOOKUP(M5,マスタ!$A$1:$B$99,2,0)&amp;"'"&amp;IF(N5="○",", extra: true","")&amp;IF(O5&lt;&gt;"",", extraFrom: '"&amp;O5&amp;"'","")&amp;IF(P5&lt;&gt;"",", exchangableTo: '"&amp;P5&amp;"'","")&amp;IF(Q5="○",", poison: true","")&amp;IF(R5&lt;&gt;"", ", type: '"&amp;VLOOKUP(R5,マスタ!$D$1:$E$99,2,0)&amp;"'", "")&amp;IF(S5&lt;&gt;"",", subType: '"&amp;VLOOKUP(S5,マスタ!$D$1:$E$99,2,0)&amp;"'","")&amp;""&amp;IF(T5&lt;&gt;"",", range: '"&amp;T5&amp;"'","")&amp;IF(V5&lt;&gt;"",", damage: '"&amp;V5&amp;"'","")&amp;IF(X5&lt;&gt;"",", capacity: '"&amp;X5&amp;"'","")&amp;IF(Y5&lt;&gt;"",", growth: "&amp;Y5&amp;"","")&amp;IF(Z5&lt;&gt;"",", cost: '"&amp;Z5&amp;"'","")&amp;", text: '"&amp;SUBSTITUTE(SUBSTITUTE(AH5, CHAR(13), ""),CHAR(10),"\n")&amp;IF(AI5&lt;&gt;"", "', textAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AI5, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textZh: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AK5, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;"', textZhG1: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(#REF!, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AM5&lt;&gt;"", "', textZhAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AM5, CHAR(13), ""),CHAR(10),"\n"), "")&amp;IF(#REF!&lt;&gt;"", "', textZhG1Additional: '"&amp;SUBSTITUTE(SUBSTITUTE(#REF!, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textKo: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(#REF!, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AL5&lt;&gt;"", "', textKoAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AL5, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textEn: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(#REF!, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AN5&lt;&gt;"", "', textEnAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AN5, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"'"&amp;IF(AE5="○",", sealable: true","")&amp;IF(AF5="○",", removable: true","")&amp;IF(AA5="○",", lie: true","")&amp;IF(AG5="○",", investable: true","")&amp;"}")</f>
+        <v>#REF!</v>
       </c>
       <c r="AU5" s="5" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">    /** 《投機》 */ export const AKINA_O_N_4: TCardId = '23-akina-o-n-4';</v>
+        <v xml:space="preserve">    /** 《波呼び》 */ export const HATSUMI_O_N_7: TCardId = '17-hatsumi-o-n-7';</v>
       </c>
       <c r="AV5" s="6" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">    | '23-akina-o-n-4'</v>
-      </c>
-    </row>
-    <row r="6" spans="1:48" s="11" customFormat="1" ht="40.5">
-      <c r="A6" s="10" t="s">
-        <v>91</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>98</v>
-      </c>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10" t="s">
-        <v>104</v>
-      </c>
-      <c r="F6" s="10" t="s">
-        <v>119</v>
-      </c>
-      <c r="G6" s="31"/>
-      <c r="H6" s="32"/>
-      <c r="I6" s="31"/>
-      <c r="J6" s="32"/>
-      <c r="K6" s="33"/>
-      <c r="L6" s="34"/>
-      <c r="M6" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="N6" s="10"/>
-      <c r="O6" s="10"/>
-      <c r="P6" s="10"/>
-      <c r="Q6" s="10"/>
-      <c r="R6" s="10" t="s">
-        <v>128</v>
-      </c>
-      <c r="S6" s="10" t="s">
-        <v>132</v>
-      </c>
-      <c r="T6" s="10"/>
-      <c r="U6" s="12"/>
-      <c r="V6" s="10"/>
-      <c r="W6" s="12"/>
-      <c r="X6" s="10"/>
-      <c r="Y6" s="10"/>
-      <c r="Z6" s="10"/>
-      <c r="AA6" s="10"/>
-      <c r="AB6" s="10"/>
-      <c r="AC6" s="10"/>
-      <c r="AD6" s="10"/>
-      <c r="AE6" s="41" t="s">
-        <v>140</v>
-      </c>
-      <c r="AF6" s="35"/>
-      <c r="AG6" s="36"/>
-      <c r="AH6" s="35"/>
-      <c r="AI6" s="37"/>
-      <c r="AJ6" s="35"/>
-      <c r="AK6" s="38"/>
-      <c r="AL6" s="35"/>
-      <c r="AM6" s="39"/>
+        <v xml:space="preserve">    | '17-hatsumi-o-n-7'</v>
+      </c>
+    </row>
+    <row r="6" spans="1:48" s="11" customFormat="1" ht="84">
+      <c r="A6" s="16" t="s">
+        <v>266</v>
+      </c>
+      <c r="B6" s="16" t="s">
+        <v>267</v>
+      </c>
+      <c r="C6" s="16"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="16" t="s">
+        <v>268</v>
+      </c>
+      <c r="F6" s="16" t="s">
+        <v>269</v>
+      </c>
+      <c r="G6" s="10" t="s">
+        <v>270</v>
+      </c>
+      <c r="H6" s="10" t="s">
+        <v>270</v>
+      </c>
+      <c r="I6" s="17"/>
+      <c r="J6" s="24" t="s">
+        <v>271</v>
+      </c>
+      <c r="K6" s="16" t="s">
+        <v>272</v>
+      </c>
+      <c r="L6" s="16"/>
+      <c r="M6" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="N6" s="16"/>
+      <c r="O6" s="16"/>
+      <c r="P6" s="16"/>
+      <c r="Q6" s="16"/>
+      <c r="R6" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="S6" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="T6" s="16" t="s">
+        <v>126</v>
+      </c>
+      <c r="U6" s="18"/>
+      <c r="V6" s="16" t="s">
+        <v>273</v>
+      </c>
+      <c r="W6" s="18"/>
+      <c r="X6" s="16"/>
+      <c r="Y6" s="16"/>
+      <c r="Z6" s="16" t="s">
+        <v>191</v>
+      </c>
+      <c r="AA6" s="16"/>
+      <c r="AB6" s="16"/>
+      <c r="AE6" s="21" t="s">
+        <v>274</v>
+      </c>
+      <c r="AF6" s="21"/>
+      <c r="AG6" s="13" t="s">
+        <v>275</v>
+      </c>
+      <c r="AH6" s="19"/>
+      <c r="AI6" s="13" t="s">
+        <v>276</v>
+      </c>
+      <c r="AJ6" s="19"/>
+      <c r="AK6" s="21" t="s">
+        <v>277</v>
+      </c>
+      <c r="AL6" s="19"/>
+      <c r="AM6" s="21" t="s">
+        <v>278</v>
+      </c>
       <c r="AN6" s="2"/>
       <c r="AO6" s="12"/>
       <c r="AP6" s="12"/>
       <c r="AQ6" s="12"/>
       <c r="AR6" s="12"/>
       <c r="AS6" s="12"/>
-      <c r="AT6" s="14" t="str">
-        <f>IF(A6="", "", IF(ROW()&gt;=3, ", ", "")&amp;"'"&amp;A6&amp;"': {megami: '"&amp;B6&amp;"'"&amp;IF(C6&lt;&gt;"",", anotherID: '"&amp;C6&amp;"', replace: '"&amp;D6&amp;"'","")&amp;", name: '"&amp;SUBSTITUTE(E6,"'","\'")&amp;"', nameEn: '"&amp;SUBSTITUTE(K6,"'","\'")&amp;"', nameZh: '"&amp;SUBSTITUTE(G6,"'","\'")&amp;"', nameZhG1: '"&amp;SUBSTITUTE(H6,"'","\'")&amp;"', nameKo: '"&amp;SUBSTITUTE(J6,"'","\'")&amp;"', ruby: '"&amp;F6&amp;"', rubyEn: '"&amp;L6&amp;IF(I6&lt;&gt;"", "', rubyZh: '"&amp;I6, "")&amp;"', baseType: '"&amp;VLOOKUP(M6,マスタ!$A$1:$B$99,2,0)&amp;"'"&amp;IF(N6="○",", extra: true","")&amp;IF(O6&lt;&gt;"",", extraFrom: '"&amp;O6&amp;"'","")&amp;IF(P6&lt;&gt;"",", exchangableTo: '"&amp;P6&amp;"'","")&amp;IF(Q6="○",", poison: true","")&amp;IF(R6&lt;&gt;"", ", type: '"&amp;VLOOKUP(R6,マスタ!$D$1:$E$99,2,0)&amp;"'", "")&amp;IF(S6&lt;&gt;"",", subType: '"&amp;VLOOKUP(S6,マスタ!$D$1:$E$99,2,0)&amp;"'","")&amp;""&amp;IF(T6&lt;&gt;"",", range: '"&amp;T6&amp;"'","")&amp;IF(V6&lt;&gt;"",", damage: '"&amp;V6&amp;"'","")&amp;IF(X6&lt;&gt;"",", capacity: '"&amp;X6&amp;"'","")&amp;IF(Y6&lt;&gt;"",", growth: "&amp;Y6&amp;"","")&amp;IF(Z6&lt;&gt;"",", cost: '"&amp;Z6&amp;"'","")&amp;", text: '"&amp;SUBSTITUTE(SUBSTITUTE(AE6, CHAR(13), ""),CHAR(10),"\n")&amp;IF(AF6&lt;&gt;"", "', textAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AF6, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textZh: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AG6, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;"', textZhG1: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AI6, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AH6&lt;&gt;"", "', textZhAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AH6, CHAR(13), ""),CHAR(10),"\n"), "")&amp;IF(AJ6&lt;&gt;"", "', textZhG1Additional: '"&amp;SUBSTITUTE(SUBSTITUTE(AJ6, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textKo: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AK6, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AL6&lt;&gt;"", "', textKoAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AL6, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textEn: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AM6, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AN6&lt;&gt;"", "', textEnAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AN6, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"'"&amp;IF(AB6="○",", sealable: true","")&amp;IF(AC6="○",", removable: true","")&amp;IF(AA6="○",", lie: true","")&amp;IF(AD6="○",", investable: true","")&amp;"}")</f>
-        <v>, '23-akina-o-n-5': {megami: 'akina', name: '算法', nameEn: '', nameZh: '', nameZhG1: '', nameKo: '', ruby: 'さんぽう', rubyEn: '', baseType: 'normal', type: 'action', subType: 'reaction', text: 'あなたは集中力を1得る。\nこのターン中、《攻撃》は全ての適正距離が1減少する。\n（例えば3-4は2-3となる）', textZh: '', textZhG1: '', textKo: '', textEn: ''}</v>
+      <c r="AT6" s="14" t="e">
+        <f>IF(A6="", "", IF(ROW()&gt;=3, ", ", "")&amp;"'"&amp;A6&amp;"': {megami: '"&amp;B6&amp;"'"&amp;IF(C6&lt;&gt;"",", anotherID: '"&amp;C6&amp;"', replace: '"&amp;D6&amp;"'","")&amp;", name: '"&amp;SUBSTITUTE(E6,"'","\'")&amp;"', nameEn: '"&amp;SUBSTITUTE(K6,"'","\'")&amp;"', nameZh: '"&amp;SUBSTITUTE(G6,"'","\'")&amp;"', nameZhG1: '"&amp;SUBSTITUTE(H6,"'","\'")&amp;"', nameKo: '"&amp;SUBSTITUTE(J6,"'","\'")&amp;"', ruby: '"&amp;F6&amp;"', rubyEn: '"&amp;L6&amp;IF(I6&lt;&gt;"", "', rubyZh: '"&amp;I6, "")&amp;"', baseType: '"&amp;VLOOKUP(M6,マスタ!$A$1:$B$99,2,0)&amp;"'"&amp;IF(N6="○",", extra: true","")&amp;IF(O6&lt;&gt;"",", extraFrom: '"&amp;O6&amp;"'","")&amp;IF(P6&lt;&gt;"",", exchangableTo: '"&amp;P6&amp;"'","")&amp;IF(Q6="○",", poison: true","")&amp;IF(R6&lt;&gt;"", ", type: '"&amp;VLOOKUP(R6,マスタ!$D$1:$E$99,2,0)&amp;"'", "")&amp;IF(S6&lt;&gt;"",", subType: '"&amp;VLOOKUP(S6,マスタ!$D$1:$E$99,2,0)&amp;"'","")&amp;""&amp;IF(T6&lt;&gt;"",", range: '"&amp;T6&amp;"'","")&amp;IF(V6&lt;&gt;"",", damage: '"&amp;V6&amp;"'","")&amp;IF(X6&lt;&gt;"",", capacity: '"&amp;X6&amp;"'","")&amp;IF(Y6&lt;&gt;"",", growth: "&amp;Y6&amp;"","")&amp;IF(Z6&lt;&gt;"",", cost: '"&amp;Z6&amp;"'","")&amp;", text: '"&amp;SUBSTITUTE(SUBSTITUTE(AG6, CHAR(13), ""),CHAR(10),"\n")&amp;IF(AH6&lt;&gt;"", "', textAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AH6, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textZh: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AI6, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;"', textZhG1: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AK6, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AJ6&lt;&gt;"", "', textZhAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AJ6, CHAR(13), ""),CHAR(10),"\n"), "")&amp;IF(AL6&lt;&gt;"", "', textZhG1Additional: '"&amp;SUBSTITUTE(SUBSTITUTE(AL6, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textKo: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AM6, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(#REF!&lt;&gt;"", "', textKoAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(#REF!, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textEn: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(#REF!, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AN6&lt;&gt;"", "', textEnAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AN6, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"'"&amp;IF(AB6="○",", sealable: true","")&amp;IF(AE6="○",", removable: true","")&amp;IF(AA6="○",", lie: true","")&amp;IF(AF6="○",", investable: true","")&amp;"}")</f>
+        <v>#REF!</v>
       </c>
       <c r="AU6" s="5" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">    /** 《算法》 */ export const AKINA_O_N_5: TCardId = '23-akina-o-n-5';</v>
+        <v xml:space="preserve">    /** 《可能性の枝》 */ export const MEGUMI_O_S_2: TCardId = '19-megumi-o-s-2';</v>
       </c>
       <c r="AV6" s="6" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">    | '23-akina-o-n-5'</v>
-      </c>
-    </row>
-    <row r="7" spans="1:48" s="11" customFormat="1" ht="36">
-      <c r="A7" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="B7" s="10" t="s">
-        <v>98</v>
-      </c>
+        <v xml:space="preserve">    | '19-megumi-o-s-2'</v>
+      </c>
+    </row>
+    <row r="7" spans="1:48" s="11" customFormat="1">
+      <c r="A7" s="10"/>
+      <c r="B7" s="10"/>
       <c r="C7" s="10"/>
       <c r="D7" s="10"/>
-      <c r="E7" s="10" t="s">
-        <v>105</v>
-      </c>
-      <c r="F7" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="G7" s="31"/>
-      <c r="H7" s="32"/>
-      <c r="I7" s="31"/>
-      <c r="J7" s="32"/>
-      <c r="K7" s="33"/>
-      <c r="L7" s="34"/>
-      <c r="M7" s="10" t="s">
-        <v>37</v>
-      </c>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="30"/>
+      <c r="H7" s="31"/>
+      <c r="I7" s="30"/>
+      <c r="J7" s="31"/>
+      <c r="K7" s="32"/>
+      <c r="L7" s="33"/>
+      <c r="M7" s="10"/>
       <c r="N7" s="10"/>
       <c r="O7" s="10"/>
       <c r="P7" s="10"/>
       <c r="Q7" s="10"/>
-      <c r="R7" s="10" t="s">
-        <v>129</v>
-      </c>
+      <c r="R7" s="10"/>
       <c r="S7" s="10"/>
       <c r="T7" s="10"/>
       <c r="U7" s="12"/>
       <c r="V7" s="10"/>
       <c r="W7" s="12"/>
-      <c r="X7" s="10">
-        <v>2</v>
-      </c>
+      <c r="X7" s="10"/>
       <c r="Y7" s="10"/>
       <c r="Z7" s="10"/>
       <c r="AA7" s="10"/>
       <c r="AB7" s="10"/>
       <c r="AC7" s="10"/>
       <c r="AD7" s="10"/>
-      <c r="AE7" s="40" t="s">
-        <v>148</v>
-      </c>
-      <c r="AF7" s="35"/>
-      <c r="AG7" s="36"/>
-      <c r="AH7" s="35"/>
-      <c r="AI7" s="37"/>
-      <c r="AJ7" s="35"/>
-      <c r="AK7" s="38"/>
-      <c r="AL7" s="35"/>
-      <c r="AM7" s="39"/>
+      <c r="AE7" s="39"/>
+      <c r="AF7" s="34"/>
+      <c r="AG7" s="35"/>
+      <c r="AH7" s="34"/>
+      <c r="AI7" s="36"/>
+      <c r="AJ7" s="34"/>
+      <c r="AK7" s="37"/>
+      <c r="AL7" s="34"/>
+      <c r="AM7" s="38"/>
       <c r="AN7" s="2"/>
       <c r="AO7" s="12"/>
       <c r="AP7" s="12"/>
@@ -17324,20 +18620,20 @@
       <c r="AS7" s="12"/>
       <c r="AT7" s="14" t="str">
         <f>IF(A7="", "", IF(ROW()&gt;=3, ", ", "")&amp;"'"&amp;A7&amp;"': {megami: '"&amp;B7&amp;"'"&amp;IF(C7&lt;&gt;"",", anotherID: '"&amp;C7&amp;"', replace: '"&amp;D7&amp;"'","")&amp;", name: '"&amp;SUBSTITUTE(E7,"'","\'")&amp;"', nameEn: '"&amp;SUBSTITUTE(K7,"'","\'")&amp;"', nameZh: '"&amp;SUBSTITUTE(G7,"'","\'")&amp;"', nameZhG1: '"&amp;SUBSTITUTE(H7,"'","\'")&amp;"', nameKo: '"&amp;SUBSTITUTE(J7,"'","\'")&amp;"', ruby: '"&amp;F7&amp;"', rubyEn: '"&amp;L7&amp;IF(I7&lt;&gt;"", "', rubyZh: '"&amp;I7, "")&amp;"', baseType: '"&amp;VLOOKUP(M7,マスタ!$A$1:$B$99,2,0)&amp;"'"&amp;IF(N7="○",", extra: true","")&amp;IF(O7&lt;&gt;"",", extraFrom: '"&amp;O7&amp;"'","")&amp;IF(P7&lt;&gt;"",", exchangableTo: '"&amp;P7&amp;"'","")&amp;IF(Q7="○",", poison: true","")&amp;IF(R7&lt;&gt;"", ", type: '"&amp;VLOOKUP(R7,マスタ!$D$1:$E$99,2,0)&amp;"'", "")&amp;IF(S7&lt;&gt;"",", subType: '"&amp;VLOOKUP(S7,マスタ!$D$1:$E$99,2,0)&amp;"'","")&amp;""&amp;IF(T7&lt;&gt;"",", range: '"&amp;T7&amp;"'","")&amp;IF(V7&lt;&gt;"",", damage: '"&amp;V7&amp;"'","")&amp;IF(X7&lt;&gt;"",", capacity: '"&amp;X7&amp;"'","")&amp;IF(Y7&lt;&gt;"",", growth: "&amp;Y7&amp;"","")&amp;IF(Z7&lt;&gt;"",", cost: '"&amp;Z7&amp;"'","")&amp;", text: '"&amp;SUBSTITUTE(SUBSTITUTE(AE7, CHAR(13), ""),CHAR(10),"\n")&amp;IF(AF7&lt;&gt;"", "', textAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AF7, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textZh: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AG7, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;"', textZhG1: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AI7, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AH7&lt;&gt;"", "', textZhAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AH7, CHAR(13), ""),CHAR(10),"\n"), "")&amp;IF(AJ7&lt;&gt;"", "', textZhG1Additional: '"&amp;SUBSTITUTE(SUBSTITUTE(AJ7, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textKo: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AK7, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AL7&lt;&gt;"", "', textKoAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AL7, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textEn: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AM7, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AN7&lt;&gt;"", "', textEnAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AN7, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"'"&amp;IF(AB7="○",", sealable: true","")&amp;IF(AC7="○",", removable: true","")&amp;IF(AA7="○",", lie: true","")&amp;IF(AD7="○",", investable: true","")&amp;"}")</f>
-        <v>, '23-akina-o-n-6': {megami: 'akina', name: '盤狂わせ', nameEn: '', nameZh: '', nameZhG1: '', nameKo: '', ruby: 'ばんくるわせ', rubyEn: '', baseType: 'normal', type: 'enhance', capacity: '2', text: '間合制限（0-3）\n【展開時】相フレア→間合：2\n【破棄時】間合→相フレア：1', textZh: '', textZhG1: '', textKo: '', textEn: ''}</v>
+        <v/>
       </c>
       <c r="AU7" s="5" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">    /** 《盤狂わせ》 */ export const AKINA_O_N_6: TCardId = '23-akina-o-n-6';</v>
+        <v/>
       </c>
       <c r="AV7" s="6" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">    | '23-akina-o-n-6'</v>
-      </c>
-    </row>
-    <row r="8" spans="1:48" s="11" customFormat="1" ht="37.5">
+        <v/>
+      </c>
+    </row>
+    <row r="8" spans="1:48" s="11" customFormat="1" ht="49.5">
       <c r="A8" s="10" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="B8" s="10" t="s">
         <v>98</v>
@@ -17345,17 +18641,17 @@
       <c r="C8" s="10"/>
       <c r="D8" s="10"/>
       <c r="E8" s="10" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="F8" s="10" t="s">
-        <v>121</v>
-      </c>
-      <c r="G8" s="31"/>
-      <c r="H8" s="32"/>
-      <c r="I8" s="31"/>
-      <c r="J8" s="32"/>
-      <c r="K8" s="33"/>
-      <c r="L8" s="34"/>
+        <v>115</v>
+      </c>
+      <c r="G8" s="30"/>
+      <c r="H8" s="31"/>
+      <c r="I8" s="30"/>
+      <c r="J8" s="31"/>
+      <c r="K8" s="32"/>
+      <c r="L8" s="33"/>
       <c r="M8" s="10" t="s">
         <v>37</v>
       </c>
@@ -17364,37 +18660,35 @@
       <c r="P8" s="10"/>
       <c r="Q8" s="10"/>
       <c r="R8" s="10" t="s">
-        <v>129</v>
-      </c>
-      <c r="S8" s="10" t="s">
-        <v>133</v>
-      </c>
-      <c r="T8" s="10"/>
+        <v>127</v>
+      </c>
+      <c r="S8" s="10"/>
+      <c r="T8" s="10" t="s">
+        <v>123</v>
+      </c>
       <c r="U8" s="12"/>
-      <c r="V8" s="10"/>
+      <c r="V8" s="10" t="s">
+        <v>137</v>
+      </c>
       <c r="W8" s="12"/>
-      <c r="X8" s="10">
-        <v>2</v>
-      </c>
+      <c r="X8" s="10"/>
       <c r="Y8" s="10"/>
       <c r="Z8" s="10"/>
       <c r="AA8" s="10"/>
       <c r="AB8" s="10"/>
       <c r="AC8" s="10"/>
-      <c r="AD8" s="10" t="s">
-        <v>144</v>
-      </c>
-      <c r="AE8" s="40" t="s">
-        <v>149</v>
-      </c>
-      <c r="AF8" s="35"/>
-      <c r="AG8" s="36"/>
-      <c r="AH8" s="35"/>
-      <c r="AI8" s="37"/>
-      <c r="AJ8" s="35"/>
-      <c r="AK8" s="38"/>
-      <c r="AL8" s="35"/>
-      <c r="AM8" s="39"/>
+      <c r="AD8" s="10"/>
+      <c r="AE8" s="39" t="s">
+        <v>136</v>
+      </c>
+      <c r="AF8" s="34"/>
+      <c r="AG8" s="35"/>
+      <c r="AH8" s="34"/>
+      <c r="AI8" s="36"/>
+      <c r="AJ8" s="34"/>
+      <c r="AK8" s="37"/>
+      <c r="AL8" s="34"/>
+      <c r="AM8" s="38"/>
       <c r="AN8" s="2"/>
       <c r="AO8" s="12"/>
       <c r="AP8" s="12"/>
@@ -17403,20 +18697,20 @@
       <c r="AS8" s="12"/>
       <c r="AT8" s="14" t="str">
         <f>IF(A8="", "", IF(ROW()&gt;=3, ", ", "")&amp;"'"&amp;A8&amp;"': {megami: '"&amp;B8&amp;"'"&amp;IF(C8&lt;&gt;"",", anotherID: '"&amp;C8&amp;"', replace: '"&amp;D8&amp;"'","")&amp;", name: '"&amp;SUBSTITUTE(E8,"'","\'")&amp;"', nameEn: '"&amp;SUBSTITUTE(K8,"'","\'")&amp;"', nameZh: '"&amp;SUBSTITUTE(G8,"'","\'")&amp;"', nameZhG1: '"&amp;SUBSTITUTE(H8,"'","\'")&amp;"', nameKo: '"&amp;SUBSTITUTE(J8,"'","\'")&amp;"', ruby: '"&amp;F8&amp;"', rubyEn: '"&amp;L8&amp;IF(I8&lt;&gt;"", "', rubyZh: '"&amp;I8, "")&amp;"', baseType: '"&amp;VLOOKUP(M8,マスタ!$A$1:$B$99,2,0)&amp;"'"&amp;IF(N8="○",", extra: true","")&amp;IF(O8&lt;&gt;"",", extraFrom: '"&amp;O8&amp;"'","")&amp;IF(P8&lt;&gt;"",", exchangableTo: '"&amp;P8&amp;"'","")&amp;IF(Q8="○",", poison: true","")&amp;IF(R8&lt;&gt;"", ", type: '"&amp;VLOOKUP(R8,マスタ!$D$1:$E$99,2,0)&amp;"'", "")&amp;IF(S8&lt;&gt;"",", subType: '"&amp;VLOOKUP(S8,マスタ!$D$1:$E$99,2,0)&amp;"'","")&amp;""&amp;IF(T8&lt;&gt;"",", range: '"&amp;T8&amp;"'","")&amp;IF(V8&lt;&gt;"",", damage: '"&amp;V8&amp;"'","")&amp;IF(X8&lt;&gt;"",", capacity: '"&amp;X8&amp;"'","")&amp;IF(Y8&lt;&gt;"",", growth: "&amp;Y8&amp;"","")&amp;IF(Z8&lt;&gt;"",", cost: '"&amp;Z8&amp;"'","")&amp;", text: '"&amp;SUBSTITUTE(SUBSTITUTE(AE8, CHAR(13), ""),CHAR(10),"\n")&amp;IF(AF8&lt;&gt;"", "', textAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AF8, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textZh: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AG8, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;"', textZhG1: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AI8, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AH8&lt;&gt;"", "', textZhAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AH8, CHAR(13), ""),CHAR(10),"\n"), "")&amp;IF(AJ8&lt;&gt;"", "', textZhG1Additional: '"&amp;SUBSTITUTE(SUBSTITUTE(AJ8, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textKo: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AK8, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AL8&lt;&gt;"", "', textKoAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AL8, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textEn: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AM8, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AN8&lt;&gt;"", "', textEnAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AN8, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"'"&amp;IF(AB8="○",", sealable: true","")&amp;IF(AC8="○",", removable: true","")&amp;IF(AA8="○",", lie: true","")&amp;IF(AD8="○",", investable: true","")&amp;"}")</f>
-        <v>, '23-akina-o-n-7': {megami: 'akina', name: '直接金融', nameEn: '', nameZh: '', nameZhG1: '', nameKo: '', ruby: 'ちょくせつきんゆう', rubyEn: '', baseType: 'normal', type: 'enhance', subType: 'fullpower', capacity: '2', text: '投資券\n【展開時】相オーラ→自オーラ：2\n【破棄時】攻撃『適正距離2-5、1/0』を行ってもよい。', textZh: '', textZhG1: '', textKo: '', textEn: '', investable: true}</v>
+        <v>, '23-akina-o-n-1': {megami: 'akina', name: '算盤玉', nameEn: '', nameZh: '', nameZhG1: '', nameKo: '', ruby: 'そろばんだま', rubyEn: '', baseType: 'normal', type: 'attack', range: '1-6', damage: '1/0', text: '【攻撃後】以下から1つを選ぶ。\n・あなたは集中力を１得る。\n・回収を行う。\n・自フレア⇔自フロー：1', textZh: '', textZhG1: '', textKo: '', textEn: ''}</v>
       </c>
       <c r="AU8" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">    /** 《直接金融》 */ export const AKINA_O_N_7: TCardId = '23-akina-o-n-7';</v>
+        <f t="shared" ref="AU8:AU16" si="2">IF($A8&lt;&gt;"", "    /** 《"&amp;$E8&amp;"》 */ export const "&amp;SUBSTITUTE(UPPER(IF(MID($A8, 3, 1)="-", RIGHT($A8,LEN($A8)-3), $A8)), "-", "_")&amp;": TCardId = '"&amp;$A8&amp;"';", "")</f>
+        <v xml:space="preserve">    /** 《算盤玉》 */ export const AKINA_O_N_1: TCardId = '23-akina-o-n-1';</v>
       </c>
       <c r="AV8" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">    | '23-akina-o-n-7'</v>
-      </c>
-    </row>
-    <row r="9" spans="1:48" s="11" customFormat="1" ht="48">
+        <f t="shared" ref="AV8:AV16" si="3">IF($A8&lt;&gt;"", "    | '"&amp;$A8&amp;"'", "")</f>
+        <v xml:space="preserve">    | '23-akina-o-n-1'</v>
+      </c>
+    </row>
+    <row r="9" spans="1:48" s="11" customFormat="1" ht="24">
       <c r="A9" s="10" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="B9" s="10" t="s">
         <v>98</v>
@@ -17424,52 +18718,56 @@
       <c r="C9" s="10"/>
       <c r="D9" s="10"/>
       <c r="E9" s="10" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="F9" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="G9" s="31"/>
-      <c r="H9" s="32"/>
-      <c r="I9" s="31"/>
-      <c r="J9" s="32"/>
-      <c r="K9" s="33"/>
-      <c r="L9" s="34"/>
+        <v>116</v>
+      </c>
+      <c r="G9" s="30"/>
+      <c r="H9" s="31"/>
+      <c r="I9" s="30"/>
+      <c r="J9" s="31"/>
+      <c r="K9" s="32"/>
+      <c r="L9" s="33"/>
       <c r="M9" s="10" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="N9" s="10"/>
       <c r="O9" s="10"/>
       <c r="P9" s="10"/>
       <c r="Q9" s="10"/>
       <c r="R9" s="10" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="S9" s="10"/>
-      <c r="T9" s="10"/>
+      <c r="T9" s="10" t="s">
+        <v>124</v>
+      </c>
       <c r="U9" s="12"/>
-      <c r="V9" s="10"/>
+      <c r="V9" s="10" t="s">
+        <v>138</v>
+      </c>
       <c r="W9" s="12"/>
       <c r="X9" s="10"/>
       <c r="Y9" s="10"/>
-      <c r="Z9" s="10" t="s">
-        <v>130</v>
-      </c>
+      <c r="Z9" s="10"/>
       <c r="AA9" s="10"/>
       <c r="AB9" s="10"/>
       <c r="AC9" s="10"/>
-      <c r="AD9" s="10"/>
-      <c r="AE9" s="40" t="s">
-        <v>141</v>
-      </c>
-      <c r="AF9" s="35"/>
-      <c r="AG9" s="36"/>
-      <c r="AH9" s="35"/>
-      <c r="AI9" s="37"/>
-      <c r="AJ9" s="35"/>
-      <c r="AK9" s="38"/>
-      <c r="AL9" s="35"/>
-      <c r="AM9" s="39"/>
+      <c r="AD9" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="AE9" s="39" t="s">
+        <v>122</v>
+      </c>
+      <c r="AF9" s="34"/>
+      <c r="AG9" s="35"/>
+      <c r="AH9" s="34"/>
+      <c r="AI9" s="36"/>
+      <c r="AJ9" s="34"/>
+      <c r="AK9" s="37"/>
+      <c r="AL9" s="34"/>
+      <c r="AM9" s="38"/>
       <c r="AN9" s="2"/>
       <c r="AO9" s="12"/>
       <c r="AP9" s="12"/>
@@ -17478,20 +18776,20 @@
       <c r="AS9" s="12"/>
       <c r="AT9" s="14" t="str">
         <f>IF(A9="", "", IF(ROW()&gt;=3, ", ", "")&amp;"'"&amp;A9&amp;"': {megami: '"&amp;B9&amp;"'"&amp;IF(C9&lt;&gt;"",", anotherID: '"&amp;C9&amp;"', replace: '"&amp;D9&amp;"'","")&amp;", name: '"&amp;SUBSTITUTE(E9,"'","\'")&amp;"', nameEn: '"&amp;SUBSTITUTE(K9,"'","\'")&amp;"', nameZh: '"&amp;SUBSTITUTE(G9,"'","\'")&amp;"', nameZhG1: '"&amp;SUBSTITUTE(H9,"'","\'")&amp;"', nameKo: '"&amp;SUBSTITUTE(J9,"'","\'")&amp;"', ruby: '"&amp;F9&amp;"', rubyEn: '"&amp;L9&amp;IF(I9&lt;&gt;"", "', rubyZh: '"&amp;I9, "")&amp;"', baseType: '"&amp;VLOOKUP(M9,マスタ!$A$1:$B$99,2,0)&amp;"'"&amp;IF(N9="○",", extra: true","")&amp;IF(O9&lt;&gt;"",", extraFrom: '"&amp;O9&amp;"'","")&amp;IF(P9&lt;&gt;"",", exchangableTo: '"&amp;P9&amp;"'","")&amp;IF(Q9="○",", poison: true","")&amp;IF(R9&lt;&gt;"", ", type: '"&amp;VLOOKUP(R9,マスタ!$D$1:$E$99,2,0)&amp;"'", "")&amp;IF(S9&lt;&gt;"",", subType: '"&amp;VLOOKUP(S9,マスタ!$D$1:$E$99,2,0)&amp;"'","")&amp;""&amp;IF(T9&lt;&gt;"",", range: '"&amp;T9&amp;"'","")&amp;IF(V9&lt;&gt;"",", damage: '"&amp;V9&amp;"'","")&amp;IF(X9&lt;&gt;"",", capacity: '"&amp;X9&amp;"'","")&amp;IF(Y9&lt;&gt;"",", growth: "&amp;Y9&amp;"","")&amp;IF(Z9&lt;&gt;"",", cost: '"&amp;Z9&amp;"'","")&amp;", text: '"&amp;SUBSTITUTE(SUBSTITUTE(AE9, CHAR(13), ""),CHAR(10),"\n")&amp;IF(AF9&lt;&gt;"", "', textAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AF9, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textZh: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AG9, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;"', textZhG1: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AI9, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AH9&lt;&gt;"", "', textZhAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AH9, CHAR(13), ""),CHAR(10),"\n"), "")&amp;IF(AJ9&lt;&gt;"", "', textZhG1Additional: '"&amp;SUBSTITUTE(SUBSTITUTE(AJ9, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textKo: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AK9, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AL9&lt;&gt;"", "', textKoAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AL9, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textEn: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AM9, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AN9&lt;&gt;"", "', textEnAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AN9, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"'"&amp;IF(AB9="○",", sealable: true","")&amp;IF(AC9="○",", removable: true","")&amp;IF(AA9="○",", lie: true","")&amp;IF(AD9="○",", investable: true","")&amp;"}")</f>
-        <v>, '23-akina-o-s-1': {megami: 'akina', name: '開方冥式切取法', nameEn: '', nameZh: '', nameZhG1: '', nameKo: '', ruby: 'かいほうめいしききりとりほう', rubyEn: '', baseType: 'special', type: 'action', cost: '時価', text: '攻撃『0-10　-/1、【常時】この《攻撃》が対応されたならば、この攻撃は打ち消される。【常時】この《攻撃》のダメージは変化しない』を行う。その後、あなたの資本が相手の資本より大きいならばこのカードを使用する。\n（消費は支払い、その消費は時価以外で加減されない）', textZh: '', textZhG1: '', textKo: '', textEn: ''}</v>
+        <v>, '23-akina-o-n-2': {megami: 'akina', name: '恫喝', nameEn: '', nameZh: '', nameZhG1: '', nameKo: '', ruby: 'どうかつ', rubyEn: '', baseType: 'normal', type: 'attack', range: '4-5', damage: '-/0', text: '投資券\n【常時】あなたの資本が相手の資本より大きいならば、この《攻撃》は+0/+1となる。', textZh: '', textZhG1: '', textKo: '', textEn: '', investable: true}</v>
       </c>
       <c r="AU9" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">    /** 《開方冥式切取法》 */ export const AKINA_O_S_1: TCardId = '23-akina-o-s-1';</v>
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">    /** 《恫喝》 */ export const AKINA_O_N_2: TCardId = '23-akina-o-n-2';</v>
       </c>
       <c r="AV9" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">    | '23-akina-o-s-1'</v>
-      </c>
-    </row>
-    <row r="10" spans="1:48" s="11" customFormat="1" ht="40.5">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">    | '23-akina-o-n-2'</v>
+      </c>
+    </row>
+    <row r="10" spans="1:48" s="11" customFormat="1" ht="60">
       <c r="A10" s="10" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="B10" s="10" t="s">
         <v>98</v>
@@ -17499,19 +18797,19 @@
       <c r="C10" s="10"/>
       <c r="D10" s="10"/>
       <c r="E10" s="10" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="F10" s="10" t="s">
-        <v>108</v>
-      </c>
-      <c r="G10" s="31"/>
-      <c r="H10" s="32"/>
-      <c r="I10" s="31"/>
-      <c r="J10" s="32"/>
-      <c r="K10" s="33"/>
-      <c r="L10" s="34"/>
+        <v>117</v>
+      </c>
+      <c r="G10" s="30"/>
+      <c r="H10" s="31"/>
+      <c r="I10" s="30"/>
+      <c r="J10" s="31"/>
+      <c r="K10" s="32"/>
+      <c r="L10" s="33"/>
       <c r="M10" s="10" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="N10" s="10"/>
       <c r="O10" s="10"/>
@@ -17520,11 +18818,9 @@
       <c r="R10" s="10" t="s">
         <v>127</v>
       </c>
-      <c r="S10" s="10" t="s">
-        <v>131</v>
-      </c>
+      <c r="S10" s="10"/>
       <c r="T10" s="10" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="U10" s="12"/>
       <c r="V10" s="10" t="s">
@@ -17533,24 +18829,22 @@
       <c r="W10" s="12"/>
       <c r="X10" s="10"/>
       <c r="Y10" s="10"/>
-      <c r="Z10" s="10">
-        <v>0</v>
-      </c>
+      <c r="Z10" s="10"/>
       <c r="AA10" s="10"/>
       <c r="AB10" s="10"/>
       <c r="AC10" s="10"/>
       <c r="AD10" s="10"/>
-      <c r="AE10" s="40" t="s">
-        <v>142</v>
-      </c>
-      <c r="AF10" s="35"/>
-      <c r="AG10" s="36"/>
-      <c r="AH10" s="35"/>
-      <c r="AI10" s="37"/>
-      <c r="AJ10" s="35"/>
-      <c r="AK10" s="38"/>
-      <c r="AL10" s="35"/>
-      <c r="AM10" s="39"/>
+      <c r="AE10" s="39" t="s">
+        <v>135</v>
+      </c>
+      <c r="AF10" s="34"/>
+      <c r="AG10" s="35"/>
+      <c r="AH10" s="34"/>
+      <c r="AI10" s="36"/>
+      <c r="AJ10" s="34"/>
+      <c r="AK10" s="37"/>
+      <c r="AL10" s="34"/>
+      <c r="AM10" s="38"/>
       <c r="AN10" s="2"/>
       <c r="AO10" s="12"/>
       <c r="AP10" s="12"/>
@@ -17559,20 +18853,20 @@
       <c r="AS10" s="12"/>
       <c r="AT10" s="14" t="str">
         <f>IF(A10="", "", IF(ROW()&gt;=3, ", ", "")&amp;"'"&amp;A10&amp;"': {megami: '"&amp;B10&amp;"'"&amp;IF(C10&lt;&gt;"",", anotherID: '"&amp;C10&amp;"', replace: '"&amp;D10&amp;"'","")&amp;", name: '"&amp;SUBSTITUTE(E10,"'","\'")&amp;"', nameEn: '"&amp;SUBSTITUTE(K10,"'","\'")&amp;"', nameZh: '"&amp;SUBSTITUTE(G10,"'","\'")&amp;"', nameZhG1: '"&amp;SUBSTITUTE(H10,"'","\'")&amp;"', nameKo: '"&amp;SUBSTITUTE(J10,"'","\'")&amp;"', ruby: '"&amp;F10&amp;"', rubyEn: '"&amp;L10&amp;IF(I10&lt;&gt;"", "', rubyZh: '"&amp;I10, "")&amp;"', baseType: '"&amp;VLOOKUP(M10,マスタ!$A$1:$B$99,2,0)&amp;"'"&amp;IF(N10="○",", extra: true","")&amp;IF(O10&lt;&gt;"",", extraFrom: '"&amp;O10&amp;"'","")&amp;IF(P10&lt;&gt;"",", exchangableTo: '"&amp;P10&amp;"'","")&amp;IF(Q10="○",", poison: true","")&amp;IF(R10&lt;&gt;"", ", type: '"&amp;VLOOKUP(R10,マスタ!$D$1:$E$99,2,0)&amp;"'", "")&amp;IF(S10&lt;&gt;"",", subType: '"&amp;VLOOKUP(S10,マスタ!$D$1:$E$99,2,0)&amp;"'","")&amp;""&amp;IF(T10&lt;&gt;"",", range: '"&amp;T10&amp;"'","")&amp;IF(V10&lt;&gt;"",", damage: '"&amp;V10&amp;"'","")&amp;IF(X10&lt;&gt;"",", capacity: '"&amp;X10&amp;"'","")&amp;IF(Y10&lt;&gt;"",", growth: "&amp;Y10&amp;"","")&amp;IF(Z10&lt;&gt;"",", cost: '"&amp;Z10&amp;"'","")&amp;", text: '"&amp;SUBSTITUTE(SUBSTITUTE(AE10, CHAR(13), ""),CHAR(10),"\n")&amp;IF(AF10&lt;&gt;"", "', textAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AF10, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textZh: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AG10, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;"', textZhG1: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AI10, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AH10&lt;&gt;"", "', textZhAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AH10, CHAR(13), ""),CHAR(10),"\n"), "")&amp;IF(AJ10&lt;&gt;"", "', textZhG1Additional: '"&amp;SUBSTITUTE(SUBSTITUTE(AJ10, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textKo: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AK10, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AL10&lt;&gt;"", "', textKoAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AL10, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textEn: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AM10, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AN10&lt;&gt;"", "', textEnAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AN10, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"'"&amp;IF(AB10="○",", sealable: true","")&amp;IF(AC10="○",", removable: true","")&amp;IF(AA10="○",", lie: true","")&amp;IF(AD10="○",", investable: true","")&amp;"}")</f>
-        <v>, '23-akina-o-s-2': {megami: 'akina', name: '大衍算顆手打表', nameEn: '', nameZh: '', nameZhG1: '', nameKo: '', ruby: 'だいえんさんかてうちひょう', rubyEn: '', baseType: 'special', type: 'attack', subType: 'reaction', range: '0-10', damage: '2/0', cost: '0', text: '【攻撃後】自フレア→自オーラ：1\n自フロー→自オーラ：1\n自ライフ→自オーラ：1', textZh: '', textZhG1: '', textKo: '', textEn: ''}</v>
+        <v>, '23-akina-o-n-3': {megami: 'akina', name: '交易', nameEn: '', nameZh: '', nameZhG1: '', nameKo: '', ruby: 'こうえき', rubyEn: '', baseType: 'normal', type: 'attack', range: '1-5', damage: '2/0', text: '終端\n【攻撃後】あなたの資本が相手の資本より3以上大きいならば、捨て札にある他のメガミのカード１枚までを選び、手札に戻す。\n【攻撃後】あなたの資本が相手の資本より大きいならば、基本動作を1回行ってもよい。', textZh: '', textZhG1: '', textKo: '', textEn: ''}</v>
       </c>
       <c r="AU10" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">    /** 《大衍算顆手打表》 */ export const AKINA_O_S_2: TCardId = '23-akina-o-s-2';</v>
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">    /** 《交易》 */ export const AKINA_O_N_3: TCardId = '23-akina-o-n-3';</v>
       </c>
       <c r="AV10" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">    | '23-akina-o-s-2'</v>
-      </c>
-    </row>
-    <row r="11" spans="1:48" s="11" customFormat="1" ht="60">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">    | '23-akina-o-n-3'</v>
+      </c>
+    </row>
+    <row r="11" spans="1:48" s="11" customFormat="1" ht="36">
       <c r="A11" s="10" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="B11" s="10" t="s">
         <v>98</v>
@@ -17580,56 +18874,50 @@
       <c r="C11" s="10"/>
       <c r="D11" s="10"/>
       <c r="E11" s="10" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="F11" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="G11" s="31"/>
-      <c r="H11" s="32"/>
-      <c r="I11" s="31"/>
-      <c r="J11" s="32"/>
-      <c r="K11" s="33"/>
-      <c r="L11" s="34"/>
+        <v>118</v>
+      </c>
+      <c r="G11" s="30"/>
+      <c r="H11" s="31"/>
+      <c r="I11" s="30"/>
+      <c r="J11" s="31"/>
+      <c r="K11" s="32"/>
+      <c r="L11" s="33"/>
       <c r="M11" s="10" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="N11" s="10"/>
       <c r="O11" s="10"/>
       <c r="P11" s="10"/>
       <c r="Q11" s="10"/>
       <c r="R11" s="10" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="S11" s="10"/>
       <c r="T11" s="10"/>
       <c r="U11" s="12"/>
       <c r="V11" s="10"/>
       <c r="W11" s="12"/>
-      <c r="X11" s="10" t="s">
-        <v>147</v>
-      </c>
+      <c r="X11" s="10"/>
       <c r="Y11" s="10"/>
-      <c r="Z11" s="10">
-        <v>1</v>
-      </c>
+      <c r="Z11" s="10"/>
       <c r="AA11" s="10"/>
       <c r="AB11" s="10"/>
-      <c r="AC11" s="10" t="s">
-        <v>144</v>
-      </c>
+      <c r="AC11" s="10"/>
       <c r="AD11" s="10"/>
-      <c r="AE11" s="40" t="s">
-        <v>143</v>
-      </c>
-      <c r="AF11" s="35"/>
-      <c r="AG11" s="36"/>
-      <c r="AH11" s="35"/>
-      <c r="AI11" s="37"/>
-      <c r="AJ11" s="35"/>
-      <c r="AK11" s="38"/>
-      <c r="AL11" s="35"/>
-      <c r="AM11" s="39"/>
+      <c r="AE11" s="39" t="s">
+        <v>134</v>
+      </c>
+      <c r="AF11" s="34"/>
+      <c r="AG11" s="35"/>
+      <c r="AH11" s="34"/>
+      <c r="AI11" s="36"/>
+      <c r="AJ11" s="34"/>
+      <c r="AK11" s="37"/>
+      <c r="AL11" s="34"/>
+      <c r="AM11" s="38"/>
       <c r="AN11" s="2"/>
       <c r="AO11" s="12"/>
       <c r="AP11" s="12"/>
@@ -17638,20 +18926,20 @@
       <c r="AS11" s="12"/>
       <c r="AT11" s="14" t="str">
         <f>IF(A11="", "", IF(ROW()&gt;=3, ", ", "")&amp;"'"&amp;A11&amp;"': {megami: '"&amp;B11&amp;"'"&amp;IF(C11&lt;&gt;"",", anotherID: '"&amp;C11&amp;"', replace: '"&amp;D11&amp;"'","")&amp;", name: '"&amp;SUBSTITUTE(E11,"'","\'")&amp;"', nameEn: '"&amp;SUBSTITUTE(K11,"'","\'")&amp;"', nameZh: '"&amp;SUBSTITUTE(G11,"'","\'")&amp;"', nameZhG1: '"&amp;SUBSTITUTE(H11,"'","\'")&amp;"', nameKo: '"&amp;SUBSTITUTE(J11,"'","\'")&amp;"', ruby: '"&amp;F11&amp;"', rubyEn: '"&amp;L11&amp;IF(I11&lt;&gt;"", "', rubyZh: '"&amp;I11, "")&amp;"', baseType: '"&amp;VLOOKUP(M11,マスタ!$A$1:$B$99,2,0)&amp;"'"&amp;IF(N11="○",", extra: true","")&amp;IF(O11&lt;&gt;"",", extraFrom: '"&amp;O11&amp;"'","")&amp;IF(P11&lt;&gt;"",", exchangableTo: '"&amp;P11&amp;"'","")&amp;IF(Q11="○",", poison: true","")&amp;IF(R11&lt;&gt;"", ", type: '"&amp;VLOOKUP(R11,マスタ!$D$1:$E$99,2,0)&amp;"'", "")&amp;IF(S11&lt;&gt;"",", subType: '"&amp;VLOOKUP(S11,マスタ!$D$1:$E$99,2,0)&amp;"'","")&amp;""&amp;IF(T11&lt;&gt;"",", range: '"&amp;T11&amp;"'","")&amp;IF(V11&lt;&gt;"",", damage: '"&amp;V11&amp;"'","")&amp;IF(X11&lt;&gt;"",", capacity: '"&amp;X11&amp;"'","")&amp;IF(Y11&lt;&gt;"",", growth: "&amp;Y11&amp;"","")&amp;IF(Z11&lt;&gt;"",", cost: '"&amp;Z11&amp;"'","")&amp;", text: '"&amp;SUBSTITUTE(SUBSTITUTE(AE11, CHAR(13), ""),CHAR(10),"\n")&amp;IF(AF11&lt;&gt;"", "', textAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AF11, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textZh: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AG11, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;"', textZhG1: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AI11, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AH11&lt;&gt;"", "', textZhAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AH11, CHAR(13), ""),CHAR(10),"\n"), "")&amp;IF(AJ11&lt;&gt;"", "', textZhG1Additional: '"&amp;SUBSTITUTE(SUBSTITUTE(AJ11, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textKo: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AK11, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AL11&lt;&gt;"", "', textKoAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AL11, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textEn: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AM11, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AN11&lt;&gt;"", "', textEnAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AN11, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"'"&amp;IF(AB11="○",", sealable: true","")&amp;IF(AC11="○",", removable: true","")&amp;IF(AA11="○",", lie: true","")&amp;IF(AD11="○",", investable: true","")&amp;"}")</f>
-        <v>, '23-akina-o-s-3': {megami: 'akina', name: '衰垜逐肘守料術', nameEn: '', nameZh: '', nameZhG1: '', nameKo: '', ruby: 'すいだちくちゅうもりりょうじゅつ', rubyEn: '', baseType: 'special', type: 'enhance', capacity: '1', cost: '1', text: '【展開時】あなたのライフからフレアへと桜花結晶を4つ移動させる。\n【展開中】このカードの効果以外でこの付与札の上の桜花結晶は移動しない。\n【展開中】あなたのライフが0の時にあなたが敗北するならば、代わりにあなたのフレアからライフへと桜花結晶を4つ移動させる。その後、この上の桜花結晶を全てダストに送り、このカードを取り除く。', textZh: '', textZhG1: '', textKo: '', textEn: '', removable: true}</v>
+        <v>, '23-akina-o-n-4': {megami: 'akina', name: '投機', nameEn: '', nameZh: '', nameZhG1: '', nameKo: '', ruby: 'とうき', rubyEn: '', baseType: 'normal', type: 'action', text: '以下から1つを選ぶ。\n・自オーラ→自フロー：2\n・ダスト→自オーラ：2', textZh: '', textZhG1: '', textKo: '', textEn: ''}</v>
       </c>
       <c r="AU11" s="5" t="str">
-        <f t="shared" ref="AU11:AU18" si="2">IF($A11&lt;&gt;"", "    /** 《"&amp;$E11&amp;"》 */ export const "&amp;SUBSTITUTE(UPPER(IF(MID($A11, 3, 1)="-", RIGHT($A11,LEN($A11)-3), $A11)), "-", "_")&amp;": TCardId = '"&amp;$A11&amp;"';", "")</f>
-        <v xml:space="preserve">    /** 《衰垜逐肘守料術》 */ export const AKINA_O_S_3: TCardId = '23-akina-o-s-3';</v>
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">    /** 《投機》 */ export const AKINA_O_N_4: TCardId = '23-akina-o-n-4';</v>
       </c>
       <c r="AV11" s="6" t="str">
-        <f t="shared" ref="AV11:AV18" si="3">IF($A11&lt;&gt;"", "    | '"&amp;$A11&amp;"'", "")</f>
-        <v xml:space="preserve">    | '23-akina-o-s-3'</v>
-      </c>
-    </row>
-    <row r="12" spans="1:48" s="11" customFormat="1" ht="66">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">    | '23-akina-o-n-4'</v>
+      </c>
+    </row>
+    <row r="12" spans="1:48" s="11" customFormat="1" ht="40.5">
       <c r="A12" s="10" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="B12" s="10" t="s">
         <v>98</v>
@@ -17659,19 +18947,19 @@
       <c r="C12" s="10"/>
       <c r="D12" s="10"/>
       <c r="E12" s="10" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="F12" s="10" t="s">
-        <v>110</v>
-      </c>
-      <c r="G12" s="31"/>
-      <c r="H12" s="32"/>
-      <c r="I12" s="31"/>
-      <c r="J12" s="32"/>
-      <c r="K12" s="33"/>
-      <c r="L12" s="34"/>
+        <v>119</v>
+      </c>
+      <c r="G12" s="30"/>
+      <c r="H12" s="31"/>
+      <c r="I12" s="30"/>
+      <c r="J12" s="31"/>
+      <c r="K12" s="32"/>
+      <c r="L12" s="33"/>
       <c r="M12" s="10" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="N12" s="10"/>
       <c r="O12" s="10"/>
@@ -17680,35 +18968,31 @@
       <c r="R12" s="10" t="s">
         <v>128</v>
       </c>
-      <c r="S12" s="10"/>
+      <c r="S12" s="10" t="s">
+        <v>132</v>
+      </c>
       <c r="T12" s="10"/>
       <c r="U12" s="12"/>
       <c r="V12" s="10"/>
       <c r="W12" s="12"/>
       <c r="X12" s="10"/>
       <c r="Y12" s="10"/>
-      <c r="Z12" s="10" t="s">
-        <v>130</v>
-      </c>
+      <c r="Z12" s="10"/>
       <c r="AA12" s="10"/>
       <c r="AB12" s="10"/>
-      <c r="AC12" s="10" t="s">
-        <v>144</v>
-      </c>
-      <c r="AD12" s="10" t="s">
-        <v>144</v>
-      </c>
+      <c r="AC12" s="10"/>
+      <c r="AD12" s="10"/>
       <c r="AE12" s="40" t="s">
-        <v>146</v>
-      </c>
-      <c r="AF12" s="35"/>
-      <c r="AG12" s="36"/>
-      <c r="AH12" s="35"/>
-      <c r="AI12" s="37"/>
-      <c r="AJ12" s="35"/>
-      <c r="AK12" s="38"/>
-      <c r="AL12" s="35"/>
-      <c r="AM12" s="39"/>
+        <v>140</v>
+      </c>
+      <c r="AF12" s="34"/>
+      <c r="AG12" s="35"/>
+      <c r="AH12" s="34"/>
+      <c r="AI12" s="36"/>
+      <c r="AJ12" s="34"/>
+      <c r="AK12" s="37"/>
+      <c r="AL12" s="34"/>
+      <c r="AM12" s="38"/>
       <c r="AN12" s="2"/>
       <c r="AO12" s="12"/>
       <c r="AP12" s="12"/>
@@ -17717,963 +19001,1603 @@
       <c r="AS12" s="12"/>
       <c r="AT12" s="14" t="str">
         <f>IF(A12="", "", IF(ROW()&gt;=3, ", ", "")&amp;"'"&amp;A12&amp;"': {megami: '"&amp;B12&amp;"'"&amp;IF(C12&lt;&gt;"",", anotherID: '"&amp;C12&amp;"', replace: '"&amp;D12&amp;"'","")&amp;", name: '"&amp;SUBSTITUTE(E12,"'","\'")&amp;"', nameEn: '"&amp;SUBSTITUTE(K12,"'","\'")&amp;"', nameZh: '"&amp;SUBSTITUTE(G12,"'","\'")&amp;"', nameZhG1: '"&amp;SUBSTITUTE(H12,"'","\'")&amp;"', nameKo: '"&amp;SUBSTITUTE(J12,"'","\'")&amp;"', ruby: '"&amp;F12&amp;"', rubyEn: '"&amp;L12&amp;IF(I12&lt;&gt;"", "', rubyZh: '"&amp;I12, "")&amp;"', baseType: '"&amp;VLOOKUP(M12,マスタ!$A$1:$B$99,2,0)&amp;"'"&amp;IF(N12="○",", extra: true","")&amp;IF(O12&lt;&gt;"",", extraFrom: '"&amp;O12&amp;"'","")&amp;IF(P12&lt;&gt;"",", exchangableTo: '"&amp;P12&amp;"'","")&amp;IF(Q12="○",", poison: true","")&amp;IF(R12&lt;&gt;"", ", type: '"&amp;VLOOKUP(R12,マスタ!$D$1:$E$99,2,0)&amp;"'", "")&amp;IF(S12&lt;&gt;"",", subType: '"&amp;VLOOKUP(S12,マスタ!$D$1:$E$99,2,0)&amp;"'","")&amp;""&amp;IF(T12&lt;&gt;"",", range: '"&amp;T12&amp;"'","")&amp;IF(V12&lt;&gt;"",", damage: '"&amp;V12&amp;"'","")&amp;IF(X12&lt;&gt;"",", capacity: '"&amp;X12&amp;"'","")&amp;IF(Y12&lt;&gt;"",", growth: "&amp;Y12&amp;"","")&amp;IF(Z12&lt;&gt;"",", cost: '"&amp;Z12&amp;"'","")&amp;", text: '"&amp;SUBSTITUTE(SUBSTITUTE(AE12, CHAR(13), ""),CHAR(10),"\n")&amp;IF(AF12&lt;&gt;"", "', textAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AF12, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textZh: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AG12, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;"', textZhG1: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AI12, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AH12&lt;&gt;"", "', textZhAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AH12, CHAR(13), ""),CHAR(10),"\n"), "")&amp;IF(AJ12&lt;&gt;"", "', textZhG1Additional: '"&amp;SUBSTITUTE(SUBSTITUTE(AJ12, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textKo: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AK12, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AL12&lt;&gt;"", "', textKoAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AL12, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textEn: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AM12, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AN12&lt;&gt;"", "', textEnAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AN12, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"'"&amp;IF(AB12="○",", sealable: true","")&amp;IF(AC12="○",", removable: true","")&amp;IF(AA12="○",", lie: true","")&amp;IF(AD12="○",", investable: true","")&amp;"}")</f>
-        <v>, '23-akina-o-s-4': {megami: 'akina', name: '源上安岐那の御明算', nameEn: '', nameZh: '', nameZhG1: '', nameKo: '', ruby: 'みなかみあきなのごめいさん', rubyEn: '', baseType: 'special', type: 'action', cost: '時価', text: '間合制限（0-7）　投資券\n回収を行ってもよい。そうした場合、基本動作《纏い》を2回まで行い、このカードを取り除く。\n【使用済】あなたの開始フェイズの開始時に基本動作《宿し》を1回行ってもよい。', textZh: '', textZhG1: '', textKo: '', textEn: '', removable: true, investable: true}</v>
+        <v>, '23-akina-o-n-5': {megami: 'akina', name: '算法', nameEn: '', nameZh: '', nameZhG1: '', nameKo: '', ruby: 'さんぽう', rubyEn: '', baseType: 'normal', type: 'action', subType: 'reaction', text: 'あなたは集中力を1得る。\nこのターン中、《攻撃》は全ての適正距離が1減少する。\n（例えば3-4は2-3となる）', textZh: '', textZhG1: '', textKo: '', textEn: ''}</v>
       </c>
       <c r="AU12" s="5" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">    /** 《源上安岐那の御明算》 */ export const AKINA_O_S_4: TCardId = '23-akina-o-s-4';</v>
+        <v xml:space="preserve">    /** 《算法》 */ export const AKINA_O_N_5: TCardId = '23-akina-o-n-5';</v>
       </c>
       <c r="AV12" s="6" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">    | '23-akina-o-s-4'</v>
-      </c>
-    </row>
-    <row r="13" spans="1:48">
-      <c r="A13" s="16"/>
-      <c r="B13" s="16"/>
-      <c r="C13" s="16"/>
-      <c r="D13" s="16"/>
-      <c r="E13" s="16"/>
-      <c r="F13" s="16"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="17"/>
-      <c r="J13" s="24"/>
-      <c r="K13" s="16"/>
-      <c r="L13" s="16"/>
-      <c r="M13" s="16"/>
-      <c r="N13" s="16"/>
-      <c r="O13" s="16"/>
-      <c r="P13" s="16"/>
-      <c r="Q13" s="16"/>
-      <c r="R13" s="16"/>
-      <c r="S13" s="16"/>
-      <c r="T13" s="16"/>
-      <c r="U13" s="18"/>
-      <c r="V13" s="16"/>
-      <c r="W13" s="18"/>
-      <c r="X13" s="16"/>
-      <c r="Y13" s="16"/>
-      <c r="Z13" s="16"/>
-      <c r="AA13" s="16"/>
-      <c r="AB13" s="16"/>
-      <c r="AC13" s="16"/>
-      <c r="AD13" s="16"/>
-      <c r="AE13" s="21"/>
-      <c r="AF13" s="21"/>
-      <c r="AG13" s="13"/>
-      <c r="AH13" s="21"/>
-      <c r="AI13" s="13"/>
-      <c r="AJ13" s="21"/>
-      <c r="AK13" s="21"/>
-      <c r="AL13" s="19"/>
-      <c r="AM13" s="21"/>
-      <c r="AN13" s="19"/>
-      <c r="AO13" s="18"/>
-      <c r="AP13" s="18"/>
-      <c r="AQ13" s="18"/>
-      <c r="AR13" s="18"/>
-      <c r="AS13" s="18"/>
+        <v xml:space="preserve">    | '23-akina-o-n-5'</v>
+      </c>
+    </row>
+    <row r="13" spans="1:48" s="11" customFormat="1" ht="36">
+      <c r="A13" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="F13" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="G13" s="30"/>
+      <c r="H13" s="31"/>
+      <c r="I13" s="30"/>
+      <c r="J13" s="31"/>
+      <c r="K13" s="32"/>
+      <c r="L13" s="33"/>
+      <c r="M13" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="N13" s="10"/>
+      <c r="O13" s="10"/>
+      <c r="P13" s="10"/>
+      <c r="Q13" s="10"/>
+      <c r="R13" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="S13" s="10"/>
+      <c r="T13" s="10"/>
+      <c r="U13" s="12"/>
+      <c r="V13" s="10"/>
+      <c r="W13" s="12"/>
+      <c r="X13" s="10">
+        <v>2</v>
+      </c>
+      <c r="Y13" s="10"/>
+      <c r="Z13" s="10"/>
+      <c r="AA13" s="10"/>
+      <c r="AB13" s="10"/>
+      <c r="AC13" s="10"/>
+      <c r="AD13" s="10"/>
+      <c r="AE13" s="39" t="s">
+        <v>148</v>
+      </c>
+      <c r="AF13" s="34"/>
+      <c r="AG13" s="35"/>
+      <c r="AH13" s="34"/>
+      <c r="AI13" s="36"/>
+      <c r="AJ13" s="34"/>
+      <c r="AK13" s="37"/>
+      <c r="AL13" s="34"/>
+      <c r="AM13" s="38"/>
+      <c r="AN13" s="2"/>
+      <c r="AO13" s="12"/>
+      <c r="AP13" s="12"/>
+      <c r="AQ13" s="12"/>
+      <c r="AR13" s="12"/>
+      <c r="AS13" s="12"/>
       <c r="AT13" s="14" t="str">
-        <f>IF(A13="", "", IF(ROW()&gt;=3, ", ", "")&amp;"'"&amp;A13&amp;"': {megami: '"&amp;B13&amp;"'"&amp;IF(C13&lt;&gt;"",", anotherID: '"&amp;C13&amp;"', replace: '"&amp;D13&amp;"'","")&amp;", name: '"&amp;SUBSTITUTE(E13,"'","\'")&amp;"', nameEn: '"&amp;SUBSTITUTE(K13,"'","\'")&amp;"', nameZh: '"&amp;SUBSTITUTE(G13,"'","\'")&amp;"', nameZhG1: '"&amp;SUBSTITUTE(H13,"'","\'")&amp;"', nameKo: '"&amp;SUBSTITUTE(J13,"'","\'")&amp;"', ruby: '"&amp;F13&amp;"', rubyEn: '"&amp;L13&amp;IF(I13&lt;&gt;"", "', rubyZh: '"&amp;I13, "")&amp;"', baseType: '"&amp;VLOOKUP(M13,マスタ!$A$1:$B$99,2,0)&amp;"'"&amp;IF(N13="○",", extra: true","")&amp;IF(O13&lt;&gt;"",", extraFrom: '"&amp;O13&amp;"'","")&amp;IF(P13&lt;&gt;"",", exchangableTo: '"&amp;P13&amp;"'","")&amp;IF(Q13="○",", poison: true","")&amp;IF(R13&lt;&gt;"", ", type: '"&amp;VLOOKUP(R13,マスタ!$D$1:$E$99,2,0)&amp;"'", "")&amp;IF(S13&lt;&gt;"",", subType: '"&amp;VLOOKUP(S13,マスタ!$D$1:$E$99,2,0)&amp;"'","")&amp;""&amp;IF(T13&lt;&gt;"",", range: '"&amp;T13&amp;"'","")&amp;IF(V13&lt;&gt;"",", damage: '"&amp;V13&amp;"'","")&amp;IF(X13&lt;&gt;"",", capacity: '"&amp;X13&amp;"'","")&amp;IF(Y13&lt;&gt;"",", growth: "&amp;Y13&amp;"","")&amp;IF(Z13&lt;&gt;"",", cost: '"&amp;Z13&amp;"'","")&amp;", text: '"&amp;SUBSTITUTE(SUBSTITUTE(AE13, CHAR(13), ""),CHAR(10),"\n")&amp;IF(AF13&lt;&gt;"", "', textAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AF13, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textZh: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AG13, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;"', textZhG1: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AI13, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AH13&lt;&gt;"", "', textZhAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AH13, CHAR(13), ""),CHAR(10),"\n"), "")&amp;IF(AJ13&lt;&gt;"", "', textZhG1Additional: '"&amp;SUBSTITUTE(SUBSTITUTE(AJ13, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textKo: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AK13, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AL13&lt;&gt;"", "', textKoAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AL13, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textEn: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AM13, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AN13&lt;&gt;"", "', textEnAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AN13, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"'"&amp;IF(AB13="○",", sealable: true","")&amp;IF(AC13="○",", removable: true","")&amp;"}")</f>
-        <v/>
+        <f>IF(A13="", "", IF(ROW()&gt;=3, ", ", "")&amp;"'"&amp;A13&amp;"': {megami: '"&amp;B13&amp;"'"&amp;IF(C13&lt;&gt;"",", anotherID: '"&amp;C13&amp;"', replace: '"&amp;D13&amp;"'","")&amp;", name: '"&amp;SUBSTITUTE(E13,"'","\'")&amp;"', nameEn: '"&amp;SUBSTITUTE(K13,"'","\'")&amp;"', nameZh: '"&amp;SUBSTITUTE(G13,"'","\'")&amp;"', nameZhG1: '"&amp;SUBSTITUTE(H13,"'","\'")&amp;"', nameKo: '"&amp;SUBSTITUTE(J13,"'","\'")&amp;"', ruby: '"&amp;F13&amp;"', rubyEn: '"&amp;L13&amp;IF(I13&lt;&gt;"", "', rubyZh: '"&amp;I13, "")&amp;"', baseType: '"&amp;VLOOKUP(M13,マスタ!$A$1:$B$99,2,0)&amp;"'"&amp;IF(N13="○",", extra: true","")&amp;IF(O13&lt;&gt;"",", extraFrom: '"&amp;O13&amp;"'","")&amp;IF(P13&lt;&gt;"",", exchangableTo: '"&amp;P13&amp;"'","")&amp;IF(Q13="○",", poison: true","")&amp;IF(R13&lt;&gt;"", ", type: '"&amp;VLOOKUP(R13,マスタ!$D$1:$E$99,2,0)&amp;"'", "")&amp;IF(S13&lt;&gt;"",", subType: '"&amp;VLOOKUP(S13,マスタ!$D$1:$E$99,2,0)&amp;"'","")&amp;""&amp;IF(T13&lt;&gt;"",", range: '"&amp;T13&amp;"'","")&amp;IF(V13&lt;&gt;"",", damage: '"&amp;V13&amp;"'","")&amp;IF(X13&lt;&gt;"",", capacity: '"&amp;X13&amp;"'","")&amp;IF(Y13&lt;&gt;"",", growth: "&amp;Y13&amp;"","")&amp;IF(Z13&lt;&gt;"",", cost: '"&amp;Z13&amp;"'","")&amp;", text: '"&amp;SUBSTITUTE(SUBSTITUTE(AE13, CHAR(13), ""),CHAR(10),"\n")&amp;IF(AF13&lt;&gt;"", "', textAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AF13, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textZh: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AG13, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;"', textZhG1: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AI13, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AH13&lt;&gt;"", "', textZhAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AH13, CHAR(13), ""),CHAR(10),"\n"), "")&amp;IF(AJ13&lt;&gt;"", "', textZhG1Additional: '"&amp;SUBSTITUTE(SUBSTITUTE(AJ13, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textKo: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AK13, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AL13&lt;&gt;"", "', textKoAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AL13, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textEn: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AM13, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AN13&lt;&gt;"", "', textEnAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AN13, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"'"&amp;IF(AB13="○",", sealable: true","")&amp;IF(AC13="○",", removable: true","")&amp;IF(AA13="○",", lie: true","")&amp;IF(AD13="○",", investable: true","")&amp;"}")</f>
+        <v>, '23-akina-o-n-6': {megami: 'akina', name: '盤狂わせ', nameEn: '', nameZh: '', nameZhG1: '', nameKo: '', ruby: 'ばんくるわせ', rubyEn: '', baseType: 'normal', type: 'enhance', capacity: '2', text: '間合制限（0-3）\n【展開時】相フレア→間合：2\n【破棄時】間合→相フレア：1', textZh: '', textZhG1: '', textKo: '', textEn: ''}</v>
       </c>
       <c r="AU13" s="5" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v xml:space="preserve">    /** 《盤狂わせ》 */ export const AKINA_O_N_6: TCardId = '23-akina-o-n-6';</v>
       </c>
       <c r="AV13" s="6" t="str">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="14" spans="1:48">
-      <c r="A14" s="16"/>
-      <c r="B14" s="16"/>
-      <c r="C14" s="16"/>
-      <c r="D14" s="16"/>
-      <c r="E14" s="16"/>
-      <c r="F14" s="16"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="17"/>
-      <c r="J14" s="24"/>
-      <c r="K14" s="16"/>
-      <c r="L14" s="16"/>
-      <c r="M14" s="16"/>
-      <c r="N14" s="16"/>
-      <c r="O14" s="16"/>
-      <c r="P14" s="16"/>
-      <c r="Q14" s="16"/>
-      <c r="R14" s="16"/>
-      <c r="S14" s="16"/>
-      <c r="T14" s="16"/>
-      <c r="U14" s="18"/>
-      <c r="V14" s="16"/>
-      <c r="W14" s="18"/>
-      <c r="X14" s="16"/>
-      <c r="Y14" s="16"/>
-      <c r="Z14" s="16"/>
-      <c r="AA14" s="16"/>
-      <c r="AB14" s="16"/>
-      <c r="AC14" s="16"/>
-      <c r="AD14" s="16"/>
-      <c r="AE14" s="21"/>
-      <c r="AF14" s="21"/>
-      <c r="AG14" s="13"/>
-      <c r="AH14" s="21"/>
-      <c r="AI14" s="13"/>
-      <c r="AJ14" s="21"/>
-      <c r="AK14" s="21"/>
-      <c r="AL14" s="19"/>
-      <c r="AM14" s="21"/>
-      <c r="AN14" s="19"/>
-      <c r="AO14" s="18"/>
-      <c r="AP14" s="18"/>
-      <c r="AQ14" s="18"/>
-      <c r="AR14" s="18"/>
-      <c r="AS14" s="18"/>
+        <v xml:space="preserve">    | '23-akina-o-n-6'</v>
+      </c>
+    </row>
+    <row r="14" spans="1:48" s="11" customFormat="1" ht="37.5">
+      <c r="A14" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="F14" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="G14" s="30"/>
+      <c r="H14" s="31"/>
+      <c r="I14" s="30"/>
+      <c r="J14" s="31"/>
+      <c r="K14" s="32"/>
+      <c r="L14" s="33"/>
+      <c r="M14" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="N14" s="10"/>
+      <c r="O14" s="10"/>
+      <c r="P14" s="10"/>
+      <c r="Q14" s="10"/>
+      <c r="R14" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="S14" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="T14" s="10"/>
+      <c r="U14" s="12"/>
+      <c r="V14" s="10"/>
+      <c r="W14" s="12"/>
+      <c r="X14" s="10">
+        <v>2</v>
+      </c>
+      <c r="Y14" s="10"/>
+      <c r="Z14" s="10"/>
+      <c r="AA14" s="10"/>
+      <c r="AB14" s="10"/>
+      <c r="AC14" s="10"/>
+      <c r="AD14" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="AE14" s="39" t="s">
+        <v>149</v>
+      </c>
+      <c r="AF14" s="34"/>
+      <c r="AG14" s="35"/>
+      <c r="AH14" s="34"/>
+      <c r="AI14" s="36"/>
+      <c r="AJ14" s="34"/>
+      <c r="AK14" s="37"/>
+      <c r="AL14" s="34"/>
+      <c r="AM14" s="38"/>
+      <c r="AN14" s="2"/>
+      <c r="AO14" s="12"/>
+      <c r="AP14" s="12"/>
+      <c r="AQ14" s="12"/>
+      <c r="AR14" s="12"/>
+      <c r="AS14" s="12"/>
       <c r="AT14" s="14" t="str">
-        <f>IF(A14="", "", IF(ROW()&gt;=3, ", ", "")&amp;"'"&amp;A14&amp;"': {megami: '"&amp;B14&amp;"'"&amp;IF(C14&lt;&gt;"",", anotherID: '"&amp;C14&amp;"', replace: '"&amp;D14&amp;"'","")&amp;", name: '"&amp;SUBSTITUTE(E14,"'","\'")&amp;"', nameEn: '"&amp;SUBSTITUTE(K14,"'","\'")&amp;"', nameZh: '"&amp;SUBSTITUTE(G14,"'","\'")&amp;"', nameZhG1: '"&amp;SUBSTITUTE(H14,"'","\'")&amp;"', nameKo: '"&amp;SUBSTITUTE(J14,"'","\'")&amp;"', ruby: '"&amp;F14&amp;"', rubyEn: '"&amp;L14&amp;IF(I14&lt;&gt;"", "', rubyZh: '"&amp;I14, "")&amp;"', baseType: '"&amp;VLOOKUP(M14,マスタ!$A$1:$B$99,2,0)&amp;"'"&amp;IF(N14="○",", extra: true","")&amp;IF(O14&lt;&gt;"",", extraFrom: '"&amp;O14&amp;"'","")&amp;IF(P14&lt;&gt;"",", exchangableTo: '"&amp;P14&amp;"'","")&amp;IF(Q14="○",", poison: true","")&amp;IF(R14&lt;&gt;"", ", type: '"&amp;VLOOKUP(R14,マスタ!$D$1:$E$99,2,0)&amp;"'", "")&amp;IF(S14&lt;&gt;"",", subType: '"&amp;VLOOKUP(S14,マスタ!$D$1:$E$99,2,0)&amp;"'","")&amp;""&amp;IF(T14&lt;&gt;"",", range: '"&amp;T14&amp;"'","")&amp;IF(V14&lt;&gt;"",", damage: '"&amp;V14&amp;"'","")&amp;IF(X14&lt;&gt;"",", capacity: '"&amp;X14&amp;"'","")&amp;IF(Y14&lt;&gt;"",", growth: "&amp;Y14&amp;"","")&amp;IF(Z14&lt;&gt;"",", cost: '"&amp;Z14&amp;"'","")&amp;", text: '"&amp;SUBSTITUTE(SUBSTITUTE(AE14, CHAR(13), ""),CHAR(10),"\n")&amp;IF(AF14&lt;&gt;"", "', textAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AF14, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textZh: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AG14, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;"', textZhG1: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AI14, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AH14&lt;&gt;"", "', textZhAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AH14, CHAR(13), ""),CHAR(10),"\n"), "")&amp;IF(AJ14&lt;&gt;"", "', textZhG1Additional: '"&amp;SUBSTITUTE(SUBSTITUTE(AJ14, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textKo: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AK14, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AL14&lt;&gt;"", "', textKoAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AL14, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textEn: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AM14, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AN14&lt;&gt;"", "', textEnAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AN14, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"'"&amp;IF(AB14="○",", sealable: true","")&amp;IF(AC14="○",", removable: true","")&amp;"}")</f>
-        <v/>
+        <f>IF(A14="", "", IF(ROW()&gt;=3, ", ", "")&amp;"'"&amp;A14&amp;"': {megami: '"&amp;B14&amp;"'"&amp;IF(C14&lt;&gt;"",", anotherID: '"&amp;C14&amp;"', replace: '"&amp;D14&amp;"'","")&amp;", name: '"&amp;SUBSTITUTE(E14,"'","\'")&amp;"', nameEn: '"&amp;SUBSTITUTE(K14,"'","\'")&amp;"', nameZh: '"&amp;SUBSTITUTE(G14,"'","\'")&amp;"', nameZhG1: '"&amp;SUBSTITUTE(H14,"'","\'")&amp;"', nameKo: '"&amp;SUBSTITUTE(J14,"'","\'")&amp;"', ruby: '"&amp;F14&amp;"', rubyEn: '"&amp;L14&amp;IF(I14&lt;&gt;"", "', rubyZh: '"&amp;I14, "")&amp;"', baseType: '"&amp;VLOOKUP(M14,マスタ!$A$1:$B$99,2,0)&amp;"'"&amp;IF(N14="○",", extra: true","")&amp;IF(O14&lt;&gt;"",", extraFrom: '"&amp;O14&amp;"'","")&amp;IF(P14&lt;&gt;"",", exchangableTo: '"&amp;P14&amp;"'","")&amp;IF(Q14="○",", poison: true","")&amp;IF(R14&lt;&gt;"", ", type: '"&amp;VLOOKUP(R14,マスタ!$D$1:$E$99,2,0)&amp;"'", "")&amp;IF(S14&lt;&gt;"",", subType: '"&amp;VLOOKUP(S14,マスタ!$D$1:$E$99,2,0)&amp;"'","")&amp;""&amp;IF(T14&lt;&gt;"",", range: '"&amp;T14&amp;"'","")&amp;IF(V14&lt;&gt;"",", damage: '"&amp;V14&amp;"'","")&amp;IF(X14&lt;&gt;"",", capacity: '"&amp;X14&amp;"'","")&amp;IF(Y14&lt;&gt;"",", growth: "&amp;Y14&amp;"","")&amp;IF(Z14&lt;&gt;"",", cost: '"&amp;Z14&amp;"'","")&amp;", text: '"&amp;SUBSTITUTE(SUBSTITUTE(AE14, CHAR(13), ""),CHAR(10),"\n")&amp;IF(AF14&lt;&gt;"", "', textAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AF14, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textZh: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AG14, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;"', textZhG1: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AI14, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AH14&lt;&gt;"", "', textZhAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AH14, CHAR(13), ""),CHAR(10),"\n"), "")&amp;IF(AJ14&lt;&gt;"", "', textZhG1Additional: '"&amp;SUBSTITUTE(SUBSTITUTE(AJ14, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textKo: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AK14, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AL14&lt;&gt;"", "', textKoAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AL14, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textEn: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AM14, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AN14&lt;&gt;"", "', textEnAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AN14, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"'"&amp;IF(AB14="○",", sealable: true","")&amp;IF(AC14="○",", removable: true","")&amp;IF(AA14="○",", lie: true","")&amp;IF(AD14="○",", investable: true","")&amp;"}")</f>
+        <v>, '23-akina-o-n-7': {megami: 'akina', name: '直接金融', nameEn: '', nameZh: '', nameZhG1: '', nameKo: '', ruby: 'ちょくせつきんゆう', rubyEn: '', baseType: 'normal', type: 'enhance', subType: 'fullpower', capacity: '2', text: '投資券\n【展開時】相オーラ→自オーラ：2\n【破棄時】攻撃『適正距離2-5、1/0』を行ってもよい。', textZh: '', textZhG1: '', textKo: '', textEn: '', investable: true}</v>
       </c>
       <c r="AU14" s="5" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v xml:space="preserve">    /** 《直接金融》 */ export const AKINA_O_N_7: TCardId = '23-akina-o-n-7';</v>
       </c>
       <c r="AV14" s="6" t="str">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="15" spans="1:48" ht="60.75" customHeight="1">
-      <c r="A15" s="16"/>
-      <c r="B15" s="16"/>
-      <c r="C15" s="16"/>
-      <c r="D15" s="16"/>
-      <c r="E15" s="16"/>
-      <c r="F15" s="16"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="10"/>
-      <c r="I15" s="17"/>
-      <c r="J15" s="24"/>
-      <c r="K15" s="16"/>
-      <c r="L15" s="16"/>
-      <c r="M15" s="16"/>
-      <c r="N15" s="16"/>
-      <c r="O15" s="16"/>
-      <c r="P15" s="16"/>
-      <c r="Q15" s="16"/>
-      <c r="R15" s="16"/>
-      <c r="S15" s="16"/>
-      <c r="T15" s="16"/>
-      <c r="U15" s="18"/>
-      <c r="V15" s="16"/>
-      <c r="W15" s="18"/>
-      <c r="X15" s="16"/>
-      <c r="Y15" s="16"/>
-      <c r="Z15" s="16"/>
-      <c r="AA15" s="16"/>
-      <c r="AB15" s="16"/>
-      <c r="AC15" s="16"/>
-      <c r="AD15" s="16"/>
-      <c r="AE15" s="21"/>
-      <c r="AF15" s="25"/>
-      <c r="AG15" s="13"/>
-      <c r="AH15" s="25"/>
-      <c r="AI15" s="13"/>
-      <c r="AJ15" s="25"/>
-      <c r="AK15" s="21"/>
-      <c r="AL15" s="25"/>
-      <c r="AM15" s="21"/>
-      <c r="AN15" s="25"/>
-      <c r="AO15" s="18"/>
-      <c r="AP15" s="18"/>
-      <c r="AQ15" s="18"/>
-      <c r="AR15" s="18"/>
-      <c r="AS15" s="18"/>
+        <v xml:space="preserve">    | '23-akina-o-n-7'</v>
+      </c>
+    </row>
+    <row r="15" spans="1:48" s="11" customFormat="1" ht="48">
+      <c r="A15" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="F15" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="G15" s="30"/>
+      <c r="H15" s="31"/>
+      <c r="I15" s="30"/>
+      <c r="J15" s="31"/>
+      <c r="K15" s="32"/>
+      <c r="L15" s="33"/>
+      <c r="M15" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="N15" s="10"/>
+      <c r="O15" s="10"/>
+      <c r="P15" s="10"/>
+      <c r="Q15" s="10"/>
+      <c r="R15" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="S15" s="10"/>
+      <c r="T15" s="10"/>
+      <c r="U15" s="12"/>
+      <c r="V15" s="10"/>
+      <c r="W15" s="12"/>
+      <c r="X15" s="10"/>
+      <c r="Y15" s="10"/>
+      <c r="Z15" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="AA15" s="10"/>
+      <c r="AB15" s="10"/>
+      <c r="AC15" s="10"/>
+      <c r="AD15" s="10"/>
+      <c r="AE15" s="39" t="s">
+        <v>141</v>
+      </c>
+      <c r="AF15" s="34"/>
+      <c r="AG15" s="35"/>
+      <c r="AH15" s="34"/>
+      <c r="AI15" s="36"/>
+      <c r="AJ15" s="34"/>
+      <c r="AK15" s="37"/>
+      <c r="AL15" s="34"/>
+      <c r="AM15" s="38"/>
+      <c r="AN15" s="2"/>
+      <c r="AO15" s="12"/>
+      <c r="AP15" s="12"/>
+      <c r="AQ15" s="12"/>
+      <c r="AR15" s="12"/>
+      <c r="AS15" s="12"/>
       <c r="AT15" s="14" t="str">
-        <f>IF(A15="", "", IF(ROW()&gt;=3, ", ", "")&amp;"'"&amp;A15&amp;"': {megami: '"&amp;B15&amp;"'"&amp;IF(C15&lt;&gt;"",", anotherID: '"&amp;C15&amp;"', replace: '"&amp;D15&amp;"'","")&amp;", name: '"&amp;SUBSTITUTE(E15,"'","\'")&amp;"', nameEn: '"&amp;SUBSTITUTE(K15,"'","\'")&amp;"', nameZh: '"&amp;SUBSTITUTE(G15,"'","\'")&amp;"', nameZhG1: '"&amp;SUBSTITUTE(H15,"'","\'")&amp;"', nameKo: '"&amp;SUBSTITUTE(J15,"'","\'")&amp;"', ruby: '"&amp;F15&amp;"', rubyEn: '"&amp;L15&amp;IF(I15&lt;&gt;"", "', rubyZh: '"&amp;I15, "")&amp;"', baseType: '"&amp;VLOOKUP(M15,マスタ!$A$1:$B$99,2,0)&amp;"'"&amp;IF(N15="○",", extra: true","")&amp;IF(O15&lt;&gt;"",", extraFrom: '"&amp;O15&amp;"'","")&amp;IF(P15&lt;&gt;"",", exchangableTo: '"&amp;P15&amp;"'","")&amp;IF(Q15="○",", poison: true","")&amp;IF(R15&lt;&gt;"", ", type: '"&amp;VLOOKUP(R15,マスタ!$D$1:$E$99,2,0)&amp;"'", "")&amp;IF(S15&lt;&gt;"",", subType: '"&amp;VLOOKUP(S15,マスタ!$D$1:$E$99,2,0)&amp;"'","")&amp;""&amp;IF(T15&lt;&gt;"",", range: '"&amp;T15&amp;"'","")&amp;IF(V15&lt;&gt;"",", damage: '"&amp;V15&amp;"'","")&amp;IF(X15&lt;&gt;"",", capacity: '"&amp;X15&amp;"'","")&amp;IF(Y15&lt;&gt;"",", growth: "&amp;Y15&amp;"","")&amp;IF(Z15&lt;&gt;"",", cost: '"&amp;Z15&amp;"'","")&amp;", text: '"&amp;SUBSTITUTE(SUBSTITUTE(AE15, CHAR(13), ""),CHAR(10),"\n")&amp;IF(AF15&lt;&gt;"", "', textAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AF15, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textZh: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AG15, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;"', textZhG1: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AI15, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AH15&lt;&gt;"", "', textZhAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AH15, CHAR(13), ""),CHAR(10),"\n"), "")&amp;IF(AJ15&lt;&gt;"", "', textZhG1Additional: '"&amp;SUBSTITUTE(SUBSTITUTE(AJ15, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textKo: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AK15, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AL15&lt;&gt;"", "', textKoAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AL15, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textEn: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AM15, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AN15&lt;&gt;"", "', textEnAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AN15, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"'"&amp;IF(AB15="○",", sealable: true","")&amp;IF(AC15="○",", removable: true","")&amp;"}")</f>
-        <v/>
+        <f>IF(A15="", "", IF(ROW()&gt;=3, ", ", "")&amp;"'"&amp;A15&amp;"': {megami: '"&amp;B15&amp;"'"&amp;IF(C15&lt;&gt;"",", anotherID: '"&amp;C15&amp;"', replace: '"&amp;D15&amp;"'","")&amp;", name: '"&amp;SUBSTITUTE(E15,"'","\'")&amp;"', nameEn: '"&amp;SUBSTITUTE(K15,"'","\'")&amp;"', nameZh: '"&amp;SUBSTITUTE(G15,"'","\'")&amp;"', nameZhG1: '"&amp;SUBSTITUTE(H15,"'","\'")&amp;"', nameKo: '"&amp;SUBSTITUTE(J15,"'","\'")&amp;"', ruby: '"&amp;F15&amp;"', rubyEn: '"&amp;L15&amp;IF(I15&lt;&gt;"", "', rubyZh: '"&amp;I15, "")&amp;"', baseType: '"&amp;VLOOKUP(M15,マスタ!$A$1:$B$99,2,0)&amp;"'"&amp;IF(N15="○",", extra: true","")&amp;IF(O15&lt;&gt;"",", extraFrom: '"&amp;O15&amp;"'","")&amp;IF(P15&lt;&gt;"",", exchangableTo: '"&amp;P15&amp;"'","")&amp;IF(Q15="○",", poison: true","")&amp;IF(R15&lt;&gt;"", ", type: '"&amp;VLOOKUP(R15,マスタ!$D$1:$E$99,2,0)&amp;"'", "")&amp;IF(S15&lt;&gt;"",", subType: '"&amp;VLOOKUP(S15,マスタ!$D$1:$E$99,2,0)&amp;"'","")&amp;""&amp;IF(T15&lt;&gt;"",", range: '"&amp;T15&amp;"'","")&amp;IF(V15&lt;&gt;"",", damage: '"&amp;V15&amp;"'","")&amp;IF(X15&lt;&gt;"",", capacity: '"&amp;X15&amp;"'","")&amp;IF(Y15&lt;&gt;"",", growth: "&amp;Y15&amp;"","")&amp;IF(Z15&lt;&gt;"",", cost: '"&amp;Z15&amp;"'","")&amp;", text: '"&amp;SUBSTITUTE(SUBSTITUTE(AE15, CHAR(13), ""),CHAR(10),"\n")&amp;IF(AF15&lt;&gt;"", "', textAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AF15, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textZh: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AG15, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;"', textZhG1: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AI15, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AH15&lt;&gt;"", "', textZhAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AH15, CHAR(13), ""),CHAR(10),"\n"), "")&amp;IF(AJ15&lt;&gt;"", "', textZhG1Additional: '"&amp;SUBSTITUTE(SUBSTITUTE(AJ15, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textKo: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AK15, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AL15&lt;&gt;"", "', textKoAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AL15, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textEn: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AM15, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AN15&lt;&gt;"", "', textEnAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AN15, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"'"&amp;IF(AB15="○",", sealable: true","")&amp;IF(AC15="○",", removable: true","")&amp;IF(AA15="○",", lie: true","")&amp;IF(AD15="○",", investable: true","")&amp;"}")</f>
+        <v>, '23-akina-o-s-1': {megami: 'akina', name: '開方冥式切取法', nameEn: '', nameZh: '', nameZhG1: '', nameKo: '', ruby: 'かいほうめいしききりとりほう', rubyEn: '', baseType: 'special', type: 'action', cost: '時価', text: '攻撃『0-10　-/1、【常時】この《攻撃》が対応されたならば、この攻撃は打ち消される。【常時】この《攻撃》のダメージは変化しない』を行う。その後、あなたの資本が相手の資本より大きいならばこのカードを使用する。\n（消費は支払い、その消費は時価以外で加減されない）', textZh: '', textZhG1: '', textKo: '', textEn: ''}</v>
       </c>
       <c r="AU15" s="5" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v xml:space="preserve">    /** 《開方冥式切取法》 */ export const AKINA_O_S_1: TCardId = '23-akina-o-s-1';</v>
       </c>
       <c r="AV15" s="6" t="str">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="16" spans="1:48">
-      <c r="A16" s="16"/>
-      <c r="B16" s="16"/>
-      <c r="C16" s="16"/>
-      <c r="D16" s="16"/>
-      <c r="E16" s="16"/>
-      <c r="F16" s="16"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="10"/>
-      <c r="I16" s="17"/>
-      <c r="J16" s="24"/>
-      <c r="K16" s="16"/>
-      <c r="L16" s="16"/>
-      <c r="M16" s="16"/>
-      <c r="N16" s="16"/>
-      <c r="O16" s="16"/>
-      <c r="P16" s="16"/>
-      <c r="Q16" s="16"/>
-      <c r="R16" s="16"/>
-      <c r="S16" s="16"/>
-      <c r="T16" s="16"/>
-      <c r="U16" s="18"/>
-      <c r="V16" s="16"/>
-      <c r="W16" s="18"/>
-      <c r="X16" s="16"/>
-      <c r="Y16" s="16"/>
-      <c r="Z16" s="16"/>
-      <c r="AA16" s="16"/>
-      <c r="AB16" s="16"/>
-      <c r="AC16" s="16"/>
-      <c r="AD16" s="16"/>
-      <c r="AE16" s="21"/>
-      <c r="AF16" s="21"/>
-      <c r="AG16" s="13"/>
-      <c r="AH16" s="19"/>
-      <c r="AI16" s="13"/>
-      <c r="AJ16" s="19"/>
-      <c r="AK16" s="21"/>
-      <c r="AL16" s="19"/>
-      <c r="AM16" s="21"/>
-      <c r="AN16" s="19"/>
-      <c r="AO16" s="18"/>
-      <c r="AP16" s="18"/>
-      <c r="AQ16" s="18"/>
-      <c r="AR16" s="18"/>
-      <c r="AS16" s="18"/>
+        <v xml:space="preserve">    | '23-akina-o-s-1'</v>
+      </c>
+    </row>
+    <row r="16" spans="1:48" s="11" customFormat="1" ht="40.5">
+      <c r="A16" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="C16" s="10"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="F16" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="G16" s="30"/>
+      <c r="H16" s="31"/>
+      <c r="I16" s="30"/>
+      <c r="J16" s="31"/>
+      <c r="K16" s="32"/>
+      <c r="L16" s="33"/>
+      <c r="M16" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="N16" s="10"/>
+      <c r="O16" s="10"/>
+      <c r="P16" s="10"/>
+      <c r="Q16" s="10"/>
+      <c r="R16" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="S16" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="T16" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="U16" s="12"/>
+      <c r="V16" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="W16" s="12"/>
+      <c r="X16" s="10"/>
+      <c r="Y16" s="10"/>
+      <c r="Z16" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA16" s="10"/>
+      <c r="AB16" s="10"/>
+      <c r="AC16" s="10"/>
+      <c r="AD16" s="10"/>
+      <c r="AE16" s="39" t="s">
+        <v>142</v>
+      </c>
+      <c r="AF16" s="34"/>
+      <c r="AG16" s="35"/>
+      <c r="AH16" s="34"/>
+      <c r="AI16" s="36"/>
+      <c r="AJ16" s="34"/>
+      <c r="AK16" s="37"/>
+      <c r="AL16" s="34"/>
+      <c r="AM16" s="38"/>
+      <c r="AN16" s="2"/>
+      <c r="AO16" s="12"/>
+      <c r="AP16" s="12"/>
+      <c r="AQ16" s="12"/>
+      <c r="AR16" s="12"/>
+      <c r="AS16" s="12"/>
       <c r="AT16" s="14" t="str">
-        <f>IF(A16="", "", IF(ROW()&gt;=3, ", ", "")&amp;"'"&amp;A16&amp;"': {megami: '"&amp;B16&amp;"'"&amp;IF(C16&lt;&gt;"",", anotherID: '"&amp;C16&amp;"', replace: '"&amp;D16&amp;"'","")&amp;", name: '"&amp;SUBSTITUTE(E16,"'","\'")&amp;"', nameEn: '"&amp;SUBSTITUTE(K16,"'","\'")&amp;"', nameZh: '"&amp;SUBSTITUTE(G16,"'","\'")&amp;"', nameZhG1: '"&amp;SUBSTITUTE(H16,"'","\'")&amp;"', nameKo: '"&amp;SUBSTITUTE(J16,"'","\'")&amp;"', ruby: '"&amp;F16&amp;"', rubyEn: '"&amp;L16&amp;IF(I16&lt;&gt;"", "', rubyZh: '"&amp;I16, "")&amp;"', baseType: '"&amp;VLOOKUP(M16,マスタ!$A$1:$B$99,2,0)&amp;"'"&amp;IF(N16="○",", extra: true","")&amp;IF(O16&lt;&gt;"",", extraFrom: '"&amp;O16&amp;"'","")&amp;IF(P16&lt;&gt;"",", exchangableTo: '"&amp;P16&amp;"'","")&amp;IF(Q16="○",", poison: true","")&amp;IF(R16&lt;&gt;"", ", type: '"&amp;VLOOKUP(R16,マスタ!$D$1:$E$99,2,0)&amp;"'", "")&amp;IF(S16&lt;&gt;"",", subType: '"&amp;VLOOKUP(S16,マスタ!$D$1:$E$99,2,0)&amp;"'","")&amp;""&amp;IF(T16&lt;&gt;"",", range: '"&amp;T16&amp;"'","")&amp;IF(V16&lt;&gt;"",", damage: '"&amp;V16&amp;"'","")&amp;IF(X16&lt;&gt;"",", capacity: '"&amp;X16&amp;"'","")&amp;IF(Y16&lt;&gt;"",", growth: "&amp;Y16&amp;"","")&amp;IF(Z16&lt;&gt;"",", cost: '"&amp;Z16&amp;"'","")&amp;", text: '"&amp;SUBSTITUTE(SUBSTITUTE(AE16, CHAR(13), ""),CHAR(10),"\n")&amp;IF(AF16&lt;&gt;"", "', textAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AF16, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textZh: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AG16, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;"', textZhG1: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AI16, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AH16&lt;&gt;"", "', textZhAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AH16, CHAR(13), ""),CHAR(10),"\n"), "")&amp;IF(AJ16&lt;&gt;"", "', textZhG1Additional: '"&amp;SUBSTITUTE(SUBSTITUTE(AJ16, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textKo: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AK16, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AL16&lt;&gt;"", "', textKoAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AL16, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textEn: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AM16, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AN16&lt;&gt;"", "', textEnAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AN16, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"'"&amp;IF(AB16="○",", sealable: true","")&amp;IF(AC16="○",", removable: true","")&amp;"}")</f>
-        <v/>
+        <f>IF(A16="", "", IF(ROW()&gt;=3, ", ", "")&amp;"'"&amp;A16&amp;"': {megami: '"&amp;B16&amp;"'"&amp;IF(C16&lt;&gt;"",", anotherID: '"&amp;C16&amp;"', replace: '"&amp;D16&amp;"'","")&amp;", name: '"&amp;SUBSTITUTE(E16,"'","\'")&amp;"', nameEn: '"&amp;SUBSTITUTE(K16,"'","\'")&amp;"', nameZh: '"&amp;SUBSTITUTE(G16,"'","\'")&amp;"', nameZhG1: '"&amp;SUBSTITUTE(H16,"'","\'")&amp;"', nameKo: '"&amp;SUBSTITUTE(J16,"'","\'")&amp;"', ruby: '"&amp;F16&amp;"', rubyEn: '"&amp;L16&amp;IF(I16&lt;&gt;"", "', rubyZh: '"&amp;I16, "")&amp;"', baseType: '"&amp;VLOOKUP(M16,マスタ!$A$1:$B$99,2,0)&amp;"'"&amp;IF(N16="○",", extra: true","")&amp;IF(O16&lt;&gt;"",", extraFrom: '"&amp;O16&amp;"'","")&amp;IF(P16&lt;&gt;"",", exchangableTo: '"&amp;P16&amp;"'","")&amp;IF(Q16="○",", poison: true","")&amp;IF(R16&lt;&gt;"", ", type: '"&amp;VLOOKUP(R16,マスタ!$D$1:$E$99,2,0)&amp;"'", "")&amp;IF(S16&lt;&gt;"",", subType: '"&amp;VLOOKUP(S16,マスタ!$D$1:$E$99,2,0)&amp;"'","")&amp;""&amp;IF(T16&lt;&gt;"",", range: '"&amp;T16&amp;"'","")&amp;IF(V16&lt;&gt;"",", damage: '"&amp;V16&amp;"'","")&amp;IF(X16&lt;&gt;"",", capacity: '"&amp;X16&amp;"'","")&amp;IF(Y16&lt;&gt;"",", growth: "&amp;Y16&amp;"","")&amp;IF(Z16&lt;&gt;"",", cost: '"&amp;Z16&amp;"'","")&amp;", text: '"&amp;SUBSTITUTE(SUBSTITUTE(AE16, CHAR(13), ""),CHAR(10),"\n")&amp;IF(AF16&lt;&gt;"", "', textAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AF16, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textZh: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AG16, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;"', textZhG1: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AI16, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AH16&lt;&gt;"", "', textZhAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AH16, CHAR(13), ""),CHAR(10),"\n"), "")&amp;IF(AJ16&lt;&gt;"", "', textZhG1Additional: '"&amp;SUBSTITUTE(SUBSTITUTE(AJ16, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textKo: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AK16, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AL16&lt;&gt;"", "', textKoAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AL16, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textEn: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AM16, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AN16&lt;&gt;"", "', textEnAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AN16, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"'"&amp;IF(AB16="○",", sealable: true","")&amp;IF(AC16="○",", removable: true","")&amp;IF(AA16="○",", lie: true","")&amp;IF(AD16="○",", investable: true","")&amp;"}")</f>
+        <v>, '23-akina-o-s-2': {megami: 'akina', name: '大衍算顆手打表', nameEn: '', nameZh: '', nameZhG1: '', nameKo: '', ruby: 'だいえんさんかてうちひょう', rubyEn: '', baseType: 'special', type: 'attack', subType: 'reaction', range: '0-10', damage: '2/0', cost: '0', text: '【攻撃後】自フレア→自オーラ：1\n自フロー→自オーラ：1\n自ライフ→自オーラ：1', textZh: '', textZhG1: '', textKo: '', textEn: ''}</v>
       </c>
       <c r="AU16" s="5" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v xml:space="preserve">    /** 《大衍算顆手打表》 */ export const AKINA_O_S_2: TCardId = '23-akina-o-s-2';</v>
       </c>
       <c r="AV16" s="6" t="str">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="17" spans="1:48">
-      <c r="A17" s="16"/>
-      <c r="B17" s="16"/>
-      <c r="C17" s="16"/>
-      <c r="D17" s="16"/>
-      <c r="E17" s="16"/>
-      <c r="F17" s="16"/>
-      <c r="G17" s="10"/>
-      <c r="H17" s="10"/>
-      <c r="I17" s="17"/>
-      <c r="J17" s="24"/>
-      <c r="K17" s="16"/>
-      <c r="L17" s="16"/>
-      <c r="M17" s="16"/>
-      <c r="N17" s="16"/>
-      <c r="O17" s="16"/>
-      <c r="P17" s="16"/>
-      <c r="Q17" s="16"/>
-      <c r="R17" s="16"/>
-      <c r="S17" s="16"/>
-      <c r="T17" s="16"/>
-      <c r="U17" s="18"/>
-      <c r="V17" s="16"/>
-      <c r="W17" s="18"/>
-      <c r="X17" s="16"/>
-      <c r="Y17" s="16"/>
-      <c r="Z17" s="16"/>
-      <c r="AA17" s="16"/>
-      <c r="AB17" s="16"/>
-      <c r="AC17" s="16"/>
-      <c r="AD17" s="16"/>
-      <c r="AE17" s="21"/>
-      <c r="AF17" s="21"/>
-      <c r="AG17" s="13"/>
-      <c r="AH17" s="19"/>
-      <c r="AI17" s="13"/>
-      <c r="AJ17" s="19"/>
-      <c r="AK17" s="21"/>
-      <c r="AL17" s="19"/>
-      <c r="AM17" s="21"/>
-      <c r="AN17" s="19"/>
-      <c r="AO17" s="18"/>
-      <c r="AP17" s="18"/>
-      <c r="AQ17" s="18"/>
-      <c r="AR17" s="18"/>
-      <c r="AS17" s="18"/>
+        <v xml:space="preserve">    | '23-akina-o-s-2'</v>
+      </c>
+    </row>
+    <row r="17" spans="1:48" s="11" customFormat="1" ht="60">
+      <c r="A17" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="F17" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="G17" s="30"/>
+      <c r="H17" s="31"/>
+      <c r="I17" s="30"/>
+      <c r="J17" s="31"/>
+      <c r="K17" s="32"/>
+      <c r="L17" s="33"/>
+      <c r="M17" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="N17" s="10"/>
+      <c r="O17" s="10"/>
+      <c r="P17" s="10"/>
+      <c r="Q17" s="10"/>
+      <c r="R17" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="S17" s="10"/>
+      <c r="T17" s="10"/>
+      <c r="U17" s="12"/>
+      <c r="V17" s="10"/>
+      <c r="W17" s="12"/>
+      <c r="X17" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="Y17" s="10"/>
+      <c r="Z17" s="10">
+        <v>1</v>
+      </c>
+      <c r="AA17" s="10"/>
+      <c r="AB17" s="10"/>
+      <c r="AC17" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="AD17" s="10"/>
+      <c r="AE17" s="39" t="s">
+        <v>143</v>
+      </c>
+      <c r="AF17" s="34"/>
+      <c r="AG17" s="35"/>
+      <c r="AH17" s="34"/>
+      <c r="AI17" s="36"/>
+      <c r="AJ17" s="34"/>
+      <c r="AK17" s="37"/>
+      <c r="AL17" s="34"/>
+      <c r="AM17" s="38"/>
+      <c r="AN17" s="2"/>
+      <c r="AO17" s="12"/>
+      <c r="AP17" s="12"/>
+      <c r="AQ17" s="12"/>
+      <c r="AR17" s="12"/>
+      <c r="AS17" s="12"/>
       <c r="AT17" s="14" t="str">
-        <f>IF(A17="", "", IF(ROW()&gt;=3, ", ", "")&amp;"'"&amp;A17&amp;"': {megami: '"&amp;B17&amp;"'"&amp;IF(C17&lt;&gt;"",", anotherID: '"&amp;C17&amp;"', replace: '"&amp;D17&amp;"'","")&amp;", name: '"&amp;SUBSTITUTE(E17,"'","\'")&amp;"', nameEn: '"&amp;SUBSTITUTE(K17,"'","\'")&amp;"', nameZh: '"&amp;SUBSTITUTE(G17,"'","\'")&amp;"', nameZhG1: '"&amp;SUBSTITUTE(H17,"'","\'")&amp;"', nameKo: '"&amp;SUBSTITUTE(J17,"'","\'")&amp;"', ruby: '"&amp;F17&amp;"', rubyEn: '"&amp;L17&amp;IF(I17&lt;&gt;"", "', rubyZh: '"&amp;I17, "")&amp;"', baseType: '"&amp;VLOOKUP(M17,マスタ!$A$1:$B$99,2,0)&amp;"'"&amp;IF(N17="○",", extra: true","")&amp;IF(O17&lt;&gt;"",", extraFrom: '"&amp;O17&amp;"'","")&amp;IF(P17&lt;&gt;"",", exchangableTo: '"&amp;P17&amp;"'","")&amp;IF(Q17="○",", poison: true","")&amp;IF(R17&lt;&gt;"", ", type: '"&amp;VLOOKUP(R17,マスタ!$D$1:$E$99,2,0)&amp;"'", "")&amp;IF(S17&lt;&gt;"",", subType: '"&amp;VLOOKUP(S17,マスタ!$D$1:$E$99,2,0)&amp;"'","")&amp;""&amp;IF(T17&lt;&gt;"",", range: '"&amp;T17&amp;"'","")&amp;IF(V17&lt;&gt;"",", damage: '"&amp;V17&amp;"'","")&amp;IF(X17&lt;&gt;"",", capacity: '"&amp;X17&amp;"'","")&amp;IF(Y17&lt;&gt;"",", growth: "&amp;Y17&amp;"","")&amp;IF(Z17&lt;&gt;"",", cost: '"&amp;Z17&amp;"'","")&amp;", text: '"&amp;SUBSTITUTE(SUBSTITUTE(AE17, CHAR(13), ""),CHAR(10),"\n")&amp;IF(AF17&lt;&gt;"", "', textAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AF17, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textZh: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AG17, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;"', textZhG1: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AI17, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AH17&lt;&gt;"", "', textZhAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AH17, CHAR(13), ""),CHAR(10),"\n"), "")&amp;IF(AJ17&lt;&gt;"", "', textZhG1Additional: '"&amp;SUBSTITUTE(SUBSTITUTE(AJ17, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textKo: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AK17, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AL17&lt;&gt;"", "', textKoAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AL17, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textEn: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AM17, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AN17&lt;&gt;"", "', textEnAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AN17, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"'"&amp;IF(AB17="○",", sealable: true","")&amp;IF(AC17="○",", removable: true","")&amp;"}")</f>
-        <v/>
+        <f>IF(A17="", "", IF(ROW()&gt;=3, ", ", "")&amp;"'"&amp;A17&amp;"': {megami: '"&amp;B17&amp;"'"&amp;IF(C17&lt;&gt;"",", anotherID: '"&amp;C17&amp;"', replace: '"&amp;D17&amp;"'","")&amp;", name: '"&amp;SUBSTITUTE(E17,"'","\'")&amp;"', nameEn: '"&amp;SUBSTITUTE(K17,"'","\'")&amp;"', nameZh: '"&amp;SUBSTITUTE(G17,"'","\'")&amp;"', nameZhG1: '"&amp;SUBSTITUTE(H17,"'","\'")&amp;"', nameKo: '"&amp;SUBSTITUTE(J17,"'","\'")&amp;"', ruby: '"&amp;F17&amp;"', rubyEn: '"&amp;L17&amp;IF(I17&lt;&gt;"", "', rubyZh: '"&amp;I17, "")&amp;"', baseType: '"&amp;VLOOKUP(M17,マスタ!$A$1:$B$99,2,0)&amp;"'"&amp;IF(N17="○",", extra: true","")&amp;IF(O17&lt;&gt;"",", extraFrom: '"&amp;O17&amp;"'","")&amp;IF(P17&lt;&gt;"",", exchangableTo: '"&amp;P17&amp;"'","")&amp;IF(Q17="○",", poison: true","")&amp;IF(R17&lt;&gt;"", ", type: '"&amp;VLOOKUP(R17,マスタ!$D$1:$E$99,2,0)&amp;"'", "")&amp;IF(S17&lt;&gt;"",", subType: '"&amp;VLOOKUP(S17,マスタ!$D$1:$E$99,2,0)&amp;"'","")&amp;""&amp;IF(T17&lt;&gt;"",", range: '"&amp;T17&amp;"'","")&amp;IF(V17&lt;&gt;"",", damage: '"&amp;V17&amp;"'","")&amp;IF(X17&lt;&gt;"",", capacity: '"&amp;X17&amp;"'","")&amp;IF(Y17&lt;&gt;"",", growth: "&amp;Y17&amp;"","")&amp;IF(Z17&lt;&gt;"",", cost: '"&amp;Z17&amp;"'","")&amp;", text: '"&amp;SUBSTITUTE(SUBSTITUTE(AE17, CHAR(13), ""),CHAR(10),"\n")&amp;IF(AF17&lt;&gt;"", "', textAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AF17, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textZh: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AG17, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;"', textZhG1: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AI17, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AH17&lt;&gt;"", "', textZhAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AH17, CHAR(13), ""),CHAR(10),"\n"), "")&amp;IF(AJ17&lt;&gt;"", "', textZhG1Additional: '"&amp;SUBSTITUTE(SUBSTITUTE(AJ17, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textKo: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AK17, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AL17&lt;&gt;"", "', textKoAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AL17, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textEn: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AM17, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AN17&lt;&gt;"", "', textEnAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AN17, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"'"&amp;IF(AB17="○",", sealable: true","")&amp;IF(AC17="○",", removable: true","")&amp;IF(AA17="○",", lie: true","")&amp;IF(AD17="○",", investable: true","")&amp;"}")</f>
+        <v>, '23-akina-o-s-3': {megami: 'akina', name: '衰垜逐肘守料術', nameEn: '', nameZh: '', nameZhG1: '', nameKo: '', ruby: 'すいだちくちゅうもりりょうじゅつ', rubyEn: '', baseType: 'special', type: 'enhance', capacity: '1', cost: '1', text: '【展開時】あなたのライフからフレアへと桜花結晶を4つ移動させる。\n【展開中】このカードの効果以外でこの付与札の上の桜花結晶は移動しない。\n【展開中】あなたのライフが0の時にあなたが敗北するならば、代わりにあなたのフレアからライフへと桜花結晶を4つ移動させる。その後、この上の桜花結晶を全てダストに送り、このカードを取り除く。', textZh: '', textZhG1: '', textKo: '', textEn: '', removable: true}</v>
       </c>
       <c r="AU17" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v/>
+        <f t="shared" ref="AU17:AU29" si="4">IF($A17&lt;&gt;"", "    /** 《"&amp;$E17&amp;"》 */ export const "&amp;SUBSTITUTE(UPPER(IF(MID($A17, 3, 1)="-", RIGHT($A17,LEN($A17)-3), $A17)), "-", "_")&amp;": TCardId = '"&amp;$A17&amp;"';", "")</f>
+        <v xml:space="preserve">    /** 《衰垜逐肘守料術》 */ export const AKINA_O_S_3: TCardId = '23-akina-o-s-3';</v>
       </c>
       <c r="AV17" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="18" spans="1:48">
-      <c r="A18" s="16"/>
-      <c r="B18" s="16"/>
-      <c r="C18" s="16"/>
-      <c r="D18" s="16"/>
-      <c r="E18" s="16"/>
-      <c r="F18" s="16"/>
-      <c r="G18" s="10"/>
-      <c r="H18" s="10"/>
-      <c r="I18" s="17"/>
-      <c r="J18" s="24"/>
-      <c r="K18" s="16"/>
-      <c r="L18" s="16"/>
-      <c r="M18" s="16"/>
-      <c r="N18" s="16"/>
-      <c r="O18" s="16"/>
-      <c r="P18" s="16"/>
-      <c r="Q18" s="16"/>
-      <c r="R18" s="16"/>
-      <c r="S18" s="16"/>
-      <c r="T18" s="16"/>
-      <c r="U18" s="18"/>
-      <c r="V18" s="16"/>
-      <c r="W18" s="18"/>
-      <c r="X18" s="16"/>
-      <c r="Y18" s="16"/>
-      <c r="Z18" s="16"/>
-      <c r="AA18" s="16"/>
-      <c r="AB18" s="16"/>
-      <c r="AC18" s="16"/>
-      <c r="AD18" s="16"/>
-      <c r="AE18" s="21"/>
-      <c r="AF18" s="21"/>
-      <c r="AG18" s="13"/>
-      <c r="AH18" s="19"/>
-      <c r="AI18" s="13"/>
-      <c r="AJ18" s="19"/>
-      <c r="AK18" s="21"/>
-      <c r="AL18" s="19"/>
-      <c r="AM18" s="21"/>
-      <c r="AN18" s="19"/>
-      <c r="AO18" s="18"/>
-      <c r="AP18" s="18"/>
-      <c r="AQ18" s="18"/>
-      <c r="AR18" s="18"/>
-      <c r="AS18" s="18"/>
+        <f t="shared" ref="AV17:AV29" si="5">IF($A17&lt;&gt;"", "    | '"&amp;$A17&amp;"'", "")</f>
+        <v xml:space="preserve">    | '23-akina-o-s-3'</v>
+      </c>
+    </row>
+    <row r="18" spans="1:48" s="11" customFormat="1" ht="66">
+      <c r="A18" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="C18" s="10"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="F18" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="G18" s="30"/>
+      <c r="H18" s="31"/>
+      <c r="I18" s="30"/>
+      <c r="J18" s="31"/>
+      <c r="K18" s="32"/>
+      <c r="L18" s="33"/>
+      <c r="M18" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="N18" s="10"/>
+      <c r="O18" s="10"/>
+      <c r="P18" s="10"/>
+      <c r="Q18" s="10"/>
+      <c r="R18" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="S18" s="10"/>
+      <c r="T18" s="10"/>
+      <c r="U18" s="12"/>
+      <c r="V18" s="10"/>
+      <c r="W18" s="12"/>
+      <c r="X18" s="10"/>
+      <c r="Y18" s="10"/>
+      <c r="Z18" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="AA18" s="10"/>
+      <c r="AB18" s="10"/>
+      <c r="AC18" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="AD18" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="AE18" s="39" t="s">
+        <v>146</v>
+      </c>
+      <c r="AF18" s="34"/>
+      <c r="AG18" s="35"/>
+      <c r="AH18" s="34"/>
+      <c r="AI18" s="36"/>
+      <c r="AJ18" s="34"/>
+      <c r="AK18" s="37"/>
+      <c r="AL18" s="34"/>
+      <c r="AM18" s="38"/>
+      <c r="AN18" s="2"/>
+      <c r="AO18" s="12"/>
+      <c r="AP18" s="12"/>
+      <c r="AQ18" s="12"/>
+      <c r="AR18" s="12"/>
+      <c r="AS18" s="12"/>
       <c r="AT18" s="14" t="str">
-        <f>IF(A18="", "", IF(ROW()&gt;=3, ", ", "")&amp;"'"&amp;A18&amp;"': {megami: '"&amp;B18&amp;"'"&amp;IF(C18&lt;&gt;"",", anotherID: '"&amp;C18&amp;"', replace: '"&amp;D18&amp;"'","")&amp;", name: '"&amp;SUBSTITUTE(E18,"'","\'")&amp;"', nameEn: '"&amp;SUBSTITUTE(K18,"'","\'")&amp;"', nameZh: '"&amp;SUBSTITUTE(G18,"'","\'")&amp;"', nameZhG1: '"&amp;SUBSTITUTE(H18,"'","\'")&amp;"', nameKo: '"&amp;SUBSTITUTE(J18,"'","\'")&amp;"', ruby: '"&amp;F18&amp;"', rubyEn: '"&amp;L18&amp;IF(I18&lt;&gt;"", "', rubyZh: '"&amp;I18, "")&amp;"', baseType: '"&amp;VLOOKUP(M18,マスタ!$A$1:$B$99,2,0)&amp;"'"&amp;IF(N18="○",", extra: true","")&amp;IF(O18&lt;&gt;"",", extraFrom: '"&amp;O18&amp;"'","")&amp;IF(P18&lt;&gt;"",", exchangableTo: '"&amp;P18&amp;"'","")&amp;IF(Q18="○",", poison: true","")&amp;IF(R18&lt;&gt;"", ", type: '"&amp;VLOOKUP(R18,マスタ!$D$1:$E$99,2,0)&amp;"'", "")&amp;IF(S18&lt;&gt;"",", subType: '"&amp;VLOOKUP(S18,マスタ!$D$1:$E$99,2,0)&amp;"'","")&amp;""&amp;IF(T18&lt;&gt;"",", range: '"&amp;T18&amp;"'","")&amp;IF(V18&lt;&gt;"",", damage: '"&amp;V18&amp;"'","")&amp;IF(X18&lt;&gt;"",", capacity: '"&amp;X18&amp;"'","")&amp;IF(Y18&lt;&gt;"",", growth: "&amp;Y18&amp;"","")&amp;IF(Z18&lt;&gt;"",", cost: '"&amp;Z18&amp;"'","")&amp;", text: '"&amp;SUBSTITUTE(SUBSTITUTE(AE18, CHAR(13), ""),CHAR(10),"\n")&amp;IF(AF18&lt;&gt;"", "', textAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AF18, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textZh: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AG18, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;"', textZhG1: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AI18, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AH18&lt;&gt;"", "', textZhAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AH18, CHAR(13), ""),CHAR(10),"\n"), "")&amp;IF(AJ18&lt;&gt;"", "', textZhG1Additional: '"&amp;SUBSTITUTE(SUBSTITUTE(AJ18, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textKo: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AK18, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AL18&lt;&gt;"", "', textKoAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AL18, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textEn: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AM18, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AN18&lt;&gt;"", "', textEnAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AN18, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"'"&amp;IF(AB18="○",", sealable: true","")&amp;IF(AC18="○",", removable: true","")&amp;"}")</f>
-        <v/>
+        <f>IF(A18="", "", IF(ROW()&gt;=3, ", ", "")&amp;"'"&amp;A18&amp;"': {megami: '"&amp;B18&amp;"'"&amp;IF(C18&lt;&gt;"",", anotherID: '"&amp;C18&amp;"', replace: '"&amp;D18&amp;"'","")&amp;", name: '"&amp;SUBSTITUTE(E18,"'","\'")&amp;"', nameEn: '"&amp;SUBSTITUTE(K18,"'","\'")&amp;"', nameZh: '"&amp;SUBSTITUTE(G18,"'","\'")&amp;"', nameZhG1: '"&amp;SUBSTITUTE(H18,"'","\'")&amp;"', nameKo: '"&amp;SUBSTITUTE(J18,"'","\'")&amp;"', ruby: '"&amp;F18&amp;"', rubyEn: '"&amp;L18&amp;IF(I18&lt;&gt;"", "', rubyZh: '"&amp;I18, "")&amp;"', baseType: '"&amp;VLOOKUP(M18,マスタ!$A$1:$B$99,2,0)&amp;"'"&amp;IF(N18="○",", extra: true","")&amp;IF(O18&lt;&gt;"",", extraFrom: '"&amp;O18&amp;"'","")&amp;IF(P18&lt;&gt;"",", exchangableTo: '"&amp;P18&amp;"'","")&amp;IF(Q18="○",", poison: true","")&amp;IF(R18&lt;&gt;"", ", type: '"&amp;VLOOKUP(R18,マスタ!$D$1:$E$99,2,0)&amp;"'", "")&amp;IF(S18&lt;&gt;"",", subType: '"&amp;VLOOKUP(S18,マスタ!$D$1:$E$99,2,0)&amp;"'","")&amp;""&amp;IF(T18&lt;&gt;"",", range: '"&amp;T18&amp;"'","")&amp;IF(V18&lt;&gt;"",", damage: '"&amp;V18&amp;"'","")&amp;IF(X18&lt;&gt;"",", capacity: '"&amp;X18&amp;"'","")&amp;IF(Y18&lt;&gt;"",", growth: "&amp;Y18&amp;"","")&amp;IF(Z18&lt;&gt;"",", cost: '"&amp;Z18&amp;"'","")&amp;", text: '"&amp;SUBSTITUTE(SUBSTITUTE(AE18, CHAR(13), ""),CHAR(10),"\n")&amp;IF(AF18&lt;&gt;"", "', textAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AF18, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textZh: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AG18, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;"', textZhG1: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AI18, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AH18&lt;&gt;"", "', textZhAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AH18, CHAR(13), ""),CHAR(10),"\n"), "")&amp;IF(AJ18&lt;&gt;"", "', textZhG1Additional: '"&amp;SUBSTITUTE(SUBSTITUTE(AJ18, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textKo: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AK18, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AL18&lt;&gt;"", "', textKoAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AL18, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textEn: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AM18, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AN18&lt;&gt;"", "', textEnAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AN18, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"'"&amp;IF(AB18="○",", sealable: true","")&amp;IF(AC18="○",", removable: true","")&amp;IF(AA18="○",", lie: true","")&amp;IF(AD18="○",", investable: true","")&amp;"}")</f>
+        <v>, '23-akina-o-s-4': {megami: 'akina', name: '源上安岐那の御明算', nameEn: '', nameZh: '', nameZhG1: '', nameKo: '', ruby: 'みなかみあきなのごめいさん', rubyEn: '', baseType: 'special', type: 'action', cost: '時価', text: '間合制限（0-7）　投資券\n回収を行ってもよい。そうした場合、基本動作《纏い》を2回まで行い、このカードを取り除く。\n【使用済】あなたの開始フェイズの開始時に基本動作《宿し》を1回行ってもよい。', textZh: '', textZhG1: '', textKo: '', textEn: '', removable: true, investable: true}</v>
       </c>
       <c r="AU18" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v/>
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">    /** 《源上安岐那の御明算》 */ export const AKINA_O_S_4: TCardId = '23-akina-o-s-4';</v>
       </c>
       <c r="AV18" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="19" spans="1:48">
-      <c r="A19" s="16"/>
-      <c r="B19" s="16"/>
-      <c r="C19" s="16"/>
-      <c r="D19" s="16"/>
-      <c r="E19" s="16"/>
-      <c r="F19" s="16"/>
-      <c r="G19" s="10"/>
-      <c r="H19" s="10"/>
-      <c r="I19" s="17"/>
-      <c r="J19" s="24"/>
-      <c r="K19" s="16"/>
-      <c r="L19" s="16"/>
-      <c r="M19" s="16"/>
-      <c r="N19" s="16"/>
-      <c r="O19" s="16"/>
-      <c r="P19" s="16"/>
-      <c r="Q19" s="16"/>
-      <c r="R19" s="16"/>
-      <c r="S19" s="16"/>
-      <c r="T19" s="16"/>
-      <c r="U19" s="18"/>
-      <c r="V19" s="16"/>
-      <c r="W19" s="18"/>
-      <c r="X19" s="16"/>
-      <c r="Y19" s="16"/>
-      <c r="Z19" s="16"/>
-      <c r="AA19" s="16"/>
-      <c r="AB19" s="16"/>
-      <c r="AC19" s="16"/>
-      <c r="AD19" s="16"/>
-      <c r="AE19" s="21"/>
-      <c r="AF19" s="21"/>
-      <c r="AG19" s="13"/>
-      <c r="AH19" s="19"/>
-      <c r="AI19" s="13"/>
-      <c r="AJ19" s="19"/>
-      <c r="AK19" s="21"/>
-      <c r="AL19" s="19"/>
-      <c r="AM19" s="21"/>
-      <c r="AN19" s="19"/>
-      <c r="AO19" s="18"/>
-      <c r="AP19" s="18"/>
-      <c r="AQ19" s="18"/>
-      <c r="AR19" s="18"/>
-      <c r="AS19" s="18"/>
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">    | '23-akina-o-s-4'</v>
+      </c>
+    </row>
+    <row r="19" spans="1:48" s="11" customFormat="1">
+      <c r="A19" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="C19" s="10"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="F19" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="G19" s="30"/>
+      <c r="H19" s="31"/>
+      <c r="I19" s="30"/>
+      <c r="J19" s="31"/>
+      <c r="K19" s="32"/>
+      <c r="L19" s="33"/>
+      <c r="M19" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="N19" s="10"/>
+      <c r="O19" s="10"/>
+      <c r="P19" s="10"/>
+      <c r="Q19" s="10"/>
+      <c r="R19" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="S19" s="10"/>
+      <c r="T19" s="10" t="s">
+        <v>182</v>
+      </c>
+      <c r="U19" s="12"/>
+      <c r="V19" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="W19" s="12"/>
+      <c r="X19" s="10"/>
+      <c r="Y19" s="10"/>
+      <c r="Z19" s="10"/>
+      <c r="AA19" s="10"/>
+      <c r="AB19" s="10"/>
+      <c r="AC19" s="10"/>
+      <c r="AD19" s="10"/>
+      <c r="AE19" s="39"/>
+      <c r="AF19" s="34"/>
+      <c r="AG19" s="35"/>
+      <c r="AH19" s="34"/>
+      <c r="AI19" s="36"/>
+      <c r="AJ19" s="34"/>
+      <c r="AK19" s="37"/>
+      <c r="AL19" s="34"/>
+      <c r="AM19" s="38"/>
+      <c r="AN19" s="2"/>
+      <c r="AO19" s="12"/>
+      <c r="AP19" s="12"/>
+      <c r="AQ19" s="12"/>
+      <c r="AR19" s="12"/>
+      <c r="AS19" s="12"/>
       <c r="AT19" s="14" t="str">
-        <f>IF(A19="", "", IF(ROW()&gt;=3, ", ", "")&amp;"'"&amp;A19&amp;"': {megami: '"&amp;B19&amp;"'"&amp;IF(C19&lt;&gt;"",", anotherID: '"&amp;C19&amp;"', replace: '"&amp;D19&amp;"'","")&amp;", name: '"&amp;SUBSTITUTE(E19,"'","\'")&amp;"', nameEn: '"&amp;SUBSTITUTE(K19,"'","\'")&amp;"', nameZh: '"&amp;SUBSTITUTE(G19,"'","\'")&amp;"', nameZhG1: '"&amp;SUBSTITUTE(H19,"'","\'")&amp;"', nameKo: '"&amp;SUBSTITUTE(J19,"'","\'")&amp;"', ruby: '"&amp;F19&amp;"', rubyEn: '"&amp;L19&amp;IF(I19&lt;&gt;"", "', rubyZh: '"&amp;I19, "")&amp;"', baseType: '"&amp;VLOOKUP(M19,マスタ!$A$1:$B$99,2,0)&amp;"'"&amp;IF(N19="○",", extra: true","")&amp;IF(O19&lt;&gt;"",", extraFrom: '"&amp;O19&amp;"'","")&amp;IF(P19&lt;&gt;"",", exchangableTo: '"&amp;P19&amp;"'","")&amp;IF(Q19="○",", poison: true","")&amp;IF(R19&lt;&gt;"", ", type: '"&amp;VLOOKUP(R19,マスタ!$D$1:$E$99,2,0)&amp;"'", "")&amp;IF(S19&lt;&gt;"",", subType: '"&amp;VLOOKUP(S19,マスタ!$D$1:$E$99,2,0)&amp;"'","")&amp;""&amp;IF(T19&lt;&gt;"",", range: '"&amp;T19&amp;"'","")&amp;IF(V19&lt;&gt;"",", damage: '"&amp;V19&amp;"'","")&amp;IF(X19&lt;&gt;"",", capacity: '"&amp;X19&amp;"'","")&amp;IF(Y19&lt;&gt;"",", growth: "&amp;Y19&amp;"","")&amp;IF(Z19&lt;&gt;"",", cost: '"&amp;Z19&amp;"'","")&amp;", text: '"&amp;SUBSTITUTE(SUBSTITUTE(AE19, CHAR(13), ""),CHAR(10),"\n")&amp;IF(AF19&lt;&gt;"", "', textAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AF19, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textZh: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AG19, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;"', textZhG1: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AI19, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AH19&lt;&gt;"", "', textZhAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AH19, CHAR(13), ""),CHAR(10),"\n"), "")&amp;IF(AJ19&lt;&gt;"", "', textZhG1Additional: '"&amp;SUBSTITUTE(SUBSTITUTE(AJ19, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textKo: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AK19, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AL19&lt;&gt;"", "', textKoAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AL19, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textEn: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AM19, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AN19&lt;&gt;"", "', textEnAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AN19, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"'"&amp;IF(AB19="○",", sealable: true","")&amp;IF(AC19="○",", removable: true","")&amp;"}")</f>
-        <v/>
+        <f>IF(A19="", "", IF(ROW()&gt;=3, ", ", "")&amp;"'"&amp;A19&amp;"': {megami: '"&amp;B19&amp;"'"&amp;IF(C19&lt;&gt;"",", anotherID: '"&amp;C19&amp;"', replace: '"&amp;D19&amp;"'","")&amp;", name: '"&amp;SUBSTITUTE(E19,"'","\'")&amp;"', nameEn: '"&amp;SUBSTITUTE(K19,"'","\'")&amp;"', nameZh: '"&amp;SUBSTITUTE(G19,"'","\'")&amp;"', nameZhG1: '"&amp;SUBSTITUTE(H19,"'","\'")&amp;"', nameKo: '"&amp;SUBSTITUTE(J19,"'","\'")&amp;"', ruby: '"&amp;F19&amp;"', rubyEn: '"&amp;L19&amp;IF(I19&lt;&gt;"", "', rubyZh: '"&amp;I19, "")&amp;"', baseType: '"&amp;VLOOKUP(M19,マスタ!$A$1:$B$99,2,0)&amp;"'"&amp;IF(N19="○",", extra: true","")&amp;IF(O19&lt;&gt;"",", extraFrom: '"&amp;O19&amp;"'","")&amp;IF(P19&lt;&gt;"",", exchangableTo: '"&amp;P19&amp;"'","")&amp;IF(Q19="○",", poison: true","")&amp;IF(R19&lt;&gt;"", ", type: '"&amp;VLOOKUP(R19,マスタ!$D$1:$E$99,2,0)&amp;"'", "")&amp;IF(S19&lt;&gt;"",", subType: '"&amp;VLOOKUP(S19,マスタ!$D$1:$E$99,2,0)&amp;"'","")&amp;""&amp;IF(T19&lt;&gt;"",", range: '"&amp;T19&amp;"'","")&amp;IF(V19&lt;&gt;"",", damage: '"&amp;V19&amp;"'","")&amp;IF(X19&lt;&gt;"",", capacity: '"&amp;X19&amp;"'","")&amp;IF(Y19&lt;&gt;"",", growth: "&amp;Y19&amp;"","")&amp;IF(Z19&lt;&gt;"",", cost: '"&amp;Z19&amp;"'","")&amp;", text: '"&amp;SUBSTITUTE(SUBSTITUTE(AE19, CHAR(13), ""),CHAR(10),"\n")&amp;IF(AF19&lt;&gt;"", "', textAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AF19, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textZh: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AG19, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;"', textZhG1: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AI19, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AH19&lt;&gt;"", "', textZhAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AH19, CHAR(13), ""),CHAR(10),"\n"), "")&amp;IF(AJ19&lt;&gt;"", "', textZhG1Additional: '"&amp;SUBSTITUTE(SUBSTITUTE(AJ19, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textKo: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AK19, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AL19&lt;&gt;"", "', textKoAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AL19, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textEn: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AM19, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AN19&lt;&gt;"", "', textEnAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AN19, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"'"&amp;IF(AB19="○",", sealable: true","")&amp;IF(AC19="○",", removable: true","")&amp;IF(AA19="○",", lie: true","")&amp;IF(AD19="○",", investable: true","")&amp;"}")</f>
+        <v>, '24-shisui-o-n-1': {megami: 'shisui', name: '鋸斬り', nameEn: '', nameZh: '', nameZhG1: '', nameKo: '', ruby: 'のこぎり', rubyEn: '', baseType: 'normal', type: 'attack', range: '2-3', damage: '3/1', text: '', textZh: '', textZhG1: '', textKo: '', textEn: ''}</v>
       </c>
       <c r="AU19" s="5" t="str">
-        <f t="shared" ref="AU19:AU27" si="4">IF($A19&lt;&gt;"", "    /** 《"&amp;$E19&amp;"》 */ export const "&amp;SUBSTITUTE(UPPER(IF(MID($A19, 3, 1)="-", RIGHT($A19,LEN($A19)-3), $A19)), "-", "_")&amp;": TCardId = '"&amp;$A19&amp;"';", "")</f>
-        <v/>
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">    /** 《鋸斬り》 */ export const SHISUI_O_N_1: TCardId = '24-shisui-o-n-1';</v>
       </c>
       <c r="AV19" s="6" t="str">
-        <f t="shared" ref="AV19:AV27" si="5">IF($A19&lt;&gt;"", "    | '"&amp;$A19&amp;"'", "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="20" spans="1:48">
-      <c r="A20" s="16"/>
-      <c r="B20" s="16"/>
-      <c r="C20" s="16"/>
-      <c r="D20" s="16"/>
-      <c r="E20" s="16"/>
-      <c r="F20" s="16"/>
-      <c r="G20" s="10"/>
-      <c r="H20" s="10"/>
-      <c r="I20" s="17"/>
-      <c r="J20" s="24"/>
-      <c r="K20" s="16"/>
-      <c r="L20" s="16"/>
-      <c r="M20" s="16"/>
-      <c r="N20" s="16"/>
-      <c r="O20" s="16"/>
-      <c r="P20" s="16"/>
-      <c r="Q20" s="16"/>
-      <c r="R20" s="16"/>
-      <c r="S20" s="16"/>
-      <c r="T20" s="16"/>
-      <c r="U20" s="18"/>
-      <c r="V20" s="16"/>
-      <c r="W20" s="18"/>
-      <c r="X20" s="16"/>
-      <c r="Y20" s="16"/>
-      <c r="Z20" s="16"/>
-      <c r="AA20" s="16"/>
-      <c r="AB20" s="16"/>
-      <c r="AC20" s="16"/>
-      <c r="AD20" s="16"/>
-      <c r="AE20" s="21"/>
-      <c r="AF20" s="21"/>
-      <c r="AG20" s="13"/>
-      <c r="AH20" s="19"/>
-      <c r="AI20" s="13"/>
-      <c r="AJ20" s="19"/>
-      <c r="AK20" s="21"/>
-      <c r="AL20" s="19"/>
-      <c r="AM20" s="21"/>
-      <c r="AN20" s="19"/>
-      <c r="AO20" s="18"/>
-      <c r="AP20" s="18"/>
-      <c r="AQ20" s="18"/>
-      <c r="AR20" s="18"/>
-      <c r="AS20" s="18"/>
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">    | '24-shisui-o-n-1'</v>
+      </c>
+    </row>
+    <row r="20" spans="1:48" s="11" customFormat="1" ht="36">
+      <c r="A20" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="C20" s="10"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="F20" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="G20" s="30"/>
+      <c r="H20" s="31"/>
+      <c r="I20" s="30"/>
+      <c r="J20" s="31"/>
+      <c r="K20" s="32"/>
+      <c r="L20" s="33"/>
+      <c r="M20" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="N20" s="10"/>
+      <c r="O20" s="10"/>
+      <c r="P20" s="10"/>
+      <c r="Q20" s="10"/>
+      <c r="R20" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="S20" s="10"/>
+      <c r="T20" s="10" t="s">
+        <v>182</v>
+      </c>
+      <c r="U20" s="12"/>
+      <c r="V20" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="W20" s="12"/>
+      <c r="X20" s="10"/>
+      <c r="Y20" s="10"/>
+      <c r="Z20" s="10"/>
+      <c r="AA20" s="10"/>
+      <c r="AB20" s="10"/>
+      <c r="AC20" s="10"/>
+      <c r="AD20" s="10"/>
+      <c r="AE20" s="39" t="s">
+        <v>199</v>
+      </c>
+      <c r="AF20" s="34"/>
+      <c r="AG20" s="35"/>
+      <c r="AH20" s="34"/>
+      <c r="AI20" s="36"/>
+      <c r="AJ20" s="34"/>
+      <c r="AK20" s="37"/>
+      <c r="AL20" s="34"/>
+      <c r="AM20" s="38"/>
+      <c r="AN20" s="2"/>
+      <c r="AO20" s="12"/>
+      <c r="AP20" s="12"/>
+      <c r="AQ20" s="12"/>
+      <c r="AR20" s="12"/>
+      <c r="AS20" s="12"/>
       <c r="AT20" s="14" t="str">
-        <f>IF(A20="", "", IF(ROW()&gt;=3, ", ", "")&amp;"'"&amp;A20&amp;"': {megami: '"&amp;B20&amp;"'"&amp;IF(C20&lt;&gt;"",", anotherID: '"&amp;C20&amp;"', replace: '"&amp;D20&amp;"'","")&amp;", name: '"&amp;SUBSTITUTE(E20,"'","\'")&amp;"', nameEn: '"&amp;SUBSTITUTE(K20,"'","\'")&amp;"', nameZh: '"&amp;SUBSTITUTE(G20,"'","\'")&amp;"', nameZhG1: '"&amp;SUBSTITUTE(H20,"'","\'")&amp;"', nameKo: '"&amp;SUBSTITUTE(J20,"'","\'")&amp;"', ruby: '"&amp;F20&amp;"', rubyEn: '"&amp;L20&amp;IF(I20&lt;&gt;"", "', rubyZh: '"&amp;I20, "")&amp;"', baseType: '"&amp;VLOOKUP(M20,マスタ!$A$1:$B$99,2,0)&amp;"'"&amp;IF(N20="○",", extra: true","")&amp;IF(O20&lt;&gt;"",", extraFrom: '"&amp;O20&amp;"'","")&amp;IF(P20&lt;&gt;"",", exchangableTo: '"&amp;P20&amp;"'","")&amp;IF(Q20="○",", poison: true","")&amp;IF(R20&lt;&gt;"", ", type: '"&amp;VLOOKUP(R20,マスタ!$D$1:$E$99,2,0)&amp;"'", "")&amp;IF(S20&lt;&gt;"",", subType: '"&amp;VLOOKUP(S20,マスタ!$D$1:$E$99,2,0)&amp;"'","")&amp;""&amp;IF(T20&lt;&gt;"",", range: '"&amp;T20&amp;"'","")&amp;IF(V20&lt;&gt;"",", damage: '"&amp;V20&amp;"'","")&amp;IF(X20&lt;&gt;"",", capacity: '"&amp;X20&amp;"'","")&amp;IF(Y20&lt;&gt;"",", growth: "&amp;Y20&amp;"","")&amp;IF(Z20&lt;&gt;"",", cost: '"&amp;Z20&amp;"'","")&amp;", text: '"&amp;SUBSTITUTE(SUBSTITUTE(AE20, CHAR(13), ""),CHAR(10),"\n")&amp;IF(AF20&lt;&gt;"", "', textAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AF20, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textZh: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AG20, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;"', textZhG1: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AI20, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AH20&lt;&gt;"", "', textZhAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AH20, CHAR(13), ""),CHAR(10),"\n"), "")&amp;IF(AJ20&lt;&gt;"", "', textZhG1Additional: '"&amp;SUBSTITUTE(SUBSTITUTE(AJ20, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textKo: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AK20, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AL20&lt;&gt;"", "', textKoAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AL20, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textEn: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AM20, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AN20&lt;&gt;"", "', textEnAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AN20, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"'"&amp;IF(AB20="○",", sealable: true","")&amp;IF(AC20="○",", removable: true","")&amp;"}")</f>
-        <v/>
+        <f>IF(A20="", "", IF(ROW()&gt;=3, ", ", "")&amp;"'"&amp;A20&amp;"': {megami: '"&amp;B20&amp;"'"&amp;IF(C20&lt;&gt;"",", anotherID: '"&amp;C20&amp;"', replace: '"&amp;D20&amp;"'","")&amp;", name: '"&amp;SUBSTITUTE(E20,"'","\'")&amp;"', nameEn: '"&amp;SUBSTITUTE(K20,"'","\'")&amp;"', nameZh: '"&amp;SUBSTITUTE(G20,"'","\'")&amp;"', nameZhG1: '"&amp;SUBSTITUTE(H20,"'","\'")&amp;"', nameKo: '"&amp;SUBSTITUTE(J20,"'","\'")&amp;"', ruby: '"&amp;F20&amp;"', rubyEn: '"&amp;L20&amp;IF(I20&lt;&gt;"", "', rubyZh: '"&amp;I20, "")&amp;"', baseType: '"&amp;VLOOKUP(M20,マスタ!$A$1:$B$99,2,0)&amp;"'"&amp;IF(N20="○",", extra: true","")&amp;IF(O20&lt;&gt;"",", extraFrom: '"&amp;O20&amp;"'","")&amp;IF(P20&lt;&gt;"",", exchangableTo: '"&amp;P20&amp;"'","")&amp;IF(Q20="○",", poison: true","")&amp;IF(R20&lt;&gt;"", ", type: '"&amp;VLOOKUP(R20,マスタ!$D$1:$E$99,2,0)&amp;"'", "")&amp;IF(S20&lt;&gt;"",", subType: '"&amp;VLOOKUP(S20,マスタ!$D$1:$E$99,2,0)&amp;"'","")&amp;""&amp;IF(T20&lt;&gt;"",", range: '"&amp;T20&amp;"'","")&amp;IF(V20&lt;&gt;"",", damage: '"&amp;V20&amp;"'","")&amp;IF(X20&lt;&gt;"",", capacity: '"&amp;X20&amp;"'","")&amp;IF(Y20&lt;&gt;"",", growth: "&amp;Y20&amp;"","")&amp;IF(Z20&lt;&gt;"",", cost: '"&amp;Z20&amp;"'","")&amp;", text: '"&amp;SUBSTITUTE(SUBSTITUTE(AE20, CHAR(13), ""),CHAR(10),"\n")&amp;IF(AF20&lt;&gt;"", "', textAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AF20, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textZh: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AG20, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;"', textZhG1: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AI20, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AH20&lt;&gt;"", "', textZhAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AH20, CHAR(13), ""),CHAR(10),"\n"), "")&amp;IF(AJ20&lt;&gt;"", "', textZhG1Additional: '"&amp;SUBSTITUTE(SUBSTITUTE(AJ20, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textKo: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AK20, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AL20&lt;&gt;"", "', textKoAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AL20, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textEn: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AM20, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AN20&lt;&gt;"", "', textEnAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AN20, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"'"&amp;IF(AB20="○",", sealable: true","")&amp;IF(AC20="○",", removable: true","")&amp;IF(AA20="○",", lie: true","")&amp;IF(AD20="○",", investable: true","")&amp;"}")</f>
+        <v>, '24-shisui-o-n-2': {megami: 'shisui', name: '刻み刃', nameEn: '', nameZh: '', nameZhG1: '', nameKo: '', ruby: 'きざみやいば', rubyEn: '', baseType: 'normal', type: 'attack', range: '2-3', damage: '1~/1~', text: '【攻撃後】攻撃『適正距離2-3、1~/2~、【常時】相手のオーラに置かれたあなたの裂傷トークンの個数が相手のオーラ以上ならば、相手はオーラへのダメージを選べない』を行う。', textZh: '', textZhG1: '', textKo: '', textEn: ''}</v>
       </c>
       <c r="AU20" s="5" t="str">
         <f t="shared" si="4"/>
-        <v/>
+        <v xml:space="preserve">    /** 《刻み刃》 */ export const SHISUI_O_N_2: TCardId = '24-shisui-o-n-2';</v>
       </c>
       <c r="AV20" s="6" t="str">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="21" spans="1:48">
-      <c r="A21" s="16"/>
-      <c r="B21" s="16"/>
-      <c r="C21" s="16"/>
-      <c r="D21" s="16"/>
-      <c r="E21" s="16"/>
-      <c r="F21" s="16"/>
-      <c r="G21" s="10"/>
-      <c r="H21" s="10"/>
-      <c r="I21" s="17"/>
-      <c r="J21" s="24"/>
-      <c r="K21" s="16"/>
-      <c r="L21" s="16"/>
-      <c r="M21" s="16"/>
-      <c r="N21" s="16"/>
-      <c r="O21" s="16"/>
-      <c r="P21" s="16"/>
-      <c r="Q21" s="16"/>
-      <c r="R21" s="16"/>
-      <c r="S21" s="16"/>
-      <c r="T21" s="16"/>
-      <c r="U21" s="18"/>
-      <c r="V21" s="16"/>
-      <c r="W21" s="18"/>
-      <c r="X21" s="16"/>
-      <c r="Y21" s="16"/>
-      <c r="Z21" s="16"/>
-      <c r="AA21" s="16"/>
-      <c r="AB21" s="16"/>
-      <c r="AC21" s="16"/>
-      <c r="AD21" s="16"/>
-      <c r="AE21" s="21"/>
-      <c r="AF21" s="21"/>
-      <c r="AG21" s="13"/>
-      <c r="AH21" s="19"/>
-      <c r="AI21" s="13"/>
-      <c r="AJ21" s="19"/>
-      <c r="AK21" s="21"/>
-      <c r="AL21" s="19"/>
-      <c r="AM21" s="21"/>
-      <c r="AN21" s="19"/>
-      <c r="AO21" s="18"/>
-      <c r="AP21" s="18"/>
-      <c r="AQ21" s="18"/>
-      <c r="AR21" s="18"/>
-      <c r="AS21" s="18"/>
+        <v xml:space="preserve">    | '24-shisui-o-n-2'</v>
+      </c>
+    </row>
+    <row r="21" spans="1:48" s="11" customFormat="1" ht="48">
+      <c r="A21" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="B21" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="C21" s="10"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="10" t="s">
+        <v>166</v>
+      </c>
+      <c r="F21" s="10" t="s">
+        <v>167</v>
+      </c>
+      <c r="G21" s="30"/>
+      <c r="H21" s="31"/>
+      <c r="I21" s="30"/>
+      <c r="J21" s="31"/>
+      <c r="K21" s="32"/>
+      <c r="L21" s="33"/>
+      <c r="M21" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="N21" s="10"/>
+      <c r="O21" s="10"/>
+      <c r="P21" s="10"/>
+      <c r="Q21" s="10"/>
+      <c r="R21" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="S21" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="T21" s="10" t="s">
+        <v>186</v>
+      </c>
+      <c r="U21" s="12"/>
+      <c r="V21" s="10" t="s">
+        <v>187</v>
+      </c>
+      <c r="W21" s="12"/>
+      <c r="X21" s="10"/>
+      <c r="Y21" s="10"/>
+      <c r="Z21" s="10"/>
+      <c r="AA21" s="10"/>
+      <c r="AB21" s="10"/>
+      <c r="AC21" s="10"/>
+      <c r="AD21" s="10"/>
+      <c r="AE21" s="39" t="s">
+        <v>200</v>
+      </c>
+      <c r="AF21" s="34"/>
+      <c r="AG21" s="35"/>
+      <c r="AH21" s="34"/>
+      <c r="AI21" s="36"/>
+      <c r="AJ21" s="34"/>
+      <c r="AK21" s="37"/>
+      <c r="AL21" s="34"/>
+      <c r="AM21" s="38"/>
+      <c r="AN21" s="2"/>
+      <c r="AO21" s="12"/>
+      <c r="AP21" s="12"/>
+      <c r="AQ21" s="12"/>
+      <c r="AR21" s="12"/>
+      <c r="AS21" s="12"/>
       <c r="AT21" s="14" t="str">
-        <f>IF(A21="", "", IF(ROW()&gt;=3, ", ", "")&amp;"'"&amp;A21&amp;"': {megami: '"&amp;B21&amp;"'"&amp;IF(C21&lt;&gt;"",", anotherID: '"&amp;C21&amp;"', replace: '"&amp;D21&amp;"'","")&amp;", name: '"&amp;SUBSTITUTE(E21,"'","\'")&amp;"', nameEn: '"&amp;SUBSTITUTE(K21,"'","\'")&amp;"', nameZh: '"&amp;SUBSTITUTE(G21,"'","\'")&amp;"', nameZhG1: '"&amp;SUBSTITUTE(H21,"'","\'")&amp;"', nameKo: '"&amp;SUBSTITUTE(J21,"'","\'")&amp;"', ruby: '"&amp;F21&amp;"', rubyEn: '"&amp;L21&amp;IF(I21&lt;&gt;"", "', rubyZh: '"&amp;I21, "")&amp;"', baseType: '"&amp;VLOOKUP(M21,マスタ!$A$1:$B$99,2,0)&amp;"'"&amp;IF(N21="○",", extra: true","")&amp;IF(O21&lt;&gt;"",", extraFrom: '"&amp;O21&amp;"'","")&amp;IF(P21&lt;&gt;"",", exchangableTo: '"&amp;P21&amp;"'","")&amp;IF(Q21="○",", poison: true","")&amp;IF(R21&lt;&gt;"", ", type: '"&amp;VLOOKUP(R21,マスタ!$D$1:$E$99,2,0)&amp;"'", "")&amp;IF(S21&lt;&gt;"",", subType: '"&amp;VLOOKUP(S21,マスタ!$D$1:$E$99,2,0)&amp;"'","")&amp;""&amp;IF(T21&lt;&gt;"",", range: '"&amp;T21&amp;"'","")&amp;IF(V21&lt;&gt;"",", damage: '"&amp;V21&amp;"'","")&amp;IF(X21&lt;&gt;"",", capacity: '"&amp;X21&amp;"'","")&amp;IF(Y21&lt;&gt;"",", growth: "&amp;Y21&amp;"","")&amp;IF(Z21&lt;&gt;"",", cost: '"&amp;Z21&amp;"'","")&amp;", text: '"&amp;SUBSTITUTE(SUBSTITUTE(AE21, CHAR(13), ""),CHAR(10),"\n")&amp;IF(AF21&lt;&gt;"", "', textAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AF21, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textZh: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AG21, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;"', textZhG1: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AI21, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AH21&lt;&gt;"", "', textZhAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AH21, CHAR(13), ""),CHAR(10),"\n"), "")&amp;IF(AJ21&lt;&gt;"", "', textZhG1Additional: '"&amp;SUBSTITUTE(SUBSTITUTE(AJ21, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textKo: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AK21, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AL21&lt;&gt;"", "', textKoAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AL21, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textEn: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AM21, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AN21&lt;&gt;"", "', textEnAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AN21, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"'"&amp;IF(AB21="○",", sealable: true","")&amp;IF(AC21="○",", removable: true","")&amp;"}")</f>
-        <v/>
+        <f>IF(A21="", "", IF(ROW()&gt;=3, ", ", "")&amp;"'"&amp;A21&amp;"': {megami: '"&amp;B21&amp;"'"&amp;IF(C21&lt;&gt;"",", anotherID: '"&amp;C21&amp;"', replace: '"&amp;D21&amp;"'","")&amp;", name: '"&amp;SUBSTITUTE(E21,"'","\'")&amp;"', nameEn: '"&amp;SUBSTITUTE(K21,"'","\'")&amp;"', nameZh: '"&amp;SUBSTITUTE(G21,"'","\'")&amp;"', nameZhG1: '"&amp;SUBSTITUTE(H21,"'","\'")&amp;"', nameKo: '"&amp;SUBSTITUTE(J21,"'","\'")&amp;"', ruby: '"&amp;F21&amp;"', rubyEn: '"&amp;L21&amp;IF(I21&lt;&gt;"", "', rubyZh: '"&amp;I21, "")&amp;"', baseType: '"&amp;VLOOKUP(M21,マスタ!$A$1:$B$99,2,0)&amp;"'"&amp;IF(N21="○",", extra: true","")&amp;IF(O21&lt;&gt;"",", extraFrom: '"&amp;O21&amp;"'","")&amp;IF(P21&lt;&gt;"",", exchangableTo: '"&amp;P21&amp;"'","")&amp;IF(Q21="○",", poison: true","")&amp;IF(R21&lt;&gt;"", ", type: '"&amp;VLOOKUP(R21,マスタ!$D$1:$E$99,2,0)&amp;"'", "")&amp;IF(S21&lt;&gt;"",", subType: '"&amp;VLOOKUP(S21,マスタ!$D$1:$E$99,2,0)&amp;"'","")&amp;""&amp;IF(T21&lt;&gt;"",", range: '"&amp;T21&amp;"'","")&amp;IF(V21&lt;&gt;"",", damage: '"&amp;V21&amp;"'","")&amp;IF(X21&lt;&gt;"",", capacity: '"&amp;X21&amp;"'","")&amp;IF(Y21&lt;&gt;"",", growth: "&amp;Y21&amp;"","")&amp;IF(Z21&lt;&gt;"",", cost: '"&amp;Z21&amp;"'","")&amp;", text: '"&amp;SUBSTITUTE(SUBSTITUTE(AE21, CHAR(13), ""),CHAR(10),"\n")&amp;IF(AF21&lt;&gt;"", "', textAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AF21, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textZh: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AG21, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;"', textZhG1: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AI21, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AH21&lt;&gt;"", "', textZhAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AH21, CHAR(13), ""),CHAR(10),"\n"), "")&amp;IF(AJ21&lt;&gt;"", "', textZhG1Additional: '"&amp;SUBSTITUTE(SUBSTITUTE(AJ21, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textKo: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AK21, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AL21&lt;&gt;"", "', textKoAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AL21, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textEn: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AM21, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AN21&lt;&gt;"", "', textEnAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AN21, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"'"&amp;IF(AB21="○",", sealable: true","")&amp;IF(AC21="○",", removable: true","")&amp;IF(AA21="○",", lie: true","")&amp;IF(AD21="○",", investable: true","")&amp;"}")</f>
+        <v>, '24-shisui-o-n-3': {megami: 'shisui', name: '反乱撃', nameEn: '', nameZh: '', nameZhG1: '', nameKo: '', ruby: 'はんらんげき', rubyEn: '', baseType: 'normal', type: 'attack', subType: 'reaction', range: '2-4', damage: '1/1', text: '【常時】あなたがこのターン中にダメージを受けているならば、この《攻撃》は+1/+1となる。\n【攻撃後】あなたがこのターン中にダメージを2回以上受けているならば、基本動作《纏い》を1回行う。', textZh: '', textZhG1: '', textKo: '', textEn: ''}</v>
       </c>
       <c r="AU21" s="5" t="str">
         <f t="shared" si="4"/>
-        <v/>
+        <v xml:space="preserve">    /** 《反乱撃》 */ export const SHISUI_O_N_3: TCardId = '24-shisui-o-n-3';</v>
       </c>
       <c r="AV21" s="6" t="str">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="22" spans="1:48">
-      <c r="A22" s="16"/>
-      <c r="B22" s="16"/>
-      <c r="C22" s="16"/>
-      <c r="D22" s="16"/>
-      <c r="E22" s="16"/>
-      <c r="F22" s="16"/>
-      <c r="G22" s="10"/>
-      <c r="H22" s="10"/>
-      <c r="I22" s="17"/>
-      <c r="J22" s="24"/>
-      <c r="K22" s="16"/>
-      <c r="L22" s="16"/>
-      <c r="M22" s="16"/>
-      <c r="N22" s="16"/>
-      <c r="O22" s="16"/>
-      <c r="P22" s="16"/>
-      <c r="Q22" s="16"/>
-      <c r="R22" s="16"/>
-      <c r="S22" s="16"/>
-      <c r="T22" s="16"/>
-      <c r="U22" s="18"/>
-      <c r="V22" s="16"/>
-      <c r="W22" s="18"/>
-      <c r="X22" s="16"/>
-      <c r="Y22" s="16"/>
-      <c r="Z22" s="16"/>
-      <c r="AA22" s="16"/>
-      <c r="AB22" s="16"/>
-      <c r="AC22" s="16"/>
-      <c r="AD22" s="16"/>
-      <c r="AE22" s="21"/>
-      <c r="AF22" s="21"/>
-      <c r="AG22" s="13"/>
-      <c r="AH22" s="19"/>
-      <c r="AI22" s="13"/>
-      <c r="AJ22" s="19"/>
-      <c r="AK22" s="21"/>
-      <c r="AL22" s="19"/>
-      <c r="AM22" s="21"/>
-      <c r="AN22" s="19"/>
-      <c r="AO22" s="18"/>
-      <c r="AP22" s="18"/>
-      <c r="AQ22" s="18"/>
-      <c r="AR22" s="18"/>
-      <c r="AS22" s="18"/>
+        <v xml:space="preserve">    | '24-shisui-o-n-3'</v>
+      </c>
+    </row>
+    <row r="22" spans="1:48" s="11" customFormat="1" ht="24">
+      <c r="A22" s="10" t="s">
+        <v>153</v>
+      </c>
+      <c r="B22" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="C22" s="10"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="10" t="s">
+        <v>168</v>
+      </c>
+      <c r="F22" s="10" t="s">
+        <v>169</v>
+      </c>
+      <c r="G22" s="30"/>
+      <c r="H22" s="31"/>
+      <c r="I22" s="30"/>
+      <c r="J22" s="31"/>
+      <c r="K22" s="32"/>
+      <c r="L22" s="33"/>
+      <c r="M22" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="N22" s="10"/>
+      <c r="O22" s="10"/>
+      <c r="P22" s="10"/>
+      <c r="Q22" s="10"/>
+      <c r="R22" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="S22" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="T22" s="10" t="s">
+        <v>188</v>
+      </c>
+      <c r="U22" s="12"/>
+      <c r="V22" s="10" t="s">
+        <v>189</v>
+      </c>
+      <c r="W22" s="12"/>
+      <c r="X22" s="10"/>
+      <c r="Y22" s="10"/>
+      <c r="Z22" s="10"/>
+      <c r="AA22" s="10"/>
+      <c r="AB22" s="10"/>
+      <c r="AC22" s="10"/>
+      <c r="AD22" s="10"/>
+      <c r="AE22" s="39" t="s">
+        <v>201</v>
+      </c>
+      <c r="AF22" s="34"/>
+      <c r="AG22" s="35"/>
+      <c r="AH22" s="34"/>
+      <c r="AI22" s="36"/>
+      <c r="AJ22" s="34"/>
+      <c r="AK22" s="37"/>
+      <c r="AL22" s="34"/>
+      <c r="AM22" s="38"/>
+      <c r="AN22" s="2"/>
+      <c r="AO22" s="12"/>
+      <c r="AP22" s="12"/>
+      <c r="AQ22" s="12"/>
+      <c r="AR22" s="12"/>
+      <c r="AS22" s="12"/>
       <c r="AT22" s="14" t="str">
-        <f>IF(A22="", "", IF(ROW()&gt;=3, ", ", "")&amp;"'"&amp;A22&amp;"': {megami: '"&amp;B22&amp;"'"&amp;IF(C22&lt;&gt;"",", anotherID: '"&amp;C22&amp;"', replace: '"&amp;D22&amp;"'","")&amp;", name: '"&amp;SUBSTITUTE(E22,"'","\'")&amp;"', nameEn: '"&amp;SUBSTITUTE(K22,"'","\'")&amp;"', nameZh: '"&amp;SUBSTITUTE(G22,"'","\'")&amp;"', nameZhG1: '"&amp;SUBSTITUTE(H22,"'","\'")&amp;"', nameKo: '"&amp;SUBSTITUTE(J22,"'","\'")&amp;"', ruby: '"&amp;F22&amp;"', rubyEn: '"&amp;L22&amp;IF(I22&lt;&gt;"", "', rubyZh: '"&amp;I22, "")&amp;"', baseType: '"&amp;VLOOKUP(M22,マスタ!$A$1:$B$99,2,0)&amp;"'"&amp;IF(N22="○",", extra: true","")&amp;IF(O22&lt;&gt;"",", extraFrom: '"&amp;O22&amp;"'","")&amp;IF(P22&lt;&gt;"",", exchangableTo: '"&amp;P22&amp;"'","")&amp;IF(Q22="○",", poison: true","")&amp;IF(R22&lt;&gt;"", ", type: '"&amp;VLOOKUP(R22,マスタ!$D$1:$E$99,2,0)&amp;"'", "")&amp;IF(S22&lt;&gt;"",", subType: '"&amp;VLOOKUP(S22,マスタ!$D$1:$E$99,2,0)&amp;"'","")&amp;""&amp;IF(T22&lt;&gt;"",", range: '"&amp;T22&amp;"'","")&amp;IF(V22&lt;&gt;"",", damage: '"&amp;V22&amp;"'","")&amp;IF(X22&lt;&gt;"",", capacity: '"&amp;X22&amp;"'","")&amp;IF(Y22&lt;&gt;"",", growth: "&amp;Y22&amp;"","")&amp;IF(Z22&lt;&gt;"",", cost: '"&amp;Z22&amp;"'","")&amp;", text: '"&amp;SUBSTITUTE(SUBSTITUTE(AE22, CHAR(13), ""),CHAR(10),"\n")&amp;IF(AF22&lt;&gt;"", "', textAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AF22, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textZh: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AG22, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;"', textZhG1: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AI22, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AH22&lt;&gt;"", "', textZhAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AH22, CHAR(13), ""),CHAR(10),"\n"), "")&amp;IF(AJ22&lt;&gt;"", "', textZhG1Additional: '"&amp;SUBSTITUTE(SUBSTITUTE(AJ22, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textKo: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AK22, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AL22&lt;&gt;"", "', textKoAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AL22, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textEn: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AM22, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AN22&lt;&gt;"", "', textEnAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AN22, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"'"&amp;IF(AB22="○",", sealable: true","")&amp;IF(AC22="○",", removable: true","")&amp;"}")</f>
-        <v/>
+        <f>IF(A22="", "", IF(ROW()&gt;=3, ", ", "")&amp;"'"&amp;A22&amp;"': {megami: '"&amp;B22&amp;"'"&amp;IF(C22&lt;&gt;"",", anotherID: '"&amp;C22&amp;"', replace: '"&amp;D22&amp;"'","")&amp;", name: '"&amp;SUBSTITUTE(E22,"'","\'")&amp;"', nameEn: '"&amp;SUBSTITUTE(K22,"'","\'")&amp;"', nameZh: '"&amp;SUBSTITUTE(G22,"'","\'")&amp;"', nameZhG1: '"&amp;SUBSTITUTE(H22,"'","\'")&amp;"', nameKo: '"&amp;SUBSTITUTE(J22,"'","\'")&amp;"', ruby: '"&amp;F22&amp;"', rubyEn: '"&amp;L22&amp;IF(I22&lt;&gt;"", "', rubyZh: '"&amp;I22, "")&amp;"', baseType: '"&amp;VLOOKUP(M22,マスタ!$A$1:$B$99,2,0)&amp;"'"&amp;IF(N22="○",", extra: true","")&amp;IF(O22&lt;&gt;"",", extraFrom: '"&amp;O22&amp;"'","")&amp;IF(P22&lt;&gt;"",", exchangableTo: '"&amp;P22&amp;"'","")&amp;IF(Q22="○",", poison: true","")&amp;IF(R22&lt;&gt;"", ", type: '"&amp;VLOOKUP(R22,マスタ!$D$1:$E$99,2,0)&amp;"'", "")&amp;IF(S22&lt;&gt;"",", subType: '"&amp;VLOOKUP(S22,マスタ!$D$1:$E$99,2,0)&amp;"'","")&amp;""&amp;IF(T22&lt;&gt;"",", range: '"&amp;T22&amp;"'","")&amp;IF(V22&lt;&gt;"",", damage: '"&amp;V22&amp;"'","")&amp;IF(X22&lt;&gt;"",", capacity: '"&amp;X22&amp;"'","")&amp;IF(Y22&lt;&gt;"",", growth: "&amp;Y22&amp;"","")&amp;IF(Z22&lt;&gt;"",", cost: '"&amp;Z22&amp;"'","")&amp;", text: '"&amp;SUBSTITUTE(SUBSTITUTE(AE22, CHAR(13), ""),CHAR(10),"\n")&amp;IF(AF22&lt;&gt;"", "', textAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AF22, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textZh: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AG22, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;"', textZhG1: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AI22, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AH22&lt;&gt;"", "', textZhAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AH22, CHAR(13), ""),CHAR(10),"\n"), "")&amp;IF(AJ22&lt;&gt;"", "', textZhG1Additional: '"&amp;SUBSTITUTE(SUBSTITUTE(AJ22, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textKo: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AK22, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AL22&lt;&gt;"", "', textKoAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AL22, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textEn: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AM22, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AN22&lt;&gt;"", "', textEnAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AN22, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"'"&amp;IF(AB22="○",", sealable: true","")&amp;IF(AC22="○",", removable: true","")&amp;IF(AA22="○",", lie: true","")&amp;IF(AD22="○",", investable: true","")&amp;"}")</f>
+        <v>, '24-shisui-o-n-4': {megami: 'shisui', name: '徹底抗戦', nameEn: '', nameZh: '', nameZhG1: '', nameKo: '', ruby: 'てっていこうせん', rubyEn: '', baseType: 'normal', type: 'attack', subType: 'fullpower', range: '1-7', damage: '2~/3~', text: '対応不可\n【攻撃後】相手を畏縮させ、あなたのオーラかライフかフレアに裂傷を1与える。', textZh: '', textZhG1: '', textKo: '', textEn: ''}</v>
       </c>
       <c r="AU22" s="5" t="str">
         <f t="shared" si="4"/>
-        <v/>
+        <v xml:space="preserve">    /** 《徹底抗戦》 */ export const SHISUI_O_N_4: TCardId = '24-shisui-o-n-4';</v>
       </c>
       <c r="AV22" s="6" t="str">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="23" spans="1:48">
-      <c r="A23" s="16"/>
-      <c r="B23" s="16"/>
-      <c r="C23" s="16"/>
-      <c r="D23" s="16"/>
-      <c r="E23" s="16"/>
-      <c r="F23" s="16"/>
-      <c r="G23" s="10"/>
-      <c r="H23" s="10"/>
-      <c r="I23" s="17"/>
-      <c r="J23" s="24"/>
-      <c r="K23" s="16"/>
-      <c r="L23" s="16"/>
-      <c r="M23" s="16"/>
-      <c r="N23" s="16"/>
-      <c r="O23" s="16"/>
-      <c r="P23" s="16"/>
-      <c r="Q23" s="16"/>
-      <c r="R23" s="16"/>
-      <c r="S23" s="16"/>
-      <c r="T23" s="16"/>
-      <c r="U23" s="18"/>
-      <c r="V23" s="16"/>
-      <c r="W23" s="18"/>
-      <c r="X23" s="16"/>
-      <c r="Y23" s="16"/>
-      <c r="Z23" s="16"/>
-      <c r="AA23" s="16"/>
-      <c r="AB23" s="16"/>
-      <c r="AC23" s="16"/>
-      <c r="AD23" s="16"/>
-      <c r="AE23" s="21"/>
-      <c r="AF23" s="21"/>
-      <c r="AG23" s="13"/>
-      <c r="AH23" s="19"/>
-      <c r="AI23" s="13"/>
-      <c r="AJ23" s="19"/>
-      <c r="AK23" s="21"/>
-      <c r="AL23" s="19"/>
-      <c r="AM23" s="21"/>
-      <c r="AN23" s="19"/>
-      <c r="AO23" s="18"/>
-      <c r="AP23" s="18"/>
-      <c r="AQ23" s="18"/>
-      <c r="AR23" s="18"/>
-      <c r="AS23" s="18"/>
+        <v xml:space="preserve">    | '24-shisui-o-n-4'</v>
+      </c>
+    </row>
+    <row r="23" spans="1:48" s="11" customFormat="1" ht="40.5">
+      <c r="A23" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="B23" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="C23" s="10"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="F23" s="10" t="s">
+        <v>171</v>
+      </c>
+      <c r="G23" s="30"/>
+      <c r="H23" s="31"/>
+      <c r="I23" s="30"/>
+      <c r="J23" s="31"/>
+      <c r="K23" s="32"/>
+      <c r="L23" s="33"/>
+      <c r="M23" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="N23" s="10"/>
+      <c r="O23" s="10"/>
+      <c r="P23" s="10"/>
+      <c r="Q23" s="10"/>
+      <c r="R23" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="S23" s="10"/>
+      <c r="T23" s="10"/>
+      <c r="U23" s="12"/>
+      <c r="V23" s="10"/>
+      <c r="W23" s="12"/>
+      <c r="X23" s="10"/>
+      <c r="Y23" s="10"/>
+      <c r="Z23" s="10"/>
+      <c r="AA23" s="10"/>
+      <c r="AB23" s="10"/>
+      <c r="AC23" s="10"/>
+      <c r="AD23" s="10"/>
+      <c r="AE23" s="40" t="s">
+        <v>202</v>
+      </c>
+      <c r="AF23" s="34"/>
+      <c r="AG23" s="35"/>
+      <c r="AH23" s="34"/>
+      <c r="AI23" s="36"/>
+      <c r="AJ23" s="34"/>
+      <c r="AK23" s="37"/>
+      <c r="AL23" s="34"/>
+      <c r="AM23" s="38"/>
+      <c r="AN23" s="2"/>
+      <c r="AO23" s="12"/>
+      <c r="AP23" s="12"/>
+      <c r="AQ23" s="12"/>
+      <c r="AR23" s="12"/>
+      <c r="AS23" s="12"/>
       <c r="AT23" s="14" t="str">
-        <f>IF(A23="", "", IF(ROW()&gt;=3, ", ", "")&amp;"'"&amp;A23&amp;"': {megami: '"&amp;B23&amp;"'"&amp;IF(C23&lt;&gt;"",", anotherID: '"&amp;C23&amp;"', replace: '"&amp;D23&amp;"'","")&amp;", name: '"&amp;SUBSTITUTE(E23,"'","\'")&amp;"', nameEn: '"&amp;SUBSTITUTE(K23,"'","\'")&amp;"', nameZh: '"&amp;SUBSTITUTE(G23,"'","\'")&amp;"', nameZhG1: '"&amp;SUBSTITUTE(H23,"'","\'")&amp;"', nameKo: '"&amp;SUBSTITUTE(J23,"'","\'")&amp;"', ruby: '"&amp;F23&amp;"', rubyEn: '"&amp;L23&amp;IF(I23&lt;&gt;"", "', rubyZh: '"&amp;I23, "")&amp;"', baseType: '"&amp;VLOOKUP(M23,マスタ!$A$1:$B$99,2,0)&amp;"'"&amp;IF(N23="○",", extra: true","")&amp;IF(O23&lt;&gt;"",", extraFrom: '"&amp;O23&amp;"'","")&amp;IF(P23&lt;&gt;"",", exchangableTo: '"&amp;P23&amp;"'","")&amp;IF(Q23="○",", poison: true","")&amp;IF(R23&lt;&gt;"", ", type: '"&amp;VLOOKUP(R23,マスタ!$D$1:$E$99,2,0)&amp;"'", "")&amp;IF(S23&lt;&gt;"",", subType: '"&amp;VLOOKUP(S23,マスタ!$D$1:$E$99,2,0)&amp;"'","")&amp;""&amp;IF(T23&lt;&gt;"",", range: '"&amp;T23&amp;"'","")&amp;IF(V23&lt;&gt;"",", damage: '"&amp;V23&amp;"'","")&amp;IF(X23&lt;&gt;"",", capacity: '"&amp;X23&amp;"'","")&amp;IF(Y23&lt;&gt;"",", growth: "&amp;Y23&amp;"","")&amp;IF(Z23&lt;&gt;"",", cost: '"&amp;Z23&amp;"'","")&amp;", text: '"&amp;SUBSTITUTE(SUBSTITUTE(AE23, CHAR(13), ""),CHAR(10),"\n")&amp;IF(AF23&lt;&gt;"", "', textAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AF23, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textZh: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AG23, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;"', textZhG1: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AI23, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AH23&lt;&gt;"", "', textZhAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AH23, CHAR(13), ""),CHAR(10),"\n"), "")&amp;IF(AJ23&lt;&gt;"", "', textZhG1Additional: '"&amp;SUBSTITUTE(SUBSTITUTE(AJ23, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textKo: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AK23, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AL23&lt;&gt;"", "', textKoAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AL23, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textEn: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AM23, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AN23&lt;&gt;"", "', textEnAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AN23, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"'"&amp;IF(AB23="○",", sealable: true","")&amp;IF(AC23="○",", removable: true","")&amp;"}")</f>
-        <v/>
+        <f>IF(A23="", "", IF(ROW()&gt;=3, ", ", "")&amp;"'"&amp;A23&amp;"': {megami: '"&amp;B23&amp;"'"&amp;IF(C23&lt;&gt;"",", anotherID: '"&amp;C23&amp;"', replace: '"&amp;D23&amp;"'","")&amp;", name: '"&amp;SUBSTITUTE(E23,"'","\'")&amp;"', nameEn: '"&amp;SUBSTITUTE(K23,"'","\'")&amp;"', nameZh: '"&amp;SUBSTITUTE(G23,"'","\'")&amp;"', nameZhG1: '"&amp;SUBSTITUTE(H23,"'","\'")&amp;"', nameKo: '"&amp;SUBSTITUTE(J23,"'","\'")&amp;"', ruby: '"&amp;F23&amp;"', rubyEn: '"&amp;L23&amp;IF(I23&lt;&gt;"", "', rubyZh: '"&amp;I23, "")&amp;"', baseType: '"&amp;VLOOKUP(M23,マスタ!$A$1:$B$99,2,0)&amp;"'"&amp;IF(N23="○",", extra: true","")&amp;IF(O23&lt;&gt;"",", extraFrom: '"&amp;O23&amp;"'","")&amp;IF(P23&lt;&gt;"",", exchangableTo: '"&amp;P23&amp;"'","")&amp;IF(Q23="○",", poison: true","")&amp;IF(R23&lt;&gt;"", ", type: '"&amp;VLOOKUP(R23,マスタ!$D$1:$E$99,2,0)&amp;"'", "")&amp;IF(S23&lt;&gt;"",", subType: '"&amp;VLOOKUP(S23,マスタ!$D$1:$E$99,2,0)&amp;"'","")&amp;""&amp;IF(T23&lt;&gt;"",", range: '"&amp;T23&amp;"'","")&amp;IF(V23&lt;&gt;"",", damage: '"&amp;V23&amp;"'","")&amp;IF(X23&lt;&gt;"",", capacity: '"&amp;X23&amp;"'","")&amp;IF(Y23&lt;&gt;"",", growth: "&amp;Y23&amp;"","")&amp;IF(Z23&lt;&gt;"",", cost: '"&amp;Z23&amp;"'","")&amp;", text: '"&amp;SUBSTITUTE(SUBSTITUTE(AE23, CHAR(13), ""),CHAR(10),"\n")&amp;IF(AF23&lt;&gt;"", "', textAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AF23, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textZh: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AG23, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;"', textZhG1: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AI23, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AH23&lt;&gt;"", "', textZhAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AH23, CHAR(13), ""),CHAR(10),"\n"), "")&amp;IF(AJ23&lt;&gt;"", "', textZhG1Additional: '"&amp;SUBSTITUTE(SUBSTITUTE(AJ23, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textKo: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AK23, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AL23&lt;&gt;"", "', textKoAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AL23, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textEn: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AM23, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AN23&lt;&gt;"", "', textEnAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AN23, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"'"&amp;IF(AB23="○",", sealable: true","")&amp;IF(AC23="○",", removable: true","")&amp;IF(AA23="○",", lie: true","")&amp;IF(AD23="○",", investable: true","")&amp;"}")</f>
+        <v>, '24-shisui-o-n-5': {megami: 'shisui', name: '茨道', nameEn: '', nameZh: '', nameZhG1: '', nameKo: '', ruby: 'いばらみち', rubyEn: '', baseType: 'normal', type: 'action', text: '間合→ダスト：2\nあなたのオーラかフレアに裂傷を1与える。現在の間合が0ならば、代わりにライフに裂傷を1与える。', textZh: '', textZhG1: '', textKo: '', textEn: ''}</v>
       </c>
       <c r="AU23" s="5" t="str">
         <f t="shared" si="4"/>
-        <v/>
+        <v xml:space="preserve">    /** 《茨道》 */ export const SHISUI_O_N_5: TCardId = '24-shisui-o-n-5';</v>
       </c>
       <c r="AV23" s="6" t="str">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="24" spans="1:48">
-      <c r="A24" s="16"/>
-      <c r="B24" s="16"/>
-      <c r="C24" s="16"/>
-      <c r="D24" s="16"/>
-      <c r="E24" s="16"/>
-      <c r="F24" s="16"/>
-      <c r="G24" s="10"/>
-      <c r="H24" s="10"/>
-      <c r="I24" s="17"/>
-      <c r="J24" s="24"/>
-      <c r="K24" s="16"/>
-      <c r="L24" s="16"/>
-      <c r="M24" s="16"/>
-      <c r="N24" s="16"/>
-      <c r="O24" s="16"/>
-      <c r="P24" s="16"/>
-      <c r="Q24" s="16"/>
-      <c r="R24" s="16"/>
-      <c r="S24" s="16"/>
-      <c r="T24" s="16"/>
-      <c r="U24" s="18"/>
-      <c r="V24" s="16"/>
-      <c r="W24" s="18"/>
-      <c r="X24" s="16"/>
-      <c r="Y24" s="16"/>
-      <c r="Z24" s="16"/>
-      <c r="AA24" s="16"/>
-      <c r="AB24" s="16"/>
-      <c r="AC24" s="16"/>
-      <c r="AD24" s="16"/>
-      <c r="AE24" s="21"/>
-      <c r="AF24" s="21"/>
-      <c r="AG24" s="13"/>
-      <c r="AH24" s="19"/>
-      <c r="AI24" s="13"/>
-      <c r="AJ24" s="19"/>
-      <c r="AK24" s="21"/>
-      <c r="AL24" s="19"/>
-      <c r="AM24" s="21"/>
-      <c r="AN24" s="19"/>
-      <c r="AO24" s="18"/>
-      <c r="AP24" s="18"/>
-      <c r="AQ24" s="18"/>
-      <c r="AR24" s="18"/>
-      <c r="AS24" s="18"/>
+        <v xml:space="preserve">    | '24-shisui-o-n-5'</v>
+      </c>
+    </row>
+    <row r="24" spans="1:48" s="11" customFormat="1" ht="36">
+      <c r="A24" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="B24" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="C24" s="10"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="10" t="s">
+        <v>172</v>
+      </c>
+      <c r="F24" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="G24" s="30"/>
+      <c r="H24" s="31"/>
+      <c r="I24" s="30"/>
+      <c r="J24" s="31"/>
+      <c r="K24" s="32"/>
+      <c r="L24" s="33"/>
+      <c r="M24" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="N24" s="10"/>
+      <c r="O24" s="10"/>
+      <c r="P24" s="10"/>
+      <c r="Q24" s="10"/>
+      <c r="R24" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="S24" s="10"/>
+      <c r="T24" s="10"/>
+      <c r="U24" s="12"/>
+      <c r="V24" s="10"/>
+      <c r="W24" s="12"/>
+      <c r="X24" s="10"/>
+      <c r="Y24" s="10"/>
+      <c r="Z24" s="10"/>
+      <c r="AA24" s="10"/>
+      <c r="AB24" s="10"/>
+      <c r="AC24" s="10"/>
+      <c r="AD24" s="10"/>
+      <c r="AE24" s="39" t="s">
+        <v>203</v>
+      </c>
+      <c r="AF24" s="34"/>
+      <c r="AG24" s="35"/>
+      <c r="AH24" s="34"/>
+      <c r="AI24" s="36"/>
+      <c r="AJ24" s="34"/>
+      <c r="AK24" s="37"/>
+      <c r="AL24" s="34"/>
+      <c r="AM24" s="38"/>
+      <c r="AN24" s="2"/>
+      <c r="AO24" s="12"/>
+      <c r="AP24" s="12"/>
+      <c r="AQ24" s="12"/>
+      <c r="AR24" s="12"/>
+      <c r="AS24" s="12"/>
       <c r="AT24" s="14" t="str">
-        <f>IF(A24="", "", IF(ROW()&gt;=3, ", ", "")&amp;"'"&amp;A24&amp;"': {megami: '"&amp;B24&amp;"'"&amp;IF(C24&lt;&gt;"",", anotherID: '"&amp;C24&amp;"', replace: '"&amp;D24&amp;"'","")&amp;", name: '"&amp;SUBSTITUTE(E24,"'","\'")&amp;"', nameEn: '"&amp;SUBSTITUTE(K24,"'","\'")&amp;"', nameZh: '"&amp;SUBSTITUTE(G24,"'","\'")&amp;"', nameZhG1: '"&amp;SUBSTITUTE(H24,"'","\'")&amp;"', nameKo: '"&amp;SUBSTITUTE(J24,"'","\'")&amp;"', ruby: '"&amp;F24&amp;"', rubyEn: '"&amp;L24&amp;IF(I24&lt;&gt;"", "', rubyZh: '"&amp;I24, "")&amp;"', baseType: '"&amp;VLOOKUP(M24,マスタ!$A$1:$B$99,2,0)&amp;"'"&amp;IF(N24="○",", extra: true","")&amp;IF(O24&lt;&gt;"",", extraFrom: '"&amp;O24&amp;"'","")&amp;IF(P24&lt;&gt;"",", exchangableTo: '"&amp;P24&amp;"'","")&amp;IF(Q24="○",", poison: true","")&amp;IF(R24&lt;&gt;"", ", type: '"&amp;VLOOKUP(R24,マスタ!$D$1:$E$99,2,0)&amp;"'", "")&amp;IF(S24&lt;&gt;"",", subType: '"&amp;VLOOKUP(S24,マスタ!$D$1:$E$99,2,0)&amp;"'","")&amp;""&amp;IF(T24&lt;&gt;"",", range: '"&amp;T24&amp;"'","")&amp;IF(V24&lt;&gt;"",", damage: '"&amp;V24&amp;"'","")&amp;IF(X24&lt;&gt;"",", capacity: '"&amp;X24&amp;"'","")&amp;IF(Y24&lt;&gt;"",", growth: "&amp;Y24&amp;"","")&amp;IF(Z24&lt;&gt;"",", cost: '"&amp;Z24&amp;"'","")&amp;", text: '"&amp;SUBSTITUTE(SUBSTITUTE(AE24, CHAR(13), ""),CHAR(10),"\n")&amp;IF(AF24&lt;&gt;"", "', textAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AF24, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textZh: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AG24, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;"', textZhG1: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AI24, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AH24&lt;&gt;"", "', textZhAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AH24, CHAR(13), ""),CHAR(10),"\n"), "")&amp;IF(AJ24&lt;&gt;"", "', textZhG1Additional: '"&amp;SUBSTITUTE(SUBSTITUTE(AJ24, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textKo: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AK24, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AL24&lt;&gt;"", "', textKoAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AL24, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textEn: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AM24, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AN24&lt;&gt;"", "', textEnAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AN24, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"'"&amp;IF(AB24="○",", sealable: true","")&amp;IF(AC24="○",", removable: true","")&amp;"}")</f>
-        <v/>
+        <f>IF(A24="", "", IF(ROW()&gt;=3, ", ", "")&amp;"'"&amp;A24&amp;"': {megami: '"&amp;B24&amp;"'"&amp;IF(C24&lt;&gt;"",", anotherID: '"&amp;C24&amp;"', replace: '"&amp;D24&amp;"'","")&amp;", name: '"&amp;SUBSTITUTE(E24,"'","\'")&amp;"', nameEn: '"&amp;SUBSTITUTE(K24,"'","\'")&amp;"', nameZh: '"&amp;SUBSTITUTE(G24,"'","\'")&amp;"', nameZhG1: '"&amp;SUBSTITUTE(H24,"'","\'")&amp;"', nameKo: '"&amp;SUBSTITUTE(J24,"'","\'")&amp;"', ruby: '"&amp;F24&amp;"', rubyEn: '"&amp;L24&amp;IF(I24&lt;&gt;"", "', rubyZh: '"&amp;I24, "")&amp;"', baseType: '"&amp;VLOOKUP(M24,マスタ!$A$1:$B$99,2,0)&amp;"'"&amp;IF(N24="○",", extra: true","")&amp;IF(O24&lt;&gt;"",", extraFrom: '"&amp;O24&amp;"'","")&amp;IF(P24&lt;&gt;"",", exchangableTo: '"&amp;P24&amp;"'","")&amp;IF(Q24="○",", poison: true","")&amp;IF(R24&lt;&gt;"", ", type: '"&amp;VLOOKUP(R24,マスタ!$D$1:$E$99,2,0)&amp;"'", "")&amp;IF(S24&lt;&gt;"",", subType: '"&amp;VLOOKUP(S24,マスタ!$D$1:$E$99,2,0)&amp;"'","")&amp;""&amp;IF(T24&lt;&gt;"",", range: '"&amp;T24&amp;"'","")&amp;IF(V24&lt;&gt;"",", damage: '"&amp;V24&amp;"'","")&amp;IF(X24&lt;&gt;"",", capacity: '"&amp;X24&amp;"'","")&amp;IF(Y24&lt;&gt;"",", growth: "&amp;Y24&amp;"","")&amp;IF(Z24&lt;&gt;"",", cost: '"&amp;Z24&amp;"'","")&amp;", text: '"&amp;SUBSTITUTE(SUBSTITUTE(AE24, CHAR(13), ""),CHAR(10),"\n")&amp;IF(AF24&lt;&gt;"", "', textAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AF24, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textZh: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AG24, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;"', textZhG1: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AI24, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AH24&lt;&gt;"", "', textZhAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AH24, CHAR(13), ""),CHAR(10),"\n"), "")&amp;IF(AJ24&lt;&gt;"", "', textZhG1Additional: '"&amp;SUBSTITUTE(SUBSTITUTE(AJ24, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textKo: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AK24, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AL24&lt;&gt;"", "', textKoAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AL24, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textEn: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AM24, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AN24&lt;&gt;"", "', textEnAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AN24, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"'"&amp;IF(AB24="○",", sealable: true","")&amp;IF(AC24="○",", removable: true","")&amp;IF(AA24="○",", lie: true","")&amp;IF(AD24="○",", investable: true","")&amp;"}")</f>
+        <v>, '24-shisui-o-n-6': {megami: 'shisui', name: '金屑纏い', nameEn: '', nameZh: '', nameZhG1: '', nameKo: '', ruby: 'かなくずまとい', rubyEn: '', baseType: 'normal', type: 'action', text: '基本動作《纏い》を2回行う。その後、以下から1つを選ぶ。\n・あなたと相手のオーラに裂傷を1与える。\n・あなたと相手のフレアに裂傷を1与える。', textZh: '', textZhG1: '', textKo: '', textEn: ''}</v>
       </c>
       <c r="AU24" s="5" t="str">
         <f t="shared" si="4"/>
-        <v/>
+        <v xml:space="preserve">    /** 《金屑纏い》 */ export const SHISUI_O_N_6: TCardId = '24-shisui-o-n-6';</v>
       </c>
       <c r="AV24" s="6" t="str">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="25" spans="1:48">
-      <c r="A25" s="16"/>
-      <c r="B25" s="16"/>
-      <c r="C25" s="16"/>
-      <c r="D25" s="16"/>
-      <c r="E25" s="16"/>
-      <c r="F25" s="16"/>
-      <c r="G25" s="10"/>
-      <c r="H25" s="10"/>
-      <c r="I25" s="17"/>
-      <c r="J25" s="24"/>
-      <c r="K25" s="16"/>
-      <c r="L25" s="16"/>
-      <c r="M25" s="16"/>
-      <c r="N25" s="16"/>
-      <c r="O25" s="16"/>
-      <c r="P25" s="16"/>
-      <c r="Q25" s="16"/>
-      <c r="R25" s="16"/>
-      <c r="S25" s="16"/>
-      <c r="T25" s="16"/>
-      <c r="U25" s="18"/>
-      <c r="V25" s="16"/>
-      <c r="W25" s="18"/>
-      <c r="X25" s="16"/>
-      <c r="Y25" s="16"/>
-      <c r="Z25" s="16"/>
-      <c r="AA25" s="16"/>
-      <c r="AB25" s="16"/>
-      <c r="AC25" s="16"/>
-      <c r="AD25" s="16"/>
-      <c r="AE25" s="21"/>
-      <c r="AF25" s="21"/>
-      <c r="AG25" s="13"/>
-      <c r="AH25" s="19"/>
-      <c r="AI25" s="13"/>
-      <c r="AJ25" s="19"/>
-      <c r="AK25" s="21"/>
-      <c r="AL25" s="19"/>
-      <c r="AM25" s="21"/>
-      <c r="AN25" s="19"/>
-      <c r="AO25" s="18"/>
-      <c r="AP25" s="18"/>
-      <c r="AQ25" s="18"/>
-      <c r="AR25" s="18"/>
-      <c r="AS25" s="18"/>
+        <v xml:space="preserve">    | '24-shisui-o-n-6'</v>
+      </c>
+    </row>
+    <row r="25" spans="1:48" s="11" customFormat="1" ht="48">
+      <c r="A25" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="B25" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="C25" s="10"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="10" t="s">
+        <v>173</v>
+      </c>
+      <c r="F25" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="G25" s="30"/>
+      <c r="H25" s="31"/>
+      <c r="I25" s="30"/>
+      <c r="J25" s="31"/>
+      <c r="K25" s="32"/>
+      <c r="L25" s="33"/>
+      <c r="M25" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="N25" s="10"/>
+      <c r="O25" s="10"/>
+      <c r="P25" s="10"/>
+      <c r="Q25" s="10"/>
+      <c r="R25" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="S25" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="T25" s="10"/>
+      <c r="U25" s="12"/>
+      <c r="V25" s="10"/>
+      <c r="W25" s="12"/>
+      <c r="X25" s="10" t="s">
+        <v>190</v>
+      </c>
+      <c r="Y25" s="10"/>
+      <c r="Z25" s="10"/>
+      <c r="AA25" s="10"/>
+      <c r="AB25" s="10"/>
+      <c r="AC25" s="10"/>
+      <c r="AD25" s="10"/>
+      <c r="AE25" s="39" t="s">
+        <v>204</v>
+      </c>
+      <c r="AF25" s="34"/>
+      <c r="AG25" s="35"/>
+      <c r="AH25" s="34"/>
+      <c r="AI25" s="36"/>
+      <c r="AJ25" s="34"/>
+      <c r="AK25" s="37"/>
+      <c r="AL25" s="34"/>
+      <c r="AM25" s="38"/>
+      <c r="AN25" s="2"/>
+      <c r="AO25" s="12"/>
+      <c r="AP25" s="12"/>
+      <c r="AQ25" s="12"/>
+      <c r="AR25" s="12"/>
+      <c r="AS25" s="12"/>
       <c r="AT25" s="14" t="str">
-        <f>IF(A25="", "", IF(ROW()&gt;=3, ", ", "")&amp;"'"&amp;A25&amp;"': {megami: '"&amp;B25&amp;"'"&amp;IF(C25&lt;&gt;"",", anotherID: '"&amp;C25&amp;"', replace: '"&amp;D25&amp;"'","")&amp;", name: '"&amp;SUBSTITUTE(E25,"'","\'")&amp;"', nameEn: '"&amp;SUBSTITUTE(K25,"'","\'")&amp;"', nameZh: '"&amp;SUBSTITUTE(G25,"'","\'")&amp;"', nameZhG1: '"&amp;SUBSTITUTE(H25,"'","\'")&amp;"', nameKo: '"&amp;SUBSTITUTE(J25,"'","\'")&amp;"', ruby: '"&amp;F25&amp;"', rubyEn: '"&amp;L25&amp;IF(I25&lt;&gt;"", "', rubyZh: '"&amp;I25, "")&amp;"', baseType: '"&amp;VLOOKUP(M25,マスタ!$A$1:$B$99,2,0)&amp;"'"&amp;IF(N25="○",", extra: true","")&amp;IF(O25&lt;&gt;"",", extraFrom: '"&amp;O25&amp;"'","")&amp;IF(P25&lt;&gt;"",", exchangableTo: '"&amp;P25&amp;"'","")&amp;IF(Q25="○",", poison: true","")&amp;IF(R25&lt;&gt;"", ", type: '"&amp;VLOOKUP(R25,マスタ!$D$1:$E$99,2,0)&amp;"'", "")&amp;IF(S25&lt;&gt;"",", subType: '"&amp;VLOOKUP(S25,マスタ!$D$1:$E$99,2,0)&amp;"'","")&amp;""&amp;IF(T25&lt;&gt;"",", range: '"&amp;T25&amp;"'","")&amp;IF(V25&lt;&gt;"",", damage: '"&amp;V25&amp;"'","")&amp;IF(X25&lt;&gt;"",", capacity: '"&amp;X25&amp;"'","")&amp;IF(Y25&lt;&gt;"",", growth: "&amp;Y25&amp;"","")&amp;IF(Z25&lt;&gt;"",", cost: '"&amp;Z25&amp;"'","")&amp;", text: '"&amp;SUBSTITUTE(SUBSTITUTE(AE25, CHAR(13), ""),CHAR(10),"\n")&amp;IF(AF25&lt;&gt;"", "', textAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AF25, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textZh: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AG25, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;"', textZhG1: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AI25, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AH25&lt;&gt;"", "', textZhAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AH25, CHAR(13), ""),CHAR(10),"\n"), "")&amp;IF(AJ25&lt;&gt;"", "', textZhG1Additional: '"&amp;SUBSTITUTE(SUBSTITUTE(AJ25, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textKo: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AK25, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AL25&lt;&gt;"", "', textKoAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AL25, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textEn: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AM25, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AN25&lt;&gt;"", "', textEnAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AN25, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"'"&amp;IF(AB25="○",", sealable: true","")&amp;IF(AC25="○",", removable: true","")&amp;"}")</f>
-        <v/>
+        <f>IF(A25="", "", IF(ROW()&gt;=3, ", ", "")&amp;"'"&amp;A25&amp;"': {megami: '"&amp;B25&amp;"'"&amp;IF(C25&lt;&gt;"",", anotherID: '"&amp;C25&amp;"', replace: '"&amp;D25&amp;"'","")&amp;", name: '"&amp;SUBSTITUTE(E25,"'","\'")&amp;"', nameEn: '"&amp;SUBSTITUTE(K25,"'","\'")&amp;"', nameZh: '"&amp;SUBSTITUTE(G25,"'","\'")&amp;"', nameZhG1: '"&amp;SUBSTITUTE(H25,"'","\'")&amp;"', nameKo: '"&amp;SUBSTITUTE(J25,"'","\'")&amp;"', ruby: '"&amp;F25&amp;"', rubyEn: '"&amp;L25&amp;IF(I25&lt;&gt;"", "', rubyZh: '"&amp;I25, "")&amp;"', baseType: '"&amp;VLOOKUP(M25,マスタ!$A$1:$B$99,2,0)&amp;"'"&amp;IF(N25="○",", extra: true","")&amp;IF(O25&lt;&gt;"",", extraFrom: '"&amp;O25&amp;"'","")&amp;IF(P25&lt;&gt;"",", exchangableTo: '"&amp;P25&amp;"'","")&amp;IF(Q25="○",", poison: true","")&amp;IF(R25&lt;&gt;"", ", type: '"&amp;VLOOKUP(R25,マスタ!$D$1:$E$99,2,0)&amp;"'", "")&amp;IF(S25&lt;&gt;"",", subType: '"&amp;VLOOKUP(S25,マスタ!$D$1:$E$99,2,0)&amp;"'","")&amp;""&amp;IF(T25&lt;&gt;"",", range: '"&amp;T25&amp;"'","")&amp;IF(V25&lt;&gt;"",", damage: '"&amp;V25&amp;"'","")&amp;IF(X25&lt;&gt;"",", capacity: '"&amp;X25&amp;"'","")&amp;IF(Y25&lt;&gt;"",", growth: "&amp;Y25&amp;"","")&amp;IF(Z25&lt;&gt;"",", cost: '"&amp;Z25&amp;"'","")&amp;", text: '"&amp;SUBSTITUTE(SUBSTITUTE(AE25, CHAR(13), ""),CHAR(10),"\n")&amp;IF(AF25&lt;&gt;"", "', textAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AF25, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textZh: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AG25, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;"', textZhG1: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AI25, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AH25&lt;&gt;"", "', textZhAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AH25, CHAR(13), ""),CHAR(10),"\n"), "")&amp;IF(AJ25&lt;&gt;"", "', textZhG1Additional: '"&amp;SUBSTITUTE(SUBSTITUTE(AJ25, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textKo: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AK25, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AL25&lt;&gt;"", "', textKoAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AL25, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textEn: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AM25, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AN25&lt;&gt;"", "', textEnAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AN25, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"'"&amp;IF(AB25="○",", sealable: true","")&amp;IF(AC25="○",", removable: true","")&amp;IF(AA25="○",", lie: true","")&amp;IF(AD25="○",", investable: true","")&amp;"}")</f>
+        <v>, '24-shisui-o-n-7': {megami: 'shisui', name: '黒き鎧', nameEn: '', nameZh: '', nameZhG1: '', nameKo: '', ruby: 'くろきよろい', rubyEn: '', baseType: 'normal', type: 'enhance', subType: 'reaction', capacity: '0', text: '【展開時】このカードの上に桜花結晶をX個ダストから置く。Xはあなたがこのターン中にダメージを受けた回数の2倍に等しい。Xが4以上ならばもう1つ置く。\n【展開中】相手の《攻撃》は+0/-1となり、その解決後にこの付与札の上の桜花結晶を2つダストに送る。', textZh: '', textZhG1: '', textKo: '', textEn: ''}</v>
       </c>
       <c r="AU25" s="5" t="str">
         <f t="shared" si="4"/>
-        <v/>
+        <v xml:space="preserve">    /** 《黒き鎧》 */ export const SHISUI_O_N_7: TCardId = '24-shisui-o-n-7';</v>
       </c>
       <c r="AV25" s="6" t="str">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="26" spans="1:48">
-      <c r="A26" s="16"/>
-      <c r="B26" s="16"/>
-      <c r="C26" s="16"/>
-      <c r="D26" s="16"/>
-      <c r="E26" s="16"/>
-      <c r="F26" s="16"/>
-      <c r="G26" s="10"/>
-      <c r="H26" s="10"/>
-      <c r="I26" s="17"/>
-      <c r="J26" s="24"/>
-      <c r="K26" s="16"/>
-      <c r="L26" s="16"/>
-      <c r="M26" s="16"/>
-      <c r="N26" s="16"/>
-      <c r="O26" s="16"/>
-      <c r="P26" s="16"/>
-      <c r="Q26" s="16"/>
-      <c r="R26" s="16"/>
-      <c r="S26" s="16"/>
-      <c r="T26" s="16"/>
-      <c r="U26" s="18"/>
-      <c r="V26" s="16"/>
-      <c r="W26" s="18"/>
-      <c r="X26" s="16"/>
-      <c r="Y26" s="16"/>
-      <c r="Z26" s="16"/>
-      <c r="AA26" s="16"/>
-      <c r="AB26" s="16"/>
-      <c r="AC26" s="16"/>
-      <c r="AD26" s="16"/>
-      <c r="AE26" s="21"/>
-      <c r="AF26" s="21"/>
-      <c r="AG26" s="13"/>
-      <c r="AH26" s="19"/>
-      <c r="AI26" s="13"/>
-      <c r="AJ26" s="19"/>
-      <c r="AK26" s="21"/>
-      <c r="AL26" s="19"/>
-      <c r="AM26" s="21"/>
-      <c r="AN26" s="19"/>
-      <c r="AO26" s="18"/>
-      <c r="AP26" s="18"/>
-      <c r="AQ26" s="18"/>
-      <c r="AR26" s="18"/>
-      <c r="AS26" s="18"/>
+        <v xml:space="preserve">    | '24-shisui-o-n-7'</v>
+      </c>
+    </row>
+    <row r="26" spans="1:48" s="11" customFormat="1" ht="72">
+      <c r="A26" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="B26" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="C26" s="10"/>
+      <c r="D26" s="10"/>
+      <c r="E26" s="10" t="s">
+        <v>174</v>
+      </c>
+      <c r="F26" s="10"/>
+      <c r="G26" s="30"/>
+      <c r="H26" s="31"/>
+      <c r="I26" s="30"/>
+      <c r="J26" s="31"/>
+      <c r="K26" s="32"/>
+      <c r="L26" s="33"/>
+      <c r="M26" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="N26" s="10"/>
+      <c r="O26" s="10"/>
+      <c r="P26" s="10"/>
+      <c r="Q26" s="10"/>
+      <c r="R26" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="S26" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="T26" s="10"/>
+      <c r="U26" s="12"/>
+      <c r="V26" s="10"/>
+      <c r="W26" s="12"/>
+      <c r="X26" s="10"/>
+      <c r="Y26" s="10"/>
+      <c r="Z26" s="10" t="s">
+        <v>192</v>
+      </c>
+      <c r="AA26" s="10"/>
+      <c r="AB26" s="10"/>
+      <c r="AC26" s="10"/>
+      <c r="AD26" s="10"/>
+      <c r="AE26" s="39" t="s">
+        <v>205</v>
+      </c>
+      <c r="AF26" s="34"/>
+      <c r="AG26" s="35"/>
+      <c r="AH26" s="34"/>
+      <c r="AI26" s="36"/>
+      <c r="AJ26" s="34"/>
+      <c r="AK26" s="37"/>
+      <c r="AL26" s="34"/>
+      <c r="AM26" s="38"/>
+      <c r="AN26" s="2"/>
+      <c r="AO26" s="12"/>
+      <c r="AP26" s="12"/>
+      <c r="AQ26" s="12"/>
+      <c r="AR26" s="12"/>
+      <c r="AS26" s="12"/>
       <c r="AT26" s="14" t="str">
-        <f>IF(A26="", "", IF(ROW()&gt;=3, ", ", "")&amp;"'"&amp;A26&amp;"': {megami: '"&amp;B26&amp;"'"&amp;IF(C26&lt;&gt;"",", anotherID: '"&amp;C26&amp;"', replace: '"&amp;D26&amp;"'","")&amp;", name: '"&amp;SUBSTITUTE(E26,"'","\'")&amp;"', nameEn: '"&amp;SUBSTITUTE(K26,"'","\'")&amp;"', nameZh: '"&amp;SUBSTITUTE(G26,"'","\'")&amp;"', nameZhG1: '"&amp;SUBSTITUTE(H26,"'","\'")&amp;"', nameKo: '"&amp;SUBSTITUTE(J26,"'","\'")&amp;"', ruby: '"&amp;F26&amp;"', rubyEn: '"&amp;L26&amp;IF(I26&lt;&gt;"", "', rubyZh: '"&amp;I26, "")&amp;"', baseType: '"&amp;VLOOKUP(M26,マスタ!$A$1:$B$99,2,0)&amp;"'"&amp;IF(N26="○",", extra: true","")&amp;IF(O26&lt;&gt;"",", extraFrom: '"&amp;O26&amp;"'","")&amp;IF(P26&lt;&gt;"",", exchangableTo: '"&amp;P26&amp;"'","")&amp;IF(Q26="○",", poison: true","")&amp;IF(R26&lt;&gt;"", ", type: '"&amp;VLOOKUP(R26,マスタ!$D$1:$E$99,2,0)&amp;"'", "")&amp;IF(S26&lt;&gt;"",", subType: '"&amp;VLOOKUP(S26,マスタ!$D$1:$E$99,2,0)&amp;"'","")&amp;""&amp;IF(T26&lt;&gt;"",", range: '"&amp;T26&amp;"'","")&amp;IF(V26&lt;&gt;"",", damage: '"&amp;V26&amp;"'","")&amp;IF(X26&lt;&gt;"",", capacity: '"&amp;X26&amp;"'","")&amp;IF(Y26&lt;&gt;"",", growth: "&amp;Y26&amp;"","")&amp;IF(Z26&lt;&gt;"",", cost: '"&amp;Z26&amp;"'","")&amp;", text: '"&amp;SUBSTITUTE(SUBSTITUTE(AE26, CHAR(13), ""),CHAR(10),"\n")&amp;IF(AF26&lt;&gt;"", "', textAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AF26, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textZh: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AG26, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;"', textZhG1: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AI26, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AH26&lt;&gt;"", "', textZhAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AH26, CHAR(13), ""),CHAR(10),"\n"), "")&amp;IF(AJ26&lt;&gt;"", "', textZhG1Additional: '"&amp;SUBSTITUTE(SUBSTITUTE(AJ26, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textKo: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AK26, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AL26&lt;&gt;"", "', textKoAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AL26, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textEn: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AM26, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AN26&lt;&gt;"", "', textEnAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AN26, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"'"&amp;IF(AB26="○",", sealable: true","")&amp;IF(AC26="○",", removable: true","")&amp;"}")</f>
-        <v/>
+        <f>IF(A26="", "", IF(ROW()&gt;=3, ", ", "")&amp;"'"&amp;A26&amp;"': {megami: '"&amp;B26&amp;"'"&amp;IF(C26&lt;&gt;"",", anotherID: '"&amp;C26&amp;"', replace: '"&amp;D26&amp;"'","")&amp;", name: '"&amp;SUBSTITUTE(E26,"'","\'")&amp;"', nameEn: '"&amp;SUBSTITUTE(K26,"'","\'")&amp;"', nameZh: '"&amp;SUBSTITUTE(G26,"'","\'")&amp;"', nameZhG1: '"&amp;SUBSTITUTE(H26,"'","\'")&amp;"', nameKo: '"&amp;SUBSTITUTE(J26,"'","\'")&amp;"', ruby: '"&amp;F26&amp;"', rubyEn: '"&amp;L26&amp;IF(I26&lt;&gt;"", "', rubyZh: '"&amp;I26, "")&amp;"', baseType: '"&amp;VLOOKUP(M26,マスタ!$A$1:$B$99,2,0)&amp;"'"&amp;IF(N26="○",", extra: true","")&amp;IF(O26&lt;&gt;"",", extraFrom: '"&amp;O26&amp;"'","")&amp;IF(P26&lt;&gt;"",", exchangableTo: '"&amp;P26&amp;"'","")&amp;IF(Q26="○",", poison: true","")&amp;IF(R26&lt;&gt;"", ", type: '"&amp;VLOOKUP(R26,マスタ!$D$1:$E$99,2,0)&amp;"'", "")&amp;IF(S26&lt;&gt;"",", subType: '"&amp;VLOOKUP(S26,マスタ!$D$1:$E$99,2,0)&amp;"'","")&amp;""&amp;IF(T26&lt;&gt;"",", range: '"&amp;T26&amp;"'","")&amp;IF(V26&lt;&gt;"",", damage: '"&amp;V26&amp;"'","")&amp;IF(X26&lt;&gt;"",", capacity: '"&amp;X26&amp;"'","")&amp;IF(Y26&lt;&gt;"",", growth: "&amp;Y26&amp;"","")&amp;IF(Z26&lt;&gt;"",", cost: '"&amp;Z26&amp;"'","")&amp;", text: '"&amp;SUBSTITUTE(SUBSTITUTE(AE26, CHAR(13), ""),CHAR(10),"\n")&amp;IF(AF26&lt;&gt;"", "', textAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AF26, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textZh: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AG26, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;"', textZhG1: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AI26, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AH26&lt;&gt;"", "', textZhAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AH26, CHAR(13), ""),CHAR(10),"\n"), "")&amp;IF(AJ26&lt;&gt;"", "', textZhG1Additional: '"&amp;SUBSTITUTE(SUBSTITUTE(AJ26, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textKo: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AK26, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AL26&lt;&gt;"", "', textKoAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AL26, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textEn: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AM26, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AN26&lt;&gt;"", "', textEnAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AN26, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"'"&amp;IF(AB26="○",", sealable: true","")&amp;IF(AC26="○",", removable: true","")&amp;IF(AA26="○",", lie: true","")&amp;IF(AD26="○",", investable: true","")&amp;"}")</f>
+        <v>, '24-shisui-o-s-1': {megami: 'shisui', name: 'ハドマギリ', nameEn: '', nameZh: '', nameZhG1: '', nameKo: '', ruby: '', rubyEn: '', baseType: 'special', type: 'action', subType: 'reaction', cost: '3', text: '【常時】このカードが対応している《攻撃》があるならば、その《攻撃》の解決後にこのカードの効果を解決する。\n任意の数の領域を選び、それらに置かれたあなたの裂傷トークンを任意の順でダメージ化する。その後、攻撃『適正距離1-4、2/1、対応不可（通常札）、【常時】この《攻撃》は+0/+Xとなる。Xはあなたがこのターン中にダメージを受けた回数の半分（切り上げ）に等しい』を行う。', textZh: '', textZhG1: '', textKo: '', textEn: ''}</v>
       </c>
       <c r="AU26" s="5" t="str">
         <f t="shared" si="4"/>
-        <v/>
+        <v xml:space="preserve">    /** 《ハドマギリ》 */ export const SHISUI_O_S_1: TCardId = '24-shisui-o-s-1';</v>
       </c>
       <c r="AV26" s="6" t="str">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="27" spans="1:48">
-      <c r="A27" s="16"/>
-      <c r="B27" s="16"/>
-      <c r="C27" s="16"/>
-      <c r="D27" s="16"/>
-      <c r="E27" s="16"/>
-      <c r="F27" s="16"/>
-      <c r="G27" s="10"/>
-      <c r="H27" s="10"/>
-      <c r="I27" s="17"/>
-      <c r="J27" s="24"/>
-      <c r="K27" s="16"/>
-      <c r="L27" s="16"/>
-      <c r="M27" s="16"/>
-      <c r="N27" s="16"/>
-      <c r="O27" s="16"/>
-      <c r="P27" s="16"/>
-      <c r="Q27" s="16"/>
-      <c r="R27" s="16"/>
-      <c r="S27" s="16"/>
-      <c r="T27" s="16"/>
-      <c r="U27" s="18"/>
-      <c r="V27" s="16"/>
-      <c r="W27" s="18"/>
-      <c r="X27" s="16"/>
-      <c r="Y27" s="16"/>
-      <c r="Z27" s="16"/>
-      <c r="AA27" s="16"/>
-      <c r="AB27" s="16"/>
-      <c r="AC27" s="16"/>
-      <c r="AD27" s="16"/>
-      <c r="AE27" s="21"/>
-      <c r="AF27" s="21"/>
-      <c r="AG27" s="13"/>
-      <c r="AH27" s="19"/>
-      <c r="AI27" s="13"/>
-      <c r="AJ27" s="19"/>
-      <c r="AK27" s="21"/>
-      <c r="AL27" s="19"/>
-      <c r="AM27" s="21"/>
-      <c r="AN27" s="19"/>
-      <c r="AO27" s="18"/>
-      <c r="AP27" s="18"/>
-      <c r="AQ27" s="18"/>
-      <c r="AR27" s="18"/>
-      <c r="AS27" s="18"/>
+        <v xml:space="preserve">    | '24-shisui-o-s-1'</v>
+      </c>
+    </row>
+    <row r="27" spans="1:48" s="11" customFormat="1" ht="48">
+      <c r="A27" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="B27" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="C27" s="10"/>
+      <c r="D27" s="10"/>
+      <c r="E27" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="F27" s="10"/>
+      <c r="G27" s="30"/>
+      <c r="H27" s="31"/>
+      <c r="I27" s="30"/>
+      <c r="J27" s="31"/>
+      <c r="K27" s="32"/>
+      <c r="L27" s="33"/>
+      <c r="M27" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="N27" s="10"/>
+      <c r="O27" s="10"/>
+      <c r="P27" s="10"/>
+      <c r="Q27" s="10"/>
+      <c r="R27" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="S27" s="10"/>
+      <c r="T27" s="10" t="s">
+        <v>198</v>
+      </c>
+      <c r="U27" s="12"/>
+      <c r="V27" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="W27" s="12"/>
+      <c r="X27" s="10"/>
+      <c r="Y27" s="10"/>
+      <c r="Z27" s="10" t="s">
+        <v>196</v>
+      </c>
+      <c r="AA27" s="10"/>
+      <c r="AB27" s="10"/>
+      <c r="AC27" s="10"/>
+      <c r="AD27" s="10"/>
+      <c r="AE27" s="39" t="s">
+        <v>206</v>
+      </c>
+      <c r="AF27" s="34"/>
+      <c r="AG27" s="35"/>
+      <c r="AH27" s="34"/>
+      <c r="AI27" s="36"/>
+      <c r="AJ27" s="34"/>
+      <c r="AK27" s="37"/>
+      <c r="AL27" s="34"/>
+      <c r="AM27" s="38"/>
+      <c r="AN27" s="2"/>
+      <c r="AO27" s="12"/>
+      <c r="AP27" s="12"/>
+      <c r="AQ27" s="12"/>
+      <c r="AR27" s="12"/>
+      <c r="AS27" s="12"/>
       <c r="AT27" s="14" t="str">
-        <f>IF(A27="", "", IF(ROW()&gt;=3, ", ", "")&amp;"'"&amp;A27&amp;"': {megami: '"&amp;B27&amp;"'"&amp;IF(C27&lt;&gt;"",", anotherID: '"&amp;C27&amp;"', replace: '"&amp;D27&amp;"'","")&amp;", name: '"&amp;SUBSTITUTE(E27,"'","\'")&amp;"', nameEn: '"&amp;SUBSTITUTE(K27,"'","\'")&amp;"', nameZh: '"&amp;SUBSTITUTE(G27,"'","\'")&amp;"', nameZhG1: '"&amp;SUBSTITUTE(H27,"'","\'")&amp;"', nameKo: '"&amp;SUBSTITUTE(J27,"'","\'")&amp;"', ruby: '"&amp;F27&amp;"', rubyEn: '"&amp;L27&amp;IF(I27&lt;&gt;"", "', rubyZh: '"&amp;I27, "")&amp;"', baseType: '"&amp;VLOOKUP(M27,マスタ!$A$1:$B$99,2,0)&amp;"'"&amp;IF(N27="○",", extra: true","")&amp;IF(O27&lt;&gt;"",", extraFrom: '"&amp;O27&amp;"'","")&amp;IF(P27&lt;&gt;"",", exchangableTo: '"&amp;P27&amp;"'","")&amp;IF(Q27="○",", poison: true","")&amp;IF(R27&lt;&gt;"", ", type: '"&amp;VLOOKUP(R27,マスタ!$D$1:$E$99,2,0)&amp;"'", "")&amp;IF(S27&lt;&gt;"",", subType: '"&amp;VLOOKUP(S27,マスタ!$D$1:$E$99,2,0)&amp;"'","")&amp;""&amp;IF(T27&lt;&gt;"",", range: '"&amp;T27&amp;"'","")&amp;IF(V27&lt;&gt;"",", damage: '"&amp;V27&amp;"'","")&amp;IF(X27&lt;&gt;"",", capacity: '"&amp;X27&amp;"'","")&amp;IF(Y27&lt;&gt;"",", growth: "&amp;Y27&amp;"","")&amp;IF(Z27&lt;&gt;"",", cost: '"&amp;Z27&amp;"'","")&amp;", text: '"&amp;SUBSTITUTE(SUBSTITUTE(AE27, CHAR(13), ""),CHAR(10),"\n")&amp;IF(AF27&lt;&gt;"", "', textAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AF27, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textZh: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AG27, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;"', textZhG1: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AI27, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AH27&lt;&gt;"", "', textZhAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AH27, CHAR(13), ""),CHAR(10),"\n"), "")&amp;IF(AJ27&lt;&gt;"", "', textZhG1Additional: '"&amp;SUBSTITUTE(SUBSTITUTE(AJ27, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textKo: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AK27, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AL27&lt;&gt;"", "', textKoAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AL27, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textEn: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AM27, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AN27&lt;&gt;"", "', textEnAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AN27, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"'"&amp;IF(AB27="○",", sealable: true","")&amp;IF(AC27="○",", removable: true","")&amp;"}")</f>
-        <v/>
+        <f>IF(A27="", "", IF(ROW()&gt;=3, ", ", "")&amp;"'"&amp;A27&amp;"': {megami: '"&amp;B27&amp;"'"&amp;IF(C27&lt;&gt;"",", anotherID: '"&amp;C27&amp;"', replace: '"&amp;D27&amp;"'","")&amp;", name: '"&amp;SUBSTITUTE(E27,"'","\'")&amp;"', nameEn: '"&amp;SUBSTITUTE(K27,"'","\'")&amp;"', nameZh: '"&amp;SUBSTITUTE(G27,"'","\'")&amp;"', nameZhG1: '"&amp;SUBSTITUTE(H27,"'","\'")&amp;"', nameKo: '"&amp;SUBSTITUTE(J27,"'","\'")&amp;"', ruby: '"&amp;F27&amp;"', rubyEn: '"&amp;L27&amp;IF(I27&lt;&gt;"", "', rubyZh: '"&amp;I27, "")&amp;"', baseType: '"&amp;VLOOKUP(M27,マスタ!$A$1:$B$99,2,0)&amp;"'"&amp;IF(N27="○",", extra: true","")&amp;IF(O27&lt;&gt;"",", extraFrom: '"&amp;O27&amp;"'","")&amp;IF(P27&lt;&gt;"",", exchangableTo: '"&amp;P27&amp;"'","")&amp;IF(Q27="○",", poison: true","")&amp;IF(R27&lt;&gt;"", ", type: '"&amp;VLOOKUP(R27,マスタ!$D$1:$E$99,2,0)&amp;"'", "")&amp;IF(S27&lt;&gt;"",", subType: '"&amp;VLOOKUP(S27,マスタ!$D$1:$E$99,2,0)&amp;"'","")&amp;""&amp;IF(T27&lt;&gt;"",", range: '"&amp;T27&amp;"'","")&amp;IF(V27&lt;&gt;"",", damage: '"&amp;V27&amp;"'","")&amp;IF(X27&lt;&gt;"",", capacity: '"&amp;X27&amp;"'","")&amp;IF(Y27&lt;&gt;"",", growth: "&amp;Y27&amp;"","")&amp;IF(Z27&lt;&gt;"",", cost: '"&amp;Z27&amp;"'","")&amp;", text: '"&amp;SUBSTITUTE(SUBSTITUTE(AE27, CHAR(13), ""),CHAR(10),"\n")&amp;IF(AF27&lt;&gt;"", "', textAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AF27, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textZh: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AG27, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;"', textZhG1: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AI27, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AH27&lt;&gt;"", "', textZhAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AH27, CHAR(13), ""),CHAR(10),"\n"), "")&amp;IF(AJ27&lt;&gt;"", "', textZhG1Additional: '"&amp;SUBSTITUTE(SUBSTITUTE(AJ27, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textKo: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AK27, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AL27&lt;&gt;"", "', textKoAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AL27, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textEn: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AM27, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AN27&lt;&gt;"", "', textEnAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AN27, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"'"&amp;IF(AB27="○",", sealable: true","")&amp;IF(AC27="○",", removable: true","")&amp;IF(AA27="○",", lie: true","")&amp;IF(AD27="○",", investable: true","")&amp;"}")</f>
+        <v>, '24-shisui-o-s-2': {megami: 'shisui', name: 'ウバラザキ', nameEn: '', nameZh: '', nameZhG1: '', nameKo: '', ruby: '', rubyEn: '', baseType: 'special', type: 'attack', range: '1-4', damage: '2~/1~', cost: '2~', text: '【攻撃後】相手がライフへのダメージを選んだならば、このターンにあなたが次に行うオーラへのダメージが2以下の《攻撃》のダメージは裂傷化する。\n----\n【再起】あなたのオーラとフレアの合計が6以下である。', textZh: '', textZhG1: '', textKo: '', textEn: ''}</v>
       </c>
       <c r="AU27" s="5" t="str">
         <f t="shared" si="4"/>
-        <v/>
+        <v xml:space="preserve">    /** 《ウバラザキ》 */ export const SHISUI_O_S_2: TCardId = '24-shisui-o-s-2';</v>
       </c>
       <c r="AV27" s="6" t="str">
         <f t="shared" si="5"/>
+        <v xml:space="preserve">    | '24-shisui-o-s-2'</v>
+      </c>
+    </row>
+    <row r="28" spans="1:48" s="11" customFormat="1" ht="48">
+      <c r="A28" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="B28" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="C28" s="10"/>
+      <c r="D28" s="10"/>
+      <c r="E28" s="10" t="s">
+        <v>178</v>
+      </c>
+      <c r="F28" s="10"/>
+      <c r="G28" s="30"/>
+      <c r="H28" s="31"/>
+      <c r="I28" s="30"/>
+      <c r="J28" s="31"/>
+      <c r="K28" s="32"/>
+      <c r="L28" s="33"/>
+      <c r="M28" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="N28" s="10"/>
+      <c r="O28" s="10"/>
+      <c r="P28" s="10"/>
+      <c r="Q28" s="10"/>
+      <c r="R28" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="S28" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="T28" s="10"/>
+      <c r="U28" s="12"/>
+      <c r="V28" s="10"/>
+      <c r="W28" s="12"/>
+      <c r="X28" s="10"/>
+      <c r="Y28" s="10"/>
+      <c r="Z28" s="10" t="s">
+        <v>194</v>
+      </c>
+      <c r="AA28" s="10"/>
+      <c r="AB28" s="10"/>
+      <c r="AC28" s="10"/>
+      <c r="AD28" s="10"/>
+      <c r="AE28" s="39" t="s">
+        <v>207</v>
+      </c>
+      <c r="AF28" s="34"/>
+      <c r="AG28" s="35"/>
+      <c r="AH28" s="34"/>
+      <c r="AI28" s="36"/>
+      <c r="AJ28" s="34"/>
+      <c r="AK28" s="37"/>
+      <c r="AL28" s="34"/>
+      <c r="AM28" s="38"/>
+      <c r="AN28" s="2"/>
+      <c r="AO28" s="12"/>
+      <c r="AP28" s="12"/>
+      <c r="AQ28" s="12"/>
+      <c r="AR28" s="12"/>
+      <c r="AS28" s="12"/>
+      <c r="AT28" s="14" t="str">
+        <f>IF(A28="", "", IF(ROW()&gt;=3, ", ", "")&amp;"'"&amp;A28&amp;"': {megami: '"&amp;B28&amp;"'"&amp;IF(C28&lt;&gt;"",", anotherID: '"&amp;C28&amp;"', replace: '"&amp;D28&amp;"'","")&amp;", name: '"&amp;SUBSTITUTE(E28,"'","\'")&amp;"', nameEn: '"&amp;SUBSTITUTE(K28,"'","\'")&amp;"', nameZh: '"&amp;SUBSTITUTE(G28,"'","\'")&amp;"', nameZhG1: '"&amp;SUBSTITUTE(H28,"'","\'")&amp;"', nameKo: '"&amp;SUBSTITUTE(J28,"'","\'")&amp;"', ruby: '"&amp;F28&amp;"', rubyEn: '"&amp;L28&amp;IF(I28&lt;&gt;"", "', rubyZh: '"&amp;I28, "")&amp;"', baseType: '"&amp;VLOOKUP(M28,マスタ!$A$1:$B$99,2,0)&amp;"'"&amp;IF(N28="○",", extra: true","")&amp;IF(O28&lt;&gt;"",", extraFrom: '"&amp;O28&amp;"'","")&amp;IF(P28&lt;&gt;"",", exchangableTo: '"&amp;P28&amp;"'","")&amp;IF(Q28="○",", poison: true","")&amp;IF(R28&lt;&gt;"", ", type: '"&amp;VLOOKUP(R28,マスタ!$D$1:$E$99,2,0)&amp;"'", "")&amp;IF(S28&lt;&gt;"",", subType: '"&amp;VLOOKUP(S28,マスタ!$D$1:$E$99,2,0)&amp;"'","")&amp;""&amp;IF(T28&lt;&gt;"",", range: '"&amp;T28&amp;"'","")&amp;IF(V28&lt;&gt;"",", damage: '"&amp;V28&amp;"'","")&amp;IF(X28&lt;&gt;"",", capacity: '"&amp;X28&amp;"'","")&amp;IF(Y28&lt;&gt;"",", growth: "&amp;Y28&amp;"","")&amp;IF(Z28&lt;&gt;"",", cost: '"&amp;Z28&amp;"'","")&amp;", text: '"&amp;SUBSTITUTE(SUBSTITUTE(AE28, CHAR(13), ""),CHAR(10),"\n")&amp;IF(AF28&lt;&gt;"", "', textAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AF28, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textZh: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AG28, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;"', textZhG1: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AI28, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AH28&lt;&gt;"", "', textZhAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AH28, CHAR(13), ""),CHAR(10),"\n"), "")&amp;IF(AJ28&lt;&gt;"", "', textZhG1Additional: '"&amp;SUBSTITUTE(SUBSTITUTE(AJ28, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textKo: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AK28, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AL28&lt;&gt;"", "', textKoAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AL28, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textEn: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AM28, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AN28&lt;&gt;"", "', textEnAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AN28, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"'"&amp;IF(AB28="○",", sealable: true","")&amp;IF(AC28="○",", removable: true","")&amp;IF(AA28="○",", lie: true","")&amp;IF(AD28="○",", investable: true","")&amp;"}")</f>
+        <v>, '24-shisui-o-s-3': {megami: 'shisui', name: 'アブダグイ', nameEn: '', nameZh: '', nameZhG1: '', nameKo: '', ruby: '', rubyEn: '', baseType: 'special', type: 'action', subType: 'reaction', cost: '2', text: '対応した《攻撃》のダメージを打ち消す。そうした場合、あなたはX~/Y~の裂傷を受ける。X/Yは打ち消したダメージの値に等しい。\n----\n【即再起】あなたがこのターンに3回目のダメージを受ける。', textZh: '', textZhG1: '', textKo: '', textEn: ''}</v>
+      </c>
+      <c r="AU28" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">    /** 《アブダグイ》 */ export const SHISUI_O_S_3: TCardId = '24-shisui-o-s-3';</v>
+      </c>
+      <c r="AV28" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">    | '24-shisui-o-s-3'</v>
+      </c>
+    </row>
+    <row r="29" spans="1:48" s="11" customFormat="1" ht="48">
+      <c r="A29" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="B29" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="C29" s="10"/>
+      <c r="D29" s="10"/>
+      <c r="E29" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="F29" s="10" t="s">
+        <v>180</v>
+      </c>
+      <c r="G29" s="30"/>
+      <c r="H29" s="31"/>
+      <c r="I29" s="30"/>
+      <c r="J29" s="31"/>
+      <c r="K29" s="32"/>
+      <c r="L29" s="33"/>
+      <c r="M29" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="N29" s="10"/>
+      <c r="O29" s="10"/>
+      <c r="P29" s="10"/>
+      <c r="Q29" s="10"/>
+      <c r="R29" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="S29" s="10" t="s">
+        <v>181</v>
+      </c>
+      <c r="T29" s="10"/>
+      <c r="U29" s="12"/>
+      <c r="V29" s="10"/>
+      <c r="W29" s="12"/>
+      <c r="X29" s="10" t="s">
+        <v>195</v>
+      </c>
+      <c r="Y29" s="10"/>
+      <c r="Z29" s="10" t="s">
+        <v>196</v>
+      </c>
+      <c r="AA29" s="10"/>
+      <c r="AB29" s="10"/>
+      <c r="AC29" s="10"/>
+      <c r="AD29" s="10"/>
+      <c r="AE29" s="39" t="s">
+        <v>208</v>
+      </c>
+      <c r="AF29" s="34"/>
+      <c r="AG29" s="35"/>
+      <c r="AH29" s="34"/>
+      <c r="AI29" s="36"/>
+      <c r="AJ29" s="34"/>
+      <c r="AK29" s="37"/>
+      <c r="AL29" s="34"/>
+      <c r="AM29" s="38"/>
+      <c r="AN29" s="2"/>
+      <c r="AO29" s="12"/>
+      <c r="AP29" s="12"/>
+      <c r="AQ29" s="12"/>
+      <c r="AR29" s="12"/>
+      <c r="AS29" s="12"/>
+      <c r="AT29" s="14" t="str">
+        <f>IF(A29="", "", IF(ROW()&gt;=3, ", ", "")&amp;"'"&amp;A29&amp;"': {megami: '"&amp;B29&amp;"'"&amp;IF(C29&lt;&gt;"",", anotherID: '"&amp;C29&amp;"', replace: '"&amp;D29&amp;"'","")&amp;", name: '"&amp;SUBSTITUTE(E29,"'","\'")&amp;"', nameEn: '"&amp;SUBSTITUTE(K29,"'","\'")&amp;"', nameZh: '"&amp;SUBSTITUTE(G29,"'","\'")&amp;"', nameZhG1: '"&amp;SUBSTITUTE(H29,"'","\'")&amp;"', nameKo: '"&amp;SUBSTITUTE(J29,"'","\'")&amp;"', ruby: '"&amp;F29&amp;"', rubyEn: '"&amp;L29&amp;IF(I29&lt;&gt;"", "', rubyZh: '"&amp;I29, "")&amp;"', baseType: '"&amp;VLOOKUP(M29,マスタ!$A$1:$B$99,2,0)&amp;"'"&amp;IF(N29="○",", extra: true","")&amp;IF(O29&lt;&gt;"",", extraFrom: '"&amp;O29&amp;"'","")&amp;IF(P29&lt;&gt;"",", exchangableTo: '"&amp;P29&amp;"'","")&amp;IF(Q29="○",", poison: true","")&amp;IF(R29&lt;&gt;"", ", type: '"&amp;VLOOKUP(R29,マスタ!$D$1:$E$99,2,0)&amp;"'", "")&amp;IF(S29&lt;&gt;"",", subType: '"&amp;VLOOKUP(S29,マスタ!$D$1:$E$99,2,0)&amp;"'","")&amp;""&amp;IF(T29&lt;&gt;"",", range: '"&amp;T29&amp;"'","")&amp;IF(V29&lt;&gt;"",", damage: '"&amp;V29&amp;"'","")&amp;IF(X29&lt;&gt;"",", capacity: '"&amp;X29&amp;"'","")&amp;IF(Y29&lt;&gt;"",", growth: "&amp;Y29&amp;"","")&amp;IF(Z29&lt;&gt;"",", cost: '"&amp;Z29&amp;"'","")&amp;", text: '"&amp;SUBSTITUTE(SUBSTITUTE(AE29, CHAR(13), ""),CHAR(10),"\n")&amp;IF(AF29&lt;&gt;"", "', textAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AF29, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textZh: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AG29, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;"', textZhG1: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AI29, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AH29&lt;&gt;"", "', textZhAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AH29, CHAR(13), ""),CHAR(10),"\n"), "")&amp;IF(AJ29&lt;&gt;"", "', textZhG1Additional: '"&amp;SUBSTITUTE(SUBSTITUTE(AJ29, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textKo: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AK29, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AL29&lt;&gt;"", "', textKoAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AL29, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textEn: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AM29, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AN29&lt;&gt;"", "', textEnAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AN29, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"'"&amp;IF(AB29="○",", sealable: true","")&amp;IF(AC29="○",", removable: true","")&amp;IF(AA29="○",", lie: true","")&amp;IF(AD29="○",", investable: true","")&amp;"}")</f>
+        <v>, '24-shisui-o-s-4': {megami: 'shisui', name: '桑畑志水の死に所', nameEn: '', nameZh: '', nameZhG1: '', nameKo: '', ruby: 'くわはたしすいのしにどころ', rubyEn: '', baseType: 'special', type: 'enhance', subType: 'fullpower', capacity: '2', cost: '2~', text: '【展開時】このカードの上に桜花結晶をX個相手のフレアから置く。相手のフレアがあなたのフレアより大きいならば、Xはその差に等しい。そうでないならばXは0である。\n【展開中】あなたは敗北しない。\n【展開中】あなたのライフが0ならば、相手は集中力を支払えない。', textZh: '', textZhG1: '', textKo: '', textEn: ''}</v>
+      </c>
+      <c r="AU29" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">    /** 《桑畑志水の死に所》 */ export const SHISUI_O_S_4: TCardId = '24-shisui-o-s-4';</v>
+      </c>
+      <c r="AV29" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">    | '24-shisui-o-s-4'</v>
+      </c>
+    </row>
+    <row r="30" spans="1:48">
+      <c r="A30" s="16"/>
+      <c r="B30" s="16"/>
+      <c r="C30" s="16"/>
+      <c r="D30" s="16"/>
+      <c r="E30" s="16"/>
+      <c r="F30" s="16"/>
+      <c r="G30" s="10"/>
+      <c r="H30" s="10"/>
+      <c r="I30" s="17"/>
+      <c r="J30" s="24"/>
+      <c r="K30" s="16"/>
+      <c r="L30" s="16"/>
+      <c r="M30" s="16"/>
+      <c r="N30" s="16"/>
+      <c r="O30" s="16"/>
+      <c r="P30" s="16"/>
+      <c r="Q30" s="16"/>
+      <c r="R30" s="16"/>
+      <c r="S30" s="16"/>
+      <c r="T30" s="16"/>
+      <c r="U30" s="18"/>
+      <c r="V30" s="16"/>
+      <c r="W30" s="18"/>
+      <c r="X30" s="16"/>
+      <c r="Y30" s="16"/>
+      <c r="Z30" s="16"/>
+      <c r="AA30" s="16"/>
+      <c r="AB30" s="16"/>
+      <c r="AC30" s="16"/>
+      <c r="AD30" s="16"/>
+      <c r="AE30" s="21"/>
+      <c r="AF30" s="21"/>
+      <c r="AG30" s="13"/>
+      <c r="AH30" s="19"/>
+      <c r="AI30" s="13"/>
+      <c r="AJ30" s="19"/>
+      <c r="AK30" s="21"/>
+      <c r="AL30" s="19"/>
+      <c r="AM30" s="21"/>
+      <c r="AN30" s="19"/>
+      <c r="AO30" s="18"/>
+      <c r="AP30" s="18"/>
+      <c r="AQ30" s="18"/>
+      <c r="AR30" s="18"/>
+      <c r="AS30" s="18"/>
+      <c r="AT30" s="14" t="str">
+        <f>IF(A30="", "", IF(ROW()&gt;=3, ", ", "")&amp;"'"&amp;A30&amp;"': {megami: '"&amp;B30&amp;"'"&amp;IF(C30&lt;&gt;"",", anotherID: '"&amp;C30&amp;"', replace: '"&amp;D30&amp;"'","")&amp;", name: '"&amp;SUBSTITUTE(E30,"'","\'")&amp;"', nameEn: '"&amp;SUBSTITUTE(K30,"'","\'")&amp;"', nameZh: '"&amp;SUBSTITUTE(G30,"'","\'")&amp;"', nameZhG1: '"&amp;SUBSTITUTE(H30,"'","\'")&amp;"', nameKo: '"&amp;SUBSTITUTE(J30,"'","\'")&amp;"', ruby: '"&amp;F30&amp;"', rubyEn: '"&amp;L30&amp;IF(I30&lt;&gt;"", "', rubyZh: '"&amp;I30, "")&amp;"', baseType: '"&amp;VLOOKUP(M30,マスタ!$A$1:$B$99,2,0)&amp;"'"&amp;IF(N30="○",", extra: true","")&amp;IF(O30&lt;&gt;"",", extraFrom: '"&amp;O30&amp;"'","")&amp;IF(P30&lt;&gt;"",", exchangableTo: '"&amp;P30&amp;"'","")&amp;IF(Q30="○",", poison: true","")&amp;IF(R30&lt;&gt;"", ", type: '"&amp;VLOOKUP(R30,マスタ!$D$1:$E$99,2,0)&amp;"'", "")&amp;IF(S30&lt;&gt;"",", subType: '"&amp;VLOOKUP(S30,マスタ!$D$1:$E$99,2,0)&amp;"'","")&amp;""&amp;IF(T30&lt;&gt;"",", range: '"&amp;T30&amp;"'","")&amp;IF(V30&lt;&gt;"",", damage: '"&amp;V30&amp;"'","")&amp;IF(X30&lt;&gt;"",", capacity: '"&amp;X30&amp;"'","")&amp;IF(Y30&lt;&gt;"",", growth: "&amp;Y30&amp;"","")&amp;IF(Z30&lt;&gt;"",", cost: '"&amp;Z30&amp;"'","")&amp;", text: '"&amp;SUBSTITUTE(SUBSTITUTE(AE30, CHAR(13), ""),CHAR(10),"\n")&amp;IF(AF30&lt;&gt;"", "', textAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AF30, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textZh: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AG30, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;"', textZhG1: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AI30, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AH30&lt;&gt;"", "', textZhAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AH30, CHAR(13), ""),CHAR(10),"\n"), "")&amp;IF(AJ30&lt;&gt;"", "', textZhG1Additional: '"&amp;SUBSTITUTE(SUBSTITUTE(AJ30, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textKo: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AK30, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AL30&lt;&gt;"", "', textKoAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AL30, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textEn: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AM30, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AN30&lt;&gt;"", "', textEnAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AN30, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"'"&amp;IF(AB30="○",", sealable: true","")&amp;IF(AC30="○",", removable: true","")&amp;"}")</f>
         <v/>
       </c>
-    </row>
-    <row r="28" spans="1:48">
-      <c r="I28" s="23"/>
-    </row>
-    <row r="29" spans="1:48">
-      <c r="I29" s="23"/>
-    </row>
-    <row r="30" spans="1:48">
-      <c r="I30" s="23"/>
+      <c r="AU30" s="5" t="str">
+        <f t="shared" ref="AU25:AU33" si="6">IF($A30&lt;&gt;"", "    /** 《"&amp;$E30&amp;"》 */ export const "&amp;SUBSTITUTE(UPPER(IF(MID($A30, 3, 1)="-", RIGHT($A30,LEN($A30)-3), $A30)), "-", "_")&amp;": TCardId = '"&amp;$A30&amp;"';", "")</f>
+        <v/>
+      </c>
+      <c r="AV30" s="6" t="str">
+        <f t="shared" ref="AV25:AV33" si="7">IF($A30&lt;&gt;"", "    | '"&amp;$A30&amp;"'", "")</f>
+        <v/>
+      </c>
     </row>
     <row r="31" spans="1:48">
-      <c r="I31" s="23"/>
+      <c r="A31" s="16"/>
+      <c r="B31" s="16"/>
+      <c r="C31" s="16"/>
+      <c r="D31" s="16"/>
+      <c r="E31" s="16"/>
+      <c r="F31" s="16"/>
+      <c r="G31" s="10"/>
+      <c r="H31" s="10"/>
+      <c r="I31" s="17"/>
+      <c r="J31" s="24"/>
+      <c r="K31" s="16"/>
+      <c r="L31" s="16"/>
+      <c r="M31" s="16"/>
+      <c r="N31" s="16"/>
+      <c r="O31" s="16"/>
+      <c r="P31" s="16"/>
+      <c r="Q31" s="16"/>
+      <c r="R31" s="16"/>
+      <c r="S31" s="16"/>
+      <c r="T31" s="16"/>
+      <c r="U31" s="18"/>
+      <c r="V31" s="16"/>
+      <c r="W31" s="18"/>
+      <c r="X31" s="16"/>
+      <c r="Y31" s="16"/>
+      <c r="Z31" s="16"/>
+      <c r="AA31" s="16"/>
+      <c r="AB31" s="16"/>
+      <c r="AC31" s="16"/>
+      <c r="AD31" s="16"/>
+      <c r="AE31" s="21"/>
+      <c r="AF31" s="21"/>
+      <c r="AG31" s="13"/>
+      <c r="AH31" s="19"/>
+      <c r="AI31" s="13"/>
+      <c r="AJ31" s="19"/>
+      <c r="AK31" s="21"/>
+      <c r="AL31" s="19"/>
+      <c r="AM31" s="21"/>
+      <c r="AN31" s="19"/>
+      <c r="AO31" s="18"/>
+      <c r="AP31" s="18"/>
+      <c r="AQ31" s="18"/>
+      <c r="AR31" s="18"/>
+      <c r="AS31" s="18"/>
+      <c r="AT31" s="14" t="str">
+        <f>IF(A31="", "", IF(ROW()&gt;=3, ", ", "")&amp;"'"&amp;A31&amp;"': {megami: '"&amp;B31&amp;"'"&amp;IF(C31&lt;&gt;"",", anotherID: '"&amp;C31&amp;"', replace: '"&amp;D31&amp;"'","")&amp;", name: '"&amp;SUBSTITUTE(E31,"'","\'")&amp;"', nameEn: '"&amp;SUBSTITUTE(K31,"'","\'")&amp;"', nameZh: '"&amp;SUBSTITUTE(G31,"'","\'")&amp;"', nameZhG1: '"&amp;SUBSTITUTE(H31,"'","\'")&amp;"', nameKo: '"&amp;SUBSTITUTE(J31,"'","\'")&amp;"', ruby: '"&amp;F31&amp;"', rubyEn: '"&amp;L31&amp;IF(I31&lt;&gt;"", "', rubyZh: '"&amp;I31, "")&amp;"', baseType: '"&amp;VLOOKUP(M31,マスタ!$A$1:$B$99,2,0)&amp;"'"&amp;IF(N31="○",", extra: true","")&amp;IF(O31&lt;&gt;"",", extraFrom: '"&amp;O31&amp;"'","")&amp;IF(P31&lt;&gt;"",", exchangableTo: '"&amp;P31&amp;"'","")&amp;IF(Q31="○",", poison: true","")&amp;IF(R31&lt;&gt;"", ", type: '"&amp;VLOOKUP(R31,マスタ!$D$1:$E$99,2,0)&amp;"'", "")&amp;IF(S31&lt;&gt;"",", subType: '"&amp;VLOOKUP(S31,マスタ!$D$1:$E$99,2,0)&amp;"'","")&amp;""&amp;IF(T31&lt;&gt;"",", range: '"&amp;T31&amp;"'","")&amp;IF(V31&lt;&gt;"",", damage: '"&amp;V31&amp;"'","")&amp;IF(X31&lt;&gt;"",", capacity: '"&amp;X31&amp;"'","")&amp;IF(Y31&lt;&gt;"",", growth: "&amp;Y31&amp;"","")&amp;IF(Z31&lt;&gt;"",", cost: '"&amp;Z31&amp;"'","")&amp;", text: '"&amp;SUBSTITUTE(SUBSTITUTE(AE31, CHAR(13), ""),CHAR(10),"\n")&amp;IF(AF31&lt;&gt;"", "', textAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AF31, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textZh: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AG31, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;"', textZhG1: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AI31, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AH31&lt;&gt;"", "', textZhAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AH31, CHAR(13), ""),CHAR(10),"\n"), "")&amp;IF(AJ31&lt;&gt;"", "', textZhG1Additional: '"&amp;SUBSTITUTE(SUBSTITUTE(AJ31, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textKo: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AK31, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AL31&lt;&gt;"", "', textKoAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AL31, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textEn: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AM31, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AN31&lt;&gt;"", "', textEnAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AN31, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"'"&amp;IF(AB31="○",", sealable: true","")&amp;IF(AC31="○",", removable: true","")&amp;"}")</f>
+        <v/>
+      </c>
+      <c r="AU31" s="5" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AV31" s="6" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
     </row>
     <row r="32" spans="1:48">
-      <c r="I32" s="23"/>
-    </row>
-    <row r="33" spans="9:9">
-      <c r="I33" s="23"/>
-    </row>
-    <row r="34" spans="9:9">
+      <c r="A32" s="16"/>
+      <c r="B32" s="16"/>
+      <c r="C32" s="16"/>
+      <c r="D32" s="16"/>
+      <c r="E32" s="16"/>
+      <c r="F32" s="16"/>
+      <c r="G32" s="10"/>
+      <c r="H32" s="10"/>
+      <c r="I32" s="17"/>
+      <c r="J32" s="24"/>
+      <c r="K32" s="16"/>
+      <c r="L32" s="16"/>
+      <c r="M32" s="16"/>
+      <c r="N32" s="16"/>
+      <c r="O32" s="16"/>
+      <c r="P32" s="16"/>
+      <c r="Q32" s="16"/>
+      <c r="R32" s="16"/>
+      <c r="S32" s="16"/>
+      <c r="T32" s="16"/>
+      <c r="U32" s="18"/>
+      <c r="V32" s="16"/>
+      <c r="W32" s="18"/>
+      <c r="X32" s="16"/>
+      <c r="Y32" s="16"/>
+      <c r="Z32" s="16"/>
+      <c r="AA32" s="16"/>
+      <c r="AB32" s="16"/>
+      <c r="AC32" s="16"/>
+      <c r="AD32" s="16"/>
+      <c r="AE32" s="21"/>
+      <c r="AF32" s="21"/>
+      <c r="AG32" s="13"/>
+      <c r="AH32" s="19"/>
+      <c r="AI32" s="13"/>
+      <c r="AJ32" s="19"/>
+      <c r="AK32" s="21"/>
+      <c r="AL32" s="19"/>
+      <c r="AM32" s="21"/>
+      <c r="AN32" s="19"/>
+      <c r="AO32" s="18"/>
+      <c r="AP32" s="18"/>
+      <c r="AQ32" s="18"/>
+      <c r="AR32" s="18"/>
+      <c r="AS32" s="18"/>
+      <c r="AT32" s="14" t="str">
+        <f>IF(A32="", "", IF(ROW()&gt;=3, ", ", "")&amp;"'"&amp;A32&amp;"': {megami: '"&amp;B32&amp;"'"&amp;IF(C32&lt;&gt;"",", anotherID: '"&amp;C32&amp;"', replace: '"&amp;D32&amp;"'","")&amp;", name: '"&amp;SUBSTITUTE(E32,"'","\'")&amp;"', nameEn: '"&amp;SUBSTITUTE(K32,"'","\'")&amp;"', nameZh: '"&amp;SUBSTITUTE(G32,"'","\'")&amp;"', nameZhG1: '"&amp;SUBSTITUTE(H32,"'","\'")&amp;"', nameKo: '"&amp;SUBSTITUTE(J32,"'","\'")&amp;"', ruby: '"&amp;F32&amp;"', rubyEn: '"&amp;L32&amp;IF(I32&lt;&gt;"", "', rubyZh: '"&amp;I32, "")&amp;"', baseType: '"&amp;VLOOKUP(M32,マスタ!$A$1:$B$99,2,0)&amp;"'"&amp;IF(N32="○",", extra: true","")&amp;IF(O32&lt;&gt;"",", extraFrom: '"&amp;O32&amp;"'","")&amp;IF(P32&lt;&gt;"",", exchangableTo: '"&amp;P32&amp;"'","")&amp;IF(Q32="○",", poison: true","")&amp;IF(R32&lt;&gt;"", ", type: '"&amp;VLOOKUP(R32,マスタ!$D$1:$E$99,2,0)&amp;"'", "")&amp;IF(S32&lt;&gt;"",", subType: '"&amp;VLOOKUP(S32,マスタ!$D$1:$E$99,2,0)&amp;"'","")&amp;""&amp;IF(T32&lt;&gt;"",", range: '"&amp;T32&amp;"'","")&amp;IF(V32&lt;&gt;"",", damage: '"&amp;V32&amp;"'","")&amp;IF(X32&lt;&gt;"",", capacity: '"&amp;X32&amp;"'","")&amp;IF(Y32&lt;&gt;"",", growth: "&amp;Y32&amp;"","")&amp;IF(Z32&lt;&gt;"",", cost: '"&amp;Z32&amp;"'","")&amp;", text: '"&amp;SUBSTITUTE(SUBSTITUTE(AE32, CHAR(13), ""),CHAR(10),"\n")&amp;IF(AF32&lt;&gt;"", "', textAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AF32, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textZh: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AG32, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;"', textZhG1: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AI32, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AH32&lt;&gt;"", "', textZhAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AH32, CHAR(13), ""),CHAR(10),"\n"), "")&amp;IF(AJ32&lt;&gt;"", "', textZhG1Additional: '"&amp;SUBSTITUTE(SUBSTITUTE(AJ32, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textKo: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AK32, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AL32&lt;&gt;"", "', textKoAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AL32, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textEn: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AM32, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AN32&lt;&gt;"", "', textEnAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AN32, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"'"&amp;IF(AB32="○",", sealable: true","")&amp;IF(AC32="○",", removable: true","")&amp;"}")</f>
+        <v/>
+      </c>
+      <c r="AU32" s="5" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AV32" s="6" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="33" spans="1:48">
+      <c r="A33" s="16"/>
+      <c r="B33" s="16"/>
+      <c r="C33" s="16"/>
+      <c r="D33" s="16"/>
+      <c r="E33" s="16"/>
+      <c r="F33" s="16"/>
+      <c r="G33" s="10"/>
+      <c r="H33" s="10"/>
+      <c r="I33" s="17"/>
+      <c r="J33" s="24"/>
+      <c r="K33" s="16"/>
+      <c r="L33" s="16"/>
+      <c r="M33" s="16"/>
+      <c r="N33" s="16"/>
+      <c r="O33" s="16"/>
+      <c r="P33" s="16"/>
+      <c r="Q33" s="16"/>
+      <c r="R33" s="16"/>
+      <c r="S33" s="16"/>
+      <c r="T33" s="16"/>
+      <c r="U33" s="18"/>
+      <c r="V33" s="16"/>
+      <c r="W33" s="18"/>
+      <c r="X33" s="16"/>
+      <c r="Y33" s="16"/>
+      <c r="Z33" s="16"/>
+      <c r="AA33" s="16"/>
+      <c r="AB33" s="16"/>
+      <c r="AC33" s="16"/>
+      <c r="AD33" s="16"/>
+      <c r="AE33" s="21"/>
+      <c r="AF33" s="21"/>
+      <c r="AG33" s="13"/>
+      <c r="AH33" s="19"/>
+      <c r="AI33" s="13"/>
+      <c r="AJ33" s="19"/>
+      <c r="AK33" s="21"/>
+      <c r="AL33" s="19"/>
+      <c r="AM33" s="21"/>
+      <c r="AN33" s="19"/>
+      <c r="AO33" s="18"/>
+      <c r="AP33" s="18"/>
+      <c r="AQ33" s="18"/>
+      <c r="AR33" s="18"/>
+      <c r="AS33" s="18"/>
+      <c r="AT33" s="14" t="str">
+        <f>IF(A33="", "", IF(ROW()&gt;=3, ", ", "")&amp;"'"&amp;A33&amp;"': {megami: '"&amp;B33&amp;"'"&amp;IF(C33&lt;&gt;"",", anotherID: '"&amp;C33&amp;"', replace: '"&amp;D33&amp;"'","")&amp;", name: '"&amp;SUBSTITUTE(E33,"'","\'")&amp;"', nameEn: '"&amp;SUBSTITUTE(K33,"'","\'")&amp;"', nameZh: '"&amp;SUBSTITUTE(G33,"'","\'")&amp;"', nameZhG1: '"&amp;SUBSTITUTE(H33,"'","\'")&amp;"', nameKo: '"&amp;SUBSTITUTE(J33,"'","\'")&amp;"', ruby: '"&amp;F33&amp;"', rubyEn: '"&amp;L33&amp;IF(I33&lt;&gt;"", "', rubyZh: '"&amp;I33, "")&amp;"', baseType: '"&amp;VLOOKUP(M33,マスタ!$A$1:$B$99,2,0)&amp;"'"&amp;IF(N33="○",", extra: true","")&amp;IF(O33&lt;&gt;"",", extraFrom: '"&amp;O33&amp;"'","")&amp;IF(P33&lt;&gt;"",", exchangableTo: '"&amp;P33&amp;"'","")&amp;IF(Q33="○",", poison: true","")&amp;IF(R33&lt;&gt;"", ", type: '"&amp;VLOOKUP(R33,マスタ!$D$1:$E$99,2,0)&amp;"'", "")&amp;IF(S33&lt;&gt;"",", subType: '"&amp;VLOOKUP(S33,マスタ!$D$1:$E$99,2,0)&amp;"'","")&amp;""&amp;IF(T33&lt;&gt;"",", range: '"&amp;T33&amp;"'","")&amp;IF(V33&lt;&gt;"",", damage: '"&amp;V33&amp;"'","")&amp;IF(X33&lt;&gt;"",", capacity: '"&amp;X33&amp;"'","")&amp;IF(Y33&lt;&gt;"",", growth: "&amp;Y33&amp;"","")&amp;IF(Z33&lt;&gt;"",", cost: '"&amp;Z33&amp;"'","")&amp;", text: '"&amp;SUBSTITUTE(SUBSTITUTE(AE33, CHAR(13), ""),CHAR(10),"\n")&amp;IF(AF33&lt;&gt;"", "', textAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AF33, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textZh: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AG33, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;"', textZhG1: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AI33, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AH33&lt;&gt;"", "', textZhAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AH33, CHAR(13), ""),CHAR(10),"\n"), "")&amp;IF(AJ33&lt;&gt;"", "', textZhG1Additional: '"&amp;SUBSTITUTE(SUBSTITUTE(AJ33, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textKo: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AK33, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AL33&lt;&gt;"", "', textKoAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AL33, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textEn: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AM33, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AN33&lt;&gt;"", "', textEnAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AN33, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"'"&amp;IF(AB33="○",", sealable: true","")&amp;IF(AC33="○",", removable: true","")&amp;"}")</f>
+        <v/>
+      </c>
+      <c r="AU33" s="5" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AV33" s="6" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="34" spans="1:48">
       <c r="I34" s="23"/>
     </row>
-    <row r="35" spans="9:9">
+    <row r="35" spans="1:48">
       <c r="I35" s="23"/>
     </row>
-    <row r="36" spans="9:9">
+    <row r="36" spans="1:48">
       <c r="I36" s="23"/>
     </row>
-    <row r="37" spans="9:9">
+    <row r="37" spans="1:48">
       <c r="I37" s="23"/>
     </row>
-    <row r="38" spans="9:9">
+    <row r="38" spans="1:48">
       <c r="I38" s="23"/>
     </row>
-    <row r="39" spans="9:9">
+    <row r="39" spans="1:48">
       <c r="I39" s="23"/>
     </row>
-    <row r="40" spans="9:9">
+    <row r="40" spans="1:48">
       <c r="I40" s="23"/>
     </row>
-    <row r="41" spans="9:9">
+    <row r="41" spans="1:48">
       <c r="I41" s="23"/>
     </row>
-    <row r="42" spans="9:9">
+    <row r="42" spans="1:48">
       <c r="I42" s="23"/>
     </row>
-    <row r="43" spans="9:9">
+    <row r="43" spans="1:48">
       <c r="I43" s="23"/>
     </row>
-    <row r="44" spans="9:9">
+    <row r="44" spans="1:48">
       <c r="I44" s="23"/>
     </row>
-    <row r="45" spans="9:9">
+    <row r="45" spans="1:48">
       <c r="I45" s="23"/>
     </row>
-    <row r="46" spans="9:9">
+    <row r="46" spans="1:48">
       <c r="I46" s="23"/>
     </row>
-    <row r="47" spans="9:9">
+    <row r="47" spans="1:48">
       <c r="I47" s="23"/>
     </row>
-    <row r="48" spans="9:9">
+    <row r="48" spans="1:48">
       <c r="I48" s="23"/>
     </row>
     <row r="49" spans="9:9">
@@ -20962,8 +22886,26 @@
     <row r="810" spans="9:9">
       <c r="I810" s="23"/>
     </row>
+    <row r="811" spans="9:9">
+      <c r="I811" s="23"/>
+    </row>
+    <row r="812" spans="9:9">
+      <c r="I812" s="23"/>
+    </row>
+    <row r="813" spans="9:9">
+      <c r="I813" s="23"/>
+    </row>
+    <row r="814" spans="9:9">
+      <c r="I814" s="23"/>
+    </row>
+    <row r="815" spans="9:9">
+      <c r="I815" s="23"/>
+    </row>
+    <row r="816" spans="9:9">
+      <c r="I816" s="23"/>
+    </row>
   </sheetData>
-  <phoneticPr fontId="20"/>
+  <phoneticPr fontId="19"/>
   <pageMargins left="0.69930555555555496" right="0.69930555555555496" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
@@ -20988,14 +22930,14 @@
       <c r="A1" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="26" t="s">
+      <c r="B1" s="25" t="s">
         <v>69</v>
       </c>
       <c r="C1" s="7"/>
       <c r="D1" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="E1" s="26" t="s">
+      <c r="E1" s="25" t="s">
         <v>70</v>
       </c>
     </row>
@@ -21003,14 +22945,14 @@
       <c r="A2" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="B2" s="26" t="s">
+      <c r="B2" s="25" t="s">
         <v>71</v>
       </c>
       <c r="C2" s="7"/>
       <c r="D2" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="E2" s="26" t="s">
+      <c r="E2" s="25" t="s">
         <v>72</v>
       </c>
     </row>
@@ -21018,14 +22960,14 @@
       <c r="A3" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="26" t="s">
+      <c r="B3" s="25" t="s">
         <v>73</v>
       </c>
       <c r="C3" s="7"/>
       <c r="D3" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="E3" s="26" t="s">
+      <c r="E3" s="25" t="s">
         <v>74</v>
       </c>
     </row>
@@ -21040,7 +22982,7 @@
       <c r="D4" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="E4" s="26" t="s">
+      <c r="E4" s="25" t="s">
         <v>75</v>
       </c>
     </row>
@@ -21055,7 +22997,7 @@
       <c r="D5" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="E5" s="26" t="s">
+      <c r="E5" s="25" t="s">
         <v>77</v>
       </c>
     </row>
@@ -21070,7 +23012,7 @@
       <c r="D6" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="E6" s="26" t="s">
+      <c r="E6" s="25" t="s">
         <v>79</v>
       </c>
     </row>
@@ -21867,7 +23809,7 @@
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
-  <phoneticPr fontId="20"/>
+  <phoneticPr fontId="19"/>
   <pageMargins left="0.69930555555555496" right="0.69930555555555496" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>

--- a/sheet/cards_s8.xlsx
+++ b/sheet/cards_s8.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="メガミ" sheetId="8" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="284">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="285">
   <si>
     <t>カードID</t>
   </si>
@@ -994,10 +994,6 @@
     <phoneticPr fontId="19"/>
   </si>
   <si>
-    <t>1~/1~</t>
-    <phoneticPr fontId="19"/>
-  </si>
-  <si>
     <t>2-4</t>
     <phoneticPr fontId="19"/>
   </si>
@@ -1010,10 +1006,6 @@
     <phoneticPr fontId="19"/>
   </si>
   <si>
-    <t>2~/3~</t>
-    <phoneticPr fontId="19"/>
-  </si>
-  <si>
     <t>0</t>
     <phoneticPr fontId="19"/>
   </si>
@@ -1036,58 +1028,7 @@
     <phoneticPr fontId="19"/>
   </si>
   <si>
-    <t>2~</t>
-    <phoneticPr fontId="19"/>
-  </si>
-  <si>
-    <t>2~/1~</t>
-    <phoneticPr fontId="19"/>
-  </si>
-  <si>
     <t>1-4</t>
-    <phoneticPr fontId="19"/>
-  </si>
-  <si>
-    <t>【攻撃後】攻撃『適正距離2-3、1~/2~、【常時】相手のオーラに置かれたあなたの裂傷トークンの個数が相手のオーラ以上ならば、相手はオーラへのダメージを選べない』を行う。</t>
-    <rPh sb="1" eb="4">
-      <t>コウゲキゴ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>コウゲキ</t>
-    </rPh>
-    <rPh sb="8" eb="12">
-      <t>テキセイキョリ</t>
-    </rPh>
-    <rPh sb="23" eb="25">
-      <t>ジョウジ</t>
-    </rPh>
-    <rPh sb="26" eb="28">
-      <t>アイテ</t>
-    </rPh>
-    <rPh sb="33" eb="34">
-      <t>オ</t>
-    </rPh>
-    <rPh sb="41" eb="43">
-      <t>レッショウ</t>
-    </rPh>
-    <rPh sb="48" eb="50">
-      <t>コスウ</t>
-    </rPh>
-    <rPh sb="51" eb="53">
-      <t>アイテ</t>
-    </rPh>
-    <rPh sb="57" eb="59">
-      <t>イジョウ</t>
-    </rPh>
-    <rPh sb="63" eb="65">
-      <t>アイテ</t>
-    </rPh>
-    <rPh sb="76" eb="77">
-      <t>エラ</t>
-    </rPh>
-    <rPh sb="82" eb="83">
-      <t>オコナ</t>
-    </rPh>
     <phoneticPr fontId="19"/>
   </si>
   <si>
@@ -1428,54 +1369,6 @@
     <phoneticPr fontId="19"/>
   </si>
   <si>
-    <t>対応した《攻撃》のダメージを打ち消す。そうした場合、あなたはX~/Y~の裂傷を受ける。X/Yは打ち消したダメージの値に等しい。
-----
-【即再起】あなたがこのターンに3回目のダメージを受ける。</t>
-    <rPh sb="0" eb="2">
-      <t>タイオウ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>コウゲキ</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>ウ</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>ケ</t>
-    </rPh>
-    <rPh sb="23" eb="25">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="36" eb="38">
-      <t>レッショウ</t>
-    </rPh>
-    <rPh sb="39" eb="40">
-      <t>ウ</t>
-    </rPh>
-    <rPh sb="47" eb="48">
-      <t>ウ</t>
-    </rPh>
-    <rPh sb="49" eb="50">
-      <t>ケ</t>
-    </rPh>
-    <rPh sb="57" eb="58">
-      <t>アタイ</t>
-    </rPh>
-    <rPh sb="59" eb="60">
-      <t>ヒト</t>
-    </rPh>
-    <rPh sb="70" eb="73">
-      <t>ソクサイキ</t>
-    </rPh>
-    <rPh sb="85" eb="87">
-      <t>カイメ</t>
-    </rPh>
-    <rPh sb="93" eb="94">
-      <t>ウ</t>
-    </rPh>
-    <phoneticPr fontId="19"/>
-  </si>
-  <si>
     <t>【展開時】このカードの上に桜花結晶をX個相手のフレアから置く。相手のフレアがあなたのフレアより大きいならば、Xはその差に等しい。そうでないならばXは0である。
 【展開中】あなたは敗北しない。
 【展開中】あなたのライフが0ならば、相手は集中力を支払えない。</t>
@@ -1912,6 +1805,117 @@
     <t>24</t>
     <phoneticPr fontId="19"/>
   </si>
+  <si>
+    <t>{1/1}</t>
+    <phoneticPr fontId="19"/>
+  </si>
+  <si>
+    <t>{2/3}</t>
+    <phoneticPr fontId="19"/>
+  </si>
+  <si>
+    <t>{2}</t>
+    <phoneticPr fontId="19"/>
+  </si>
+  <si>
+    <t>{2}</t>
+    <phoneticPr fontId="19"/>
+  </si>
+  <si>
+    <t>{2/1}</t>
+    <phoneticPr fontId="19"/>
+  </si>
+  <si>
+    <t>【攻撃後】攻撃『適正距離2-3、{1/2}、【常時】相手のオーラに置かれたあなたの裂傷トークンの個数が相手のオーラ以上ならば、相手はオーラへのダメージを選べない』を行う。</t>
+    <rPh sb="1" eb="4">
+      <t>コウゲキゴ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>コウゲキ</t>
+    </rPh>
+    <rPh sb="8" eb="12">
+      <t>テキセイキョリ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ジョウジ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>アイテ</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>レッショウ</t>
+    </rPh>
+    <rPh sb="48" eb="50">
+      <t>コスウ</t>
+    </rPh>
+    <rPh sb="51" eb="53">
+      <t>アイテ</t>
+    </rPh>
+    <rPh sb="57" eb="59">
+      <t>イジョウ</t>
+    </rPh>
+    <rPh sb="63" eb="65">
+      <t>アイテ</t>
+    </rPh>
+    <rPh sb="76" eb="77">
+      <t>エラ</t>
+    </rPh>
+    <rPh sb="82" eb="83">
+      <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="19"/>
+  </si>
+  <si>
+    <t>対応した《攻撃》のダメージを打ち消す。そうした場合、あなたは{X/Y}の裂傷を受ける。X/Yは打ち消したダメージの値に等しい。
+----
+【即再起】あなたがこのターンに3回目のダメージを受ける。</t>
+    <rPh sb="0" eb="2">
+      <t>タイオウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>コウゲキ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ウ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ケ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>レッショウ</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>ウ</t>
+    </rPh>
+    <rPh sb="47" eb="48">
+      <t>ウ</t>
+    </rPh>
+    <rPh sb="49" eb="50">
+      <t>ケ</t>
+    </rPh>
+    <rPh sb="57" eb="58">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="59" eb="60">
+      <t>ヒト</t>
+    </rPh>
+    <rPh sb="70" eb="73">
+      <t>ソクサイキ</t>
+    </rPh>
+    <rPh sb="85" eb="87">
+      <t>カイメ</t>
+    </rPh>
+    <rPh sb="93" eb="94">
+      <t>ウ</t>
+    </rPh>
+    <phoneticPr fontId="19"/>
+  </si>
 </sst>
 </file>
 
@@ -1955,13 +1959,11 @@
       <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="SimSun"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="SimSun"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
@@ -1988,7 +1990,6 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="SimSun"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -2733,7 +2734,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AH963"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="H2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -2889,24 +2890,24 @@
     </row>
     <row r="3" spans="1:34" ht="12" customHeight="1">
       <c r="A3" s="1" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="C3" s="26"/>
       <c r="D3" s="26"/>
       <c r="E3" s="27"/>
       <c r="F3" s="28"/>
       <c r="G3" s="1" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="H3" s="26"/>
       <c r="I3" s="26"/>
       <c r="J3" s="29"/>
       <c r="K3" s="28"/>
       <c r="L3" s="1" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
@@ -17921,11 +17922,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AML816"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="AN14" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A15" sqref="A15"/>
-      <selection pane="bottomRight" activeCell="AT29" sqref="AT19:AT29"/>
+      <selection pane="bottomRight" activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -18106,29 +18107,29 @@
     </row>
     <row r="2" spans="1:48" s="11" customFormat="1" ht="36">
       <c r="A2" s="1" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="F2" s="1"/>
       <c r="G2" s="41" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="H2" s="42" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="I2" s="41"/>
       <c r="J2" s="42" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="K2" s="43" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="L2" s="1"/>
       <c r="M2" s="1" t="s">
@@ -18143,20 +18144,20 @@
       </c>
       <c r="S2" s="1"/>
       <c r="T2" s="1" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="U2" s="44" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="V2" s="1" t="s">
         <v>183</v>
       </c>
       <c r="W2" s="44" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="X2" s="1"/>
       <c r="Y2" s="1" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="Z2" s="1"/>
       <c r="AA2" s="1"/>
@@ -18165,24 +18166,24 @@
       <c r="AD2" s="45"/>
       <c r="AE2" s="2"/>
       <c r="AF2" s="46" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="AG2" s="47"/>
       <c r="AH2" s="48"/>
       <c r="AI2" s="2" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="AJ2" s="2" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="AK2" s="2" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="AL2" s="2" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="AM2" s="2" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="AN2" s="2"/>
       <c r="AO2" s="12"/>
@@ -18205,31 +18206,31 @@
     </row>
     <row r="3" spans="1:48" s="11" customFormat="1" ht="96.75">
       <c r="A3" s="1" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="G3" s="41" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="H3" s="42" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="I3" s="41"/>
       <c r="J3" s="42" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="K3" s="43" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="L3" s="1"/>
       <c r="M3" s="1" t="s">
@@ -18255,23 +18256,23 @@
       <c r="AC3" s="2"/>
       <c r="AD3" s="45"/>
       <c r="AE3" s="61" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="AF3" s="61"/>
       <c r="AG3" s="62" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="AH3" s="61"/>
       <c r="AI3" s="67" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="AJ3" s="63"/>
       <c r="AK3" s="63" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="AL3" s="64"/>
       <c r="AM3" s="65" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="AN3" s="2"/>
       <c r="AO3" s="12"/>
@@ -18294,35 +18295,35 @@
     </row>
     <row r="4" spans="1:48" s="11" customFormat="1" ht="102">
       <c r="A4" s="10" t="s">
+        <v>230</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>231</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>232</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>233</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>234</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>235</v>
+      </c>
+      <c r="G4" s="50" t="s">
         <v>236</v>
       </c>
-      <c r="B4" s="10" t="s">
-        <v>237</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>238</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>239</v>
-      </c>
-      <c r="E4" s="10" t="s">
-        <v>240</v>
-      </c>
-      <c r="F4" s="10" t="s">
-        <v>241</v>
-      </c>
-      <c r="G4" s="50" t="s">
-        <v>242</v>
-      </c>
       <c r="H4" s="51" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="I4" s="50"/>
       <c r="J4" s="51" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="K4" s="52" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="L4" s="10"/>
       <c r="M4" s="10" t="s">
@@ -18337,39 +18338,39 @@
       </c>
       <c r="S4" s="10"/>
       <c r="T4" s="10" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="U4" s="12"/>
       <c r="V4" s="10" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="W4" s="12"/>
       <c r="X4" s="10"/>
       <c r="Y4" s="10"/>
       <c r="Z4" s="10" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="AA4" s="10"/>
       <c r="AB4" s="13"/>
       <c r="AC4" s="13"/>
       <c r="AE4" s="34" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="AF4" s="34"/>
       <c r="AG4" s="35" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="AH4" s="34"/>
       <c r="AI4" s="36" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="AJ4" s="34"/>
       <c r="AK4" s="37" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="AL4" s="34"/>
       <c r="AM4" s="66" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="AN4" s="2"/>
       <c r="AO4" s="12"/>
@@ -18392,31 +18393,31 @@
     </row>
     <row r="5" spans="1:48" s="11" customFormat="1" ht="96">
       <c r="A5" s="53" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="B5" s="53" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="C5" s="53"/>
       <c r="D5" s="53"/>
       <c r="E5" s="53" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="F5" s="53" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="G5" s="53" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="H5" s="53" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="I5" s="54"/>
       <c r="J5" s="53" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="K5" s="55" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="L5" s="53"/>
       <c r="M5" s="53" t="s">
@@ -18435,28 +18436,28 @@
       <c r="V5" s="53"/>
       <c r="W5" s="56"/>
       <c r="X5" s="53" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="Y5" s="53"/>
       <c r="Z5" s="53"/>
       <c r="AA5" s="53"/>
       <c r="AE5" s="57" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="AF5" s="57"/>
       <c r="AG5" s="58" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="AH5" s="59"/>
       <c r="AI5" s="58" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="AK5" s="59" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="AL5" s="34"/>
       <c r="AM5" s="60" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="AN5" s="2"/>
       <c r="AO5" s="12"/>
@@ -18479,31 +18480,31 @@
     </row>
     <row r="6" spans="1:48" s="11" customFormat="1" ht="84">
       <c r="A6" s="16" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="C6" s="16"/>
       <c r="D6" s="16"/>
       <c r="E6" s="16" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="F6" s="16" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="G6" s="10" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="H6" s="10" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="I6" s="17"/>
       <c r="J6" s="24" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="K6" s="16" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="L6" s="16"/>
       <c r="M6" s="16" t="s">
@@ -18524,34 +18525,34 @@
       </c>
       <c r="U6" s="18"/>
       <c r="V6" s="16" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="W6" s="18"/>
       <c r="X6" s="16"/>
       <c r="Y6" s="16"/>
       <c r="Z6" s="16" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="AA6" s="16"/>
       <c r="AB6" s="16"/>
       <c r="AE6" s="21" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="AF6" s="21"/>
       <c r="AG6" s="13" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="AH6" s="19"/>
       <c r="AI6" s="13" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="AJ6" s="19"/>
       <c r="AK6" s="21" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="AL6" s="19"/>
       <c r="AM6" s="21" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="AN6" s="2"/>
       <c r="AO6" s="12"/>
@@ -19592,7 +19593,7 @@
       </c>
       <c r="U20" s="12"/>
       <c r="V20" s="10" t="s">
-        <v>185</v>
+        <v>278</v>
       </c>
       <c r="W20" s="12"/>
       <c r="X20" s="10"/>
@@ -19603,7 +19604,7 @@
       <c r="AC20" s="10"/>
       <c r="AD20" s="10"/>
       <c r="AE20" s="39" t="s">
-        <v>199</v>
+        <v>283</v>
       </c>
       <c r="AF20" s="34"/>
       <c r="AG20" s="35"/>
@@ -19621,7 +19622,7 @@
       <c r="AS20" s="12"/>
       <c r="AT20" s="14" t="str">
         <f>IF(A20="", "", IF(ROW()&gt;=3, ", ", "")&amp;"'"&amp;A20&amp;"': {megami: '"&amp;B20&amp;"'"&amp;IF(C20&lt;&gt;"",", anotherID: '"&amp;C20&amp;"', replace: '"&amp;D20&amp;"'","")&amp;", name: '"&amp;SUBSTITUTE(E20,"'","\'")&amp;"', nameEn: '"&amp;SUBSTITUTE(K20,"'","\'")&amp;"', nameZh: '"&amp;SUBSTITUTE(G20,"'","\'")&amp;"', nameZhG1: '"&amp;SUBSTITUTE(H20,"'","\'")&amp;"', nameKo: '"&amp;SUBSTITUTE(J20,"'","\'")&amp;"', ruby: '"&amp;F20&amp;"', rubyEn: '"&amp;L20&amp;IF(I20&lt;&gt;"", "', rubyZh: '"&amp;I20, "")&amp;"', baseType: '"&amp;VLOOKUP(M20,マスタ!$A$1:$B$99,2,0)&amp;"'"&amp;IF(N20="○",", extra: true","")&amp;IF(O20&lt;&gt;"",", extraFrom: '"&amp;O20&amp;"'","")&amp;IF(P20&lt;&gt;"",", exchangableTo: '"&amp;P20&amp;"'","")&amp;IF(Q20="○",", poison: true","")&amp;IF(R20&lt;&gt;"", ", type: '"&amp;VLOOKUP(R20,マスタ!$D$1:$E$99,2,0)&amp;"'", "")&amp;IF(S20&lt;&gt;"",", subType: '"&amp;VLOOKUP(S20,マスタ!$D$1:$E$99,2,0)&amp;"'","")&amp;""&amp;IF(T20&lt;&gt;"",", range: '"&amp;T20&amp;"'","")&amp;IF(V20&lt;&gt;"",", damage: '"&amp;V20&amp;"'","")&amp;IF(X20&lt;&gt;"",", capacity: '"&amp;X20&amp;"'","")&amp;IF(Y20&lt;&gt;"",", growth: "&amp;Y20&amp;"","")&amp;IF(Z20&lt;&gt;"",", cost: '"&amp;Z20&amp;"'","")&amp;", text: '"&amp;SUBSTITUTE(SUBSTITUTE(AE20, CHAR(13), ""),CHAR(10),"\n")&amp;IF(AF20&lt;&gt;"", "', textAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AF20, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textZh: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AG20, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;"', textZhG1: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AI20, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AH20&lt;&gt;"", "', textZhAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AH20, CHAR(13), ""),CHAR(10),"\n"), "")&amp;IF(AJ20&lt;&gt;"", "', textZhG1Additional: '"&amp;SUBSTITUTE(SUBSTITUTE(AJ20, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textKo: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AK20, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AL20&lt;&gt;"", "', textKoAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AL20, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textEn: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AM20, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AN20&lt;&gt;"", "', textEnAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AN20, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"'"&amp;IF(AB20="○",", sealable: true","")&amp;IF(AC20="○",", removable: true","")&amp;IF(AA20="○",", lie: true","")&amp;IF(AD20="○",", investable: true","")&amp;"}")</f>
-        <v>, '24-shisui-o-n-2': {megami: 'shisui', name: '刻み刃', nameEn: '', nameZh: '', nameZhG1: '', nameKo: '', ruby: 'きざみやいば', rubyEn: '', baseType: 'normal', type: 'attack', range: '2-3', damage: '1~/1~', text: '【攻撃後】攻撃『適正距離2-3、1~/2~、【常時】相手のオーラに置かれたあなたの裂傷トークンの個数が相手のオーラ以上ならば、相手はオーラへのダメージを選べない』を行う。', textZh: '', textZhG1: '', textKo: '', textEn: ''}</v>
+        <v>, '24-shisui-o-n-2': {megami: 'shisui', name: '刻み刃', nameEn: '', nameZh: '', nameZhG1: '', nameKo: '', ruby: 'きざみやいば', rubyEn: '', baseType: 'normal', type: 'attack', range: '2-3', damage: '{1/1}', text: '【攻撃後】攻撃『適正距離2-3、{1/2}、【常時】相手のオーラに置かれたあなたの裂傷トークンの個数が相手のオーラ以上ならば、相手はオーラへのダメージを選べない』を行う。', textZh: '', textZhG1: '', textKo: '', textEn: ''}</v>
       </c>
       <c r="AU20" s="5" t="str">
         <f t="shared" si="4"/>
@@ -19667,11 +19668,11 @@
         <v>131</v>
       </c>
       <c r="T21" s="10" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="U21" s="12"/>
       <c r="V21" s="10" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="W21" s="12"/>
       <c r="X21" s="10"/>
@@ -19682,7 +19683,7 @@
       <c r="AC21" s="10"/>
       <c r="AD21" s="10"/>
       <c r="AE21" s="39" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="AF21" s="34"/>
       <c r="AG21" s="35"/>
@@ -19746,11 +19747,11 @@
         <v>133</v>
       </c>
       <c r="T22" s="10" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="U22" s="12"/>
       <c r="V22" s="10" t="s">
-        <v>189</v>
+        <v>279</v>
       </c>
       <c r="W22" s="12"/>
       <c r="X22" s="10"/>
@@ -19761,7 +19762,7 @@
       <c r="AC22" s="10"/>
       <c r="AD22" s="10"/>
       <c r="AE22" s="39" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="AF22" s="34"/>
       <c r="AG22" s="35"/>
@@ -19779,7 +19780,7 @@
       <c r="AS22" s="12"/>
       <c r="AT22" s="14" t="str">
         <f>IF(A22="", "", IF(ROW()&gt;=3, ", ", "")&amp;"'"&amp;A22&amp;"': {megami: '"&amp;B22&amp;"'"&amp;IF(C22&lt;&gt;"",", anotherID: '"&amp;C22&amp;"', replace: '"&amp;D22&amp;"'","")&amp;", name: '"&amp;SUBSTITUTE(E22,"'","\'")&amp;"', nameEn: '"&amp;SUBSTITUTE(K22,"'","\'")&amp;"', nameZh: '"&amp;SUBSTITUTE(G22,"'","\'")&amp;"', nameZhG1: '"&amp;SUBSTITUTE(H22,"'","\'")&amp;"', nameKo: '"&amp;SUBSTITUTE(J22,"'","\'")&amp;"', ruby: '"&amp;F22&amp;"', rubyEn: '"&amp;L22&amp;IF(I22&lt;&gt;"", "', rubyZh: '"&amp;I22, "")&amp;"', baseType: '"&amp;VLOOKUP(M22,マスタ!$A$1:$B$99,2,0)&amp;"'"&amp;IF(N22="○",", extra: true","")&amp;IF(O22&lt;&gt;"",", extraFrom: '"&amp;O22&amp;"'","")&amp;IF(P22&lt;&gt;"",", exchangableTo: '"&amp;P22&amp;"'","")&amp;IF(Q22="○",", poison: true","")&amp;IF(R22&lt;&gt;"", ", type: '"&amp;VLOOKUP(R22,マスタ!$D$1:$E$99,2,0)&amp;"'", "")&amp;IF(S22&lt;&gt;"",", subType: '"&amp;VLOOKUP(S22,マスタ!$D$1:$E$99,2,0)&amp;"'","")&amp;""&amp;IF(T22&lt;&gt;"",", range: '"&amp;T22&amp;"'","")&amp;IF(V22&lt;&gt;"",", damage: '"&amp;V22&amp;"'","")&amp;IF(X22&lt;&gt;"",", capacity: '"&amp;X22&amp;"'","")&amp;IF(Y22&lt;&gt;"",", growth: "&amp;Y22&amp;"","")&amp;IF(Z22&lt;&gt;"",", cost: '"&amp;Z22&amp;"'","")&amp;", text: '"&amp;SUBSTITUTE(SUBSTITUTE(AE22, CHAR(13), ""),CHAR(10),"\n")&amp;IF(AF22&lt;&gt;"", "', textAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AF22, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textZh: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AG22, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;"', textZhG1: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AI22, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AH22&lt;&gt;"", "', textZhAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AH22, CHAR(13), ""),CHAR(10),"\n"), "")&amp;IF(AJ22&lt;&gt;"", "', textZhG1Additional: '"&amp;SUBSTITUTE(SUBSTITUTE(AJ22, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textKo: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AK22, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AL22&lt;&gt;"", "', textKoAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AL22, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textEn: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AM22, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AN22&lt;&gt;"", "', textEnAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AN22, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"'"&amp;IF(AB22="○",", sealable: true","")&amp;IF(AC22="○",", removable: true","")&amp;IF(AA22="○",", lie: true","")&amp;IF(AD22="○",", investable: true","")&amp;"}")</f>
-        <v>, '24-shisui-o-n-4': {megami: 'shisui', name: '徹底抗戦', nameEn: '', nameZh: '', nameZhG1: '', nameKo: '', ruby: 'てっていこうせん', rubyEn: '', baseType: 'normal', type: 'attack', subType: 'fullpower', range: '1-7', damage: '2~/3~', text: '対応不可\n【攻撃後】相手を畏縮させ、あなたのオーラかライフかフレアに裂傷を1与える。', textZh: '', textZhG1: '', textKo: '', textEn: ''}</v>
+        <v>, '24-shisui-o-n-4': {megami: 'shisui', name: '徹底抗戦', nameEn: '', nameZh: '', nameZhG1: '', nameKo: '', ruby: 'てっていこうせん', rubyEn: '', baseType: 'normal', type: 'attack', subType: 'fullpower', range: '1-7', damage: '{2/3}', text: '対応不可\n【攻撃後】相手を畏縮させ、あなたのオーラかライフかフレアに裂傷を1与える。', textZh: '', textZhG1: '', textKo: '', textEn: ''}</v>
       </c>
       <c r="AU22" s="5" t="str">
         <f t="shared" si="4"/>
@@ -19834,7 +19835,7 @@
       <c r="AC23" s="10"/>
       <c r="AD23" s="10"/>
       <c r="AE23" s="40" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="AF23" s="34"/>
       <c r="AG23" s="35"/>
@@ -19907,7 +19908,7 @@
       <c r="AC24" s="10"/>
       <c r="AD24" s="10"/>
       <c r="AE24" s="39" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="AF24" s="34"/>
       <c r="AG24" s="35"/>
@@ -19975,7 +19976,7 @@
       <c r="V25" s="10"/>
       <c r="W25" s="12"/>
       <c r="X25" s="10" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="Y25" s="10"/>
       <c r="Z25" s="10"/>
@@ -19984,7 +19985,7 @@
       <c r="AC25" s="10"/>
       <c r="AD25" s="10"/>
       <c r="AE25" s="39" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="AF25" s="34"/>
       <c r="AG25" s="35"/>
@@ -20052,14 +20053,14 @@
       <c r="X26" s="10"/>
       <c r="Y26" s="10"/>
       <c r="Z26" s="10" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="AA26" s="10"/>
       <c r="AB26" s="10"/>
       <c r="AC26" s="10"/>
       <c r="AD26" s="10"/>
       <c r="AE26" s="39" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="AF26" s="34"/>
       <c r="AG26" s="35"/>
@@ -20119,24 +20120,24 @@
       </c>
       <c r="S27" s="10"/>
       <c r="T27" s="10" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="U27" s="12"/>
       <c r="V27" s="10" t="s">
-        <v>197</v>
+        <v>282</v>
       </c>
       <c r="W27" s="12"/>
       <c r="X27" s="10"/>
       <c r="Y27" s="10"/>
       <c r="Z27" s="10" t="s">
-        <v>196</v>
+        <v>280</v>
       </c>
       <c r="AA27" s="10"/>
       <c r="AB27" s="10"/>
       <c r="AC27" s="10"/>
       <c r="AD27" s="10"/>
       <c r="AE27" s="39" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="AF27" s="34"/>
       <c r="AG27" s="35"/>
@@ -20154,7 +20155,7 @@
       <c r="AS27" s="12"/>
       <c r="AT27" s="14" t="str">
         <f>IF(A27="", "", IF(ROW()&gt;=3, ", ", "")&amp;"'"&amp;A27&amp;"': {megami: '"&amp;B27&amp;"'"&amp;IF(C27&lt;&gt;"",", anotherID: '"&amp;C27&amp;"', replace: '"&amp;D27&amp;"'","")&amp;", name: '"&amp;SUBSTITUTE(E27,"'","\'")&amp;"', nameEn: '"&amp;SUBSTITUTE(K27,"'","\'")&amp;"', nameZh: '"&amp;SUBSTITUTE(G27,"'","\'")&amp;"', nameZhG1: '"&amp;SUBSTITUTE(H27,"'","\'")&amp;"', nameKo: '"&amp;SUBSTITUTE(J27,"'","\'")&amp;"', ruby: '"&amp;F27&amp;"', rubyEn: '"&amp;L27&amp;IF(I27&lt;&gt;"", "', rubyZh: '"&amp;I27, "")&amp;"', baseType: '"&amp;VLOOKUP(M27,マスタ!$A$1:$B$99,2,0)&amp;"'"&amp;IF(N27="○",", extra: true","")&amp;IF(O27&lt;&gt;"",", extraFrom: '"&amp;O27&amp;"'","")&amp;IF(P27&lt;&gt;"",", exchangableTo: '"&amp;P27&amp;"'","")&amp;IF(Q27="○",", poison: true","")&amp;IF(R27&lt;&gt;"", ", type: '"&amp;VLOOKUP(R27,マスタ!$D$1:$E$99,2,0)&amp;"'", "")&amp;IF(S27&lt;&gt;"",", subType: '"&amp;VLOOKUP(S27,マスタ!$D$1:$E$99,2,0)&amp;"'","")&amp;""&amp;IF(T27&lt;&gt;"",", range: '"&amp;T27&amp;"'","")&amp;IF(V27&lt;&gt;"",", damage: '"&amp;V27&amp;"'","")&amp;IF(X27&lt;&gt;"",", capacity: '"&amp;X27&amp;"'","")&amp;IF(Y27&lt;&gt;"",", growth: "&amp;Y27&amp;"","")&amp;IF(Z27&lt;&gt;"",", cost: '"&amp;Z27&amp;"'","")&amp;", text: '"&amp;SUBSTITUTE(SUBSTITUTE(AE27, CHAR(13), ""),CHAR(10),"\n")&amp;IF(AF27&lt;&gt;"", "', textAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AF27, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textZh: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AG27, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;"', textZhG1: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AI27, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AH27&lt;&gt;"", "', textZhAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AH27, CHAR(13), ""),CHAR(10),"\n"), "")&amp;IF(AJ27&lt;&gt;"", "', textZhG1Additional: '"&amp;SUBSTITUTE(SUBSTITUTE(AJ27, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textKo: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AK27, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AL27&lt;&gt;"", "', textKoAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AL27, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textEn: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AM27, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AN27&lt;&gt;"", "', textEnAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AN27, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"'"&amp;IF(AB27="○",", sealable: true","")&amp;IF(AC27="○",", removable: true","")&amp;IF(AA27="○",", lie: true","")&amp;IF(AD27="○",", investable: true","")&amp;"}")</f>
-        <v>, '24-shisui-o-s-2': {megami: 'shisui', name: 'ウバラザキ', nameEn: '', nameZh: '', nameZhG1: '', nameKo: '', ruby: '', rubyEn: '', baseType: 'special', type: 'attack', range: '1-4', damage: '2~/1~', cost: '2~', text: '【攻撃後】相手がライフへのダメージを選んだならば、このターンにあなたが次に行うオーラへのダメージが2以下の《攻撃》のダメージは裂傷化する。\n----\n【再起】あなたのオーラとフレアの合計が6以下である。', textZh: '', textZhG1: '', textKo: '', textEn: ''}</v>
+        <v>, '24-shisui-o-s-2': {megami: 'shisui', name: 'ウバラザキ', nameEn: '', nameZh: '', nameZhG1: '', nameKo: '', ruby: '', rubyEn: '', baseType: 'special', type: 'attack', range: '1-4', damage: '{2/1}', cost: '{2}', text: '【攻撃後】相手がライフへのダメージを選んだならば、このターンにあなたが次に行うオーラへのダメージが2以下の《攻撃》のダメージは裂傷化する。\n----\n【再起】あなたのオーラとフレアの合計が6以下である。', textZh: '', textZhG1: '', textKo: '', textEn: ''}</v>
       </c>
       <c r="AU27" s="5" t="str">
         <f t="shared" si="4"/>
@@ -20204,14 +20205,14 @@
       <c r="X28" s="10"/>
       <c r="Y28" s="10"/>
       <c r="Z28" s="10" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="AA28" s="10"/>
       <c r="AB28" s="10"/>
       <c r="AC28" s="10"/>
       <c r="AD28" s="10"/>
       <c r="AE28" s="39" t="s">
-        <v>207</v>
+        <v>284</v>
       </c>
       <c r="AF28" s="34"/>
       <c r="AG28" s="35"/>
@@ -20229,7 +20230,7 @@
       <c r="AS28" s="12"/>
       <c r="AT28" s="14" t="str">
         <f>IF(A28="", "", IF(ROW()&gt;=3, ", ", "")&amp;"'"&amp;A28&amp;"': {megami: '"&amp;B28&amp;"'"&amp;IF(C28&lt;&gt;"",", anotherID: '"&amp;C28&amp;"', replace: '"&amp;D28&amp;"'","")&amp;", name: '"&amp;SUBSTITUTE(E28,"'","\'")&amp;"', nameEn: '"&amp;SUBSTITUTE(K28,"'","\'")&amp;"', nameZh: '"&amp;SUBSTITUTE(G28,"'","\'")&amp;"', nameZhG1: '"&amp;SUBSTITUTE(H28,"'","\'")&amp;"', nameKo: '"&amp;SUBSTITUTE(J28,"'","\'")&amp;"', ruby: '"&amp;F28&amp;"', rubyEn: '"&amp;L28&amp;IF(I28&lt;&gt;"", "', rubyZh: '"&amp;I28, "")&amp;"', baseType: '"&amp;VLOOKUP(M28,マスタ!$A$1:$B$99,2,0)&amp;"'"&amp;IF(N28="○",", extra: true","")&amp;IF(O28&lt;&gt;"",", extraFrom: '"&amp;O28&amp;"'","")&amp;IF(P28&lt;&gt;"",", exchangableTo: '"&amp;P28&amp;"'","")&amp;IF(Q28="○",", poison: true","")&amp;IF(R28&lt;&gt;"", ", type: '"&amp;VLOOKUP(R28,マスタ!$D$1:$E$99,2,0)&amp;"'", "")&amp;IF(S28&lt;&gt;"",", subType: '"&amp;VLOOKUP(S28,マスタ!$D$1:$E$99,2,0)&amp;"'","")&amp;""&amp;IF(T28&lt;&gt;"",", range: '"&amp;T28&amp;"'","")&amp;IF(V28&lt;&gt;"",", damage: '"&amp;V28&amp;"'","")&amp;IF(X28&lt;&gt;"",", capacity: '"&amp;X28&amp;"'","")&amp;IF(Y28&lt;&gt;"",", growth: "&amp;Y28&amp;"","")&amp;IF(Z28&lt;&gt;"",", cost: '"&amp;Z28&amp;"'","")&amp;", text: '"&amp;SUBSTITUTE(SUBSTITUTE(AE28, CHAR(13), ""),CHAR(10),"\n")&amp;IF(AF28&lt;&gt;"", "', textAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AF28, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textZh: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AG28, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;"', textZhG1: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AI28, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AH28&lt;&gt;"", "', textZhAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AH28, CHAR(13), ""),CHAR(10),"\n"), "")&amp;IF(AJ28&lt;&gt;"", "', textZhG1Additional: '"&amp;SUBSTITUTE(SUBSTITUTE(AJ28, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textKo: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AK28, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AL28&lt;&gt;"", "', textKoAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AL28, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textEn: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AM28, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AN28&lt;&gt;"", "', textEnAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AN28, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"'"&amp;IF(AB28="○",", sealable: true","")&amp;IF(AC28="○",", removable: true","")&amp;IF(AA28="○",", lie: true","")&amp;IF(AD28="○",", investable: true","")&amp;"}")</f>
-        <v>, '24-shisui-o-s-3': {megami: 'shisui', name: 'アブダグイ', nameEn: '', nameZh: '', nameZhG1: '', nameKo: '', ruby: '', rubyEn: '', baseType: 'special', type: 'action', subType: 'reaction', cost: '2', text: '対応した《攻撃》のダメージを打ち消す。そうした場合、あなたはX~/Y~の裂傷を受ける。X/Yは打ち消したダメージの値に等しい。\n----\n【即再起】あなたがこのターンに3回目のダメージを受ける。', textZh: '', textZhG1: '', textKo: '', textEn: ''}</v>
+        <v>, '24-shisui-o-s-3': {megami: 'shisui', name: 'アブダグイ', nameEn: '', nameZh: '', nameZhG1: '', nameKo: '', ruby: '', rubyEn: '', baseType: 'special', type: 'action', subType: 'reaction', cost: '2', text: '対応した《攻撃》のダメージを打ち消す。そうした場合、あなたは{X/Y}の裂傷を受ける。X/Yは打ち消したダメージの値に等しい。\n----\n【即再起】あなたがこのターンに3回目のダメージを受ける。', textZh: '', textZhG1: '', textKo: '', textEn: ''}</v>
       </c>
       <c r="AU28" s="5" t="str">
         <f t="shared" si="4"/>
@@ -20279,18 +20280,18 @@
       <c r="V29" s="10"/>
       <c r="W29" s="12"/>
       <c r="X29" s="10" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="Y29" s="10"/>
       <c r="Z29" s="10" t="s">
-        <v>196</v>
+        <v>281</v>
       </c>
       <c r="AA29" s="10"/>
       <c r="AB29" s="10"/>
       <c r="AC29" s="10"/>
       <c r="AD29" s="10"/>
       <c r="AE29" s="39" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="AF29" s="34"/>
       <c r="AG29" s="35"/>
@@ -20308,7 +20309,7 @@
       <c r="AS29" s="12"/>
       <c r="AT29" s="14" t="str">
         <f>IF(A29="", "", IF(ROW()&gt;=3, ", ", "")&amp;"'"&amp;A29&amp;"': {megami: '"&amp;B29&amp;"'"&amp;IF(C29&lt;&gt;"",", anotherID: '"&amp;C29&amp;"', replace: '"&amp;D29&amp;"'","")&amp;", name: '"&amp;SUBSTITUTE(E29,"'","\'")&amp;"', nameEn: '"&amp;SUBSTITUTE(K29,"'","\'")&amp;"', nameZh: '"&amp;SUBSTITUTE(G29,"'","\'")&amp;"', nameZhG1: '"&amp;SUBSTITUTE(H29,"'","\'")&amp;"', nameKo: '"&amp;SUBSTITUTE(J29,"'","\'")&amp;"', ruby: '"&amp;F29&amp;"', rubyEn: '"&amp;L29&amp;IF(I29&lt;&gt;"", "', rubyZh: '"&amp;I29, "")&amp;"', baseType: '"&amp;VLOOKUP(M29,マスタ!$A$1:$B$99,2,0)&amp;"'"&amp;IF(N29="○",", extra: true","")&amp;IF(O29&lt;&gt;"",", extraFrom: '"&amp;O29&amp;"'","")&amp;IF(P29&lt;&gt;"",", exchangableTo: '"&amp;P29&amp;"'","")&amp;IF(Q29="○",", poison: true","")&amp;IF(R29&lt;&gt;"", ", type: '"&amp;VLOOKUP(R29,マスタ!$D$1:$E$99,2,0)&amp;"'", "")&amp;IF(S29&lt;&gt;"",", subType: '"&amp;VLOOKUP(S29,マスタ!$D$1:$E$99,2,0)&amp;"'","")&amp;""&amp;IF(T29&lt;&gt;"",", range: '"&amp;T29&amp;"'","")&amp;IF(V29&lt;&gt;"",", damage: '"&amp;V29&amp;"'","")&amp;IF(X29&lt;&gt;"",", capacity: '"&amp;X29&amp;"'","")&amp;IF(Y29&lt;&gt;"",", growth: "&amp;Y29&amp;"","")&amp;IF(Z29&lt;&gt;"",", cost: '"&amp;Z29&amp;"'","")&amp;", text: '"&amp;SUBSTITUTE(SUBSTITUTE(AE29, CHAR(13), ""),CHAR(10),"\n")&amp;IF(AF29&lt;&gt;"", "', textAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AF29, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textZh: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AG29, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;"', textZhG1: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AI29, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AH29&lt;&gt;"", "', textZhAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AH29, CHAR(13), ""),CHAR(10),"\n"), "")&amp;IF(AJ29&lt;&gt;"", "', textZhG1Additional: '"&amp;SUBSTITUTE(SUBSTITUTE(AJ29, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textKo: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AK29, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AL29&lt;&gt;"", "', textKoAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AL29, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textEn: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AM29, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AN29&lt;&gt;"", "', textEnAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AN29, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"'"&amp;IF(AB29="○",", sealable: true","")&amp;IF(AC29="○",", removable: true","")&amp;IF(AA29="○",", lie: true","")&amp;IF(AD29="○",", investable: true","")&amp;"}")</f>
-        <v>, '24-shisui-o-s-4': {megami: 'shisui', name: '桑畑志水の死に所', nameEn: '', nameZh: '', nameZhG1: '', nameKo: '', ruby: 'くわはたしすいのしにどころ', rubyEn: '', baseType: 'special', type: 'enhance', subType: 'fullpower', capacity: '2', cost: '2~', text: '【展開時】このカードの上に桜花結晶をX個相手のフレアから置く。相手のフレアがあなたのフレアより大きいならば、Xはその差に等しい。そうでないならばXは0である。\n【展開中】あなたは敗北しない。\n【展開中】あなたのライフが0ならば、相手は集中力を支払えない。', textZh: '', textZhG1: '', textKo: '', textEn: ''}</v>
+        <v>, '24-shisui-o-s-4': {megami: 'shisui', name: '桑畑志水の死に所', nameEn: '', nameZh: '', nameZhG1: '', nameKo: '', ruby: 'くわはたしすいのしにどころ', rubyEn: '', baseType: 'special', type: 'enhance', subType: 'fullpower', capacity: '2', cost: '{2}', text: '【展開時】このカードの上に桜花結晶をX個相手のフレアから置く。相手のフレアがあなたのフレアより大きいならば、Xはその差に等しい。そうでないならばXは0である。\n【展開中】あなたは敗北しない。\n【展開中】あなたのライフが0ならば、相手は集中力を支払えない。', textZh: '', textZhG1: '', textKo: '', textEn: ''}</v>
       </c>
       <c r="AU29" s="5" t="str">
         <f t="shared" si="4"/>
@@ -20370,11 +20371,11 @@
         <v/>
       </c>
       <c r="AU30" s="5" t="str">
-        <f t="shared" ref="AU25:AU33" si="6">IF($A30&lt;&gt;"", "    /** 《"&amp;$E30&amp;"》 */ export const "&amp;SUBSTITUTE(UPPER(IF(MID($A30, 3, 1)="-", RIGHT($A30,LEN($A30)-3), $A30)), "-", "_")&amp;": TCardId = '"&amp;$A30&amp;"';", "")</f>
+        <f t="shared" ref="AU30:AU33" si="6">IF($A30&lt;&gt;"", "    /** 《"&amp;$E30&amp;"》 */ export const "&amp;SUBSTITUTE(UPPER(IF(MID($A30, 3, 1)="-", RIGHT($A30,LEN($A30)-3), $A30)), "-", "_")&amp;": TCardId = '"&amp;$A30&amp;"';", "")</f>
         <v/>
       </c>
       <c r="AV30" s="6" t="str">
-        <f t="shared" ref="AV25:AV33" si="7">IF($A30&lt;&gt;"", "    | '"&amp;$A30&amp;"'", "")</f>
+        <f t="shared" ref="AV30:AV33" si="7">IF($A30&lt;&gt;"", "    | '"&amp;$A30&amp;"'", "")</f>
         <v/>
       </c>
     </row>

--- a/sheet/cards_s8.xlsx
+++ b/sheet/cards_s8.xlsx
@@ -11,7 +11,7 @@
     <sheet name="新幕シーズン8" sheetId="9" r:id="rId2"/>
     <sheet name="マスタ" sheetId="10" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621" iterateDelta="1E-4"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="285">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="264">
   <si>
     <t>カードID</t>
   </si>
@@ -669,11 +669,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>攻撃『0-10　-/1、【常時】この《攻撃》が対応されたならば、この攻撃は打ち消される。【常時】この《攻撃》のダメージは変化しない』を行う。その後、あなたの資本が相手の資本より大きいならばこのカードを使用する。
-（消費は支払い、その消費は時価以外で加減されない）</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <r>
       <t>【攻撃後】</t>
     </r>
@@ -697,15 +692,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>【展開時】あなたのライフからフレアへと桜花結晶を4つ移動させる。
-【展開中】このカードの効果以外でこの付与札の上の桜花結晶は移動しない。
-【展開中】あなたのライフが0の時にあなたが敗北するならば、代わりにあなたのフレアからライフへと桜花結晶を4つ移動させる。その後、この上の桜花結晶を全てダストに送り、このカードを取り除く。</t>
-    <rPh sb="131" eb="132">
-      <t>アト</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>○</t>
     <phoneticPr fontId="19"/>
   </si>
@@ -1441,55 +1427,9 @@
     <t>Gentle Snow</t>
   </si>
   <si>
-    <t>3-5</t>
-  </si>
-  <si>
-    <t>0-1</t>
-  </si>
-  <si>
     <t>0/0</t>
   </si>
   <si>
-    <t xml:space="preserve">----
-【即再起】あなたが傘の開閉を行う。 </t>
-  </si>
-  <si>
-    <t>----
-【即再起】进行一次伞的开合操作。</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="MS PGothic"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>无 
-----
-【即再起】</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>进行伞的开合操作</t>
-    </r>
-  </si>
-  <si>
-    <t>----
-【즉재기】당신이 우산의 개폐를 행한다.</t>
-  </si>
-  <si>
-    <t>----
-Immediate Resurgence: You open or close your umbrella.</t>
-  </si>
-  <si>
     <t>08-hagane-o-n-6</t>
   </si>
   <si>
@@ -1512,113 +1452,6 @@
   </si>
   <si>
     <t>Sound the Bell</t>
-  </si>
-  <si>
-    <t>遠心 
-以下から１つを選ぶ。
-・このターンにあなたが次に行う《攻撃》は対応不可を得る。
-・このターンにあなたが次に行う《攻撃》はオーラへのダメージが3以上ならば+0/+1、そうでないならば+2/+0となる。</t>
-  </si>
-  <si>
-    <t>远心 
-选择一项：
-●本回合内，你的下一次《攻击》得不可被对应；
-●本回合内，若你的下一次《攻击》对装伤害大于等于3，则该《攻击》得+0/+1，否则得+2/+0。</t>
-  </si>
-  <si>
-    <t>远心 选择一项：
-1.本回合内，你的下一次《攻击》得不可被对应；
-2.本回合内，若你的下一次《攻击》对装伤害大于3，则该《攻击》得+0/+1，否则得+2/+0。</t>
-  </si>
-  <si>
-    <t>원심 
- 이하에서 하나를 고른다.
- ・이 턴에 당신이 다음에 행하는 《공격》은 대응불가를 얻는다.
- ・이 턴에 당신이 다음에 행하는 《공격》은 오라로의 대미지가 3 이상이라면 +0/+1, 그렇지 않다면 +2/+0이 된다.</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-      </rPr>
-      <t xml:space="preserve">Centrifuge
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-      </rPr>
-      <t xml:space="preserve">
-Choose one:
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="MS Gothic"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>・</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-      </rPr>
-      <t xml:space="preserve">Your next attack this turn gains </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-      </rPr>
-      <t>No Reactions</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-      </rPr>
-      <t xml:space="preserve">.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="MS Gothic"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>・</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-      </rPr>
-      <t xml:space="preserve">Your next attack this turn gains +0/+1 if it has 3 or more Damage to </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-      </rPr>
-      <t>Aura</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-      </rPr>
-      <t>. Otherwise, it gains +2/+0.</t>
-    </r>
   </si>
   <si>
     <t>16-yatsuha-A1-s-4</t>
@@ -1649,41 +1482,9 @@
     <t>Naughtbloom of the Eight Mirrors</t>
   </si>
   <si>
-    <t>0-8</t>
-  </si>
-  <si>
-    <t>1/0</t>
-  </si>
-  <si>
     <t>1</t>
   </si>
   <si>
-    <t>終端　対応不可
-【攻撃後/使用済】攻撃後とあなたが山札を再構成する直前に、あなたの捨て札または手札にあるヤツハのカード1枚を公開し、完全態にしてもよい。
-（例えば手札の「星の爪」を公開したなら追加札の「星辰の鉤爪」と交換され、手札に加わる）</t>
-  </si>
-  <si>
-    <t>终端　不可被对应 
-【攻击后/使用后】如果你要重铸牌库，则在之前你可以公开你弃牌或者手牌中的一张八叶的牌并将其变为完全态。 
-（例如将手牌中的『星之爪』公开的话就和追加牌区的『星辰之钩爪』作交换并加入手牌。）</t>
-  </si>
-  <si>
-    <t>终端 不可被对应
-【攻击后/使用后】攻击后或每当妳将要重铸牌库时，妳可以从弃牌或手牌中选择1张八叶的牌，展示该牌，然后将其变为完全态。
-（例如，若妳展示了手牌中的『星之爪』，则将其与追加牌区中的『星尘之利爪』交换，并加入手牌。）</t>
-    <phoneticPr fontId="19"/>
-  </si>
-  <si>
-    <t xml:space="preserve">	
-종단, 대응불가
-【공격후/사용됨】공격후와 당신이 패산의 재구성을 수행하기 직전에, 당신의 버림패나 손패의 야츠하의 카드 1장을 공개한 뒤 완전태로 바꿀 수 있다.
-(예를 들어 손패의 별의 손톱을 공개했다면, 추가패의 성신의 갈퀴손과 교환하여 손패로 추가한다.)</t>
-  </si>
-  <si>
-    <t>Terminal No Reactions
-After Attack/Devoted: After this attack, and immediately before reshuffling your deck, you may reveal a Yatsuha card from your hand or played pile and Perfect it. (For example, if you reveal "Astral Claw" from your hand, exchange it for your set aside "Celestial Talon" and add it your hand.)</t>
-  </si>
-  <si>
     <t>17-hatsumi-o-n-7</t>
   </si>
   <si>
@@ -1708,31 +1509,6 @@
     <t>Wavecall</t>
   </si>
   <si>
-    <t>隙
-【展開中】あなたのターンかつ順風である場合のみ、このカードの上の桜花結晶は移動する。
-【破棄時】攻撃『適正距離2-7、1/-、【攻撃後】相手は山札をすべて伏せ札にする。』を行う。</t>
-  </si>
-  <si>
-    <t>破绽
-【展开中】仅在你的回合中且为顺风时，才可以移动此牌上的樱花结晶。
-【破弃时】进行一次“攻击距离2-7 伤害1/- 【攻击后】盖伏对手的牌库”的攻击。</t>
-  </si>
-  <si>
-    <t>破绽
-【展开中】仅当你的回合内你处于顺风状态时可以移除此牌上的樱花结晶。
-【破弃时】进行一次“攻击距离2-7 伤害1/- 【攻击后】盖伏对手的牌库。”的攻击。</t>
-  </si>
-  <si>
-    <t>틈
-【전개중】당신의 턴 및 순풍일 때에만, 이 카드 위의 벚꽃 결정이 이동한다.
-【파기시】공격 『적정 거리2-7, 1/-, 【공격후】상대는 패산을 전부 덮임패로 한다.』를 한다.</t>
-  </si>
-  <si>
-    <t>Unguarded
-Forced: Sakura tokens cannot leave this card unless it's your turn and there is a tailwind.
-Disenchant: You attack with "Range: 2-7, Damage: 1/-, After Attack: Put your opponent's deck into their discard pile."</t>
-  </si>
-  <si>
     <t>19-megumi-o-s-2</t>
   </si>
   <si>
@@ -1752,39 +1528,6 @@
   </si>
   <si>
     <t>Branch of Possibility</t>
-  </si>
-  <si>
-    <t>0/1</t>
-  </si>
-  <si>
-    <t>【常時】Xはあなたの付与札にある種結晶の個数の合計に等しい。
-【常時】この《攻撃》は+X/+0となる。
-【攻撃後】対応した《攻撃》は-X/+0となる。</t>
-  </si>
-  <si>
-    <t>【常时】X等于你付于区中展开中的付于牌上的种子结晶的数目。
-【常时】此《攻击》得+X/+0。
-【攻击后】被对应的《攻击》得-X/+0。</t>
-  </si>
-  <si>
-    <t>【常时】X等于置于你的展开中的付与牌上的种子结晶的总数。
-【常时】此《攻击》获得+X/+0。
-【攻击后】被对应的《攻击》获得-X/+0。</t>
-  </si>
-  <si>
-    <t>【상시】X는 당신의 부여패에 있는 씨앗 결정의 개수에 해당된다.
-【상시】이 《공격》은 +X/+0 된다.
-【공격후】대응한 《공격》은 -X/+0 된다.</t>
-  </si>
-  <si>
-    <t>Forced: X is the number of Seed tokens on your Enhancements in play.
-Forced: This attack gets +X/+0.
-After Attack: The attack this card was played as a Reaction to gets -X/+0.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">无
-</t>
-    <phoneticPr fontId="19"/>
   </si>
   <si>
     <t>シスイ</t>
@@ -1916,12 +1659,258 @@
     </rPh>
     <phoneticPr fontId="19"/>
   </si>
+  <si>
+    <t xml:space="preserve">【攻撃後】あなたは集中力を1得る。
+----
+【即再起】あなたが傘の開閉を行う。 </t>
+    <rPh sb="1" eb="3">
+      <t>コウゲキ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>アト</t>
+    </rPh>
+    <rPh sb="9" eb="12">
+      <t>シュウチュウリョク</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>エ</t>
+    </rPh>
+    <phoneticPr fontId="19"/>
+  </si>
+  <si>
+    <t>3-6</t>
+    <phoneticPr fontId="19"/>
+  </si>
+  <si>
+    <t>0-2</t>
+    <phoneticPr fontId="19"/>
+  </si>
+  <si>
+    <t>遠心 
+以下から１つを選ぶ。このターンにあなたが次に行う《攻撃》にそれを与える。
+・+2/+1
+・対応不可と距離拡大（遠1）</t>
+    <rPh sb="24" eb="25">
+      <t>ツギ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>コウゲキ</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>アタ</t>
+    </rPh>
+    <rPh sb="49" eb="51">
+      <t>タイオウ</t>
+    </rPh>
+    <rPh sb="51" eb="53">
+      <t>フカ</t>
+    </rPh>
+    <rPh sb="54" eb="56">
+      <t>キョリ</t>
+    </rPh>
+    <rPh sb="56" eb="58">
+      <t>カクダイ</t>
+    </rPh>
+    <rPh sb="59" eb="60">
+      <t>トオ</t>
+    </rPh>
+    <phoneticPr fontId="19"/>
+  </si>
+  <si>
+    <t>行動</t>
+    <rPh sb="0" eb="2">
+      <t>コウドウ</t>
+    </rPh>
+    <phoneticPr fontId="19"/>
+  </si>
+  <si>
+    <t>終端　間合制限（0-7）
+【使用時/使用済】使用時とあなたが山札を再構成する直前に、あなたの捨て札または手札にあるヤツハのカード1枚を公開し、完全態にしてもよい。そうした場合、あなたは畏縮する。
+（例えば手札の「星の爪」を公開したなら追加札の「星辰の鉤爪」と交換され、手札に加わる）</t>
+    <rPh sb="3" eb="5">
+      <t>マアイ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>セイゲン</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="85" eb="87">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="92" eb="94">
+      <t>イシュク</t>
+    </rPh>
+    <phoneticPr fontId="19"/>
+  </si>
+  <si>
+    <t>【展開中】あなたのターンかつ順風である場合のみ、このカードの上の桜花結晶は移動する。
+【展開中/破棄時】あなたの開始フェイズの開始時と破棄時に伏せ札を1枚選び、山札の上に置いてもよい。
+【破棄時】基本動作を1回まで行い、攻撃『適正距離2-7、1/-』を行う。</t>
+    <rPh sb="44" eb="46">
+      <t>テンカイ</t>
+    </rPh>
+    <rPh sb="46" eb="47">
+      <t>チュウ</t>
+    </rPh>
+    <rPh sb="56" eb="58">
+      <t>カイシ</t>
+    </rPh>
+    <rPh sb="63" eb="66">
+      <t>カイシジ</t>
+    </rPh>
+    <rPh sb="67" eb="69">
+      <t>ハキ</t>
+    </rPh>
+    <rPh sb="69" eb="70">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="71" eb="72">
+      <t>フ</t>
+    </rPh>
+    <rPh sb="73" eb="74">
+      <t>フダ</t>
+    </rPh>
+    <rPh sb="76" eb="77">
+      <t>マイ</t>
+    </rPh>
+    <rPh sb="77" eb="78">
+      <t>エラ</t>
+    </rPh>
+    <rPh sb="80" eb="81">
+      <t>ヤマ</t>
+    </rPh>
+    <rPh sb="81" eb="82">
+      <t>フダ</t>
+    </rPh>
+    <rPh sb="83" eb="84">
+      <t>ウエ</t>
+    </rPh>
+    <rPh sb="85" eb="86">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="98" eb="100">
+      <t>キホン</t>
+    </rPh>
+    <rPh sb="100" eb="102">
+      <t>ドウサ</t>
+    </rPh>
+    <rPh sb="104" eb="105">
+      <t>カイ</t>
+    </rPh>
+    <rPh sb="107" eb="108">
+      <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="19"/>
+  </si>
+  <si>
+    <t>付与</t>
+    <rPh sb="0" eb="2">
+      <t>フヨ</t>
+    </rPh>
+    <phoneticPr fontId="19"/>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="19"/>
+  </si>
+  <si>
+    <t>生育1
+【常時】Xは《付与》カードの上にあるあなたの種結晶の個数の合計に等しい。
+【展開時】対応した《攻撃》は-X/+0となる。
+【展開中】相手の開始フェイズの開始時に攻撃『1-5、0/1、【常時】この攻撃は+X/+0となる』を行う。</t>
+    <rPh sb="0" eb="2">
+      <t>セイイク</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>フヨ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ウエ</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>テンカイ</t>
+    </rPh>
+    <rPh sb="44" eb="45">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="46" eb="48">
+      <t>タイオウ</t>
+    </rPh>
+    <rPh sb="66" eb="69">
+      <t>テンカイチュウ</t>
+    </rPh>
+    <rPh sb="70" eb="72">
+      <t>アイテ</t>
+    </rPh>
+    <rPh sb="73" eb="75">
+      <t>カイシ</t>
+    </rPh>
+    <rPh sb="80" eb="83">
+      <t>カイシジ</t>
+    </rPh>
+    <rPh sb="84" eb="86">
+      <t>コウゲキ</t>
+    </rPh>
+    <rPh sb="96" eb="98">
+      <t>ジョウジ</t>
+    </rPh>
+    <rPh sb="101" eb="103">
+      <t>コウゲキ</t>
+    </rPh>
+    <rPh sb="114" eb="115">
+      <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="19"/>
+  </si>
+  <si>
+    <t>【展開時】あなたのライフからフレアへと桜花結晶を4つ移動させる。
+【展開中】このカードの効果以外でこの付与札の上の桜花結晶は移動しない。
+【展開中】あなたのライフが0の時にあなたが敗北するならば、代わりにあなたのフレアからライフへと桜花結晶を4つ移動させる。その後、この付与札の上の桜花結晶を全てダストに送り、このカードを取り除く。</t>
+    <rPh sb="131" eb="132">
+      <t>アト</t>
+    </rPh>
+    <rPh sb="135" eb="137">
+      <t>フヨ</t>
+    </rPh>
+    <rPh sb="137" eb="138">
+      <t>フダ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>攻撃『適正距離0-10　-/1、【常時】この《攻撃》が対応されたならば、この攻撃は打ち消される。【常時】この《攻撃》のダメージは変化しない』を行う。その後、あなたの資本が相手の資本より大きいならばこのカードを使用する。
+（消費は支払い、それは時価以外で変化しない）</t>
+    <rPh sb="3" eb="5">
+      <t>テキセイ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>キョリ</t>
+    </rPh>
+    <rPh sb="121" eb="122">
+      <t>トキ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="28">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -2081,26 +2070,11 @@
     </font>
     <font>
       <sz val="10"/>
-      <name val="宋体"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="MS Gothic"/>
-      <family val="3"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <name val="宋体"/>
-    </font>
-    <font>
-      <sz val="10"/>
       <name val="SimSun"/>
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2123,6 +2097,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
         <bgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -2159,7 +2139,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2295,12 +2275,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2326,20 +2300,8 @@
     <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -2347,15 +2309,40 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="5" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="5" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="49" fontId="5" fillId="5" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="常规 2" xfId="1"/>
@@ -2890,24 +2877,24 @@
     </row>
     <row r="3" spans="1:34" ht="12" customHeight="1">
       <c r="A3" s="1" t="s">
-        <v>275</v>
+        <v>242</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>274</v>
+        <v>241</v>
       </c>
       <c r="C3" s="26"/>
       <c r="D3" s="26"/>
       <c r="E3" s="27"/>
       <c r="F3" s="28"/>
       <c r="G3" s="1" t="s">
-        <v>276</v>
+        <v>243</v>
       </c>
       <c r="H3" s="26"/>
       <c r="I3" s="26"/>
       <c r="J3" s="29"/>
       <c r="K3" s="28"/>
       <c r="L3" s="1" t="s">
-        <v>277</v>
+        <v>244</v>
       </c>
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
@@ -17926,7 +17913,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A15" sqref="A15"/>
-      <selection pane="bottomRight" activeCell="I4" sqref="I4"/>
+      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -18056,7 +18043,7 @@
         <v>25</v>
       </c>
       <c r="AD1" s="16" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="AE1" s="16" t="s">
         <v>26</v>
@@ -18107,29 +18094,29 @@
     </row>
     <row r="2" spans="1:48" s="11" customFormat="1" ht="36">
       <c r="A2" s="1" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="F2" s="1"/>
       <c r="G2" s="41" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="H2" s="42" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="I2" s="41"/>
       <c r="J2" s="42" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="K2" s="43" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="L2" s="1"/>
       <c r="M2" s="1" t="s">
@@ -18144,47 +18131,37 @@
       </c>
       <c r="S2" s="1"/>
       <c r="T2" s="1" t="s">
-        <v>209</v>
+        <v>253</v>
       </c>
       <c r="U2" s="44" t="s">
-        <v>210</v>
+        <v>254</v>
       </c>
       <c r="V2" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="W2" s="44" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="X2" s="1"/>
       <c r="Y2" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="Z2" s="1"/>
       <c r="AA2" s="1"/>
       <c r="AB2" s="2"/>
       <c r="AC2" s="2"/>
       <c r="AD2" s="45"/>
-      <c r="AE2" s="2"/>
-      <c r="AF2" s="46" t="s">
-        <v>273</v>
-      </c>
-      <c r="AG2" s="47"/>
-      <c r="AH2" s="48"/>
-      <c r="AI2" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="AJ2" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="AK2" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="AL2" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="AM2" s="2" t="s">
-        <v>216</v>
-      </c>
+      <c r="AE2" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="AF2" s="46"/>
+      <c r="AG2" s="56"/>
+      <c r="AH2" s="67"/>
+      <c r="AI2" s="56"/>
+      <c r="AJ2" s="56"/>
+      <c r="AK2" s="56"/>
+      <c r="AL2" s="56"/>
+      <c r="AM2" s="56"/>
       <c r="AN2" s="2"/>
       <c r="AO2" s="12"/>
       <c r="AP2" s="12"/>
@@ -18193,7 +18170,7 @@
       <c r="AS2" s="12"/>
       <c r="AT2" s="14" t="str">
         <f>IF(A2="", "", IF(ROW()&gt;=3, ", ", "")&amp;"'"&amp;A2&amp;"': {megami: '"&amp;B2&amp;"'"&amp;IF(C2&lt;&gt;"",", anotherID: '"&amp;C2&amp;"', replace: '"&amp;D2&amp;"'","")&amp;", name: '"&amp;SUBSTITUTE(E2,"'","\'")&amp;"', nameEn: '"&amp;SUBSTITUTE(K2,"'","\'")&amp;"', nameZh: '"&amp;SUBSTITUTE(G2,"'","\'")&amp;"', nameZhG1: '"&amp;SUBSTITUTE(H2,"'","\'")&amp;"', nameKo: '"&amp;SUBSTITUTE(J2,"'","\'")&amp;"', ruby: '"&amp;F2&amp;"', rubyEn: '"&amp;L2&amp;IF(I2&lt;&gt;"", "', rubyZh: '"&amp;I2, "")&amp;"', baseType: '"&amp;VLOOKUP(M2,マスタ!$A$1:$B$99,2,0)&amp;"'"&amp;IF(N2="○",", extra: true","")&amp;IF(O2&lt;&gt;"",", extraFrom: '"&amp;O2&amp;"'","")&amp;IF(P2&lt;&gt;"",", exchangableTo: '"&amp;P2&amp;"'","")&amp;IF(Q2="○",", poison: true","")&amp;IF(R2&lt;&gt;"", ", type: '"&amp;VLOOKUP(R2,マスタ!$D$1:$E$99,2,0)&amp;"'", "")&amp;IF(S2&lt;&gt;"",", subType: '"&amp;VLOOKUP(S2,マスタ!$D$1:$E$99,2,0)&amp;"'","")&amp;""&amp;IF(T2&lt;&gt;"",", range: '"&amp;T2&amp;"'","")&amp;IF(V2&lt;&gt;"",", damage: '"&amp;V2&amp;"'","")&amp;IF(X2&lt;&gt;"",", capacity: '"&amp;X2&amp;"'","")&amp;IF(Y2&lt;&gt;"",", growth: "&amp;Y2&amp;"","")&amp;IF(Z2&lt;&gt;"",", cost: '"&amp;Z2&amp;"'","")&amp;", text: '"&amp;SUBSTITUTE(SUBSTITUTE(AE2, CHAR(13), ""),CHAR(10),"\n")&amp;IF(AF2&lt;&gt;"", "', textAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AF2, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textZh: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AG2, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;"', textZhG1: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AI2, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AH2&lt;&gt;"", "', textZhAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AH2, CHAR(13), ""),CHAR(10),"\n"), "")&amp;IF(AJ2&lt;&gt;"", "', textZhG1Additional: '"&amp;SUBSTITUTE(SUBSTITUTE(AJ2, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textKo: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AK2, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AL2&lt;&gt;"", "', textKoAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AL2, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textEn: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AM2, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AN2&lt;&gt;"", "', textEnAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AN2, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"'"&amp;IF(AB2="○",", sealable: true","")&amp;IF(AC2="○",", removable: true","")&amp;IF(AA2="○",", lie: true","")&amp;IF(AD2="○",", investable: true","")&amp;"}")</f>
-        <v>'06-yukihi-o-s-1': {megami: 'yukihi', name: 'はらりゆき', nameEn: 'Gentle Snow', nameZh: '纷扬如雪', nameZhG1: '纷扬如雪', nameKo: '흩날리는 눈꽃', ruby: '', rubyEn: '', baseType: 'special', type: 'attack', range: '3-5', damage: '3/1', growth: 2, text: '', textAdditional: '无\n', textZh: '', textZhG1: '----\n【即再起】あなたが傘の開閉を行う。 ', textZhG1Additional: '----\n【即再起】进行一次伞的开合操作。', textKo: '无 \n----\n【即再起】进行伞的开合操作', textKoAdditional: '----\n【즉재기】당신이 우산의 개폐를 행한다.', textEn: '----\nImmediate Resurgence: You open or close your umbrella.'}</v>
+        <v>'06-yukihi-o-s-1': {megami: 'yukihi', name: 'はらりゆき', nameEn: 'Gentle Snow', nameZh: '纷扬如雪', nameZhG1: '纷扬如雪', nameKo: '흩날리는 눈꽃', ruby: '', rubyEn: '', baseType: 'special', type: 'attack', range: '3-6', damage: '3/1', growth: 2, text: '【攻撃後】あなたは集中力を1得る。\n----\n【即再起】あなたが傘の開閉を行う。 ', textZh: '', textZhG1: '', textKo: '', textEn: ''}</v>
       </c>
       <c r="AU2" s="5" t="str">
         <f t="shared" ref="AU2:AU7" si="0">IF($A2&lt;&gt;"", "    /** 《"&amp;$E2&amp;"》 */ export const "&amp;SUBSTITUTE(UPPER(IF(MID($A2, 3, 1)="-", RIGHT($A2,LEN($A2)-3), $A2)), "-", "_")&amp;": TCardId = '"&amp;$A2&amp;"';", "")</f>
@@ -18204,33 +18181,33 @@
         <v xml:space="preserve">    | '06-yukihi-o-s-1'</v>
       </c>
     </row>
-    <row r="3" spans="1:48" s="11" customFormat="1" ht="96.75">
+    <row r="3" spans="1:48" s="11" customFormat="1" ht="48">
       <c r="A3" s="1" t="s">
-        <v>217</v>
+        <v>208</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>218</v>
+        <v>209</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1" t="s">
-        <v>219</v>
+        <v>210</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
       <c r="G3" s="41" t="s">
-        <v>221</v>
+        <v>212</v>
       </c>
       <c r="H3" s="42" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
       <c r="I3" s="41"/>
       <c r="J3" s="42" t="s">
-        <v>223</v>
+        <v>214</v>
       </c>
       <c r="K3" s="43" t="s">
-        <v>224</v>
+        <v>215</v>
       </c>
       <c r="L3" s="1"/>
       <c r="M3" s="1" t="s">
@@ -18245,9 +18222,9 @@
       </c>
       <c r="S3" s="1"/>
       <c r="T3" s="1"/>
-      <c r="U3" s="49"/>
+      <c r="U3" s="47"/>
       <c r="V3" s="1"/>
-      <c r="W3" s="49"/>
+      <c r="W3" s="47"/>
       <c r="X3" s="1"/>
       <c r="Y3" s="1"/>
       <c r="Z3" s="1"/>
@@ -18255,25 +18232,17 @@
       <c r="AB3" s="2"/>
       <c r="AC3" s="2"/>
       <c r="AD3" s="45"/>
-      <c r="AE3" s="61" t="s">
-        <v>225</v>
-      </c>
-      <c r="AF3" s="61"/>
-      <c r="AG3" s="62" t="s">
-        <v>226</v>
-      </c>
-      <c r="AH3" s="61"/>
-      <c r="AI3" s="67" t="s">
-        <v>227</v>
-      </c>
-      <c r="AJ3" s="63"/>
-      <c r="AK3" s="63" t="s">
-        <v>228</v>
-      </c>
-      <c r="AL3" s="64"/>
-      <c r="AM3" s="65" t="s">
-        <v>229</v>
-      </c>
+      <c r="AE3" s="56" t="s">
+        <v>255</v>
+      </c>
+      <c r="AF3" s="56"/>
+      <c r="AG3" s="62"/>
+      <c r="AH3" s="56"/>
+      <c r="AI3" s="61"/>
+      <c r="AJ3" s="57"/>
+      <c r="AK3" s="60"/>
+      <c r="AL3" s="58"/>
+      <c r="AM3" s="59"/>
       <c r="AN3" s="2"/>
       <c r="AO3" s="12"/>
       <c r="AP3" s="12"/>
@@ -18293,37 +18262,37 @@
         <v xml:space="preserve">    | '08-hagane-o-n-6'</v>
       </c>
     </row>
-    <row r="4" spans="1:48" s="11" customFormat="1" ht="102">
+    <row r="4" spans="1:48" s="11" customFormat="1" ht="72">
       <c r="A4" s="10" t="s">
-        <v>230</v>
+        <v>216</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>231</v>
+        <v>217</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>232</v>
+        <v>218</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>233</v>
+        <v>219</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>234</v>
+        <v>220</v>
       </c>
       <c r="F4" s="10" t="s">
-        <v>235</v>
-      </c>
-      <c r="G4" s="50" t="s">
-        <v>236</v>
-      </c>
-      <c r="H4" s="51" t="s">
-        <v>236</v>
-      </c>
-      <c r="I4" s="50"/>
-      <c r="J4" s="51" t="s">
-        <v>237</v>
-      </c>
-      <c r="K4" s="52" t="s">
-        <v>238</v>
+        <v>221</v>
+      </c>
+      <c r="G4" s="48" t="s">
+        <v>222</v>
+      </c>
+      <c r="H4" s="49" t="s">
+        <v>222</v>
+      </c>
+      <c r="I4" s="48"/>
+      <c r="J4" s="49" t="s">
+        <v>223</v>
+      </c>
+      <c r="K4" s="50" t="s">
+        <v>224</v>
       </c>
       <c r="L4" s="10"/>
       <c r="M4" s="10" t="s">
@@ -18334,44 +18303,32 @@
       <c r="P4" s="10"/>
       <c r="Q4" s="10"/>
       <c r="R4" s="10" t="s">
-        <v>38</v>
+        <v>256</v>
       </c>
       <c r="S4" s="10"/>
-      <c r="T4" s="10" t="s">
-        <v>239</v>
-      </c>
+      <c r="T4" s="10"/>
       <c r="U4" s="12"/>
-      <c r="V4" s="10" t="s">
-        <v>240</v>
-      </c>
+      <c r="V4" s="10"/>
       <c r="W4" s="12"/>
       <c r="X4" s="10"/>
       <c r="Y4" s="10"/>
       <c r="Z4" s="10" t="s">
-        <v>241</v>
+        <v>225</v>
       </c>
       <c r="AA4" s="10"/>
       <c r="AB4" s="13"/>
       <c r="AC4" s="13"/>
       <c r="AE4" s="34" t="s">
-        <v>242</v>
+        <v>257</v>
       </c>
       <c r="AF4" s="34"/>
-      <c r="AG4" s="35" t="s">
-        <v>243</v>
-      </c>
-      <c r="AH4" s="34"/>
-      <c r="AI4" s="36" t="s">
-        <v>244</v>
-      </c>
-      <c r="AJ4" s="34"/>
-      <c r="AK4" s="37" t="s">
-        <v>245</v>
-      </c>
-      <c r="AL4" s="34"/>
-      <c r="AM4" s="66" t="s">
-        <v>246</v>
-      </c>
+      <c r="AG4" s="62"/>
+      <c r="AH4" s="56"/>
+      <c r="AI4" s="61"/>
+      <c r="AJ4" s="57"/>
+      <c r="AK4" s="60"/>
+      <c r="AL4" s="58"/>
+      <c r="AM4" s="59"/>
       <c r="AN4" s="2"/>
       <c r="AO4" s="12"/>
       <c r="AP4" s="12"/>
@@ -18391,74 +18348,67 @@
         <v xml:space="preserve">    | '16-yatsuha-A1-s-4'</v>
       </c>
     </row>
-    <row r="5" spans="1:48" s="11" customFormat="1" ht="96">
-      <c r="A5" s="53" t="s">
-        <v>247</v>
-      </c>
-      <c r="B5" s="53" t="s">
-        <v>248</v>
-      </c>
-      <c r="C5" s="53"/>
-      <c r="D5" s="53"/>
-      <c r="E5" s="53" t="s">
-        <v>249</v>
-      </c>
-      <c r="F5" s="53" t="s">
-        <v>250</v>
-      </c>
-      <c r="G5" s="53" t="s">
-        <v>251</v>
-      </c>
-      <c r="H5" s="53" t="s">
-        <v>252</v>
-      </c>
-      <c r="I5" s="54"/>
-      <c r="J5" s="53" t="s">
-        <v>253</v>
-      </c>
-      <c r="K5" s="55" t="s">
-        <v>254</v>
-      </c>
-      <c r="L5" s="53"/>
-      <c r="M5" s="53" t="s">
+    <row r="5" spans="1:48" s="11" customFormat="1" ht="60">
+      <c r="A5" s="51" t="s">
+        <v>226</v>
+      </c>
+      <c r="B5" s="51" t="s">
+        <v>227</v>
+      </c>
+      <c r="C5" s="51"/>
+      <c r="D5" s="51"/>
+      <c r="E5" s="51" t="s">
+        <v>228</v>
+      </c>
+      <c r="F5" s="51" t="s">
+        <v>229</v>
+      </c>
+      <c r="G5" s="51" t="s">
+        <v>230</v>
+      </c>
+      <c r="H5" s="51" t="s">
+        <v>231</v>
+      </c>
+      <c r="I5" s="52"/>
+      <c r="J5" s="51" t="s">
+        <v>232</v>
+      </c>
+      <c r="K5" s="53" t="s">
+        <v>233</v>
+      </c>
+      <c r="L5" s="51"/>
+      <c r="M5" s="51" t="s">
         <v>37</v>
       </c>
-      <c r="N5" s="53"/>
-      <c r="O5" s="53"/>
-      <c r="P5" s="53"/>
-      <c r="Q5" s="53"/>
-      <c r="R5" s="53" t="s">
+      <c r="N5" s="51"/>
+      <c r="O5" s="51"/>
+      <c r="P5" s="51"/>
+      <c r="Q5" s="51"/>
+      <c r="R5" s="51" t="s">
         <v>41</v>
       </c>
-      <c r="S5" s="53"/>
-      <c r="T5" s="53"/>
-      <c r="U5" s="56"/>
-      <c r="V5" s="53"/>
-      <c r="W5" s="56"/>
-      <c r="X5" s="53" t="s">
-        <v>241</v>
-      </c>
-      <c r="Y5" s="53"/>
-      <c r="Z5" s="53"/>
-      <c r="AA5" s="53"/>
-      <c r="AE5" s="57" t="s">
-        <v>255</v>
-      </c>
-      <c r="AF5" s="57"/>
-      <c r="AG5" s="58" t="s">
-        <v>256</v>
-      </c>
-      <c r="AH5" s="59"/>
-      <c r="AI5" s="58" t="s">
-        <v>257</v>
-      </c>
-      <c r="AK5" s="59" t="s">
+      <c r="S5" s="51"/>
+      <c r="T5" s="51"/>
+      <c r="U5" s="54"/>
+      <c r="V5" s="51"/>
+      <c r="W5" s="54"/>
+      <c r="X5" s="51" t="s">
+        <v>225</v>
+      </c>
+      <c r="Y5" s="51"/>
+      <c r="Z5" s="51"/>
+      <c r="AA5" s="51"/>
+      <c r="AE5" s="55" t="s">
         <v>258</v>
       </c>
-      <c r="AL5" s="34"/>
-      <c r="AM5" s="60" t="s">
-        <v>259</v>
-      </c>
+      <c r="AF5" s="55"/>
+      <c r="AG5" s="62"/>
+      <c r="AH5" s="56"/>
+      <c r="AI5" s="61"/>
+      <c r="AJ5" s="57"/>
+      <c r="AK5" s="60"/>
+      <c r="AL5" s="58"/>
+      <c r="AM5" s="59"/>
       <c r="AN5" s="2"/>
       <c r="AO5" s="12"/>
       <c r="AP5" s="12"/>
@@ -18478,33 +18428,33 @@
         <v xml:space="preserve">    | '17-hatsumi-o-n-7'</v>
       </c>
     </row>
-    <row r="6" spans="1:48" s="11" customFormat="1" ht="84">
+    <row r="6" spans="1:48" s="11" customFormat="1" ht="60">
       <c r="A6" s="16" t="s">
-        <v>260</v>
+        <v>234</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>261</v>
+        <v>235</v>
       </c>
       <c r="C6" s="16"/>
       <c r="D6" s="16"/>
       <c r="E6" s="16" t="s">
-        <v>262</v>
+        <v>236</v>
       </c>
       <c r="F6" s="16" t="s">
-        <v>263</v>
+        <v>237</v>
       </c>
       <c r="G6" s="10" t="s">
-        <v>264</v>
+        <v>238</v>
       </c>
       <c r="H6" s="10" t="s">
-        <v>264</v>
+        <v>238</v>
       </c>
       <c r="I6" s="17"/>
       <c r="J6" s="24" t="s">
-        <v>265</v>
+        <v>239</v>
       </c>
       <c r="K6" s="16" t="s">
-        <v>266</v>
+        <v>240</v>
       </c>
       <c r="L6" s="16"/>
       <c r="M6" s="16" t="s">
@@ -18515,45 +18465,35 @@
       <c r="P6" s="16"/>
       <c r="Q6" s="16"/>
       <c r="R6" s="16" t="s">
-        <v>38</v>
+        <v>259</v>
       </c>
       <c r="S6" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="T6" s="16" t="s">
-        <v>126</v>
-      </c>
+      <c r="T6" s="16"/>
       <c r="U6" s="18"/>
-      <c r="V6" s="16" t="s">
-        <v>267</v>
-      </c>
+      <c r="V6" s="16"/>
       <c r="W6" s="18"/>
-      <c r="X6" s="16"/>
+      <c r="X6" s="16" t="s">
+        <v>260</v>
+      </c>
       <c r="Y6" s="16"/>
       <c r="Z6" s="16" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="AA6" s="16"/>
       <c r="AB6" s="16"/>
       <c r="AE6" s="21" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="AF6" s="21"/>
-      <c r="AG6" s="13" t="s">
-        <v>269</v>
-      </c>
-      <c r="AH6" s="19"/>
-      <c r="AI6" s="13" t="s">
-        <v>270</v>
-      </c>
-      <c r="AJ6" s="19"/>
-      <c r="AK6" s="21" t="s">
-        <v>271</v>
-      </c>
-      <c r="AL6" s="19"/>
-      <c r="AM6" s="21" t="s">
-        <v>272</v>
-      </c>
+      <c r="AG6" s="62"/>
+      <c r="AH6" s="56"/>
+      <c r="AI6" s="61"/>
+      <c r="AJ6" s="57"/>
+      <c r="AK6" s="60"/>
+      <c r="AL6" s="58"/>
+      <c r="AM6" s="59"/>
       <c r="AN6" s="2"/>
       <c r="AO6" s="12"/>
       <c r="AP6" s="12"/>
@@ -18647,11 +18587,11 @@
       <c r="F8" s="10" t="s">
         <v>115</v>
       </c>
-      <c r="G8" s="30"/>
-      <c r="H8" s="31"/>
+      <c r="G8" s="68"/>
+      <c r="H8" s="69"/>
       <c r="I8" s="30"/>
-      <c r="J8" s="31"/>
-      <c r="K8" s="32"/>
+      <c r="J8" s="69"/>
+      <c r="K8" s="70"/>
       <c r="L8" s="33"/>
       <c r="M8" s="10" t="s">
         <v>37</v>
@@ -18683,13 +18623,13 @@
         <v>136</v>
       </c>
       <c r="AF8" s="34"/>
-      <c r="AG8" s="35"/>
+      <c r="AG8" s="64"/>
       <c r="AH8" s="34"/>
-      <c r="AI8" s="36"/>
+      <c r="AI8" s="65"/>
       <c r="AJ8" s="34"/>
-      <c r="AK8" s="37"/>
+      <c r="AK8" s="63"/>
       <c r="AL8" s="34"/>
-      <c r="AM8" s="38"/>
+      <c r="AM8" s="63"/>
       <c r="AN8" s="2"/>
       <c r="AO8" s="12"/>
       <c r="AP8" s="12"/>
@@ -18724,11 +18664,11 @@
       <c r="F9" s="10" t="s">
         <v>116</v>
       </c>
-      <c r="G9" s="30"/>
-      <c r="H9" s="31"/>
+      <c r="G9" s="68"/>
+      <c r="H9" s="69"/>
       <c r="I9" s="30"/>
-      <c r="J9" s="31"/>
-      <c r="K9" s="32"/>
+      <c r="J9" s="69"/>
+      <c r="K9" s="70"/>
       <c r="L9" s="33"/>
       <c r="M9" s="10" t="s">
         <v>37</v>
@@ -18756,19 +18696,19 @@
       <c r="AB9" s="10"/>
       <c r="AC9" s="10"/>
       <c r="AD9" s="10" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="AE9" s="39" t="s">
         <v>122</v>
       </c>
       <c r="AF9" s="34"/>
-      <c r="AG9" s="35"/>
+      <c r="AG9" s="64"/>
       <c r="AH9" s="34"/>
-      <c r="AI9" s="36"/>
+      <c r="AI9" s="65"/>
       <c r="AJ9" s="34"/>
-      <c r="AK9" s="37"/>
+      <c r="AK9" s="63"/>
       <c r="AL9" s="34"/>
-      <c r="AM9" s="38"/>
+      <c r="AM9" s="63"/>
       <c r="AN9" s="2"/>
       <c r="AO9" s="12"/>
       <c r="AP9" s="12"/>
@@ -18803,11 +18743,11 @@
       <c r="F10" s="10" t="s">
         <v>117</v>
       </c>
-      <c r="G10" s="30"/>
-      <c r="H10" s="31"/>
+      <c r="G10" s="68"/>
+      <c r="H10" s="69"/>
       <c r="I10" s="30"/>
-      <c r="J10" s="31"/>
-      <c r="K10" s="32"/>
+      <c r="J10" s="69"/>
+      <c r="K10" s="70"/>
       <c r="L10" s="33"/>
       <c r="M10" s="10" t="s">
         <v>37</v>
@@ -18839,13 +18779,13 @@
         <v>135</v>
       </c>
       <c r="AF10" s="34"/>
-      <c r="AG10" s="35"/>
+      <c r="AG10" s="64"/>
       <c r="AH10" s="34"/>
-      <c r="AI10" s="36"/>
+      <c r="AI10" s="65"/>
       <c r="AJ10" s="34"/>
-      <c r="AK10" s="37"/>
+      <c r="AK10" s="63"/>
       <c r="AL10" s="34"/>
-      <c r="AM10" s="38"/>
+      <c r="AM10" s="63"/>
       <c r="AN10" s="2"/>
       <c r="AO10" s="12"/>
       <c r="AP10" s="12"/>
@@ -18880,11 +18820,11 @@
       <c r="F11" s="10" t="s">
         <v>118</v>
       </c>
-      <c r="G11" s="30"/>
-      <c r="H11" s="31"/>
+      <c r="G11" s="68"/>
+      <c r="H11" s="69"/>
       <c r="I11" s="30"/>
-      <c r="J11" s="31"/>
-      <c r="K11" s="32"/>
+      <c r="J11" s="69"/>
+      <c r="K11" s="70"/>
       <c r="L11" s="33"/>
       <c r="M11" s="10" t="s">
         <v>37</v>
@@ -18912,13 +18852,13 @@
         <v>134</v>
       </c>
       <c r="AF11" s="34"/>
-      <c r="AG11" s="35"/>
+      <c r="AG11" s="64"/>
       <c r="AH11" s="34"/>
-      <c r="AI11" s="36"/>
+      <c r="AI11" s="65"/>
       <c r="AJ11" s="34"/>
-      <c r="AK11" s="37"/>
+      <c r="AK11" s="63"/>
       <c r="AL11" s="34"/>
-      <c r="AM11" s="38"/>
+      <c r="AM11" s="63"/>
       <c r="AN11" s="2"/>
       <c r="AO11" s="12"/>
       <c r="AP11" s="12"/>
@@ -18953,11 +18893,11 @@
       <c r="F12" s="10" t="s">
         <v>119</v>
       </c>
-      <c r="G12" s="30"/>
-      <c r="H12" s="31"/>
+      <c r="G12" s="68"/>
+      <c r="H12" s="69"/>
       <c r="I12" s="30"/>
-      <c r="J12" s="31"/>
-      <c r="K12" s="32"/>
+      <c r="J12" s="69"/>
+      <c r="K12" s="70"/>
       <c r="L12" s="33"/>
       <c r="M12" s="10" t="s">
         <v>37</v>
@@ -18987,13 +18927,13 @@
         <v>140</v>
       </c>
       <c r="AF12" s="34"/>
-      <c r="AG12" s="35"/>
+      <c r="AG12" s="64"/>
       <c r="AH12" s="34"/>
-      <c r="AI12" s="36"/>
+      <c r="AI12" s="65"/>
       <c r="AJ12" s="34"/>
-      <c r="AK12" s="37"/>
+      <c r="AK12" s="63"/>
       <c r="AL12" s="34"/>
-      <c r="AM12" s="38"/>
+      <c r="AM12" s="63"/>
       <c r="AN12" s="2"/>
       <c r="AO12" s="12"/>
       <c r="AP12" s="12"/>
@@ -19028,11 +18968,11 @@
       <c r="F13" s="10" t="s">
         <v>120</v>
       </c>
-      <c r="G13" s="30"/>
-      <c r="H13" s="31"/>
+      <c r="G13" s="68"/>
+      <c r="H13" s="69"/>
       <c r="I13" s="30"/>
-      <c r="J13" s="31"/>
-      <c r="K13" s="32"/>
+      <c r="J13" s="69"/>
+      <c r="K13" s="70"/>
       <c r="L13" s="33"/>
       <c r="M13" s="10" t="s">
         <v>37</v>
@@ -19059,16 +18999,16 @@
       <c r="AC13" s="10"/>
       <c r="AD13" s="10"/>
       <c r="AE13" s="39" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="AF13" s="34"/>
-      <c r="AG13" s="35"/>
+      <c r="AG13" s="64"/>
       <c r="AH13" s="34"/>
-      <c r="AI13" s="36"/>
+      <c r="AI13" s="65"/>
       <c r="AJ13" s="34"/>
-      <c r="AK13" s="37"/>
+      <c r="AK13" s="63"/>
       <c r="AL13" s="34"/>
-      <c r="AM13" s="38"/>
+      <c r="AM13" s="63"/>
       <c r="AN13" s="2"/>
       <c r="AO13" s="12"/>
       <c r="AP13" s="12"/>
@@ -19103,11 +19043,11 @@
       <c r="F14" s="10" t="s">
         <v>121</v>
       </c>
-      <c r="G14" s="30"/>
-      <c r="H14" s="31"/>
+      <c r="G14" s="68"/>
+      <c r="H14" s="69"/>
       <c r="I14" s="30"/>
-      <c r="J14" s="31"/>
-      <c r="K14" s="32"/>
+      <c r="J14" s="69"/>
+      <c r="K14" s="70"/>
       <c r="L14" s="33"/>
       <c r="M14" s="10" t="s">
         <v>37</v>
@@ -19135,19 +19075,19 @@
       <c r="AB14" s="10"/>
       <c r="AC14" s="10"/>
       <c r="AD14" s="10" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="AE14" s="39" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="AF14" s="34"/>
-      <c r="AG14" s="35"/>
+      <c r="AG14" s="64"/>
       <c r="AH14" s="34"/>
-      <c r="AI14" s="36"/>
+      <c r="AI14" s="65"/>
       <c r="AJ14" s="34"/>
-      <c r="AK14" s="37"/>
+      <c r="AK14" s="63"/>
       <c r="AL14" s="34"/>
-      <c r="AM14" s="38"/>
+      <c r="AM14" s="63"/>
       <c r="AN14" s="2"/>
       <c r="AO14" s="12"/>
       <c r="AP14" s="12"/>
@@ -19182,11 +19122,11 @@
       <c r="F15" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="G15" s="30"/>
-      <c r="H15" s="31"/>
+      <c r="G15" s="68"/>
+      <c r="H15" s="69"/>
       <c r="I15" s="30"/>
-      <c r="J15" s="31"/>
-      <c r="K15" s="32"/>
+      <c r="J15" s="69"/>
+      <c r="K15" s="70"/>
       <c r="L15" s="33"/>
       <c r="M15" s="10" t="s">
         <v>43</v>
@@ -19213,16 +19153,16 @@
       <c r="AC15" s="10"/>
       <c r="AD15" s="10"/>
       <c r="AE15" s="39" t="s">
-        <v>141</v>
+        <v>263</v>
       </c>
       <c r="AF15" s="34"/>
-      <c r="AG15" s="35"/>
+      <c r="AG15" s="64"/>
       <c r="AH15" s="34"/>
-      <c r="AI15" s="36"/>
+      <c r="AI15" s="65"/>
       <c r="AJ15" s="34"/>
-      <c r="AK15" s="37"/>
+      <c r="AK15" s="63"/>
       <c r="AL15" s="34"/>
-      <c r="AM15" s="38"/>
+      <c r="AM15" s="63"/>
       <c r="AN15" s="2"/>
       <c r="AO15" s="12"/>
       <c r="AP15" s="12"/>
@@ -19231,7 +19171,7 @@
       <c r="AS15" s="12"/>
       <c r="AT15" s="14" t="str">
         <f>IF(A15="", "", IF(ROW()&gt;=3, ", ", "")&amp;"'"&amp;A15&amp;"': {megami: '"&amp;B15&amp;"'"&amp;IF(C15&lt;&gt;"",", anotherID: '"&amp;C15&amp;"', replace: '"&amp;D15&amp;"'","")&amp;", name: '"&amp;SUBSTITUTE(E15,"'","\'")&amp;"', nameEn: '"&amp;SUBSTITUTE(K15,"'","\'")&amp;"', nameZh: '"&amp;SUBSTITUTE(G15,"'","\'")&amp;"', nameZhG1: '"&amp;SUBSTITUTE(H15,"'","\'")&amp;"', nameKo: '"&amp;SUBSTITUTE(J15,"'","\'")&amp;"', ruby: '"&amp;F15&amp;"', rubyEn: '"&amp;L15&amp;IF(I15&lt;&gt;"", "', rubyZh: '"&amp;I15, "")&amp;"', baseType: '"&amp;VLOOKUP(M15,マスタ!$A$1:$B$99,2,0)&amp;"'"&amp;IF(N15="○",", extra: true","")&amp;IF(O15&lt;&gt;"",", extraFrom: '"&amp;O15&amp;"'","")&amp;IF(P15&lt;&gt;"",", exchangableTo: '"&amp;P15&amp;"'","")&amp;IF(Q15="○",", poison: true","")&amp;IF(R15&lt;&gt;"", ", type: '"&amp;VLOOKUP(R15,マスタ!$D$1:$E$99,2,0)&amp;"'", "")&amp;IF(S15&lt;&gt;"",", subType: '"&amp;VLOOKUP(S15,マスタ!$D$1:$E$99,2,0)&amp;"'","")&amp;""&amp;IF(T15&lt;&gt;"",", range: '"&amp;T15&amp;"'","")&amp;IF(V15&lt;&gt;"",", damage: '"&amp;V15&amp;"'","")&amp;IF(X15&lt;&gt;"",", capacity: '"&amp;X15&amp;"'","")&amp;IF(Y15&lt;&gt;"",", growth: "&amp;Y15&amp;"","")&amp;IF(Z15&lt;&gt;"",", cost: '"&amp;Z15&amp;"'","")&amp;", text: '"&amp;SUBSTITUTE(SUBSTITUTE(AE15, CHAR(13), ""),CHAR(10),"\n")&amp;IF(AF15&lt;&gt;"", "', textAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AF15, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textZh: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AG15, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;"', textZhG1: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AI15, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AH15&lt;&gt;"", "', textZhAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AH15, CHAR(13), ""),CHAR(10),"\n"), "")&amp;IF(AJ15&lt;&gt;"", "', textZhG1Additional: '"&amp;SUBSTITUTE(SUBSTITUTE(AJ15, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textKo: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AK15, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AL15&lt;&gt;"", "', textKoAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AL15, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textEn: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AM15, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AN15&lt;&gt;"", "', textEnAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AN15, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"'"&amp;IF(AB15="○",", sealable: true","")&amp;IF(AC15="○",", removable: true","")&amp;IF(AA15="○",", lie: true","")&amp;IF(AD15="○",", investable: true","")&amp;"}")</f>
-        <v>, '23-akina-o-s-1': {megami: 'akina', name: '開方冥式切取法', nameEn: '', nameZh: '', nameZhG1: '', nameKo: '', ruby: 'かいほうめいしききりとりほう', rubyEn: '', baseType: 'special', type: 'action', cost: '時価', text: '攻撃『0-10　-/1、【常時】この《攻撃》が対応されたならば、この攻撃は打ち消される。【常時】この《攻撃》のダメージは変化しない』を行う。その後、あなたの資本が相手の資本より大きいならばこのカードを使用する。\n（消費は支払い、その消費は時価以外で加減されない）', textZh: '', textZhG1: '', textKo: '', textEn: ''}</v>
+        <v>, '23-akina-o-s-1': {megami: 'akina', name: '開方冥式切取法', nameEn: '', nameZh: '', nameZhG1: '', nameKo: '', ruby: 'かいほうめいしききりとりほう', rubyEn: '', baseType: 'special', type: 'action', cost: '時価', text: '攻撃『適正距離0-10　-/1、【常時】この《攻撃》が対応されたならば、この攻撃は打ち消される。【常時】この《攻撃》のダメージは変化しない』を行う。その後、あなたの資本が相手の資本より大きいならばこのカードを使用する。\n（消費は支払い、それは時価以外で変化しない）', textZh: '', textZhG1: '', textKo: '', textEn: ''}</v>
       </c>
       <c r="AU15" s="5" t="str">
         <f t="shared" si="2"/>
@@ -19257,11 +19197,11 @@
       <c r="F16" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="G16" s="30"/>
-      <c r="H16" s="31"/>
+      <c r="G16" s="68"/>
+      <c r="H16" s="69"/>
       <c r="I16" s="30"/>
-      <c r="J16" s="31"/>
-      <c r="K16" s="32"/>
+      <c r="J16" s="69"/>
+      <c r="K16" s="70"/>
       <c r="L16" s="33"/>
       <c r="M16" s="10" t="s">
         <v>43</v>
@@ -19294,16 +19234,16 @@
       <c r="AC16" s="10"/>
       <c r="AD16" s="10"/>
       <c r="AE16" s="39" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="AF16" s="34"/>
-      <c r="AG16" s="35"/>
+      <c r="AG16" s="64"/>
       <c r="AH16" s="34"/>
-      <c r="AI16" s="36"/>
+      <c r="AI16" s="65"/>
       <c r="AJ16" s="34"/>
-      <c r="AK16" s="37"/>
+      <c r="AK16" s="63"/>
       <c r="AL16" s="34"/>
-      <c r="AM16" s="38"/>
+      <c r="AM16" s="63"/>
       <c r="AN16" s="2"/>
       <c r="AO16" s="12"/>
       <c r="AP16" s="12"/>
@@ -19338,11 +19278,11 @@
       <c r="F17" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="G17" s="30"/>
-      <c r="H17" s="31"/>
+      <c r="G17" s="68"/>
+      <c r="H17" s="69"/>
       <c r="I17" s="30"/>
-      <c r="J17" s="31"/>
-      <c r="K17" s="32"/>
+      <c r="J17" s="69"/>
+      <c r="K17" s="70"/>
       <c r="L17" s="33"/>
       <c r="M17" s="10" t="s">
         <v>43</v>
@@ -19360,7 +19300,7 @@
       <c r="V17" s="10"/>
       <c r="W17" s="12"/>
       <c r="X17" s="10" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="Y17" s="10"/>
       <c r="Z17" s="10">
@@ -19369,20 +19309,20 @@
       <c r="AA17" s="10"/>
       <c r="AB17" s="10"/>
       <c r="AC17" s="10" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="AD17" s="10"/>
       <c r="AE17" s="39" t="s">
-        <v>143</v>
+        <v>262</v>
       </c>
       <c r="AF17" s="34"/>
-      <c r="AG17" s="35"/>
+      <c r="AG17" s="64"/>
       <c r="AH17" s="34"/>
-      <c r="AI17" s="36"/>
+      <c r="AI17" s="65"/>
       <c r="AJ17" s="34"/>
-      <c r="AK17" s="37"/>
+      <c r="AK17" s="63"/>
       <c r="AL17" s="34"/>
-      <c r="AM17" s="38"/>
+      <c r="AM17" s="63"/>
       <c r="AN17" s="2"/>
       <c r="AO17" s="12"/>
       <c r="AP17" s="12"/>
@@ -19391,7 +19331,7 @@
       <c r="AS17" s="12"/>
       <c r="AT17" s="14" t="str">
         <f>IF(A17="", "", IF(ROW()&gt;=3, ", ", "")&amp;"'"&amp;A17&amp;"': {megami: '"&amp;B17&amp;"'"&amp;IF(C17&lt;&gt;"",", anotherID: '"&amp;C17&amp;"', replace: '"&amp;D17&amp;"'","")&amp;", name: '"&amp;SUBSTITUTE(E17,"'","\'")&amp;"', nameEn: '"&amp;SUBSTITUTE(K17,"'","\'")&amp;"', nameZh: '"&amp;SUBSTITUTE(G17,"'","\'")&amp;"', nameZhG1: '"&amp;SUBSTITUTE(H17,"'","\'")&amp;"', nameKo: '"&amp;SUBSTITUTE(J17,"'","\'")&amp;"', ruby: '"&amp;F17&amp;"', rubyEn: '"&amp;L17&amp;IF(I17&lt;&gt;"", "', rubyZh: '"&amp;I17, "")&amp;"', baseType: '"&amp;VLOOKUP(M17,マスタ!$A$1:$B$99,2,0)&amp;"'"&amp;IF(N17="○",", extra: true","")&amp;IF(O17&lt;&gt;"",", extraFrom: '"&amp;O17&amp;"'","")&amp;IF(P17&lt;&gt;"",", exchangableTo: '"&amp;P17&amp;"'","")&amp;IF(Q17="○",", poison: true","")&amp;IF(R17&lt;&gt;"", ", type: '"&amp;VLOOKUP(R17,マスタ!$D$1:$E$99,2,0)&amp;"'", "")&amp;IF(S17&lt;&gt;"",", subType: '"&amp;VLOOKUP(S17,マスタ!$D$1:$E$99,2,0)&amp;"'","")&amp;""&amp;IF(T17&lt;&gt;"",", range: '"&amp;T17&amp;"'","")&amp;IF(V17&lt;&gt;"",", damage: '"&amp;V17&amp;"'","")&amp;IF(X17&lt;&gt;"",", capacity: '"&amp;X17&amp;"'","")&amp;IF(Y17&lt;&gt;"",", growth: "&amp;Y17&amp;"","")&amp;IF(Z17&lt;&gt;"",", cost: '"&amp;Z17&amp;"'","")&amp;", text: '"&amp;SUBSTITUTE(SUBSTITUTE(AE17, CHAR(13), ""),CHAR(10),"\n")&amp;IF(AF17&lt;&gt;"", "', textAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AF17, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textZh: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AG17, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;"', textZhG1: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AI17, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AH17&lt;&gt;"", "', textZhAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AH17, CHAR(13), ""),CHAR(10),"\n"), "")&amp;IF(AJ17&lt;&gt;"", "', textZhG1Additional: '"&amp;SUBSTITUTE(SUBSTITUTE(AJ17, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textKo: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AK17, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AL17&lt;&gt;"", "', textKoAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AL17, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textEn: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AM17, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AN17&lt;&gt;"", "', textEnAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AN17, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"'"&amp;IF(AB17="○",", sealable: true","")&amp;IF(AC17="○",", removable: true","")&amp;IF(AA17="○",", lie: true","")&amp;IF(AD17="○",", investable: true","")&amp;"}")</f>
-        <v>, '23-akina-o-s-3': {megami: 'akina', name: '衰垜逐肘守料術', nameEn: '', nameZh: '', nameZhG1: '', nameKo: '', ruby: 'すいだちくちゅうもりりょうじゅつ', rubyEn: '', baseType: 'special', type: 'enhance', capacity: '1', cost: '1', text: '【展開時】あなたのライフからフレアへと桜花結晶を4つ移動させる。\n【展開中】このカードの効果以外でこの付与札の上の桜花結晶は移動しない。\n【展開中】あなたのライフが0の時にあなたが敗北するならば、代わりにあなたのフレアからライフへと桜花結晶を4つ移動させる。その後、この上の桜花結晶を全てダストに送り、このカードを取り除く。', textZh: '', textZhG1: '', textKo: '', textEn: '', removable: true}</v>
+        <v>, '23-akina-o-s-3': {megami: 'akina', name: '衰垜逐肘守料術', nameEn: '', nameZh: '', nameZhG1: '', nameKo: '', ruby: 'すいだちくちゅうもりりょうじゅつ', rubyEn: '', baseType: 'special', type: 'enhance', capacity: '1', cost: '1', text: '【展開時】あなたのライフからフレアへと桜花結晶を4つ移動させる。\n【展開中】このカードの効果以外でこの付与札の上の桜花結晶は移動しない。\n【展開中】あなたのライフが0の時にあなたが敗北するならば、代わりにあなたのフレアからライフへと桜花結晶を4つ移動させる。その後、この付与札の上の桜花結晶を全てダストに送り、このカードを取り除く。', textZh: '', textZhG1: '', textKo: '', textEn: '', removable: true}</v>
       </c>
       <c r="AU17" s="5" t="str">
         <f t="shared" ref="AU17:AU29" si="4">IF($A17&lt;&gt;"", "    /** 《"&amp;$E17&amp;"》 */ export const "&amp;SUBSTITUTE(UPPER(IF(MID($A17, 3, 1)="-", RIGHT($A17,LEN($A17)-3), $A17)), "-", "_")&amp;": TCardId = '"&amp;$A17&amp;"';", "")</f>
@@ -19417,11 +19357,11 @@
       <c r="F18" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="G18" s="30"/>
-      <c r="H18" s="31"/>
+      <c r="G18" s="68"/>
+      <c r="H18" s="69"/>
       <c r="I18" s="30"/>
-      <c r="J18" s="31"/>
-      <c r="K18" s="32"/>
+      <c r="J18" s="69"/>
+      <c r="K18" s="70"/>
       <c r="L18" s="33"/>
       <c r="M18" s="10" t="s">
         <v>43</v>
@@ -19446,22 +19386,22 @@
       <c r="AA18" s="10"/>
       <c r="AB18" s="10"/>
       <c r="AC18" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="AD18" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="AE18" s="39" t="s">
         <v>144</v>
       </c>
-      <c r="AD18" s="10" t="s">
-        <v>144</v>
-      </c>
-      <c r="AE18" s="39" t="s">
-        <v>146</v>
-      </c>
       <c r="AF18" s="34"/>
-      <c r="AG18" s="35"/>
+      <c r="AG18" s="64"/>
       <c r="AH18" s="34"/>
-      <c r="AI18" s="36"/>
+      <c r="AI18" s="65"/>
       <c r="AJ18" s="34"/>
-      <c r="AK18" s="37"/>
+      <c r="AK18" s="63"/>
       <c r="AL18" s="34"/>
-      <c r="AM18" s="38"/>
+      <c r="AM18" s="63"/>
       <c r="AN18" s="2"/>
       <c r="AO18" s="12"/>
       <c r="AP18" s="12"/>
@@ -19483,24 +19423,24 @@
     </row>
     <row r="19" spans="1:48" s="11" customFormat="1">
       <c r="A19" s="10" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C19" s="10"/>
       <c r="D19" s="10"/>
       <c r="E19" s="10" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="F19" s="10" t="s">
-        <v>163</v>
-      </c>
-      <c r="G19" s="30"/>
-      <c r="H19" s="31"/>
+        <v>161</v>
+      </c>
+      <c r="G19" s="68"/>
+      <c r="H19" s="69"/>
       <c r="I19" s="30"/>
-      <c r="J19" s="31"/>
-      <c r="K19" s="32"/>
+      <c r="J19" s="69"/>
+      <c r="K19" s="70"/>
       <c r="L19" s="33"/>
       <c r="M19" s="10" t="s">
         <v>37</v>
@@ -19514,11 +19454,11 @@
       </c>
       <c r="S19" s="10"/>
       <c r="T19" s="10" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="U19" s="12"/>
       <c r="V19" s="10" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="W19" s="12"/>
       <c r="X19" s="10"/>
@@ -19558,24 +19498,24 @@
     </row>
     <row r="20" spans="1:48" s="11" customFormat="1" ht="36">
       <c r="A20" s="10" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C20" s="10"/>
       <c r="D20" s="10"/>
       <c r="E20" s="10" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F20" s="10" t="s">
-        <v>165</v>
-      </c>
-      <c r="G20" s="30"/>
-      <c r="H20" s="31"/>
+        <v>163</v>
+      </c>
+      <c r="G20" s="68"/>
+      <c r="H20" s="69"/>
       <c r="I20" s="30"/>
-      <c r="J20" s="31"/>
-      <c r="K20" s="32"/>
+      <c r="J20" s="69"/>
+      <c r="K20" s="70"/>
       <c r="L20" s="33"/>
       <c r="M20" s="10" t="s">
         <v>37</v>
@@ -19589,11 +19529,11 @@
       </c>
       <c r="S20" s="10"/>
       <c r="T20" s="10" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="U20" s="12"/>
       <c r="V20" s="10" t="s">
-        <v>278</v>
+        <v>245</v>
       </c>
       <c r="W20" s="12"/>
       <c r="X20" s="10"/>
@@ -19604,16 +19544,16 @@
       <c r="AC20" s="10"/>
       <c r="AD20" s="10"/>
       <c r="AE20" s="39" t="s">
-        <v>283</v>
+        <v>250</v>
       </c>
       <c r="AF20" s="34"/>
-      <c r="AG20" s="35"/>
+      <c r="AG20" s="64"/>
       <c r="AH20" s="34"/>
-      <c r="AI20" s="36"/>
+      <c r="AI20" s="65"/>
       <c r="AJ20" s="34"/>
-      <c r="AK20" s="37"/>
-      <c r="AL20" s="34"/>
-      <c r="AM20" s="38"/>
+      <c r="AK20" s="66"/>
+      <c r="AL20" s="38"/>
+      <c r="AM20" s="63"/>
       <c r="AN20" s="2"/>
       <c r="AO20" s="12"/>
       <c r="AP20" s="12"/>
@@ -19635,24 +19575,24 @@
     </row>
     <row r="21" spans="1:48" s="11" customFormat="1" ht="48">
       <c r="A21" s="10" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C21" s="10"/>
       <c r="D21" s="10"/>
       <c r="E21" s="10" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="F21" s="10" t="s">
-        <v>167</v>
-      </c>
-      <c r="G21" s="30"/>
-      <c r="H21" s="31"/>
+        <v>165</v>
+      </c>
+      <c r="G21" s="68"/>
+      <c r="H21" s="69"/>
       <c r="I21" s="30"/>
-      <c r="J21" s="31"/>
-      <c r="K21" s="32"/>
+      <c r="J21" s="69"/>
+      <c r="K21" s="70"/>
       <c r="L21" s="33"/>
       <c r="M21" s="10" t="s">
         <v>37</v>
@@ -19668,11 +19608,11 @@
         <v>131</v>
       </c>
       <c r="T21" s="10" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="U21" s="12"/>
       <c r="V21" s="10" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="W21" s="12"/>
       <c r="X21" s="10"/>
@@ -19683,16 +19623,16 @@
       <c r="AC21" s="10"/>
       <c r="AD21" s="10"/>
       <c r="AE21" s="39" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="AF21" s="34"/>
-      <c r="AG21" s="35"/>
+      <c r="AG21" s="64"/>
       <c r="AH21" s="34"/>
-      <c r="AI21" s="36"/>
+      <c r="AI21" s="65"/>
       <c r="AJ21" s="34"/>
-      <c r="AK21" s="37"/>
-      <c r="AL21" s="34"/>
-      <c r="AM21" s="38"/>
+      <c r="AK21" s="66"/>
+      <c r="AL21" s="38"/>
+      <c r="AM21" s="63"/>
       <c r="AN21" s="2"/>
       <c r="AO21" s="12"/>
       <c r="AP21" s="12"/>
@@ -19714,24 +19654,24 @@
     </row>
     <row r="22" spans="1:48" s="11" customFormat="1" ht="24">
       <c r="A22" s="10" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C22" s="10"/>
       <c r="D22" s="10"/>
       <c r="E22" s="10" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="F22" s="10" t="s">
-        <v>169</v>
-      </c>
-      <c r="G22" s="30"/>
-      <c r="H22" s="31"/>
+        <v>167</v>
+      </c>
+      <c r="G22" s="68"/>
+      <c r="H22" s="69"/>
       <c r="I22" s="30"/>
-      <c r="J22" s="31"/>
-      <c r="K22" s="32"/>
+      <c r="J22" s="69"/>
+      <c r="K22" s="70"/>
       <c r="L22" s="33"/>
       <c r="M22" s="10" t="s">
         <v>37</v>
@@ -19747,11 +19687,11 @@
         <v>133</v>
       </c>
       <c r="T22" s="10" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="U22" s="12"/>
       <c r="V22" s="10" t="s">
-        <v>279</v>
+        <v>246</v>
       </c>
       <c r="W22" s="12"/>
       <c r="X22" s="10"/>
@@ -19762,16 +19702,16 @@
       <c r="AC22" s="10"/>
       <c r="AD22" s="10"/>
       <c r="AE22" s="39" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="AF22" s="34"/>
-      <c r="AG22" s="35"/>
+      <c r="AG22" s="64"/>
       <c r="AH22" s="34"/>
-      <c r="AI22" s="36"/>
+      <c r="AI22" s="65"/>
       <c r="AJ22" s="34"/>
-      <c r="AK22" s="37"/>
-      <c r="AL22" s="34"/>
-      <c r="AM22" s="38"/>
+      <c r="AK22" s="66"/>
+      <c r="AL22" s="38"/>
+      <c r="AM22" s="63"/>
       <c r="AN22" s="2"/>
       <c r="AO22" s="12"/>
       <c r="AP22" s="12"/>
@@ -19793,24 +19733,24 @@
     </row>
     <row r="23" spans="1:48" s="11" customFormat="1" ht="40.5">
       <c r="A23" s="10" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C23" s="10"/>
       <c r="D23" s="10"/>
       <c r="E23" s="10" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="F23" s="10" t="s">
-        <v>171</v>
-      </c>
-      <c r="G23" s="30"/>
-      <c r="H23" s="31"/>
+        <v>169</v>
+      </c>
+      <c r="G23" s="68"/>
+      <c r="H23" s="69"/>
       <c r="I23" s="30"/>
-      <c r="J23" s="31"/>
-      <c r="K23" s="32"/>
+      <c r="J23" s="69"/>
+      <c r="K23" s="70"/>
       <c r="L23" s="33"/>
       <c r="M23" s="10" t="s">
         <v>37</v>
@@ -19835,16 +19775,16 @@
       <c r="AC23" s="10"/>
       <c r="AD23" s="10"/>
       <c r="AE23" s="40" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="AF23" s="34"/>
-      <c r="AG23" s="35"/>
+      <c r="AG23" s="64"/>
       <c r="AH23" s="34"/>
-      <c r="AI23" s="36"/>
+      <c r="AI23" s="65"/>
       <c r="AJ23" s="34"/>
-      <c r="AK23" s="37"/>
-      <c r="AL23" s="34"/>
-      <c r="AM23" s="38"/>
+      <c r="AK23" s="66"/>
+      <c r="AL23" s="38"/>
+      <c r="AM23" s="63"/>
       <c r="AN23" s="2"/>
       <c r="AO23" s="12"/>
       <c r="AP23" s="12"/>
@@ -19866,24 +19806,24 @@
     </row>
     <row r="24" spans="1:48" s="11" customFormat="1" ht="36">
       <c r="A24" s="10" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C24" s="10"/>
       <c r="D24" s="10"/>
       <c r="E24" s="10" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="F24" s="10" t="s">
-        <v>176</v>
-      </c>
-      <c r="G24" s="30"/>
-      <c r="H24" s="31"/>
+        <v>174</v>
+      </c>
+      <c r="G24" s="68"/>
+      <c r="H24" s="69"/>
       <c r="I24" s="30"/>
-      <c r="J24" s="31"/>
-      <c r="K24" s="32"/>
+      <c r="J24" s="69"/>
+      <c r="K24" s="70"/>
       <c r="L24" s="33"/>
       <c r="M24" s="10" t="s">
         <v>37</v>
@@ -19908,16 +19848,16 @@
       <c r="AC24" s="10"/>
       <c r="AD24" s="10"/>
       <c r="AE24" s="39" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="AF24" s="34"/>
-      <c r="AG24" s="35"/>
+      <c r="AG24" s="64"/>
       <c r="AH24" s="34"/>
-      <c r="AI24" s="36"/>
+      <c r="AI24" s="65"/>
       <c r="AJ24" s="34"/>
-      <c r="AK24" s="37"/>
-      <c r="AL24" s="34"/>
-      <c r="AM24" s="38"/>
+      <c r="AK24" s="66"/>
+      <c r="AL24" s="38"/>
+      <c r="AM24" s="63"/>
       <c r="AN24" s="2"/>
       <c r="AO24" s="12"/>
       <c r="AP24" s="12"/>
@@ -19939,24 +19879,24 @@
     </row>
     <row r="25" spans="1:48" s="11" customFormat="1" ht="48">
       <c r="A25" s="10" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C25" s="10"/>
       <c r="D25" s="10"/>
       <c r="E25" s="10" t="s">
+        <v>171</v>
+      </c>
+      <c r="F25" s="10" t="s">
         <v>173</v>
       </c>
-      <c r="F25" s="10" t="s">
-        <v>175</v>
-      </c>
-      <c r="G25" s="30"/>
-      <c r="H25" s="31"/>
+      <c r="G25" s="68"/>
+      <c r="H25" s="69"/>
       <c r="I25" s="30"/>
-      <c r="J25" s="31"/>
-      <c r="K25" s="32"/>
+      <c r="J25" s="69"/>
+      <c r="K25" s="70"/>
       <c r="L25" s="33"/>
       <c r="M25" s="10" t="s">
         <v>37</v>
@@ -19976,7 +19916,7 @@
       <c r="V25" s="10"/>
       <c r="W25" s="12"/>
       <c r="X25" s="10" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="Y25" s="10"/>
       <c r="Z25" s="10"/>
@@ -19985,16 +19925,16 @@
       <c r="AC25" s="10"/>
       <c r="AD25" s="10"/>
       <c r="AE25" s="39" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="AF25" s="34"/>
-      <c r="AG25" s="35"/>
+      <c r="AG25" s="64"/>
       <c r="AH25" s="34"/>
-      <c r="AI25" s="36"/>
+      <c r="AI25" s="65"/>
       <c r="AJ25" s="34"/>
-      <c r="AK25" s="37"/>
-      <c r="AL25" s="34"/>
-      <c r="AM25" s="38"/>
+      <c r="AK25" s="66"/>
+      <c r="AL25" s="38"/>
+      <c r="AM25" s="63"/>
       <c r="AN25" s="2"/>
       <c r="AO25" s="12"/>
       <c r="AP25" s="12"/>
@@ -20016,22 +19956,22 @@
     </row>
     <row r="26" spans="1:48" s="11" customFormat="1" ht="72">
       <c r="A26" s="10" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C26" s="10"/>
       <c r="D26" s="10"/>
       <c r="E26" s="10" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="F26" s="10"/>
-      <c r="G26" s="30"/>
-      <c r="H26" s="31"/>
+      <c r="G26" s="68"/>
+      <c r="H26" s="69"/>
       <c r="I26" s="30"/>
-      <c r="J26" s="31"/>
-      <c r="K26" s="32"/>
+      <c r="J26" s="69"/>
+      <c r="K26" s="70"/>
       <c r="L26" s="33"/>
       <c r="M26" s="10" t="s">
         <v>43</v>
@@ -20053,23 +19993,23 @@
       <c r="X26" s="10"/>
       <c r="Y26" s="10"/>
       <c r="Z26" s="10" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="AA26" s="10"/>
       <c r="AB26" s="10"/>
       <c r="AC26" s="10"/>
       <c r="AD26" s="10"/>
       <c r="AE26" s="39" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="AF26" s="34"/>
-      <c r="AG26" s="35"/>
+      <c r="AG26" s="64"/>
       <c r="AH26" s="34"/>
-      <c r="AI26" s="36"/>
+      <c r="AI26" s="65"/>
       <c r="AJ26" s="34"/>
-      <c r="AK26" s="37"/>
-      <c r="AL26" s="34"/>
-      <c r="AM26" s="38"/>
+      <c r="AK26" s="66"/>
+      <c r="AL26" s="38"/>
+      <c r="AM26" s="63"/>
       <c r="AN26" s="2"/>
       <c r="AO26" s="12"/>
       <c r="AP26" s="12"/>
@@ -20091,22 +20031,22 @@
     </row>
     <row r="27" spans="1:48" s="11" customFormat="1" ht="48">
       <c r="A27" s="10" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C27" s="10"/>
       <c r="D27" s="10"/>
       <c r="E27" s="10" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="F27" s="10"/>
-      <c r="G27" s="30"/>
-      <c r="H27" s="31"/>
+      <c r="G27" s="68"/>
+      <c r="H27" s="69"/>
       <c r="I27" s="30"/>
-      <c r="J27" s="31"/>
-      <c r="K27" s="32"/>
+      <c r="J27" s="69"/>
+      <c r="K27" s="70"/>
       <c r="L27" s="33"/>
       <c r="M27" s="10" t="s">
         <v>43</v>
@@ -20120,33 +20060,33 @@
       </c>
       <c r="S27" s="10"/>
       <c r="T27" s="10" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="U27" s="12"/>
       <c r="V27" s="10" t="s">
-        <v>282</v>
+        <v>249</v>
       </c>
       <c r="W27" s="12"/>
       <c r="X27" s="10"/>
       <c r="Y27" s="10"/>
       <c r="Z27" s="10" t="s">
-        <v>280</v>
+        <v>247</v>
       </c>
       <c r="AA27" s="10"/>
       <c r="AB27" s="10"/>
       <c r="AC27" s="10"/>
       <c r="AD27" s="10"/>
       <c r="AE27" s="39" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="AF27" s="34"/>
-      <c r="AG27" s="35"/>
+      <c r="AG27" s="64"/>
       <c r="AH27" s="34"/>
-      <c r="AI27" s="36"/>
+      <c r="AI27" s="65"/>
       <c r="AJ27" s="34"/>
-      <c r="AK27" s="37"/>
-      <c r="AL27" s="34"/>
-      <c r="AM27" s="38"/>
+      <c r="AK27" s="66"/>
+      <c r="AL27" s="38"/>
+      <c r="AM27" s="63"/>
       <c r="AN27" s="2"/>
       <c r="AO27" s="12"/>
       <c r="AP27" s="12"/>
@@ -20168,22 +20108,22 @@
     </row>
     <row r="28" spans="1:48" s="11" customFormat="1" ht="48">
       <c r="A28" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="B28" s="10" t="s">
         <v>159</v>
-      </c>
-      <c r="B28" s="10" t="s">
-        <v>161</v>
       </c>
       <c r="C28" s="10"/>
       <c r="D28" s="10"/>
       <c r="E28" s="10" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="F28" s="10"/>
-      <c r="G28" s="30"/>
-      <c r="H28" s="31"/>
+      <c r="G28" s="68"/>
+      <c r="H28" s="69"/>
       <c r="I28" s="30"/>
-      <c r="J28" s="31"/>
-      <c r="K28" s="32"/>
+      <c r="J28" s="69"/>
+      <c r="K28" s="70"/>
       <c r="L28" s="33"/>
       <c r="M28" s="10" t="s">
         <v>43</v>
@@ -20205,23 +20145,23 @@
       <c r="X28" s="10"/>
       <c r="Y28" s="10"/>
       <c r="Z28" s="10" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="AA28" s="10"/>
       <c r="AB28" s="10"/>
       <c r="AC28" s="10"/>
       <c r="AD28" s="10"/>
       <c r="AE28" s="39" t="s">
-        <v>284</v>
+        <v>251</v>
       </c>
       <c r="AF28" s="34"/>
-      <c r="AG28" s="35"/>
+      <c r="AG28" s="64"/>
       <c r="AH28" s="34"/>
-      <c r="AI28" s="36"/>
+      <c r="AI28" s="65"/>
       <c r="AJ28" s="34"/>
-      <c r="AK28" s="37"/>
-      <c r="AL28" s="34"/>
-      <c r="AM28" s="38"/>
+      <c r="AK28" s="66"/>
+      <c r="AL28" s="38"/>
+      <c r="AM28" s="63"/>
       <c r="AN28" s="2"/>
       <c r="AO28" s="12"/>
       <c r="AP28" s="12"/>
@@ -20243,24 +20183,24 @@
     </row>
     <row r="29" spans="1:48" s="11" customFormat="1" ht="48">
       <c r="A29" s="10" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B29" s="10" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C29" s="10"/>
       <c r="D29" s="10"/>
       <c r="E29" s="10" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="F29" s="10" t="s">
-        <v>180</v>
-      </c>
-      <c r="G29" s="30"/>
-      <c r="H29" s="31"/>
+        <v>178</v>
+      </c>
+      <c r="G29" s="68"/>
+      <c r="H29" s="69"/>
       <c r="I29" s="30"/>
-      <c r="J29" s="31"/>
-      <c r="K29" s="32"/>
+      <c r="J29" s="69"/>
+      <c r="K29" s="70"/>
       <c r="L29" s="33"/>
       <c r="M29" s="10" t="s">
         <v>43</v>
@@ -20273,34 +20213,34 @@
         <v>129</v>
       </c>
       <c r="S29" s="10" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="T29" s="10"/>
       <c r="U29" s="12"/>
       <c r="V29" s="10"/>
       <c r="W29" s="12"/>
       <c r="X29" s="10" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="Y29" s="10"/>
       <c r="Z29" s="10" t="s">
-        <v>281</v>
+        <v>248</v>
       </c>
       <c r="AA29" s="10"/>
       <c r="AB29" s="10"/>
       <c r="AC29" s="10"/>
       <c r="AD29" s="10"/>
       <c r="AE29" s="39" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="AF29" s="34"/>
-      <c r="AG29" s="35"/>
+      <c r="AG29" s="64"/>
       <c r="AH29" s="34"/>
-      <c r="AI29" s="36"/>
+      <c r="AI29" s="65"/>
       <c r="AJ29" s="34"/>
-      <c r="AK29" s="37"/>
-      <c r="AL29" s="34"/>
-      <c r="AM29" s="38"/>
+      <c r="AK29" s="66"/>
+      <c r="AL29" s="38"/>
+      <c r="AM29" s="63"/>
       <c r="AN29" s="2"/>
       <c r="AO29" s="12"/>
       <c r="AP29" s="12"/>

--- a/sheet/cards_s8.xlsx
+++ b/sheet/cards_s8.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="264">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="273">
   <si>
     <t>カードID</t>
   </si>
@@ -1409,9 +1409,6 @@
     <phoneticPr fontId="19"/>
   </si>
   <si>
-    <t>06-yukihi-o-s-1</t>
-  </si>
-  <si>
     <t>yukihi</t>
   </si>
   <si>
@@ -1656,24 +1653,6 @@
     </rPh>
     <rPh sb="93" eb="94">
       <t>ウ</t>
-    </rPh>
-    <phoneticPr fontId="19"/>
-  </si>
-  <si>
-    <t xml:space="preserve">【攻撃後】あなたは集中力を1得る。
-----
-【即再起】あなたが傘の開閉を行う。 </t>
-    <rPh sb="1" eb="3">
-      <t>コウゲキ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>アト</t>
-    </rPh>
-    <rPh sb="9" eb="12">
-      <t>シュウチュウリョク</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>エ</t>
     </rPh>
     <phoneticPr fontId="19"/>
   </si>
@@ -1905,12 +1884,212 @@
     </rPh>
     <phoneticPr fontId="3"/>
   </si>
+  <si>
+    <t>06-yukihi-o-s-1</t>
+    <phoneticPr fontId="19"/>
+  </si>
+  <si>
+    <t xml:space="preserve">----
+【即再起】あなたが傘の開閉を行う。 </t>
+  </si>
+  <si>
+    <t>----
+【即再起】进行一次伞的开合操作。</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="MS PGothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>无 
+----
+【即再起】</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>进行伞的开合操作</t>
+    </r>
+  </si>
+  <si>
+    <t>----
+【즉재기】당신이 우산의 개폐를 행한다.</t>
+  </si>
+  <si>
+    <t>----
+Immediate Resurgence: You open or close your umbrella.</t>
+  </si>
+  <si>
+    <t>【攻撃後】あなたは集中力を1得る。</t>
+    <rPh sb="1" eb="3">
+      <t>コウゲキ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>アト</t>
+    </rPh>
+    <rPh sb="9" eb="12">
+      <t>シュウチュウリョク</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>エ</t>
+    </rPh>
+    <phoneticPr fontId="19"/>
+  </si>
+  <si>
+    <r>
+      <t>【攻</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="NSimSun"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>击</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="MS PGothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>后】你</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="NSimSun"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>获</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="MS PGothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>得1点集中力。</t>
+    </r>
+    <phoneticPr fontId="19"/>
+  </si>
+  <si>
+    <t>After Attack: Gain 1 Vigor.</t>
+    <phoneticPr fontId="19"/>
+  </si>
+  <si>
+    <r>
+      <t>【</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Malgun Gothic Semilight"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>공격후</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="MS PGothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>】</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Malgun Gothic Semilight"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>당신은</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="MS PGothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Malgun Gothic Semilight"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>집중력을</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="MS PGothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve"> 1 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Malgun Gothic Semilight"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>얻는다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="MS PGothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <phoneticPr fontId="19"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="19"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="25">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -2071,6 +2250,13 @@
     <font>
       <sz val="10"/>
       <name val="SimSun"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="NSimSun"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -2877,24 +3063,24 @@
     </row>
     <row r="3" spans="1:34" ht="12" customHeight="1">
       <c r="A3" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C3" s="26"/>
       <c r="D3" s="26"/>
       <c r="E3" s="27"/>
       <c r="F3" s="28"/>
       <c r="G3" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="H3" s="26"/>
       <c r="I3" s="26"/>
       <c r="J3" s="29"/>
       <c r="K3" s="28"/>
       <c r="L3" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
@@ -17910,10 +18096,10 @@
   <dimension ref="A1:AML816"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="AT2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A15" sqref="A15"/>
-      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="AT6" sqref="AT6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -18092,31 +18278,31 @@
       </c>
       <c r="AT1" s="20"/>
     </row>
-    <row r="2" spans="1:48" s="11" customFormat="1" ht="36">
+    <row r="2" spans="1:48" s="11" customFormat="1" ht="48">
       <c r="A2" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>201</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>202</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F2" s="1"/>
       <c r="G2" s="41" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="H2" s="42" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="I2" s="41"/>
       <c r="J2" s="42" t="s">
+        <v>204</v>
+      </c>
+      <c r="K2" s="43" t="s">
         <v>205</v>
-      </c>
-      <c r="K2" s="43" t="s">
-        <v>206</v>
       </c>
       <c r="L2" s="1"/>
       <c r="M2" s="1" t="s">
@@ -18131,16 +18317,16 @@
       </c>
       <c r="S2" s="1"/>
       <c r="T2" s="1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="U2" s="44" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="V2" s="1" t="s">
         <v>181</v>
       </c>
       <c r="W2" s="44" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="X2" s="1"/>
       <c r="Y2" s="1" t="s">
@@ -18152,25 +18338,43 @@
       <c r="AC2" s="2"/>
       <c r="AD2" s="45"/>
       <c r="AE2" s="2" t="s">
-        <v>252</v>
+        <v>268</v>
       </c>
       <c r="AF2" s="46"/>
-      <c r="AG2" s="56"/>
+      <c r="AG2" s="56" t="s">
+        <v>269</v>
+      </c>
       <c r="AH2" s="67"/>
-      <c r="AI2" s="56"/>
+      <c r="AI2" s="56" t="s">
+        <v>269</v>
+      </c>
       <c r="AJ2" s="56"/>
-      <c r="AK2" s="56"/>
+      <c r="AK2" s="56" t="s">
+        <v>271</v>
+      </c>
       <c r="AL2" s="56"/>
-      <c r="AM2" s="56"/>
+      <c r="AM2" s="56" t="s">
+        <v>270</v>
+      </c>
       <c r="AN2" s="2"/>
-      <c r="AO2" s="12"/>
-      <c r="AP2" s="12"/>
-      <c r="AQ2" s="12"/>
-      <c r="AR2" s="12"/>
-      <c r="AS2" s="12"/>
+      <c r="AO2" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="AP2" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="AQ2" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="AR2" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="AS2" s="2" t="s">
+        <v>267</v>
+      </c>
       <c r="AT2" s="14" t="str">
-        <f>IF(A2="", "", IF(ROW()&gt;=3, ", ", "")&amp;"'"&amp;A2&amp;"': {megami: '"&amp;B2&amp;"'"&amp;IF(C2&lt;&gt;"",", anotherID: '"&amp;C2&amp;"', replace: '"&amp;D2&amp;"'","")&amp;", name: '"&amp;SUBSTITUTE(E2,"'","\'")&amp;"', nameEn: '"&amp;SUBSTITUTE(K2,"'","\'")&amp;"', nameZh: '"&amp;SUBSTITUTE(G2,"'","\'")&amp;"', nameZhG1: '"&amp;SUBSTITUTE(H2,"'","\'")&amp;"', nameKo: '"&amp;SUBSTITUTE(J2,"'","\'")&amp;"', ruby: '"&amp;F2&amp;"', rubyEn: '"&amp;L2&amp;IF(I2&lt;&gt;"", "', rubyZh: '"&amp;I2, "")&amp;"', baseType: '"&amp;VLOOKUP(M2,マスタ!$A$1:$B$99,2,0)&amp;"'"&amp;IF(N2="○",", extra: true","")&amp;IF(O2&lt;&gt;"",", extraFrom: '"&amp;O2&amp;"'","")&amp;IF(P2&lt;&gt;"",", exchangableTo: '"&amp;P2&amp;"'","")&amp;IF(Q2="○",", poison: true","")&amp;IF(R2&lt;&gt;"", ", type: '"&amp;VLOOKUP(R2,マスタ!$D$1:$E$99,2,0)&amp;"'", "")&amp;IF(S2&lt;&gt;"",", subType: '"&amp;VLOOKUP(S2,マスタ!$D$1:$E$99,2,0)&amp;"'","")&amp;""&amp;IF(T2&lt;&gt;"",", range: '"&amp;T2&amp;"'","")&amp;IF(V2&lt;&gt;"",", damage: '"&amp;V2&amp;"'","")&amp;IF(X2&lt;&gt;"",", capacity: '"&amp;X2&amp;"'","")&amp;IF(Y2&lt;&gt;"",", growth: "&amp;Y2&amp;"","")&amp;IF(Z2&lt;&gt;"",", cost: '"&amp;Z2&amp;"'","")&amp;", text: '"&amp;SUBSTITUTE(SUBSTITUTE(AE2, CHAR(13), ""),CHAR(10),"\n")&amp;IF(AF2&lt;&gt;"", "', textAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AF2, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textZh: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AG2, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;"', textZhG1: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AI2, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AH2&lt;&gt;"", "', textZhAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AH2, CHAR(13), ""),CHAR(10),"\n"), "")&amp;IF(AJ2&lt;&gt;"", "', textZhG1Additional: '"&amp;SUBSTITUTE(SUBSTITUTE(AJ2, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textKo: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AK2, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AL2&lt;&gt;"", "', textKoAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AL2, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textEn: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AM2, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AN2&lt;&gt;"", "', textEnAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AN2, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"'"&amp;IF(AB2="○",", sealable: true","")&amp;IF(AC2="○",", removable: true","")&amp;IF(AA2="○",", lie: true","")&amp;IF(AD2="○",", investable: true","")&amp;"}")</f>
-        <v>'06-yukihi-o-s-1': {megami: 'yukihi', name: 'はらりゆき', nameEn: 'Gentle Snow', nameZh: '纷扬如雪', nameZhG1: '纷扬如雪', nameKo: '흩날리는 눈꽃', ruby: '', rubyEn: '', baseType: 'special', type: 'attack', range: '3-6', damage: '3/1', growth: 2, text: '【攻撃後】あなたは集中力を1得る。\n----\n【即再起】あなたが傘の開閉を行う。 ', textZh: '', textZhG1: '', textKo: '', textEn: ''}</v>
+        <f>IF( A2 = "", "", "'" &amp; A2 &amp; "': {megami: '" &amp; B2 &amp; "'" &amp; IF( C2 &lt;&gt; "", ", anotherID: '" &amp; C2 &amp; "', replace: '" &amp; D2 &amp; "'", "" ) &amp; ", name: '" &amp; SUBSTITUTE( E2, "'", "\'" ) &amp; "', nameEn: '" &amp; SUBSTITUTE( K2, "'", "\'" ) &amp; "', nameZh: '" &amp; SUBSTITUTE( G2, "'", "\'" ) &amp; "', nameZhG1: '" &amp; SUBSTITUTE( H2, "'", "\'" )&amp; "', nameKo: '" &amp; SUBSTITUTE( J2, "'", "\'" ) &amp; "', ruby: '" &amp; F2 &amp; "', rubyEn: '" &amp; L2 &amp; "', baseType: '" &amp; VLOOKUP( M2, マスタ!$A$1:$B$99, 2, 0 ) &amp; "'" &amp; IF( N2 = "○", ", extra: true", "" ) &amp; IF( O2 &lt;&gt; "", ", extraFrom: '" &amp; O2 &amp; "'", "" ) &amp; IF( P2 &lt;&gt; "", ", exchangabaleTo: '" &amp; P2 &amp; "'", "" ) &amp; IF( Q2 = "○", ", poison: true", "" ) &amp;IF(R2&lt;&gt;"", ", type: '"&amp;VLOOKUP(R2,マスタ!$D$1:$E$99,2,0)&amp;"'", "")&amp;IF(S2&lt;&gt;"",", subType: '"&amp;VLOOKUP(S2,マスタ!$D$1:$E$99,2,0)&amp;"'","") &amp; IF( T2 &lt;&gt; "", ", range: '" &amp; T2 &amp; "'" &amp; IF( U2 &lt;&gt; "", ", rangeOpened: '" &amp; U2 &amp; "'", "" ), "" ) &amp; IF( V2 &lt;&gt; "", ", damage: '" &amp; V2 &amp; "'" &amp; IF( OR( W2 &lt;&gt; "", AI2 &lt;&gt; "" ), ", damageOpened: '" &amp; W2 &amp; "'", "" ), "" ) &amp; IF( X2 &lt;&gt; "", ", capacity: '" &amp; X2 &amp; "'", "" ) &amp; IF( Y2 &lt;&gt; "", ", cost: '" &amp; Y2 &amp; "'", "" ) &amp; ", text: '" &amp; SUBSTITUTE( SUBSTITUTE( AE2, CHAR( 13 ), "" ), CHAR( 10 ), "\n" ) &amp; "', textZh: '" &amp; SUBSTITUTE( SUBSTITUTE( SUBSTITUTE( AG2, CHAR( 13 ), "" ), CHAR( 10 ), "\n" ), "'", "\'" ) &amp; "', textZhG1: '" &amp; SUBSTITUTE( SUBSTITUTE( SUBSTITUTE( AI2, CHAR( 13 ), "" ), CHAR( 10 ), "\n" ), "'", "\'" )&amp; "', textKo: '" &amp; SUBSTITUTE( SUBSTITUTE( SUBSTITUTE( AK2, CHAR( 13 ), "" ), CHAR( 10 ), "\n" ), "'", "\'" ) &amp; "', textEn: '" &amp; SUBSTITUTE( SUBSTITUTE( SUBSTITUTE( AM2, CHAR( 13 ), "" ), CHAR( 10 ), "\n" ), "'", "\'" ) &amp; "'" &amp; IF( OR( W2 &lt;&gt; "", AI2 &lt;&gt; "" ), ", textOpened: '" &amp; SUBSTITUTE( SUBSTITUTE( SUBSTITUTE( AO2, CHAR( 13 ), "" ), CHAR( 10 ), "\n" ), "'", "\'" ) &amp; "', textOpenedZh: '" &amp; SUBSTITUTE( SUBSTITUTE( SUBSTITUTE( AP2, CHAR( 13 ), "" ), CHAR( 10 ), "\n" ), "'", "\'" )  &amp; "', textOpenedZhG1: '" &amp; SUBSTITUTE( SUBSTITUTE( SUBSTITUTE( AQ2, CHAR( 13 ), "" ), CHAR( 10 ), "\n" ), "'", "\'" ) &amp; "', textOpenedKo: '" &amp; SUBSTITUTE( SUBSTITUTE( SUBSTITUTE( AR2, CHAR( 13 ), "" ), CHAR( 10 ), "\n" ), "'", "\'" ) &amp; "', textOpenedEn: '" &amp; SUBSTITUTE( SUBSTITUTE( SUBSTITUTE( AS2, CHAR( 13 ), "" ), CHAR( 10 ), "\n" ), "'", "\'" ) &amp; "'", "" ) &amp; IF( Z2 = "○", ", sealable: true", "" ) &amp; IF( AA2 = "○", ", removable: true", "" ) &amp; "}," )</f>
+        <v>'06-yukihi-o-s-1': {megami: 'yukihi', name: 'はらりゆき', nameEn: 'Gentle Snow', nameZh: '纷扬如雪', nameZhG1: '纷扬如雪', nameKo: '흩날리는 눈꽃', ruby: '', rubyEn: '', baseType: 'special', type: 'attack', range: '3-6', rangeOpened: '0-2', damage: '3/1', damageOpened: '0/0', cost: '2', text: '【攻撃後】あなたは集中力を1得る。', textZh: '【攻击后】你获得1点集中力。', textZhG1: '【攻击后】你获得1点集中力。', textKo: '【공격후】당신은 집중력을 1 얻는다.', textEn: 'After Attack: Gain 1 Vigor.', textOpened: '----\n【即再起】あなたが傘の開閉を行う。 ', textOpenedZh: '----\n【即再起】进行一次伞的开合操作。', textOpenedZhG1: '无 \n----\n【即再起】进行伞的开合操作', textOpenedKo: '----\n【즉재기】당신이 우산의 개폐를 행한다.', textOpenedEn: '----\nImmediate Resurgence: You open or close your umbrella.'},</v>
       </c>
       <c r="AU2" s="5" t="str">
         <f t="shared" ref="AU2:AU7" si="0">IF($A2&lt;&gt;"", "    /** 《"&amp;$E2&amp;"》 */ export const "&amp;SUBSTITUTE(UPPER(IF(MID($A2, 3, 1)="-", RIGHT($A2,LEN($A2)-3), $A2)), "-", "_")&amp;": TCardId = '"&amp;$A2&amp;"';", "")</f>
@@ -18183,31 +18387,31 @@
     </row>
     <row r="3" spans="1:48" s="11" customFormat="1" ht="48">
       <c r="A3" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>208</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>209</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="G3" s="41" t="s">
         <v>211</v>
       </c>
-      <c r="G3" s="41" t="s">
+      <c r="H3" s="42" t="s">
         <v>212</v>
-      </c>
-      <c r="H3" s="42" t="s">
-        <v>213</v>
       </c>
       <c r="I3" s="41"/>
       <c r="J3" s="42" t="s">
+        <v>213</v>
+      </c>
+      <c r="K3" s="43" t="s">
         <v>214</v>
-      </c>
-      <c r="K3" s="43" t="s">
-        <v>215</v>
       </c>
       <c r="L3" s="1"/>
       <c r="M3" s="1" t="s">
@@ -18233,7 +18437,7 @@
       <c r="AC3" s="2"/>
       <c r="AD3" s="45"/>
       <c r="AE3" s="56" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="AF3" s="56"/>
       <c r="AG3" s="62"/>
@@ -18249,9 +18453,9 @@
       <c r="AQ3" s="12"/>
       <c r="AR3" s="12"/>
       <c r="AS3" s="12"/>
-      <c r="AT3" s="14" t="e">
-        <f>IF(A3="", "", IF(ROW()&gt;=3, ", ", "")&amp;"'"&amp;A3&amp;"': {megami: '"&amp;B3&amp;"'"&amp;IF(C3&lt;&gt;"",", anotherID: '"&amp;C3&amp;"', replace: '"&amp;D3&amp;"'","")&amp;", name: '"&amp;SUBSTITUTE(E3,"'","\'")&amp;"', nameEn: '"&amp;SUBSTITUTE(K3,"'","\'")&amp;"', nameZh: '"&amp;SUBSTITUTE(G3,"'","\'")&amp;"', nameZhG1: '"&amp;SUBSTITUTE(H3,"'","\'")&amp;"', nameKo: '"&amp;SUBSTITUTE(J3,"'","\'")&amp;"', ruby: '"&amp;F3&amp;"', rubyEn: '"&amp;L3&amp;IF(I3&lt;&gt;"", "', rubyZh: '"&amp;I3, "")&amp;"', baseType: '"&amp;VLOOKUP(M3,マスタ!$A$1:$B$99,2,0)&amp;"'"&amp;IF(N3="○",", extra: true","")&amp;IF(O3&lt;&gt;"",", extraFrom: '"&amp;O3&amp;"'","")&amp;IF(P3&lt;&gt;"",", exchangableTo: '"&amp;P3&amp;"'","")&amp;IF(Q3="○",", poison: true","")&amp;IF(R3&lt;&gt;"", ", type: '"&amp;VLOOKUP(R3,マスタ!$D$1:$E$99,2,0)&amp;"'", "")&amp;IF(S3&lt;&gt;"",", subType: '"&amp;VLOOKUP(S3,マスタ!$D$1:$E$99,2,0)&amp;"'","")&amp;""&amp;IF(T3&lt;&gt;"",", range: '"&amp;T3&amp;"'","")&amp;IF(V3&lt;&gt;"",", damage: '"&amp;V3&amp;"'","")&amp;IF(X3&lt;&gt;"",", capacity: '"&amp;X3&amp;"'","")&amp;IF(Y3&lt;&gt;"",", growth: "&amp;Y3&amp;"","")&amp;IF(Z3&lt;&gt;"",", cost: '"&amp;Z3&amp;"'","")&amp;", text: '"&amp;SUBSTITUTE(SUBSTITUTE(AE3, CHAR(13), ""),CHAR(10),"\n")&amp;IF(AF3&lt;&gt;"", "', textAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AF3, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textZh: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AG3, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;"', textZhG1: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AI3, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AH3&lt;&gt;"", "', textZhAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AH3, CHAR(13), ""),CHAR(10),"\n"), "")&amp;IF(AJ3&lt;&gt;"", "', textZhG1Additional: '"&amp;SUBSTITUTE(SUBSTITUTE(AJ3, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textKo: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AK3, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AM3&lt;&gt;"", "', textKoAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AM3, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textEn: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(#REF!, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AN3&lt;&gt;"", "', textEnAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AN3, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"'"&amp;IF(AB3="○",", sealable: true","")&amp;IF(AC3="○",", removable: true","")&amp;IF(AA3="○",", lie: true","")&amp;IF(AD3="○",", investable: true","")&amp;"}")</f>
-        <v>#REF!</v>
+      <c r="AT3" s="14" t="str">
+        <f>IF(A3="", "", IF(ROW()&gt;=3, ", ", "")&amp;"'"&amp;A3&amp;"': {megami: '"&amp;B3&amp;"'"&amp;IF(C3&lt;&gt;"",", anotherID: '"&amp;C3&amp;"', replace: '"&amp;D3&amp;"'","")&amp;", name: '"&amp;SUBSTITUTE(E3,"'","\'")&amp;"', nameEn: '"&amp;SUBSTITUTE(K3,"'","\'")&amp;"', nameZh: '"&amp;SUBSTITUTE(G3,"'","\'")&amp;"', nameZhG1: '"&amp;SUBSTITUTE(H3,"'","\'")&amp;"', nameKo: '"&amp;SUBSTITUTE(J3,"'","\'")&amp;"', ruby: '"&amp;F3&amp;"', rubyEn: '"&amp;L3&amp;IF(I3&lt;&gt;"", "', rubyZh: '"&amp;I3, "")&amp;"', baseType: '"&amp;VLOOKUP(M3,マスタ!$A$1:$B$99,2,0)&amp;"'"&amp;IF(N3="○",", extra: true","")&amp;IF(O3&lt;&gt;"",", extraFrom: '"&amp;O3&amp;"'","")&amp;IF(P3&lt;&gt;"",", exchangableTo: '"&amp;P3&amp;"'","")&amp;IF(Q3="○",", poison: true","")&amp;IF(R3&lt;&gt;"", ", type: '"&amp;VLOOKUP(R3,マスタ!$D$1:$E$99,2,0)&amp;"'", "")&amp;IF(S3&lt;&gt;"",", subType: '"&amp;VLOOKUP(S3,マスタ!$D$1:$E$99,2,0)&amp;"'","")&amp;""&amp;IF(T3&lt;&gt;"",", range: '"&amp;T3&amp;"'","")&amp;IF(V3&lt;&gt;"",", damage: '"&amp;V3&amp;"'","")&amp;IF(X3&lt;&gt;"",", capacity: '"&amp;X3&amp;"'","")&amp;IF(Y3&lt;&gt;"",", growth: "&amp;Y3&amp;"","")&amp;IF(Z3&lt;&gt;"",", cost: '"&amp;Z3&amp;"'","")&amp;", text: '"&amp;SUBSTITUTE(SUBSTITUTE(AE3, CHAR(13), ""),CHAR(10),"\n")&amp;IF(AF3&lt;&gt;"", "', textAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AF3, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textZh: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AG3, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;"', textZhG1: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AI3, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AH3&lt;&gt;"", "', textZhAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AH3, CHAR(13), ""),CHAR(10),"\n"), "")&amp;IF(AJ3&lt;&gt;"", "', textZhG1Additional: '"&amp;SUBSTITUTE(SUBSTITUTE(AJ3, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textKo: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AK3, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AL3&lt;&gt;"", "', textKoAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AL3, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textEn: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AM3, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AN3&lt;&gt;"", "', textEnAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AN3, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"'"&amp;IF(AB3="○",", sealable: true","")&amp;IF(AC3="○",", removable: true","")&amp;IF(AA3="○",", lie: true","")&amp;IF(AD3="○",", investable: true","")&amp;"}")</f>
+        <v>, '08-hagane-o-n-6': {megami: 'hagane', name: '鐘鳴らし', nameEn: 'Sound the Bell', nameZh: '钟鸣响', nameZhG1: '大鸣钟', nameKo: '종 울리기', ruby: 'かねならし', rubyEn: '', baseType: 'normal', type: 'action', text: '遠心 \n以下から１つを選ぶ。このターンにあなたが次に行う《攻撃》にそれを与える。\n・+2/+1\n・対応不可と距離拡大（遠1）', textZh: '', textZhG1: '', textKo: '', textEn: ''}</v>
       </c>
       <c r="AU3" s="5" t="str">
         <f t="shared" si="0"/>
@@ -18264,35 +18468,35 @@
     </row>
     <row r="4" spans="1:48" s="11" customFormat="1" ht="72">
       <c r="A4" s="10" t="s">
+        <v>215</v>
+      </c>
+      <c r="B4" s="10" t="s">
         <v>216</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="C4" s="10" t="s">
         <v>217</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="D4" s="10" t="s">
         <v>218</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="E4" s="10" t="s">
         <v>219</v>
       </c>
-      <c r="E4" s="10" t="s">
+      <c r="F4" s="10" t="s">
         <v>220</v>
       </c>
-      <c r="F4" s="10" t="s">
+      <c r="G4" s="48" t="s">
         <v>221</v>
       </c>
-      <c r="G4" s="48" t="s">
-        <v>222</v>
-      </c>
       <c r="H4" s="49" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="I4" s="48"/>
       <c r="J4" s="49" t="s">
+        <v>222</v>
+      </c>
+      <c r="K4" s="50" t="s">
         <v>223</v>
-      </c>
-      <c r="K4" s="50" t="s">
-        <v>224</v>
       </c>
       <c r="L4" s="10"/>
       <c r="M4" s="10" t="s">
@@ -18303,7 +18507,7 @@
       <c r="P4" s="10"/>
       <c r="Q4" s="10"/>
       <c r="R4" s="10" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="S4" s="10"/>
       <c r="T4" s="10"/>
@@ -18313,13 +18517,13 @@
       <c r="X4" s="10"/>
       <c r="Y4" s="10"/>
       <c r="Z4" s="10" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="AA4" s="10"/>
       <c r="AB4" s="13"/>
       <c r="AC4" s="13"/>
       <c r="AE4" s="34" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="AF4" s="34"/>
       <c r="AG4" s="62"/>
@@ -18335,9 +18539,9 @@
       <c r="AQ4" s="12"/>
       <c r="AR4" s="12"/>
       <c r="AS4" s="12"/>
-      <c r="AT4" s="14" t="e">
-        <f>IF(A4="", "", IF(ROW()&gt;=3, ", ", "")&amp;"'"&amp;A4&amp;"': {megami: '"&amp;B4&amp;"'"&amp;IF(C4&lt;&gt;"",", anotherID: '"&amp;C4&amp;"', replace: '"&amp;D4&amp;"'","")&amp;", name: '"&amp;SUBSTITUTE(E4,"'","\'")&amp;"', nameEn: '"&amp;SUBSTITUTE(K4,"'","\'")&amp;"', nameZh: '"&amp;SUBSTITUTE(G4,"'","\'")&amp;"', nameZhG1: '"&amp;SUBSTITUTE(H4,"'","\'")&amp;"', nameKo: '"&amp;SUBSTITUTE(J4,"'","\'")&amp;"', ruby: '"&amp;F4&amp;"', rubyEn: '"&amp;L4&amp;IF(I4&lt;&gt;"", "', rubyZh: '"&amp;I4, "")&amp;"', baseType: '"&amp;VLOOKUP(M4,マスタ!$A$1:$B$99,2,0)&amp;"'"&amp;IF(N4="○",", extra: true","")&amp;IF(O4&lt;&gt;"",", extraFrom: '"&amp;O4&amp;"'","")&amp;IF(P4&lt;&gt;"",", exchangableTo: '"&amp;P4&amp;"'","")&amp;IF(Q4="○",", poison: true","")&amp;IF(R4&lt;&gt;"", ", type: '"&amp;VLOOKUP(R4,マスタ!$D$1:$E$99,2,0)&amp;"'", "")&amp;IF(S4&lt;&gt;"",", subType: '"&amp;VLOOKUP(S4,マスタ!$D$1:$E$99,2,0)&amp;"'","")&amp;""&amp;IF(T4&lt;&gt;"",", range: '"&amp;T4&amp;"'","")&amp;IF(V4&lt;&gt;"",", damage: '"&amp;V4&amp;"'","")&amp;IF(X4&lt;&gt;"",", capacity: '"&amp;X4&amp;"'","")&amp;IF(Y4&lt;&gt;"",", growth: "&amp;Y4&amp;"","")&amp;IF(Z4&lt;&gt;"",", cost: '"&amp;Z4&amp;"'","")&amp;", text: '"&amp;SUBSTITUTE(SUBSTITUTE(AF4, CHAR(13), ""),CHAR(10),"\n")&amp;IF(AG4&lt;&gt;"", "', textAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AG4, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textZh: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AH4, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;"', textZhG1: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AJ4, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AI4&lt;&gt;"", "', textZhAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AI4, CHAR(13), ""),CHAR(10),"\n"), "")&amp;IF(AK4&lt;&gt;"", "', textZhG1Additional: '"&amp;SUBSTITUTE(SUBSTITUTE(AK4, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textKo: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AL4, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AM4&lt;&gt;"", "', textKoAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AM4, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textEn: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(#REF!, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AN4&lt;&gt;"", "', textEnAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AN4, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"'"&amp;IF(AB4="○",", sealable: true","")&amp;IF(AC4="○",", removable: true","")&amp;IF(AA4="○",", lie: true","")&amp;IF(AE4="○",", investable: true","")&amp;"}")</f>
-        <v>#REF!</v>
+      <c r="AT4" s="14" t="str">
+        <f>IF(A4="", "", IF(ROW()&gt;=3, ", ", "")&amp;"'"&amp;A4&amp;"': {megami: '"&amp;B4&amp;"'"&amp;IF(C4&lt;&gt;"",", anotherID: '"&amp;C4&amp;"', replace: '"&amp;D4&amp;"'","")&amp;", name: '"&amp;SUBSTITUTE(E4,"'","\'")&amp;"', nameEn: '"&amp;SUBSTITUTE(K4,"'","\'")&amp;"', nameZh: '"&amp;SUBSTITUTE(G4,"'","\'")&amp;"', nameZhG1: '"&amp;SUBSTITUTE(H4,"'","\'")&amp;"', nameKo: '"&amp;SUBSTITUTE(J4,"'","\'")&amp;"', ruby: '"&amp;F4&amp;"', rubyEn: '"&amp;L4&amp;IF(I4&lt;&gt;"", "', rubyZh: '"&amp;I4, "")&amp;"', baseType: '"&amp;VLOOKUP(M4,マスタ!$A$1:$B$99,2,0)&amp;"'"&amp;IF(N4="○",", extra: true","")&amp;IF(O4&lt;&gt;"",", extraFrom: '"&amp;O4&amp;"'","")&amp;IF(P4&lt;&gt;"",", exchangableTo: '"&amp;P4&amp;"'","")&amp;IF(Q4="○",", poison: true","")&amp;IF(R4&lt;&gt;"", ", type: '"&amp;VLOOKUP(R4,マスタ!$D$1:$E$99,2,0)&amp;"'", "")&amp;IF(S4&lt;&gt;"",", subType: '"&amp;VLOOKUP(S4,マスタ!$D$1:$E$99,2,0)&amp;"'","")&amp;""&amp;IF(T4&lt;&gt;"",", range: '"&amp;T4&amp;"'","")&amp;IF(V4&lt;&gt;"",", damage: '"&amp;V4&amp;"'","")&amp;IF(X4&lt;&gt;"",", capacity: '"&amp;X4&amp;"'","")&amp;IF(Y4&lt;&gt;"",", growth: "&amp;Y4&amp;"","")&amp;IF(Z4&lt;&gt;"",", cost: '"&amp;Z4&amp;"'","")&amp;", text: '"&amp;SUBSTITUTE(SUBSTITUTE(AE4, CHAR(13), ""),CHAR(10),"\n")&amp;IF(AF4&lt;&gt;"", "', textAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AF4, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textZh: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AG4, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;"', textZhG1: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AI4, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AH4&lt;&gt;"", "', textZhAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AH4, CHAR(13), ""),CHAR(10),"\n"), "")&amp;IF(AJ4&lt;&gt;"", "', textZhG1Additional: '"&amp;SUBSTITUTE(SUBSTITUTE(AJ4, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textKo: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AK4, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AL4&lt;&gt;"", "', textKoAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AL4, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textEn: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AM4, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AN4&lt;&gt;"", "', textEnAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AN4, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"'"&amp;IF(AB4="○",", sealable: true","")&amp;IF(AC4="○",", removable: true","")&amp;IF(AA4="○",", lie: true","")&amp;IF(AD4="○",", investable: true","")&amp;"}")</f>
+        <v>, '16-yatsuha-A1-s-4': {megami: 'yatsuha', anotherID: 'A1', replace: '16-yatsuha-o-s-4', name: '八葉鏡の徒桜', nameEn: 'Naughtbloom of the Eight Mirrors', nameZh: '八叶镜的徒樱', nameZhG1: '八叶镜的徒樱', nameKo: '야츠하거울의 허무의 벚꽃', ruby: 'やつはかがみのあだざくら', rubyEn: '', baseType: 'special', type: 'action', cost: '1', text: '終端　間合制限（0-7）\n【使用時/使用済】使用時とあなたが山札を再構成する直前に、あなたの捨て札または手札にあるヤツハのカード1枚を公開し、完全態にしてもよい。そうした場合、あなたは畏縮する。\n（例えば手札の「星の爪」を公開したなら追加札の「星辰の鉤爪」と交換され、手札に加わる）', textZh: '', textZhG1: '', textKo: '', textEn: ''}</v>
       </c>
       <c r="AU4" s="5" t="str">
         <f t="shared" si="0"/>
@@ -18350,31 +18554,31 @@
     </row>
     <row r="5" spans="1:48" s="11" customFormat="1" ht="60">
       <c r="A5" s="51" t="s">
+        <v>225</v>
+      </c>
+      <c r="B5" s="51" t="s">
         <v>226</v>
-      </c>
-      <c r="B5" s="51" t="s">
-        <v>227</v>
       </c>
       <c r="C5" s="51"/>
       <c r="D5" s="51"/>
       <c r="E5" s="51" t="s">
+        <v>227</v>
+      </c>
+      <c r="F5" s="51" t="s">
         <v>228</v>
       </c>
-      <c r="F5" s="51" t="s">
+      <c r="G5" s="51" t="s">
         <v>229</v>
       </c>
-      <c r="G5" s="51" t="s">
+      <c r="H5" s="51" t="s">
         <v>230</v>
-      </c>
-      <c r="H5" s="51" t="s">
-        <v>231</v>
       </c>
       <c r="I5" s="52"/>
       <c r="J5" s="51" t="s">
+        <v>231</v>
+      </c>
+      <c r="K5" s="53" t="s">
         <v>232</v>
-      </c>
-      <c r="K5" s="53" t="s">
-        <v>233</v>
       </c>
       <c r="L5" s="51"/>
       <c r="M5" s="51" t="s">
@@ -18393,13 +18597,13 @@
       <c r="V5" s="51"/>
       <c r="W5" s="54"/>
       <c r="X5" s="51" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="Y5" s="51"/>
       <c r="Z5" s="51"/>
       <c r="AA5" s="51"/>
       <c r="AE5" s="55" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="AF5" s="55"/>
       <c r="AG5" s="62"/>
@@ -18415,9 +18619,9 @@
       <c r="AQ5" s="12"/>
       <c r="AR5" s="12"/>
       <c r="AS5" s="12"/>
-      <c r="AT5" s="14" t="e">
-        <f>IF(A5="", "", IF(ROW()&gt;=3, ", ", "")&amp;"'"&amp;A5&amp;"': {megami: '"&amp;B5&amp;"'"&amp;IF(C5&lt;&gt;"",", anotherID: '"&amp;C5&amp;"', replace: '"&amp;D5&amp;"'","")&amp;", name: '"&amp;SUBSTITUTE(E5,"'","\'")&amp;"', nameEn: '"&amp;SUBSTITUTE(K5,"'","\'")&amp;"', nameZh: '"&amp;SUBSTITUTE(G5,"'","\'")&amp;"', nameZhG1: '"&amp;SUBSTITUTE(H5,"'","\'")&amp;"', nameKo: '"&amp;SUBSTITUTE(J5,"'","\'")&amp;"', ruby: '"&amp;F5&amp;"', rubyEn: '"&amp;L5&amp;IF(I5&lt;&gt;"", "', rubyZh: '"&amp;I5, "")&amp;"', baseType: '"&amp;VLOOKUP(M5,マスタ!$A$1:$B$99,2,0)&amp;"'"&amp;IF(N5="○",", extra: true","")&amp;IF(O5&lt;&gt;"",", extraFrom: '"&amp;O5&amp;"'","")&amp;IF(P5&lt;&gt;"",", exchangableTo: '"&amp;P5&amp;"'","")&amp;IF(Q5="○",", poison: true","")&amp;IF(R5&lt;&gt;"", ", type: '"&amp;VLOOKUP(R5,マスタ!$D$1:$E$99,2,0)&amp;"'", "")&amp;IF(S5&lt;&gt;"",", subType: '"&amp;VLOOKUP(S5,マスタ!$D$1:$E$99,2,0)&amp;"'","")&amp;""&amp;IF(T5&lt;&gt;"",", range: '"&amp;T5&amp;"'","")&amp;IF(V5&lt;&gt;"",", damage: '"&amp;V5&amp;"'","")&amp;IF(X5&lt;&gt;"",", capacity: '"&amp;X5&amp;"'","")&amp;IF(Y5&lt;&gt;"",", growth: "&amp;Y5&amp;"","")&amp;IF(Z5&lt;&gt;"",", cost: '"&amp;Z5&amp;"'","")&amp;", text: '"&amp;SUBSTITUTE(SUBSTITUTE(AH5, CHAR(13), ""),CHAR(10),"\n")&amp;IF(AI5&lt;&gt;"", "', textAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AI5, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textZh: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AK5, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;"', textZhG1: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(#REF!, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AM5&lt;&gt;"", "', textZhAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AM5, CHAR(13), ""),CHAR(10),"\n"), "")&amp;IF(#REF!&lt;&gt;"", "', textZhG1Additional: '"&amp;SUBSTITUTE(SUBSTITUTE(#REF!, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textKo: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(#REF!, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AL5&lt;&gt;"", "', textKoAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AL5, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textEn: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(#REF!, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AN5&lt;&gt;"", "', textEnAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AN5, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"'"&amp;IF(AE5="○",", sealable: true","")&amp;IF(AF5="○",", removable: true","")&amp;IF(AA5="○",", lie: true","")&amp;IF(AG5="○",", investable: true","")&amp;"}")</f>
-        <v>#REF!</v>
+      <c r="AT5" s="14" t="str">
+        <f>IF(A5="", "", IF(ROW()&gt;=3, ", ", "")&amp;"'"&amp;A5&amp;"': {megami: '"&amp;B5&amp;"'"&amp;IF(C5&lt;&gt;"",", anotherID: '"&amp;C5&amp;"', replace: '"&amp;D5&amp;"'","")&amp;", name: '"&amp;SUBSTITUTE(E5,"'","\'")&amp;"', nameEn: '"&amp;SUBSTITUTE(K5,"'","\'")&amp;"', nameZh: '"&amp;SUBSTITUTE(G5,"'","\'")&amp;"', nameZhG1: '"&amp;SUBSTITUTE(H5,"'","\'")&amp;"', nameKo: '"&amp;SUBSTITUTE(J5,"'","\'")&amp;"', ruby: '"&amp;F5&amp;"', rubyEn: '"&amp;L5&amp;IF(I5&lt;&gt;"", "', rubyZh: '"&amp;I5, "")&amp;"', baseType: '"&amp;VLOOKUP(M5,マスタ!$A$1:$B$99,2,0)&amp;"'"&amp;IF(N5="○",", extra: true","")&amp;IF(O5&lt;&gt;"",", extraFrom: '"&amp;O5&amp;"'","")&amp;IF(P5&lt;&gt;"",", exchangableTo: '"&amp;P5&amp;"'","")&amp;IF(Q5="○",", poison: true","")&amp;IF(R5&lt;&gt;"", ", type: '"&amp;VLOOKUP(R5,マスタ!$D$1:$E$99,2,0)&amp;"'", "")&amp;IF(S5&lt;&gt;"",", subType: '"&amp;VLOOKUP(S5,マスタ!$D$1:$E$99,2,0)&amp;"'","")&amp;""&amp;IF(T5&lt;&gt;"",", range: '"&amp;T5&amp;"'","")&amp;IF(V5&lt;&gt;"",", damage: '"&amp;V5&amp;"'","")&amp;IF(X5&lt;&gt;"",", capacity: '"&amp;X5&amp;"'","")&amp;IF(Y5&lt;&gt;"",", growth: "&amp;Y5&amp;"","")&amp;IF(Z5&lt;&gt;"",", cost: '"&amp;Z5&amp;"'","")&amp;", text: '"&amp;SUBSTITUTE(SUBSTITUTE(AE5, CHAR(13), ""),CHAR(10),"\n")&amp;IF(AF5&lt;&gt;"", "', textAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AF5, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textZh: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AG5, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;"', textZhG1: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AI5, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AH5&lt;&gt;"", "', textZhAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AH5, CHAR(13), ""),CHAR(10),"\n"), "")&amp;IF(AJ5&lt;&gt;"", "', textZhG1Additional: '"&amp;SUBSTITUTE(SUBSTITUTE(AJ5, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textKo: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AK5, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AL5&lt;&gt;"", "', textKoAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AL5, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textEn: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AM5, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AN5&lt;&gt;"", "', textEnAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AN5, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"'"&amp;IF(AB5="○",", sealable: true","")&amp;IF(AC5="○",", removable: true","")&amp;IF(AA5="○",", lie: true","")&amp;IF(AD5="○",", investable: true","")&amp;"}")</f>
+        <v>, '17-hatsumi-o-n-7': {megami: 'hatsumi', name: '波呼び', nameEn: 'Wavecall', nameZh: '唤浪', nameZhG1: '唤潮', nameKo: '파도 부르기', ruby: 'なみよび', rubyEn: '', baseType: 'normal', type: 'enhance', capacity: '1', text: '【展開中】あなたのターンかつ順風である場合のみ、このカードの上の桜花結晶は移動する。\n【展開中/破棄時】あなたの開始フェイズの開始時と破棄時に伏せ札を1枚選び、山札の上に置いてもよい。\n【破棄時】基本動作を1回まで行い、攻撃『適正距離2-7、1/-』を行う。', textZh: '', textZhG1: '', textKo: '', textEn: ''}</v>
       </c>
       <c r="AU5" s="5" t="str">
         <f t="shared" si="0"/>
@@ -18430,31 +18634,31 @@
     </row>
     <row r="6" spans="1:48" s="11" customFormat="1" ht="60">
       <c r="A6" s="16" t="s">
+        <v>233</v>
+      </c>
+      <c r="B6" s="16" t="s">
         <v>234</v>
-      </c>
-      <c r="B6" s="16" t="s">
-        <v>235</v>
       </c>
       <c r="C6" s="16"/>
       <c r="D6" s="16"/>
       <c r="E6" s="16" t="s">
+        <v>235</v>
+      </c>
+      <c r="F6" s="16" t="s">
         <v>236</v>
       </c>
-      <c r="F6" s="16" t="s">
+      <c r="G6" s="10" t="s">
         <v>237</v>
       </c>
-      <c r="G6" s="10" t="s">
-        <v>238</v>
-      </c>
       <c r="H6" s="10" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="I6" s="17"/>
       <c r="J6" s="24" t="s">
+        <v>238</v>
+      </c>
+      <c r="K6" s="16" t="s">
         <v>239</v>
-      </c>
-      <c r="K6" s="16" t="s">
-        <v>240</v>
       </c>
       <c r="L6" s="16"/>
       <c r="M6" s="16" t="s">
@@ -18465,7 +18669,7 @@
       <c r="P6" s="16"/>
       <c r="Q6" s="16"/>
       <c r="R6" s="16" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="S6" s="16" t="s">
         <v>42</v>
@@ -18475,16 +18679,18 @@
       <c r="V6" s="16"/>
       <c r="W6" s="18"/>
       <c r="X6" s="16" t="s">
-        <v>260</v>
-      </c>
-      <c r="Y6" s="16"/>
+        <v>258</v>
+      </c>
+      <c r="Y6" s="16" t="s">
+        <v>272</v>
+      </c>
       <c r="Z6" s="16" t="s">
         <v>187</v>
       </c>
       <c r="AA6" s="16"/>
       <c r="AB6" s="16"/>
       <c r="AE6" s="21" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="AF6" s="21"/>
       <c r="AG6" s="62"/>
@@ -18500,9 +18706,9 @@
       <c r="AQ6" s="12"/>
       <c r="AR6" s="12"/>
       <c r="AS6" s="12"/>
-      <c r="AT6" s="14" t="e">
-        <f>IF(A6="", "", IF(ROW()&gt;=3, ", ", "")&amp;"'"&amp;A6&amp;"': {megami: '"&amp;B6&amp;"'"&amp;IF(C6&lt;&gt;"",", anotherID: '"&amp;C6&amp;"', replace: '"&amp;D6&amp;"'","")&amp;", name: '"&amp;SUBSTITUTE(E6,"'","\'")&amp;"', nameEn: '"&amp;SUBSTITUTE(K6,"'","\'")&amp;"', nameZh: '"&amp;SUBSTITUTE(G6,"'","\'")&amp;"', nameZhG1: '"&amp;SUBSTITUTE(H6,"'","\'")&amp;"', nameKo: '"&amp;SUBSTITUTE(J6,"'","\'")&amp;"', ruby: '"&amp;F6&amp;"', rubyEn: '"&amp;L6&amp;IF(I6&lt;&gt;"", "', rubyZh: '"&amp;I6, "")&amp;"', baseType: '"&amp;VLOOKUP(M6,マスタ!$A$1:$B$99,2,0)&amp;"'"&amp;IF(N6="○",", extra: true","")&amp;IF(O6&lt;&gt;"",", extraFrom: '"&amp;O6&amp;"'","")&amp;IF(P6&lt;&gt;"",", exchangableTo: '"&amp;P6&amp;"'","")&amp;IF(Q6="○",", poison: true","")&amp;IF(R6&lt;&gt;"", ", type: '"&amp;VLOOKUP(R6,マスタ!$D$1:$E$99,2,0)&amp;"'", "")&amp;IF(S6&lt;&gt;"",", subType: '"&amp;VLOOKUP(S6,マスタ!$D$1:$E$99,2,0)&amp;"'","")&amp;""&amp;IF(T6&lt;&gt;"",", range: '"&amp;T6&amp;"'","")&amp;IF(V6&lt;&gt;"",", damage: '"&amp;V6&amp;"'","")&amp;IF(X6&lt;&gt;"",", capacity: '"&amp;X6&amp;"'","")&amp;IF(Y6&lt;&gt;"",", growth: "&amp;Y6&amp;"","")&amp;IF(Z6&lt;&gt;"",", cost: '"&amp;Z6&amp;"'","")&amp;", text: '"&amp;SUBSTITUTE(SUBSTITUTE(AG6, CHAR(13), ""),CHAR(10),"\n")&amp;IF(AH6&lt;&gt;"", "', textAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AH6, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textZh: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AI6, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;"', textZhG1: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AK6, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AJ6&lt;&gt;"", "', textZhAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AJ6, CHAR(13), ""),CHAR(10),"\n"), "")&amp;IF(AL6&lt;&gt;"", "', textZhG1Additional: '"&amp;SUBSTITUTE(SUBSTITUTE(AL6, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textKo: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AM6, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(#REF!&lt;&gt;"", "', textKoAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(#REF!, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textEn: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(#REF!, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AN6&lt;&gt;"", "', textEnAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AN6, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"'"&amp;IF(AB6="○",", sealable: true","")&amp;IF(AE6="○",", removable: true","")&amp;IF(AA6="○",", lie: true","")&amp;IF(AF6="○",", investable: true","")&amp;"}")</f>
-        <v>#REF!</v>
+      <c r="AT6" s="14" t="str">
+        <f>IF(A6="", "", IF(ROW()&gt;=3, ", ", "")&amp;"'"&amp;A6&amp;"': {megami: '"&amp;B6&amp;"'"&amp;IF(C6&lt;&gt;"",", anotherID: '"&amp;C6&amp;"', replace: '"&amp;D6&amp;"'","")&amp;", name: '"&amp;SUBSTITUTE(E6,"'","\'")&amp;"', nameEn: '"&amp;SUBSTITUTE(K6,"'","\'")&amp;"', nameZh: '"&amp;SUBSTITUTE(G6,"'","\'")&amp;"', nameZhG1: '"&amp;SUBSTITUTE(H6,"'","\'")&amp;"', nameKo: '"&amp;SUBSTITUTE(J6,"'","\'")&amp;"', ruby: '"&amp;F6&amp;"', rubyEn: '"&amp;L6&amp;IF(I6&lt;&gt;"", "', rubyZh: '"&amp;I6, "")&amp;"', baseType: '"&amp;VLOOKUP(M6,マスタ!$A$1:$B$99,2,0)&amp;"'"&amp;IF(N6="○",", extra: true","")&amp;IF(O6&lt;&gt;"",", extraFrom: '"&amp;O6&amp;"'","")&amp;IF(P6&lt;&gt;"",", exchangableTo: '"&amp;P6&amp;"'","")&amp;IF(Q6="○",", poison: true","")&amp;IF(R6&lt;&gt;"", ", type: '"&amp;VLOOKUP(R6,マスタ!$D$1:$E$99,2,0)&amp;"'", "")&amp;IF(S6&lt;&gt;"",", subType: '"&amp;VLOOKUP(S6,マスタ!$D$1:$E$99,2,0)&amp;"'","")&amp;""&amp;IF(T6&lt;&gt;"",", range: '"&amp;T6&amp;"'","")&amp;IF(V6&lt;&gt;"",", damage: '"&amp;V6&amp;"'","")&amp;IF(X6&lt;&gt;"",", capacity: '"&amp;X6&amp;"'","")&amp;IF(Y6&lt;&gt;"",", growth: "&amp;Y6&amp;"","")&amp;IF(Z6&lt;&gt;"",", cost: '"&amp;Z6&amp;"'","")&amp;", text: '"&amp;SUBSTITUTE(SUBSTITUTE(AE6, CHAR(13), ""),CHAR(10),"\n")&amp;IF(AF6&lt;&gt;"", "', textAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AF6, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textZh: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AG6, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;"', textZhG1: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AI6, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AH6&lt;&gt;"", "', textZhAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AH6, CHAR(13), ""),CHAR(10),"\n"), "")&amp;IF(AJ6&lt;&gt;"", "', textZhG1Additional: '"&amp;SUBSTITUTE(SUBSTITUTE(AJ6, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textKo: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AK6, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AL6&lt;&gt;"", "', textKoAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AL6, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textEn: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AM6, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AN6&lt;&gt;"", "', textEnAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AN6, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"'"&amp;IF(AB6="○",", sealable: true","")&amp;IF(AC6="○",", removable: true","")&amp;IF(AA6="○",", lie: true","")&amp;IF(AD6="○",", investable: true","")&amp;"}")</f>
+        <v>, '19-megumi-o-s-2': {megami: 'megumi', name: '可能性の枝', nameEn: 'Branch of Possibility', nameZh: '可能性之枝', nameZhG1: '可能性之枝', nameKo: '가능성의 가지', ruby: 'かのうせいのえだ', rubyEn: '', baseType: 'special', type: 'enhance', subType: 'reaction', capacity: '2', growth: 1, cost: '3', text: '生育1\n【常時】Xは《付与》カードの上にあるあなたの種結晶の個数の合計に等しい。\n【展開時】対応した《攻撃》は-X/+0となる。\n【展開中】相手の開始フェイズの開始時に攻撃『1-5、0/1、【常時】この攻撃は+X/+0となる』を行う。', textZh: '', textZhG1: '', textKo: '', textEn: ''}</v>
       </c>
       <c r="AU6" s="5" t="str">
         <f t="shared" si="0"/>
@@ -19153,7 +19359,7 @@
       <c r="AC15" s="10"/>
       <c r="AD15" s="10"/>
       <c r="AE15" s="39" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="AF15" s="34"/>
       <c r="AG15" s="64"/>
@@ -19313,7 +19519,7 @@
       </c>
       <c r="AD17" s="10"/>
       <c r="AE17" s="39" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="AF17" s="34"/>
       <c r="AG17" s="64"/>
@@ -19533,7 +19739,7 @@
       </c>
       <c r="U20" s="12"/>
       <c r="V20" s="10" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="W20" s="12"/>
       <c r="X20" s="10"/>
@@ -19544,7 +19750,7 @@
       <c r="AC20" s="10"/>
       <c r="AD20" s="10"/>
       <c r="AE20" s="39" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="AF20" s="34"/>
       <c r="AG20" s="64"/>
@@ -19691,7 +19897,7 @@
       </c>
       <c r="U22" s="12"/>
       <c r="V22" s="10" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="W22" s="12"/>
       <c r="X22" s="10"/>
@@ -20064,13 +20270,13 @@
       </c>
       <c r="U27" s="12"/>
       <c r="V27" s="10" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="W27" s="12"/>
       <c r="X27" s="10"/>
       <c r="Y27" s="10"/>
       <c r="Z27" s="10" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="AA27" s="10"/>
       <c r="AB27" s="10"/>
@@ -20152,7 +20358,7 @@
       <c r="AC28" s="10"/>
       <c r="AD28" s="10"/>
       <c r="AE28" s="39" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="AF28" s="34"/>
       <c r="AG28" s="64"/>
@@ -20224,7 +20430,7 @@
       </c>
       <c r="Y29" s="10"/>
       <c r="Z29" s="10" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="AA29" s="10"/>
       <c r="AB29" s="10"/>
@@ -22848,7 +23054,7 @@
   </sheetData>
   <phoneticPr fontId="19"/>
   <pageMargins left="0.69930555555555496" right="0.69930555555555496" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
